--- a/_assets/documents/cloud-gov-cost-estimator.xlsx
+++ b/_assets/documents/cloud-gov-cost-estimator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterdburkholder/Projects/cloud-gov/cg-site/_assets/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterdburkholder/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F2CCC5-A8FF-6241-AE0E-4F14A78F5FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A470298C-01F6-D747-A90E-711FF4271ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="500" windowWidth="47840" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="191">
   <si>
     <t>Estimated Price</t>
   </si>
@@ -644,6 +644,9 @@
   </si>
   <si>
     <t>Initial version</t>
+  </si>
+  <si>
+    <t>Fix col E of Tiers</t>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.0000"/>
     <numFmt numFmtId="167" formatCode="0\ &quot;Gb&quot;"/>
     <numFmt numFmtId="168" formatCode="0\ &quot;Hrs&quot;"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -723,6 +726,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1441,7 +1445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1708,10 +1712,6 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1723,16 +1723,18 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="69">
-    <dxf>
-      <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1818,12 +1820,7 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1831,6 +1828,14 @@
           <color rgb="FF4A535C"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3232,10 +3237,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}" name="Table12" displayName="Table12" ref="A39:C49" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}" name="Table12" displayName="Table12" ref="A39:C49" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
   <autoFilter ref="A39:C49" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6F594386-932F-3745-B570-1D36152A4BED}" name="Version" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{6F594386-932F-3745-B570-1D36152A4BED}" name="Version" dataDxfId="7" dataCellStyle="Comma"/>
     <tableColumn id="2" xr3:uid="{98BA1600-A7B8-2742-AF88-1C465CCF83D5}" name="Date"/>
     <tableColumn id="3" xr3:uid="{A3A06425-E98A-E042-A27B-C92165F08BCF}" name="Notes"/>
   </tableColumns>
@@ -3448,7 +3453,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3478,14 +3483,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="98.25" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="106" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4894,13 +4899,13 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="104" t="s">
+      <c r="A39" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="106" t="s">
+      <c r="C39" s="104" t="s">
         <v>185</v>
       </c>
       <c r="E39" s="24" t="str">
@@ -4930,13 +4935,13 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="107">
+      <c r="A40" s="105">
         <v>1</v>
       </c>
-      <c r="B40" s="103">
+      <c r="B40" s="101">
         <v>45748</v>
       </c>
-      <c r="C40" s="102" t="s">
+      <c r="C40" s="100" t="s">
         <v>189</v>
       </c>
       <c r="E40" s="18" t="str">
@@ -4984,13 +4989,13 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="107">
+      <c r="A41" s="105">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B41" s="103">
+      <c r="B41" s="101">
         <v>45749</v>
       </c>
-      <c r="C41" s="102" t="s">
+      <c r="C41" s="100" t="s">
         <v>186</v>
       </c>
       <c r="E41" s="24" t="str">
@@ -5040,8 +5045,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="107"/>
-      <c r="C42" s="102" t="s">
+      <c r="A42" s="105"/>
+      <c r="C42" s="100" t="s">
         <v>187</v>
       </c>
       <c r="E42" s="18" t="str">
@@ -5091,8 +5096,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="107"/>
-      <c r="C43" s="102" t="s">
+      <c r="A43" s="105"/>
+      <c r="C43" s="100" t="s">
         <v>188</v>
       </c>
       <c r="E43" s="54" t="str">
@@ -5120,31 +5125,39 @@
       <c r="Q43" s="98"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="107"/>
+      <c r="A44" s="105">
+        <v>1.2</v>
+      </c>
+      <c r="B44" s="101">
+        <v>45756</v>
+      </c>
+      <c r="C44" s="108" t="s">
+        <v>190</v>
+      </c>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="107"/>
+      <c r="A45" s="105"/>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="107"/>
+      <c r="A46" s="105"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="107"/>
+      <c r="A47" s="105"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="107"/>
+      <c r="A48" s="105"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="107"/>
+      <c r="A49" s="105"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="107"/>
+      <c r="A50" s="105"/>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6158,37 +6171,37 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="B10 J14:J43 B15">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:R29">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R33:R37">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41:R42">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6216,7 +6229,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/_assets/documents/cloud-gov-cost-estimator.xlsx
+++ b/_assets/documents/cloud-gov-cost-estimator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterdburkholder/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A470298C-01F6-D747-A90E-711FF4271ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C76884D-41E9-5148-8AD7-AB77D07A070A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="500" windowWidth="47840" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="500" windowWidth="47840" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="192">
   <si>
     <t>Estimated Price</t>
   </si>
@@ -647,6 +647,9 @@
   </si>
   <si>
     <t>Fix col E of Tiers</t>
+  </si>
+  <si>
+    <t>Conditional formating</t>
   </si>
 </sst>
 </file>
@@ -1724,17 +1727,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="76">
     <dxf>
       <font>
         <b/>
@@ -1796,6 +1799,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <u/>
@@ -1804,6 +1842,20 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFE599"/>
           <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3019,54 +3071,54 @@
   </dxfs>
   <tableStyles count="10">
     <tableStyle name="Worksheet-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="68"/>
-      <tableStyleElement type="firstRowStripe" dxfId="67"/>
-      <tableStyleElement type="secondRowStripe" dxfId="66"/>
+      <tableStyleElement type="headerRow" dxfId="75"/>
+      <tableStyleElement type="firstRowStripe" dxfId="74"/>
+      <tableStyleElement type="secondRowStripe" dxfId="73"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="65"/>
-      <tableStyleElement type="firstRowStripe" dxfId="64"/>
-      <tableStyleElement type="secondRowStripe" dxfId="63"/>
+      <tableStyleElement type="headerRow" dxfId="72"/>
+      <tableStyleElement type="firstRowStripe" dxfId="71"/>
+      <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="62"/>
-      <tableStyleElement type="firstRowStripe" dxfId="61"/>
-      <tableStyleElement type="secondRowStripe" dxfId="60"/>
+      <tableStyleElement type="headerRow" dxfId="69"/>
+      <tableStyleElement type="firstRowStripe" dxfId="68"/>
+      <tableStyleElement type="secondRowStripe" dxfId="67"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 4" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="59"/>
-      <tableStyleElement type="firstRowStripe" dxfId="58"/>
-      <tableStyleElement type="secondRowStripe" dxfId="57"/>
+      <tableStyleElement type="headerRow" dxfId="66"/>
+      <tableStyleElement type="firstRowStripe" dxfId="65"/>
+      <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 5" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="56"/>
-      <tableStyleElement type="firstRowStripe" dxfId="55"/>
-      <tableStyleElement type="secondRowStripe" dxfId="54"/>
+      <tableStyleElement type="headerRow" dxfId="63"/>
+      <tableStyleElement type="firstRowStripe" dxfId="62"/>
+      <tableStyleElement type="secondRowStripe" dxfId="61"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 6" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="headerRow" dxfId="53"/>
-      <tableStyleElement type="firstRowStripe" dxfId="52"/>
-      <tableStyleElement type="secondRowStripe" dxfId="51"/>
+      <tableStyleElement type="headerRow" dxfId="60"/>
+      <tableStyleElement type="firstRowStripe" dxfId="59"/>
+      <tableStyleElement type="secondRowStripe" dxfId="58"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 7" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
-      <tableStyleElement type="headerRow" dxfId="50"/>
-      <tableStyleElement type="firstRowStripe" dxfId="49"/>
-      <tableStyleElement type="secondRowStripe" dxfId="48"/>
+      <tableStyleElement type="headerRow" dxfId="57"/>
+      <tableStyleElement type="firstRowStripe" dxfId="56"/>
+      <tableStyleElement type="secondRowStripe" dxfId="55"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 8" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
-      <tableStyleElement type="headerRow" dxfId="47"/>
-      <tableStyleElement type="firstRowStripe" dxfId="46"/>
-      <tableStyleElement type="secondRowStripe" dxfId="45"/>
+      <tableStyleElement type="headerRow" dxfId="54"/>
+      <tableStyleElement type="firstRowStripe" dxfId="53"/>
+      <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
     <tableStyle name="Cloud.gov Tiers-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
-      <tableStyleElement type="headerRow" dxfId="44"/>
-      <tableStyleElement type="firstRowStripe" dxfId="43"/>
-      <tableStyleElement type="secondRowStripe" dxfId="42"/>
+      <tableStyleElement type="headerRow" dxfId="51"/>
+      <tableStyleElement type="firstRowStripe" dxfId="50"/>
+      <tableStyleElement type="secondRowStripe" dxfId="49"/>
     </tableStyle>
     <tableStyle name="Cloud.gov Tiers-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
-      <tableStyleElement type="headerRow" dxfId="41"/>
-      <tableStyleElement type="firstRowStripe" dxfId="40"/>
-      <tableStyleElement type="secondRowStripe" dxfId="39"/>
+      <tableStyleElement type="headerRow" dxfId="48"/>
+      <tableStyleElement type="firstRowStripe" dxfId="47"/>
+      <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3083,20 +3135,20 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A4:F5">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Credits" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tier Name" dataDxfId="37">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Credits" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tier Name" dataDxfId="44">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Credits Remaining_x000a_in Tier" dataDxfId="36">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Credits Remaining_x000a_in Tier" dataDxfId="43">
       <calculatedColumnFormula>VLOOKUP(Table_1[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_1[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Yearly_x000a_Platform Total" dataDxfId="35">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Yearly_x000a_Platform Total" dataDxfId="42">
       <calculatedColumnFormula>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Support Total" dataDxfId="34">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Support Total" dataDxfId="41">
       <calculatedColumnFormula>C15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" YearlyTotal Cost" dataDxfId="33">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" YearlyTotal Cost" dataDxfId="40">
       <calculatedColumnFormula>D5+E5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3134,7 +3186,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A9:C10">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Resource"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quantity" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quantity" dataDxfId="39"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Credits"/>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -3144,13 +3196,13 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="E9:K10">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Offering" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Dimension" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="GB per credit" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Quantity (GB)" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Credits" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Offering" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Dimension" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="GB per credit" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Quantity (GB)" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Credits" dataDxfId="32">
       <calculatedColumnFormula>ROUNDUP(Table_3[[#This Row],[Quantity (GB)]]/Table_3[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3164,12 +3216,12 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Offering"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Units"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dimension" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{CDA60C5E-AE6A-324F-8F61-A71F1A0A8966}" name="GB per credit" dataDxfId="23">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dimension" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{CDA60C5E-AE6A-324F-8F61-A71F1A0A8966}" name="GB per credit" dataDxfId="30">
       <calculatedColumnFormula>'AWS Service Prices'!K5*'AWS Service Prices'!M5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quantity (GB)" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Credits" dataDxfId="21">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quantity (GB)" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Credits" dataDxfId="28">
       <calculatedColumnFormula>ROUNDUP(Table_4[[#This Row],[Quantity (GB)]]/Table_4[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3181,7 +3233,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A14:C15">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Rate/Hour"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Hours" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Hours" dataDxfId="27"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Total"/>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -3189,17 +3241,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="M14:S15" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="M14:S15" dataDxfId="26">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Offering" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Units" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Dimension" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{807927EE-801B-8148-9BA1-5FE9186170F2}" name="GB per credit" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Offering" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Units" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Dimension" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{807927EE-801B-8148-9BA1-5FE9186170F2}" name="GB per credit" dataDxfId="21">
       <calculatedColumnFormula>'AWS Service Prices'!K4*'AWS Service Prices'!M4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Quantity (GB)" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Credits" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Quantity (GB)" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Credits" dataDxfId="19">
       <calculatedColumnFormula>ROUNDUP(Table_6[[#This Row],[Quantity (GB)]]/Table_6[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3224,11 +3276,11 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Units"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Dimension"/>
-    <tableColumn id="3" xr3:uid="{A30E673E-5221-9442-BA33-5D5CC8E273B5}" name="Units/Credit" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{A30E673E-5221-9442-BA33-5D5CC8E273B5}" name="Units/Credit" dataDxfId="18">
       <calculatedColumnFormula>'AWS Service Prices'!K6*'AWS Service Prices'!M6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Quantity"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Credits" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Credits" dataDxfId="17">
       <calculatedColumnFormula>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3237,10 +3289,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}" name="Table12" displayName="Table12" ref="A39:C49" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}" name="Table12" displayName="Table12" ref="A39:C49" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15">
   <autoFilter ref="A39:C49" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6F594386-932F-3745-B570-1D36152A4BED}" name="Version" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{6F594386-932F-3745-B570-1D36152A4BED}" name="Version" dataDxfId="14" dataCellStyle="Comma"/>
     <tableColumn id="2" xr3:uid="{98BA1600-A7B8-2742-AF88-1C465CCF83D5}" name="Date"/>
     <tableColumn id="3" xr3:uid="{A3A06425-E98A-E042-A27B-C92165F08BCF}" name="Notes"/>
   </tableColumns>
@@ -3452,8 +3504,8 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3483,14 +3535,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="98.25" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5037,7 +5089,7 @@
         <v>150000</v>
       </c>
       <c r="R41" s="93">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="S41" s="97">
         <f>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</f>
@@ -5131,13 +5183,21 @@
       <c r="B44" s="101">
         <v>45756</v>
       </c>
-      <c r="C44" s="108" t="s">
+      <c r="C44" s="106" t="s">
         <v>190</v>
       </c>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="105"/>
+      <c r="A45" s="105">
+        <v>1.3</v>
+      </c>
+      <c r="B45" s="101">
+        <v>45757</v>
+      </c>
+      <c r="C45" s="106" t="s">
+        <v>191</v>
+      </c>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6171,37 +6231,72 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="B10 J14:J43 B15">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="12" priority="6">
+      <formula>$J$10&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F43">
+    <cfRule type="expression" dxfId="11" priority="7">
+      <formula>$J14&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>$R10&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15">
+    <cfRule type="expression" dxfId="8" priority="5">
+      <formula>$R15&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19:N29">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$R19&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N33:N37">
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$R33&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N41:N42">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$R41&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:R29">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R33:R37">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41:R42">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6229,7 +6324,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6706,7 +6801,7 @@
         <v>100000</v>
       </c>
       <c r="E22" s="71">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="61" t="s">
         <v>152</v>
@@ -6735,7 +6830,7 @@
         <v>150000</v>
       </c>
       <c r="E23" s="69">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" s="59" t="s">
         <v>153</v>
@@ -6764,7 +6859,7 @@
         <v>200000</v>
       </c>
       <c r="E24" s="71">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" s="61" t="s">
         <v>154</v>
@@ -6793,7 +6888,7 @@
         <v>250000</v>
       </c>
       <c r="E25" s="69">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25" s="59" t="s">
         <v>155</v>
@@ -6822,7 +6917,7 @@
         <v>300000</v>
       </c>
       <c r="E26" s="71">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" s="61" t="s">
         <v>156</v>
@@ -6851,7 +6946,7 @@
         <v>350000</v>
       </c>
       <c r="E27" s="69">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F27" s="59" t="s">
         <v>157</v>
@@ -6880,7 +6975,7 @@
         <v>50000</v>
       </c>
       <c r="E28" s="61">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F28" s="61" t="s">
         <v>159</v>
@@ -7883,7 +7978,7 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3:M3"/>
     </sheetView>
   </sheetViews>

--- a/_assets/documents/cloud-gov-cost-estimator.xlsx
+++ b/_assets/documents/cloud-gov-cost-estimator.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterdburkholder/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterdburkholder/Projects/cloud-gov/site/_assets/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C76884D-41E9-5148-8AD7-AB77D07A070A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5274FA16-971E-7A40-85CA-ED6AD0EAA238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="500" windowWidth="47840" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="500" windowWidth="47840" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
     <sheet name="Cloud.gov Tiers" sheetId="2" r:id="rId2"/>
     <sheet name="AWS Service Prices" sheetId="3" r:id="rId3"/>
+    <sheet name="Example worksheet" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="AWS_RDS_Instances" localSheetId="3">'Example worksheet'!$E$13:$K$43</definedName>
     <definedName name="AWS_RDS_Instances">Worksheet!$E$13:$K$43</definedName>
     <definedName name="AwsElasticCachePrices">'AWS Service Prices'!$A$44:$E$48</definedName>
     <definedName name="AwsOpensearchPrices">'AWS Service Prices'!$A$33:$E$43</definedName>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="195">
   <si>
     <t>Estimated Price</t>
   </si>
@@ -650,6 +652,19 @@
   </si>
   <si>
     <t>Conditional formating</t>
+  </si>
+  <si>
+    <t>Instructions:
+- Update numbers in yellow, with red borders, to generate your own estimate.
+- For services that AWS bills hourly, we bill based on the total instances operating at the end of the month. 
+- To create an estimate, average your usage over the month.
+- See "Example Worksheet" for minimal-cost example system</t>
+  </si>
+  <si>
+    <t>Zeros on main sheet</t>
+  </si>
+  <si>
+    <t>Mv example to end</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1728,6 +1743,7 @@
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1737,7 +1753,1097 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="122">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF4A535C"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF284E3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0\ &quot;Gb&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF284E3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0\ &quot;Hrs&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF284E3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0\ &quot;Gb&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF284E3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0\ &quot;Gb&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.0000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF284E3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0\ &quot;Gb&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3071,54 +4177,54 @@
   </dxfs>
   <tableStyles count="10">
     <tableStyle name="Worksheet-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="75"/>
-      <tableStyleElement type="firstRowStripe" dxfId="74"/>
-      <tableStyleElement type="secondRowStripe" dxfId="73"/>
+      <tableStyleElement type="headerRow" dxfId="121"/>
+      <tableStyleElement type="firstRowStripe" dxfId="120"/>
+      <tableStyleElement type="secondRowStripe" dxfId="119"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="72"/>
-      <tableStyleElement type="firstRowStripe" dxfId="71"/>
-      <tableStyleElement type="secondRowStripe" dxfId="70"/>
+      <tableStyleElement type="headerRow" dxfId="118"/>
+      <tableStyleElement type="firstRowStripe" dxfId="117"/>
+      <tableStyleElement type="secondRowStripe" dxfId="116"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="69"/>
-      <tableStyleElement type="firstRowStripe" dxfId="68"/>
-      <tableStyleElement type="secondRowStripe" dxfId="67"/>
+      <tableStyleElement type="headerRow" dxfId="115"/>
+      <tableStyleElement type="firstRowStripe" dxfId="114"/>
+      <tableStyleElement type="secondRowStripe" dxfId="113"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 4" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="66"/>
-      <tableStyleElement type="firstRowStripe" dxfId="65"/>
-      <tableStyleElement type="secondRowStripe" dxfId="64"/>
+      <tableStyleElement type="headerRow" dxfId="112"/>
+      <tableStyleElement type="firstRowStripe" dxfId="111"/>
+      <tableStyleElement type="secondRowStripe" dxfId="110"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 5" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="63"/>
-      <tableStyleElement type="firstRowStripe" dxfId="62"/>
-      <tableStyleElement type="secondRowStripe" dxfId="61"/>
+      <tableStyleElement type="headerRow" dxfId="109"/>
+      <tableStyleElement type="firstRowStripe" dxfId="108"/>
+      <tableStyleElement type="secondRowStripe" dxfId="107"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 6" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="headerRow" dxfId="60"/>
-      <tableStyleElement type="firstRowStripe" dxfId="59"/>
-      <tableStyleElement type="secondRowStripe" dxfId="58"/>
+      <tableStyleElement type="headerRow" dxfId="106"/>
+      <tableStyleElement type="firstRowStripe" dxfId="105"/>
+      <tableStyleElement type="secondRowStripe" dxfId="104"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 7" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
-      <tableStyleElement type="headerRow" dxfId="57"/>
-      <tableStyleElement type="firstRowStripe" dxfId="56"/>
-      <tableStyleElement type="secondRowStripe" dxfId="55"/>
+      <tableStyleElement type="headerRow" dxfId="103"/>
+      <tableStyleElement type="firstRowStripe" dxfId="102"/>
+      <tableStyleElement type="secondRowStripe" dxfId="101"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 8" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
-      <tableStyleElement type="headerRow" dxfId="54"/>
-      <tableStyleElement type="firstRowStripe" dxfId="53"/>
-      <tableStyleElement type="secondRowStripe" dxfId="52"/>
+      <tableStyleElement type="headerRow" dxfId="100"/>
+      <tableStyleElement type="firstRowStripe" dxfId="99"/>
+      <tableStyleElement type="secondRowStripe" dxfId="98"/>
     </tableStyle>
     <tableStyle name="Cloud.gov Tiers-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
-      <tableStyleElement type="headerRow" dxfId="51"/>
-      <tableStyleElement type="firstRowStripe" dxfId="50"/>
-      <tableStyleElement type="secondRowStripe" dxfId="49"/>
+      <tableStyleElement type="headerRow" dxfId="97"/>
+      <tableStyleElement type="firstRowStripe" dxfId="96"/>
+      <tableStyleElement type="secondRowStripe" dxfId="95"/>
     </tableStyle>
     <tableStyle name="Cloud.gov Tiers-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
-      <tableStyleElement type="headerRow" dxfId="48"/>
-      <tableStyleElement type="firstRowStripe" dxfId="47"/>
-      <tableStyleElement type="secondRowStripe" dxfId="46"/>
+      <tableStyleElement type="headerRow" dxfId="94"/>
+      <tableStyleElement type="firstRowStripe" dxfId="93"/>
+      <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3135,20 +4241,20 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A4:F5">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Credits" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tier Name" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Credits" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tier Name" dataDxfId="90">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Credits Remaining_x000a_in Tier" dataDxfId="43">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Credits Remaining_x000a_in Tier" dataDxfId="89">
       <calculatedColumnFormula>VLOOKUP(Table_1[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_1[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Yearly_x000a_Platform Total" dataDxfId="42">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Yearly_x000a_Platform Total" dataDxfId="88">
       <calculatedColumnFormula>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Support Total" dataDxfId="41">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Support Total" dataDxfId="87">
       <calculatedColumnFormula>C15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" YearlyTotal Cost" dataDxfId="40">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" YearlyTotal Cost" dataDxfId="86">
       <calculatedColumnFormula>D5+E5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3182,27 +4288,175 @@
 </table>
 </file>
 
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4C37D040-F691-2C49-BE22-816489BFD4D2}" name="Table_112" displayName="Table_112" ref="A4:F5">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{657244D4-FE4C-D44C-B48B-43E7FA139C6B}" name="Credits" dataDxfId="31">
+      <calculatedColumnFormula>C10+SUM(B19:B23)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{B168D809-F848-8A4F-B241-57C6EF027C29}" name="Tier Name" dataDxfId="30">
+      <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{172BAC85-F7D2-7D4C-9C26-72C7C85DB56F}" name="Credits Remaining_x000a_in Tier" dataDxfId="29">
+      <calculatedColumnFormula>VLOOKUP(Table_112[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_112[[#This Row],[Credits]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{19498A2C-21A7-B740-9DD5-D095ED0DD812}" name="Yearly_x000a_Platform Total" dataDxfId="28">
+      <calculatedColumnFormula>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{A475BA76-45A9-EF46-8FAE-2B381389CF6E}" name="Support Total" dataDxfId="27">
+      <calculatedColumnFormula>C15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{CFD58EB9-7FC4-3640-859D-34D006952E97}" name=" YearlyTotal Cost" dataDxfId="26">
+      <calculatedColumnFormula>D5+E5</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Worksheet-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{432B26DD-C481-9945-89E7-FEF42FEDB769}" name="Table_214" displayName="Table_214" ref="A9:C10">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8D2D857E-9AA6-5D4F-A4AF-373B7168526E}" name="Resource"/>
+    <tableColumn id="2" xr3:uid="{4FAE5D4B-8591-7D41-A69E-501EE57C6C41}" name="Quantity" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{FD66B2C4-D49F-1C43-9A30-DE1F21B9FD5B}" name="Credits">
+      <calculatedColumnFormula>B10*'Cloud.gov Tiers'!B3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Worksheet-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{3AE58A18-ABB7-FC4E-9D28-06F1CAA78773}" name="Table_315" displayName="Table_315" ref="E9:K10">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{8901DDBE-58BA-8F4F-9D7C-2A2800A70157}" name="Offering" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{3C07AF3B-6C04-4348-A1E4-AEF634AB5F2C}" name="Description" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{50B2B6E3-7A84-CC41-A61F-9E7C70E4AC01}" name="Units" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{99748816-FA07-B948-9F02-BAFA13C63BF0}" name="Dimension" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{B4686AED-FFA8-0F4F-8CF1-A28CBB869F59}" name="GB per credit" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{C47C64B0-2C30-0043-A34C-7F0E810B25DC}" name="Quantity (GB)" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{D0A5DC61-9EB0-294B-94B0-91D19A5D6E7E}" name="Credits" dataDxfId="18">
+      <calculatedColumnFormula>ROUNDUP(Table_315[[#This Row],[Quantity (GB)]]/Table_315[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Worksheet-style 3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{4E799C99-FC6F-6740-8C47-548247059706}" name="Table_416" displayName="Table_416" ref="M9:S10">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{CC812881-5649-1A4C-8C45-49D7808E0D1A}" name="Offering"/>
+    <tableColumn id="2" xr3:uid="{46204D59-C3E2-174B-9C58-1DB2BB6988C8}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{C3D129A0-D876-D446-9BED-4CE757DA989E}" name="Units"/>
+    <tableColumn id="5" xr3:uid="{8159B7E1-3CBB-384F-9C82-294839F55CB1}" name="Dimension" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{6374D1D7-2C6C-674A-9B2C-B5EA274BAEAC}" name="GB per credit" dataDxfId="16">
+      <calculatedColumnFormula>'AWS Service Prices'!K5*'AWS Service Prices'!M5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{84537EB8-58A4-A645-9A18-A322EFB5D6C3}" name="Quantity (GB)" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{06CE2B03-0479-2148-9683-4F1675E4317C}" name="Credits" dataDxfId="14">
+      <calculatedColumnFormula>ROUNDUP(Table_416[[#This Row],[Quantity (GB)]]/Table_416[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Worksheet-style 4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{DD38669A-9AE2-BA49-AF4A-F9D5CEFDB233}" name="Table_517" displayName="Table_517" ref="A14:C15">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E0798FE9-1580-1B43-B088-25897B8976F6}" name="Rate/Hour"/>
+    <tableColumn id="2" xr3:uid="{4F69F05E-31AF-C644-B087-9847D08BB3A0}" name="Hours" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{35F99F2C-96B5-1244-8BF2-D8FA71D1A5B2}" name="Total">
+      <calculatedColumnFormula>A15*B15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Worksheet-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{53A578BF-BA5A-7843-972B-EBD4EA7AD1DD}" name="Table_618" displayName="Table_618" ref="M14:S15" dataDxfId="12">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3024083C-5ED0-8D4D-8D1A-D4BD5916AE47}" name="Offering" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{3D92B04D-745E-2A49-991D-C00C27907719}" name="Description" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{50C39022-EBD5-9B42-84DD-C507ED702117}" name="Units" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{9759566D-ABA1-0943-92F2-2B5501002EE3}" name="Dimension" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{4A17BDB6-3CD8-BF43-B5F9-82D2A2C35A0C}" name="GB per credit" dataDxfId="7">
+      <calculatedColumnFormula>'AWS Service Prices'!K4*'AWS Service Prices'!M4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{056FCEF1-5646-814F-8034-1E8AC53C910D}" name="Quantity (GB)" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{DAEA814F-05EA-764E-8533-FE0EF6F3B132}" name="Credits" dataDxfId="5">
+      <calculatedColumnFormula>ROUNDUP(Table_618[[#This Row],[Quantity (GB)]]/Table_618[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Worksheet-style 6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{FE828B4F-17FC-1B43-9333-8BB094B53DDC}" name="Table_719" displayName="Table_719" ref="A18:B23">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{91890D40-9E6C-D740-B06A-0795C2CC0DC6}" name="Service"/>
+    <tableColumn id="2" xr3:uid="{6BAAE4FE-CE19-094E-871D-D2B9802CB9CB}" name="Credits"/>
+  </tableColumns>
+  <tableStyleInfo name="Worksheet-style 7" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{147CA396-DF94-254C-96FD-3C5EBD9F03F2}" name="Table_820" displayName="Table_820" ref="M40:S42">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{AECC13D3-8D85-144F-B6DB-5501458D6B29}" name="Offering"/>
+    <tableColumn id="2" xr3:uid="{B074D0B3-B914-AB4F-8066-81B90B3261D8}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{202C8C30-FD4E-6D40-9EBF-642B8C7AE181}" name="Units"/>
+    <tableColumn id="5" xr3:uid="{CA6A3A17-2747-AF44-8119-FC05700B8D5C}" name="Dimension"/>
+    <tableColumn id="3" xr3:uid="{C6C6ED4B-9612-3F48-9D18-472E70646A28}" name="Units/Credit" dataDxfId="4">
+      <calculatedColumnFormula>'AWS Service Prices'!K6*'AWS Service Prices'!M6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{76CCCB3A-2B18-4C42-9DB6-C570AFD6FB75}" name="Quantity"/>
+    <tableColumn id="7" xr3:uid="{A024F374-2C63-444D-95DA-745B84ABCFE7}" name="Credits" dataDxfId="3">
+      <calculatedColumnFormula>ROUNDUP(Table_820[[#This Row],[Quantity]]/Table_820[[#This Row],[Units/Credit]],0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Worksheet-style 8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A9:C10">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Resource"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quantity" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quantity" dataDxfId="85"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Credits"/>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{333F2C22-64BE-8A4A-A52E-89FC6130AD21}" name="Table1221" displayName="Table1221" ref="A39:C49" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1">
+  <autoFilter ref="A39:C49" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0A95F7D5-D48D-864F-84FF-73515D627597}" name="Version" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{1427474E-5614-2046-B78C-0448E419A1D9}" name="Date"/>
+    <tableColumn id="3" xr3:uid="{CAF26780-3593-1540-85AB-2E9EB898659F}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="Cloud.gov Tiers-style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="E9:K10">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Offering" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Dimension" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="GB per credit" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Quantity (GB)" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Credits" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Offering" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Dimension" dataDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="GB per credit" dataDxfId="80"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Quantity (GB)" dataDxfId="79"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Credits" dataDxfId="78">
       <calculatedColumnFormula>ROUNDUP(Table_3[[#This Row],[Quantity (GB)]]/Table_3[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3216,12 +4470,12 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Offering"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Units"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dimension" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{CDA60C5E-AE6A-324F-8F61-A71F1A0A8966}" name="GB per credit" dataDxfId="30">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dimension" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{CDA60C5E-AE6A-324F-8F61-A71F1A0A8966}" name="GB per credit" dataDxfId="76">
       <calculatedColumnFormula>'AWS Service Prices'!K5*'AWS Service Prices'!M5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quantity (GB)" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Credits" dataDxfId="28">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quantity (GB)" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Credits" dataDxfId="74">
       <calculatedColumnFormula>ROUNDUP(Table_4[[#This Row],[Quantity (GB)]]/Table_4[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3233,7 +4487,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A14:C15">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Rate/Hour"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Hours" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Hours" dataDxfId="73"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Total"/>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -3241,17 +4495,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="M14:S15" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="M14:S15" dataDxfId="72">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Offering" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Units" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Dimension" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{807927EE-801B-8148-9BA1-5FE9186170F2}" name="GB per credit" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Offering" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Units" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Dimension" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{807927EE-801B-8148-9BA1-5FE9186170F2}" name="GB per credit" dataDxfId="67">
       <calculatedColumnFormula>'AWS Service Prices'!K4*'AWS Service Prices'!M4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Quantity (GB)" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Credits" dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Quantity (GB)" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Credits" dataDxfId="65">
       <calculatedColumnFormula>ROUNDUP(Table_6[[#This Row],[Quantity (GB)]]/Table_6[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3276,11 +4530,11 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Units"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Dimension"/>
-    <tableColumn id="3" xr3:uid="{A30E673E-5221-9442-BA33-5D5CC8E273B5}" name="Units/Credit" dataDxfId="18">
+    <tableColumn id="3" xr3:uid="{A30E673E-5221-9442-BA33-5D5CC8E273B5}" name="Units/Credit" dataDxfId="64">
       <calculatedColumnFormula>'AWS Service Prices'!K6*'AWS Service Prices'!M6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Quantity"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Credits" dataDxfId="17">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Credits" dataDxfId="63">
       <calculatedColumnFormula>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3289,10 +4543,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}" name="Table12" displayName="Table12" ref="A39:C49" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}" name="Table12" displayName="Table12" ref="A39:C49" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61">
   <autoFilter ref="A39:C49" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6F594386-932F-3745-B570-1D36152A4BED}" name="Version" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{6F594386-932F-3745-B570-1D36152A4BED}" name="Version" dataDxfId="60" dataCellStyle="Comma"/>
     <tableColumn id="2" xr3:uid="{98BA1600-A7B8-2742-AF88-1C465CCF83D5}" name="Date"/>
     <tableColumn id="3" xr3:uid="{A3A06425-E98A-E042-A27B-C92165F08BCF}" name="Notes"/>
   </tableColumns>
@@ -3504,8 +4758,8 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3535,14 +4789,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="98.25" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A1" s="107" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="A1" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3579,7 +4833,7 @@
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="81">
         <f>C10+SUM(B19:B23)</f>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B5" s="82" t="str" cm="1">
         <f t="array" ref="B5">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</f>
@@ -3587,7 +4841,7 @@
       </c>
       <c r="C5" s="76">
         <f>VLOOKUP(Table_1[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_1[[#This Row],[Credits]]</f>
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D5" s="77">
         <f>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</f>
@@ -3595,11 +4849,11 @@
       </c>
       <c r="E5" s="77">
         <f>C15</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F5" s="84">
         <f>D5+E5</f>
-        <v>32500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3676,11 +4930,11 @@
         <v>15</v>
       </c>
       <c r="B10" s="85">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C10" s="12">
         <f>B10*'Cloud.gov Tiers'!B3</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>16</v>
@@ -3698,11 +4952,11 @@
         <v>100</v>
       </c>
       <c r="J10" s="85">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="K10" s="42">
         <f>ROUNDUP(Table_3[[#This Row],[Quantity (GB)]]/Table_3[[#This Row],[GB per credit]],0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>7</v>
@@ -3721,11 +4975,11 @@
         <v>400</v>
       </c>
       <c r="R10" s="85">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="S10" s="42">
         <f>ROUNDUP(Table_4[[#This Row],[Quantity (GB)]]/Table_4[[#This Row],[GB per credit]],0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3796,11 +5050,11 @@
         <v>1</v>
       </c>
       <c r="J14" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" s="90">
         <f>I14*J14</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>10</v>
@@ -3829,11 +5083,11 @@
         <v>250</v>
       </c>
       <c r="B15" s="86">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C15" s="23">
         <f>A15*B15</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E15" s="24" t="str">
         <v>AWS RDS</v>
@@ -3925,11 +5179,11 @@
         <v>4</v>
       </c>
       <c r="J17" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="90">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>40</v>
@@ -3993,7 +5247,7 @@
       </c>
       <c r="B19" s="31">
         <f t="array" ref="B19">Worksheet!$S$10</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" s="24" t="str">
         <v>AWS RDS</v>
@@ -4047,7 +5301,7 @@
       </c>
       <c r="B20" s="34">
         <f t="array" ref="B20">SUM(K14:K43) + Worksheet!$K$10</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18" t="str">
         <v>AWS RDS</v>
@@ -4206,7 +5460,7 @@
       </c>
       <c r="B23" s="37">
         <f>SUM(Table_8[Credits])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" s="24" t="str">
         <v>AWS RDS</v>
@@ -5089,11 +6343,11 @@
         <v>150000</v>
       </c>
       <c r="R41" s="93">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S41" s="97">
         <f>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5140,11 +6394,11 @@
         <v>120</v>
       </c>
       <c r="R42" s="94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S42" s="96">
         <f>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5201,11 +6455,22 @@
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="105"/>
+      <c r="A46" s="105">
+        <v>1.4</v>
+      </c>
+      <c r="B46" s="101">
+        <v>45775</v>
+      </c>
+      <c r="C46" s="106" t="s">
+        <v>193</v>
+      </c>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="105"/>
+      <c r="C47" s="106" t="s">
+        <v>194</v>
+      </c>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6231,72 +7496,72 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="B10 J14:J43 B15">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="17" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="58" priority="6">
       <formula>$J$10&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F43">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="57" priority="7">
       <formula>$J14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="8" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="55" priority="4">
       <formula>$R10&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="54" priority="5">
       <formula>$R15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N29">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="53" priority="3">
       <formula>$R19&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33:N37">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>$R33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:N42">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="51" priority="1">
       <formula>$R41&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="10" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="49" priority="9" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:R29">
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="48" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R33:R37">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="11" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41:R42">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="46" priority="14" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7978,7 +9243,7 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3:M3"/>
     </sheetView>
   </sheetViews>
@@ -10367,4 +11632,2820 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4464BB-8819-134A-A622-87B69BA68B40}">
+  <sheetPr>
+    <tabColor rgb="FF4A86E8"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Y1000"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" style="107" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="107" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="107" customWidth="1"/>
+    <col min="4" max="4" width="15" style="107" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="107" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" style="107" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="107" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="107" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="107"/>
+    <col min="10" max="10" width="14.6640625" style="107" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="107" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="107" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" style="107" customWidth="1"/>
+    <col min="14" max="14" width="36.6640625" style="107" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="107" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="107" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="107" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" style="107" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" style="107" customWidth="1"/>
+    <col min="20" max="21" width="12.6640625" style="107"/>
+    <col min="22" max="22" width="15.1640625" style="107" customWidth="1"/>
+    <col min="23" max="23" width="21.33203125" style="107" customWidth="1"/>
+    <col min="24" max="24" width="23" style="107" customWidth="1"/>
+    <col min="25" max="25" width="16.5" style="107" customWidth="1"/>
+    <col min="26" max="16384" width="12.6640625" style="107"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="98.25" customHeight="1" x14ac:dyDescent="1.05">
+      <c r="A1" s="108" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="81">
+        <f>C10+SUM(B19:B23)</f>
+        <v>48</v>
+      </c>
+      <c r="B5" s="82" t="str" cm="1">
+        <f t="array" ref="B5">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</f>
+        <v>Femto</v>
+      </c>
+      <c r="C5" s="76">
+        <f>VLOOKUP(Table_112[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_112[[#This Row],[Credits]]</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="77">
+        <f>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</f>
+        <v>30000</v>
+      </c>
+      <c r="E5" s="77">
+        <f>C15</f>
+        <v>2500</v>
+      </c>
+      <c r="F5" s="84">
+        <f>D5+E5</f>
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="85">
+        <v>12</v>
+      </c>
+      <c r="C10" s="12">
+        <f>B10*'Cloud.gov Tiers'!B3</f>
+        <v>36</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="40">
+        <v>100</v>
+      </c>
+      <c r="J10" s="85">
+        <v>101</v>
+      </c>
+      <c r="K10" s="42">
+        <f>ROUNDUP(Table_315[[#This Row],[Quantity (GB)]]/Table_315[[#This Row],[GB per credit]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="40">
+        <f>'AWS Service Prices'!K5*'AWS Service Prices'!M5</f>
+        <v>400</v>
+      </c>
+      <c r="R10" s="85">
+        <v>401</v>
+      </c>
+      <c r="S10" s="42">
+        <f>ROUNDUP(Table_416[[#This Row],[Quantity (GB)]]/Table_416[[#This Row],[GB per credit]],0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="E13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="47" t="str">
+        <f t="array" ref="E14:I43">AWSRdsServicePrices</f>
+        <v>AWS RDS</v>
+      </c>
+      <c r="F14" s="48" t="str">
+        <v>micro-psql</v>
+      </c>
+      <c r="G14" s="48" t="str">
+        <v>db.t3.micro</v>
+      </c>
+      <c r="H14" s="48">
+        <v>1</v>
+      </c>
+      <c r="I14" s="48">
+        <v>1</v>
+      </c>
+      <c r="J14" s="20">
+        <v>2</v>
+      </c>
+      <c r="K14" s="90">
+        <f>I14*J14</f>
+        <v>2</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22">
+        <v>250</v>
+      </c>
+      <c r="B15" s="86">
+        <v>10</v>
+      </c>
+      <c r="C15" s="23">
+        <f>A15*B15</f>
+        <v>2500</v>
+      </c>
+      <c r="E15" s="24" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F15" s="25" t="str">
+        <v>micro-psql-redundant</v>
+      </c>
+      <c r="G15" s="25" t="str">
+        <v>db.t3.micro</v>
+      </c>
+      <c r="H15" s="25">
+        <v>1</v>
+      </c>
+      <c r="I15" s="25">
+        <v>2</v>
+      </c>
+      <c r="J15" s="35">
+        <v>0</v>
+      </c>
+      <c r="K15" s="90">
+        <f t="shared" ref="K15:K43" si="0">I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="40">
+        <f>'AWS Service Prices'!K4*'AWS Service Prices'!M4</f>
+        <v>100</v>
+      </c>
+      <c r="R15" s="85">
+        <v>0</v>
+      </c>
+      <c r="S15" s="42">
+        <f>ROUNDUP(Table_618[[#This Row],[Quantity (GB)]]/Table_618[[#This Row],[GB per credit]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="47" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F16" s="48" t="str">
+        <v>small-psql</v>
+      </c>
+      <c r="G16" s="48" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H16" s="48">
+        <v>1</v>
+      </c>
+      <c r="I16" s="48">
+        <v>2</v>
+      </c>
+      <c r="J16" s="35">
+        <v>0</v>
+      </c>
+      <c r="K16" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="24" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F17" s="25" t="str">
+        <v>small-psql-redundant</v>
+      </c>
+      <c r="G17" s="25" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H17" s="25">
+        <v>1</v>
+      </c>
+      <c r="I17" s="25">
+        <v>4</v>
+      </c>
+      <c r="J17" s="35">
+        <v>1</v>
+      </c>
+      <c r="K17" s="90">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="47" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F18" s="48" t="str">
+        <v>medium-psql</v>
+      </c>
+      <c r="G18" s="48" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H18" s="48">
+        <v>1</v>
+      </c>
+      <c r="I18" s="48">
+        <v>4</v>
+      </c>
+      <c r="J18" s="35">
+        <v>0</v>
+      </c>
+      <c r="K18" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="R18" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="31">
+        <f t="array" ref="B19">'Example worksheet'!$S$10</f>
+        <v>2</v>
+      </c>
+      <c r="E19" s="24" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F19" s="25" t="str">
+        <v>medium-psql-redundant</v>
+      </c>
+      <c r="G19" s="25" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H19" s="25">
+        <v>1</v>
+      </c>
+      <c r="I19" s="25">
+        <v>8</v>
+      </c>
+      <c r="J19" s="35">
+        <v>0</v>
+      </c>
+      <c r="K19" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="47" t="str" cm="1">
+        <f t="array" ref="M19:Q29">AwsOpensearchPrices</f>
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N19" s="48" t="str">
+        <v>es-dev</v>
+      </c>
+      <c r="O19" s="48" t="str">
+        <v>t3.small.search</v>
+      </c>
+      <c r="P19" s="48">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="48">
+        <v>2</v>
+      </c>
+      <c r="R19" s="32">
+        <v>0</v>
+      </c>
+      <c r="S19" s="21">
+        <f>R19*Q19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="34">
+        <f t="array" ref="B20">SUM(K14:K43) + 'Example worksheet'!$K$10</f>
+        <v>8</v>
+      </c>
+      <c r="E20" s="47" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F20" s="48" t="str">
+        <v>medium-gp-psql</v>
+      </c>
+      <c r="G20" s="48" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H20" s="48">
+        <v>1</v>
+      </c>
+      <c r="I20" s="48">
+        <v>10</v>
+      </c>
+      <c r="J20" s="35">
+        <v>0</v>
+      </c>
+      <c r="K20" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="24" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N20" s="25" t="str">
+        <v>es-medium</v>
+      </c>
+      <c r="O20" s="25" t="str">
+        <v>c5.large.search</v>
+      </c>
+      <c r="P20" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>34</v>
+      </c>
+      <c r="R20" s="38">
+        <v>0</v>
+      </c>
+      <c r="S20" s="21">
+        <f t="shared" ref="S20:S29" si="1">R20*Q20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="31">
+        <f>'Example worksheet'!$S$15+SUM(S19:S29)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="24" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F21" s="25" t="str">
+        <v>medium-gp-psql-redundant</v>
+      </c>
+      <c r="G21" s="25" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H21" s="25">
+        <v>1</v>
+      </c>
+      <c r="I21" s="25">
+        <v>20</v>
+      </c>
+      <c r="J21" s="35">
+        <v>0</v>
+      </c>
+      <c r="K21" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="47" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N21" s="48" t="str">
+        <v>es-medium-ha</v>
+      </c>
+      <c r="O21" s="48" t="str">
+        <v>c5.large.search</v>
+      </c>
+      <c r="P21" s="48">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="48">
+        <v>48</v>
+      </c>
+      <c r="R21" s="38">
+        <v>0</v>
+      </c>
+      <c r="S21" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="34">
+        <f>SUM(S33:S37)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="47" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F22" s="48" t="str">
+        <v>large-gp-psql</v>
+      </c>
+      <c r="G22" s="48" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H22" s="48">
+        <v>1</v>
+      </c>
+      <c r="I22" s="48">
+        <v>10</v>
+      </c>
+      <c r="J22" s="35">
+        <v>0</v>
+      </c>
+      <c r="K22" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="24" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N22" s="25" t="str">
+        <v>es-large</v>
+      </c>
+      <c r="O22" s="25" t="str">
+        <v>c5.xlarge.search</v>
+      </c>
+      <c r="P22" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>69</v>
+      </c>
+      <c r="R22" s="38">
+        <v>0</v>
+      </c>
+      <c r="S22" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="37">
+        <f>SUM(Table_820[Credits])</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="24" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F23" s="25" t="str">
+        <v>large-gp-psql-redundant</v>
+      </c>
+      <c r="G23" s="25" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H23" s="25">
+        <v>1</v>
+      </c>
+      <c r="I23" s="25">
+        <v>20</v>
+      </c>
+      <c r="J23" s="35">
+        <v>0</v>
+      </c>
+      <c r="K23" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="47" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N23" s="48" t="str">
+        <v>es-large-ha</v>
+      </c>
+      <c r="O23" s="48" t="str">
+        <v>c5.xlarge.search</v>
+      </c>
+      <c r="P23" s="48">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="48">
+        <v>96</v>
+      </c>
+      <c r="R23" s="38">
+        <v>0</v>
+      </c>
+      <c r="S23" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="47" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F24" s="48" t="str">
+        <v>xlarge-gp-psql</v>
+      </c>
+      <c r="G24" s="48" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H24" s="48">
+        <v>1</v>
+      </c>
+      <c r="I24" s="48">
+        <v>20</v>
+      </c>
+      <c r="J24" s="35">
+        <v>0</v>
+      </c>
+      <c r="K24" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="24" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N24" s="25" t="str">
+        <v>es-xlarge</v>
+      </c>
+      <c r="O24" s="25" t="str">
+        <v>c5.2xlarge.search</v>
+      </c>
+      <c r="P24" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>137</v>
+      </c>
+      <c r="R24" s="38">
+        <v>0</v>
+      </c>
+      <c r="S24" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="24" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F25" s="25" t="str">
+        <v>xlarge-gp-psql-redundant</v>
+      </c>
+      <c r="G25" s="25" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H25" s="25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="25">
+        <v>39</v>
+      </c>
+      <c r="J25" s="35">
+        <v>0</v>
+      </c>
+      <c r="K25" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="47" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N25" s="48" t="str">
+        <v>es-xlarge-ha</v>
+      </c>
+      <c r="O25" s="48" t="str">
+        <v>c5.2xlarge.search</v>
+      </c>
+      <c r="P25" s="48">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="48">
+        <v>192</v>
+      </c>
+      <c r="R25" s="38">
+        <v>0</v>
+      </c>
+      <c r="S25" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="47" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F26" s="48" t="str">
+        <v>2xlarge-gp-psql</v>
+      </c>
+      <c r="G26" s="48" t="str">
+        <v>db.m5.2xlarge</v>
+      </c>
+      <c r="H26" s="48">
+        <v>1</v>
+      </c>
+      <c r="I26" s="48">
+        <v>39</v>
+      </c>
+      <c r="J26" s="35">
+        <v>0</v>
+      </c>
+      <c r="K26" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="24" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N26" s="25" t="str">
+        <v>es-2xlarge-gp</v>
+      </c>
+      <c r="O26" s="25" t="str">
+        <v>m5.2xlarge.search</v>
+      </c>
+      <c r="P26" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="25">
+        <v>163</v>
+      </c>
+      <c r="R26" s="38">
+        <v>0</v>
+      </c>
+      <c r="S26" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="24" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F27" s="25" t="str">
+        <v>2xlarge-gp-psql-redundant</v>
+      </c>
+      <c r="G27" s="25" t="str">
+        <v>db.m5.2xlarge</v>
+      </c>
+      <c r="H27" s="25">
+        <v>1</v>
+      </c>
+      <c r="I27" s="25">
+        <v>78</v>
+      </c>
+      <c r="J27" s="35">
+        <v>0</v>
+      </c>
+      <c r="K27" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="47" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N27" s="48" t="str">
+        <v>es-2xlarge-gp-ha</v>
+      </c>
+      <c r="O27" s="48" t="str">
+        <v>m5.2xlarge.search</v>
+      </c>
+      <c r="P27" s="48">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="48">
+        <v>228</v>
+      </c>
+      <c r="R27" s="38">
+        <v>0</v>
+      </c>
+      <c r="S27" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="47" t="str">
+        <f t="array" ref="A28:B35">CloudGovNoCostServices</f>
+        <v>External Domain</v>
+      </c>
+      <c r="B28" s="21" t="str">
+        <v>cdn-route</v>
+      </c>
+      <c r="E28" s="47" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F28" s="48" t="str">
+        <v>xlarge-gp-psql-m6</v>
+      </c>
+      <c r="G28" s="48" t="str">
+        <v>db.m6g.xlarge</v>
+      </c>
+      <c r="H28" s="48">
+        <v>1</v>
+      </c>
+      <c r="I28" s="48">
+        <v>17</v>
+      </c>
+      <c r="J28" s="35">
+        <v>0</v>
+      </c>
+      <c r="K28" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="24" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N28" s="25" t="str">
+        <v>es-4xlarge-gp</v>
+      </c>
+      <c r="O28" s="25" t="str">
+        <v>m5.4xlarge.search</v>
+      </c>
+      <c r="P28" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="25">
+        <v>326</v>
+      </c>
+      <c r="R28" s="38">
+        <v>0</v>
+      </c>
+      <c r="S28" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="24" t="str">
+        <v>External Domain</v>
+      </c>
+      <c r="B29" s="27" t="str">
+        <v>custom-domain</v>
+      </c>
+      <c r="E29" s="24" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F29" s="25" t="str">
+        <v>xlarge-gp-psql-m6-redundant</v>
+      </c>
+      <c r="G29" s="25" t="str">
+        <v>db.m6g.xlarge</v>
+      </c>
+      <c r="H29" s="25">
+        <v>1</v>
+      </c>
+      <c r="I29" s="25">
+        <v>34</v>
+      </c>
+      <c r="J29" s="35">
+        <v>0</v>
+      </c>
+      <c r="K29" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="39" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N29" s="40" t="str">
+        <v>es-4xlarge-gp-ha</v>
+      </c>
+      <c r="O29" s="40" t="str">
+        <v>m5.4xlarge.search</v>
+      </c>
+      <c r="P29" s="40">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="40">
+        <v>456</v>
+      </c>
+      <c r="R29" s="41">
+        <v>0</v>
+      </c>
+      <c r="S29" s="91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="92"/>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="47" t="str">
+        <v>External Domain</v>
+      </c>
+      <c r="B30" s="21" t="str">
+        <v>domain</v>
+      </c>
+      <c r="E30" s="47" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F30" s="48" t="str">
+        <v>micro-mysql</v>
+      </c>
+      <c r="G30" s="48" t="str">
+        <v>db.t3.micro</v>
+      </c>
+      <c r="H30" s="48">
+        <v>1</v>
+      </c>
+      <c r="I30" s="48">
+        <v>1</v>
+      </c>
+      <c r="J30" s="43">
+        <v>0</v>
+      </c>
+      <c r="K30" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="29"/>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="24" t="str">
+        <v>External Domain</v>
+      </c>
+      <c r="B31" s="27" t="str">
+        <v>domain-with-cdn</v>
+      </c>
+      <c r="E31" s="24" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F31" s="25" t="str">
+        <v>micro-mysql-redundant</v>
+      </c>
+      <c r="G31" s="25" t="str">
+        <v>db.t3.micro</v>
+      </c>
+      <c r="H31" s="25">
+        <v>1</v>
+      </c>
+      <c r="I31" s="25">
+        <v>2</v>
+      </c>
+      <c r="J31" s="35">
+        <v>0</v>
+      </c>
+      <c r="K31" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="47" t="str">
+        <v>UAA Service Account</v>
+      </c>
+      <c r="B32" s="21" t="str">
+        <v>oauth-client</v>
+      </c>
+      <c r="E32" s="47" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F32" s="48" t="str">
+        <v>small-mysql</v>
+      </c>
+      <c r="G32" s="48" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H32" s="48">
+        <v>1</v>
+      </c>
+      <c r="I32" s="48">
+        <v>2</v>
+      </c>
+      <c r="J32" s="35">
+        <v>0</v>
+      </c>
+      <c r="K32" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O32" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="R32" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="S32" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="24" t="str">
+        <v>UAA Service Account</v>
+      </c>
+      <c r="B33" s="27" t="str">
+        <v>space-auditor</v>
+      </c>
+      <c r="E33" s="24" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F33" s="25" t="str">
+        <v>small-mysql-redundant</v>
+      </c>
+      <c r="G33" s="25" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H33" s="25">
+        <v>1</v>
+      </c>
+      <c r="I33" s="25">
+        <v>4</v>
+      </c>
+      <c r="J33" s="35">
+        <v>0</v>
+      </c>
+      <c r="K33" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="47" t="str" cm="1">
+        <f t="array" ref="M33:Q37">AwsElasticCachePrices</f>
+        <v>AWS ElastiCache</v>
+      </c>
+      <c r="N33" s="48" t="str">
+        <v>redis-dev</v>
+      </c>
+      <c r="O33" s="48" t="str">
+        <v>cache.t3.micro</v>
+      </c>
+      <c r="P33" s="48">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="88">
+        <v>1</v>
+      </c>
+      <c r="R33" s="50">
+        <v>0</v>
+      </c>
+      <c r="S33" s="21">
+        <f>R33*Q33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="47" t="str">
+        <v>UAA Service Account</v>
+      </c>
+      <c r="B34" s="21" t="str">
+        <v>space-deployer</v>
+      </c>
+      <c r="E34" s="47" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F34" s="48" t="str">
+        <v>medium-mysql</v>
+      </c>
+      <c r="G34" s="48" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H34" s="48">
+        <v>1</v>
+      </c>
+      <c r="I34" s="48">
+        <v>4</v>
+      </c>
+      <c r="J34" s="35">
+        <v>0</v>
+      </c>
+      <c r="K34" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="24" t="str">
+        <v>AWS ElastiCache</v>
+      </c>
+      <c r="N34" s="25" t="str">
+        <v>redis-3node</v>
+      </c>
+      <c r="O34" s="25" t="str">
+        <v>cache.t3.micro</v>
+      </c>
+      <c r="P34" s="25">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="88">
+        <v>2</v>
+      </c>
+      <c r="R34" s="38">
+        <v>0</v>
+      </c>
+      <c r="S34" s="21">
+        <f t="shared" ref="S34:S37" si="2">R34*Q34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="24" t="str">
+        <v>Autoscaler</v>
+      </c>
+      <c r="B35" s="27" t="str">
+        <v>autoscaler-free-plan</v>
+      </c>
+      <c r="E35" s="24" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F35" s="25" t="str">
+        <v>medium-mysql-redundant</v>
+      </c>
+      <c r="G35" s="25" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H35" s="25">
+        <v>1</v>
+      </c>
+      <c r="I35" s="25">
+        <v>7</v>
+      </c>
+      <c r="J35" s="35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="47" t="str">
+        <v>AWS ElastiCache</v>
+      </c>
+      <c r="N35" s="48" t="str">
+        <v>redis-5node</v>
+      </c>
+      <c r="O35" s="48" t="str">
+        <v>cache.t3.micro</v>
+      </c>
+      <c r="P35" s="48">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="88">
+        <v>4</v>
+      </c>
+      <c r="R35" s="38">
+        <v>0</v>
+      </c>
+      <c r="S35" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="44"/>
+      <c r="E36" s="47" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F36" s="48" t="str">
+        <v>medium-gp-mysql</v>
+      </c>
+      <c r="G36" s="48" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H36" s="48">
+        <v>1</v>
+      </c>
+      <c r="I36" s="48">
+        <v>9</v>
+      </c>
+      <c r="J36" s="35">
+        <v>0</v>
+      </c>
+      <c r="K36" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="24" t="str">
+        <v>AWS ElastiCache</v>
+      </c>
+      <c r="N36" s="25" t="str">
+        <v>redis-3node-large</v>
+      </c>
+      <c r="O36" s="25" t="str">
+        <v>cache.t3.small</v>
+      </c>
+      <c r="P36" s="25">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="88">
+        <v>5</v>
+      </c>
+      <c r="R36" s="38">
+        <v>0</v>
+      </c>
+      <c r="S36" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="24" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F37" s="25" t="str">
+        <v>medium-gp-mysql-redundant</v>
+      </c>
+      <c r="G37" s="25" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H37" s="25">
+        <v>1</v>
+      </c>
+      <c r="I37" s="25">
+        <v>19</v>
+      </c>
+      <c r="J37" s="35">
+        <v>0</v>
+      </c>
+      <c r="K37" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="39" t="str">
+        <v>AWS ElastiCache</v>
+      </c>
+      <c r="N37" s="40" t="str">
+        <v>redis-5node-large</v>
+      </c>
+      <c r="O37" s="40" t="str">
+        <v>cache.t3.small</v>
+      </c>
+      <c r="P37" s="40">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="89">
+        <v>8</v>
+      </c>
+      <c r="R37" s="45">
+        <v>0</v>
+      </c>
+      <c r="S37" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="47" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F38" s="48" t="str">
+        <v>large-gp-mysql</v>
+      </c>
+      <c r="G38" s="48" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H38" s="48">
+        <v>1</v>
+      </c>
+      <c r="I38" s="48">
+        <v>9</v>
+      </c>
+      <c r="J38" s="35">
+        <v>0</v>
+      </c>
+      <c r="K38" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="102" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="24" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F39" s="25" t="str">
+        <v>large-gp-mysql-redundant</v>
+      </c>
+      <c r="G39" s="25" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H39" s="25">
+        <v>1</v>
+      </c>
+      <c r="I39" s="25">
+        <v>19</v>
+      </c>
+      <c r="J39" s="35">
+        <v>0</v>
+      </c>
+      <c r="K39" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="105">
+        <v>1</v>
+      </c>
+      <c r="B40" s="101">
+        <v>45748</v>
+      </c>
+      <c r="C40" s="100" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="47" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F40" s="48" t="str">
+        <v>xlarge-gp-mysql</v>
+      </c>
+      <c r="G40" s="48" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H40" s="48">
+        <v>1</v>
+      </c>
+      <c r="I40" s="48">
+        <v>19</v>
+      </c>
+      <c r="J40" s="35">
+        <v>0</v>
+      </c>
+      <c r="K40" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="O40" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P40" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q40" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="R40" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="S40" s="95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="105">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B41" s="101">
+        <v>45749</v>
+      </c>
+      <c r="C41" s="100" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="24" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F41" s="25" t="str">
+        <v>xlarge-gp-mysql-redundant</v>
+      </c>
+      <c r="G41" s="25" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H41" s="25">
+        <v>1</v>
+      </c>
+      <c r="I41" s="25">
+        <v>37</v>
+      </c>
+      <c r="J41" s="35">
+        <v>0</v>
+      </c>
+      <c r="K41" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="N41" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="O41" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="P41" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q41" s="88">
+        <f>'AWS Service Prices'!K6*'AWS Service Prices'!M6</f>
+        <v>150000</v>
+      </c>
+      <c r="R41" s="93">
+        <v>1000</v>
+      </c>
+      <c r="S41" s="97">
+        <f>ROUNDUP(Table_820[[#This Row],[Quantity]]/Table_820[[#This Row],[Units/Credit]],0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="105"/>
+      <c r="C42" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="47" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F42" s="48" t="str">
+        <v>medium-oracle-se2</v>
+      </c>
+      <c r="G42" s="48" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H42" s="48">
+        <v>1</v>
+      </c>
+      <c r="I42" s="48">
+        <v>7</v>
+      </c>
+      <c r="J42" s="35">
+        <v>0</v>
+      </c>
+      <c r="K42" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="N42" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="O42" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="P42" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q42" s="88">
+        <f>'AWS Service Prices'!K7*'AWS Service Prices'!M7</f>
+        <v>120</v>
+      </c>
+      <c r="R42" s="94">
+        <v>2</v>
+      </c>
+      <c r="S42" s="96">
+        <f>ROUNDUP(Table_820[[#This Row],[Quantity]]/Table_820[[#This Row],[Units/Credit]],0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="105"/>
+      <c r="C43" s="100" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="54" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F43" s="55" t="str">
+        <v>large-gp-sqlserver-se</v>
+      </c>
+      <c r="G43" s="55" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H43" s="55">
+        <v>1</v>
+      </c>
+      <c r="I43" s="55">
+        <v>46</v>
+      </c>
+      <c r="J43" s="56">
+        <v>0</v>
+      </c>
+      <c r="K43" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="98"/>
+    </row>
+    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="105">
+        <v>1.2</v>
+      </c>
+      <c r="B44" s="101">
+        <v>45756</v>
+      </c>
+      <c r="C44" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="105">
+        <v>1.3</v>
+      </c>
+      <c r="B45" s="101">
+        <v>45757</v>
+      </c>
+      <c r="C45" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="105"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="105"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="105"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="105"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="105"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B10 J14:J43 B15">
+    <cfRule type="cellIs" dxfId="45" priority="14" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="44" priority="6">
+      <formula>$J$10&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F43">
+    <cfRule type="expression" dxfId="43" priority="7">
+      <formula>$J14&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="expression" dxfId="41" priority="4">
+      <formula>$R10&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15">
+    <cfRule type="expression" dxfId="40" priority="5">
+      <formula>$R15&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19:N29">
+    <cfRule type="expression" dxfId="39" priority="3">
+      <formula>$R19&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N33:N37">
+    <cfRule type="expression" dxfId="38" priority="2">
+      <formula>$R33&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N41:N42">
+    <cfRule type="expression" dxfId="37" priority="1">
+      <formula>$R41&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10">
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19:R29">
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R33:R37">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R41:R42">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <tableParts count="9">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/_assets/documents/cloud-gov-cost-estimator.xlsx
+++ b/_assets/documents/cloud-gov-cost-estimator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markdboyd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683BB082-E3A7-DA41-81A3-C727EAF70EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6BFDD4-0CDB-4742-8222-F68AE10270B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5583,8 +5583,8 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="119">
-        <f>$O$46*$P$46</f>
+        <f>O46*P46</f>
         <v>0</v>
       </c>
       <c r="R46" s="112"/>

--- a/_assets/documents/cloud-gov-cost-estimator.xlsx
+++ b/_assets/documents/cloud-gov-cost-estimator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markdboyd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6BFDD4-0CDB-4742-8222-F68AE10270B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C5E9B5-D04A-0047-B569-6F61061D3C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1834,10 +1834,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1884,12 +1880,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="194">
+  <dxfs count="125">
     <dxf>
       <font>
         <b/>
@@ -2048,13 +2048,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <u/>
@@ -2118,657 +2111,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5002,54 +4344,54 @@
   </dxfs>
   <tableStyles count="10">
     <tableStyle name="Worksheet-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="193"/>
-      <tableStyleElement type="firstRowStripe" dxfId="192"/>
-      <tableStyleElement type="secondRowStripe" dxfId="191"/>
+      <tableStyleElement type="headerRow" dxfId="124"/>
+      <tableStyleElement type="firstRowStripe" dxfId="123"/>
+      <tableStyleElement type="secondRowStripe" dxfId="122"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="190"/>
-      <tableStyleElement type="firstRowStripe" dxfId="189"/>
-      <tableStyleElement type="secondRowStripe" dxfId="188"/>
+      <tableStyleElement type="headerRow" dxfId="121"/>
+      <tableStyleElement type="firstRowStripe" dxfId="120"/>
+      <tableStyleElement type="secondRowStripe" dxfId="119"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="187"/>
-      <tableStyleElement type="firstRowStripe" dxfId="186"/>
-      <tableStyleElement type="secondRowStripe" dxfId="185"/>
+      <tableStyleElement type="headerRow" dxfId="118"/>
+      <tableStyleElement type="firstRowStripe" dxfId="117"/>
+      <tableStyleElement type="secondRowStripe" dxfId="116"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 4" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="184"/>
-      <tableStyleElement type="firstRowStripe" dxfId="183"/>
-      <tableStyleElement type="secondRowStripe" dxfId="182"/>
+      <tableStyleElement type="headerRow" dxfId="115"/>
+      <tableStyleElement type="firstRowStripe" dxfId="114"/>
+      <tableStyleElement type="secondRowStripe" dxfId="113"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 5" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="181"/>
-      <tableStyleElement type="firstRowStripe" dxfId="180"/>
-      <tableStyleElement type="secondRowStripe" dxfId="179"/>
+      <tableStyleElement type="headerRow" dxfId="112"/>
+      <tableStyleElement type="firstRowStripe" dxfId="111"/>
+      <tableStyleElement type="secondRowStripe" dxfId="110"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 6" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="headerRow" dxfId="178"/>
-      <tableStyleElement type="firstRowStripe" dxfId="177"/>
-      <tableStyleElement type="secondRowStripe" dxfId="176"/>
+      <tableStyleElement type="headerRow" dxfId="109"/>
+      <tableStyleElement type="firstRowStripe" dxfId="108"/>
+      <tableStyleElement type="secondRowStripe" dxfId="107"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 7" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
-      <tableStyleElement type="headerRow" dxfId="175"/>
-      <tableStyleElement type="firstRowStripe" dxfId="174"/>
-      <tableStyleElement type="secondRowStripe" dxfId="173"/>
+      <tableStyleElement type="headerRow" dxfId="106"/>
+      <tableStyleElement type="firstRowStripe" dxfId="105"/>
+      <tableStyleElement type="secondRowStripe" dxfId="104"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 8" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
-      <tableStyleElement type="headerRow" dxfId="172"/>
-      <tableStyleElement type="firstRowStripe" dxfId="171"/>
-      <tableStyleElement type="secondRowStripe" dxfId="170"/>
+      <tableStyleElement type="headerRow" dxfId="103"/>
+      <tableStyleElement type="firstRowStripe" dxfId="102"/>
+      <tableStyleElement type="secondRowStripe" dxfId="101"/>
     </tableStyle>
     <tableStyle name="Cloud.gov Tiers-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
-      <tableStyleElement type="headerRow" dxfId="169"/>
-      <tableStyleElement type="firstRowStripe" dxfId="168"/>
-      <tableStyleElement type="secondRowStripe" dxfId="167"/>
+      <tableStyleElement type="headerRow" dxfId="100"/>
+      <tableStyleElement type="firstRowStripe" dxfId="99"/>
+      <tableStyleElement type="secondRowStripe" dxfId="98"/>
     </tableStyle>
     <tableStyle name="Cloud.gov Tiers-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
-      <tableStyleElement type="headerRow" dxfId="166"/>
-      <tableStyleElement type="firstRowStripe" dxfId="165"/>
-      <tableStyleElement type="secondRowStripe" dxfId="164"/>
+      <tableStyleElement type="headerRow" dxfId="97"/>
+      <tableStyleElement type="firstRowStripe" dxfId="96"/>
+      <tableStyleElement type="secondRowStripe" dxfId="95"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -5066,20 +4408,20 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A4:F5">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Credits" dataDxfId="163"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tier Name" dataDxfId="162">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Credits" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tier Name" dataDxfId="93">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Credits Remaining_x000a_in Tier" dataDxfId="161">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Credits Remaining_x000a_in Tier" dataDxfId="92">
       <calculatedColumnFormula>VLOOKUP(Table_1[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_1[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Yearly_x000a_Platform Total" dataDxfId="160">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Yearly_x000a_Platform Total" dataDxfId="91">
       <calculatedColumnFormula>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Support Total" dataDxfId="159">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Support Total" dataDxfId="90">
       <calculatedColumnFormula>C15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" YearlyTotal Cost" dataDxfId="158">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" YearlyTotal Cost" dataDxfId="89">
       <calculatedColumnFormula>D5+E5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5116,22 +4458,22 @@
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4C37D040-F691-2C49-BE22-816489BFD4D2}" name="Table_112" displayName="Table_112" ref="A4:F5">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{657244D4-FE4C-D44C-B48B-43E7FA139C6B}" name="Credits" dataDxfId="131">
+    <tableColumn id="1" xr3:uid="{657244D4-FE4C-D44C-B48B-43E7FA139C6B}" name="Credits" dataDxfId="62">
       <calculatedColumnFormula>C10+SUM(B19:B23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B168D809-F848-8A4F-B241-57C6EF027C29}" name="Tier Name" dataDxfId="130">
+    <tableColumn id="2" xr3:uid="{B168D809-F848-8A4F-B241-57C6EF027C29}" name="Tier Name" dataDxfId="61">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{172BAC85-F7D2-7D4C-9C26-72C7C85DB56F}" name="Credits Remaining_x000a_in Tier" dataDxfId="129">
+    <tableColumn id="3" xr3:uid="{172BAC85-F7D2-7D4C-9C26-72C7C85DB56F}" name="Credits Remaining_x000a_in Tier" dataDxfId="60">
       <calculatedColumnFormula>VLOOKUP(Table_112[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_112[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{19498A2C-21A7-B740-9DD5-D095ED0DD812}" name="Yearly_x000a_Platform Total" dataDxfId="128">
+    <tableColumn id="4" xr3:uid="{19498A2C-21A7-B740-9DD5-D095ED0DD812}" name="Yearly_x000a_Platform Total" dataDxfId="59">
       <calculatedColumnFormula>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A475BA76-45A9-EF46-8FAE-2B381389CF6E}" name="Support Total" dataDxfId="127">
+    <tableColumn id="5" xr3:uid="{A475BA76-45A9-EF46-8FAE-2B381389CF6E}" name="Support Total" dataDxfId="58">
       <calculatedColumnFormula>C15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CFD58EB9-7FC4-3640-859D-34D006952E97}" name=" YearlyTotal Cost" dataDxfId="126">
+    <tableColumn id="6" xr3:uid="{CFD58EB9-7FC4-3640-859D-34D006952E97}" name=" YearlyTotal Cost" dataDxfId="57">
       <calculatedColumnFormula>D5+E5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5143,7 +4485,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{432B26DD-C481-9945-89E7-FEF42FEDB769}" name="Table_214" displayName="Table_214" ref="A9:C10">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8D2D857E-9AA6-5D4F-A4AF-373B7168526E}" name="Resource"/>
-    <tableColumn id="2" xr3:uid="{4FAE5D4B-8591-7D41-A69E-501EE57C6C41}" name="Quantity" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{4FAE5D4B-8591-7D41-A69E-501EE57C6C41}" name="Quantity" dataDxfId="56"/>
     <tableColumn id="3" xr3:uid="{FD66B2C4-D49F-1C43-9A30-DE1F21B9FD5B}" name="Credits">
       <calculatedColumnFormula>B10*'Cloud.gov Tiers'!B3</calculatedColumnFormula>
     </tableColumn>
@@ -5155,13 +4497,13 @@
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{3AE58A18-ABB7-FC4E-9D28-06F1CAA78773}" name="Table_315" displayName="Table_315" ref="E9:K10">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8901DDBE-58BA-8F4F-9D7C-2A2800A70157}" name="Offering" dataDxfId="124"/>
-    <tableColumn id="2" xr3:uid="{3C07AF3B-6C04-4348-A1E4-AEF634AB5F2C}" name="Description" dataDxfId="123"/>
-    <tableColumn id="3" xr3:uid="{50B2B6E3-7A84-CC41-A61F-9E7C70E4AC01}" name="Units" dataDxfId="122"/>
-    <tableColumn id="4" xr3:uid="{99748816-FA07-B948-9F02-BAFA13C63BF0}" name="Dimension" dataDxfId="121"/>
-    <tableColumn id="5" xr3:uid="{B4686AED-FFA8-0F4F-8CF1-A28CBB869F59}" name="GB per credit" dataDxfId="120"/>
-    <tableColumn id="6" xr3:uid="{C47C64B0-2C30-0043-A34C-7F0E810B25DC}" name="Quantity (GB)" dataDxfId="119"/>
-    <tableColumn id="7" xr3:uid="{D0A5DC61-9EB0-294B-94B0-91D19A5D6E7E}" name="Credits" dataDxfId="118">
+    <tableColumn id="1" xr3:uid="{8901DDBE-58BA-8F4F-9D7C-2A2800A70157}" name="Offering" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{3C07AF3B-6C04-4348-A1E4-AEF634AB5F2C}" name="Description" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{50B2B6E3-7A84-CC41-A61F-9E7C70E4AC01}" name="Units" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{99748816-FA07-B948-9F02-BAFA13C63BF0}" name="Dimension" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{B4686AED-FFA8-0F4F-8CF1-A28CBB869F59}" name="GB per credit" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{C47C64B0-2C30-0043-A34C-7F0E810B25DC}" name="Quantity (GB)" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{D0A5DC61-9EB0-294B-94B0-91D19A5D6E7E}" name="Credits" dataDxfId="49">
       <calculatedColumnFormula>ROUNDUP(Table_315[[#This Row],[Quantity (GB)]]/Table_315[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5175,12 +4517,12 @@
     <tableColumn id="1" xr3:uid="{CC812881-5649-1A4C-8C45-49D7808E0D1A}" name="Offering"/>
     <tableColumn id="2" xr3:uid="{46204D59-C3E2-174B-9C58-1DB2BB6988C8}" name="Description"/>
     <tableColumn id="4" xr3:uid="{C3D129A0-D876-D446-9BED-4CE757DA989E}" name="Units"/>
-    <tableColumn id="5" xr3:uid="{8159B7E1-3CBB-384F-9C82-294839F55CB1}" name="Dimension" dataDxfId="117"/>
-    <tableColumn id="3" xr3:uid="{6374D1D7-2C6C-674A-9B2C-B5EA274BAEAC}" name="GB per credit" dataDxfId="116">
+    <tableColumn id="5" xr3:uid="{8159B7E1-3CBB-384F-9C82-294839F55CB1}" name="Dimension" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{6374D1D7-2C6C-674A-9B2C-B5EA274BAEAC}" name="GB per credit" dataDxfId="47">
       <calculatedColumnFormula>'AWS Service Prices'!K5*'AWS Service Prices'!M5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{84537EB8-58A4-A645-9A18-A322EFB5D6C3}" name="Quantity (GB)" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{06CE2B03-0479-2148-9683-4F1675E4317C}" name="Credits" dataDxfId="114">
+    <tableColumn id="6" xr3:uid="{84537EB8-58A4-A645-9A18-A322EFB5D6C3}" name="Quantity (GB)" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{06CE2B03-0479-2148-9683-4F1675E4317C}" name="Credits" dataDxfId="45">
       <calculatedColumnFormula>ROUNDUP(Table_416[[#This Row],[Quantity (GB)]]/Table_416[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5192,7 +4534,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{DD38669A-9AE2-BA49-AF4A-F9D5CEFDB233}" name="Table_517" displayName="Table_517" ref="A14:C15">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E0798FE9-1580-1B43-B088-25897B8976F6}" name="Rate/Hour"/>
-    <tableColumn id="2" xr3:uid="{4F69F05E-31AF-C644-B087-9847D08BB3A0}" name="Hours" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{4F69F05E-31AF-C644-B087-9847D08BB3A0}" name="Hours" dataDxfId="44"/>
     <tableColumn id="3" xr3:uid="{35F99F2C-96B5-1244-8BF2-D8FA71D1A5B2}" name="Total">
       <calculatedColumnFormula>A15*B15</calculatedColumnFormula>
     </tableColumn>
@@ -5202,17 +4544,17 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{53A578BF-BA5A-7843-972B-EBD4EA7AD1DD}" name="Table_618" displayName="Table_618" ref="M14:S15" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{53A578BF-BA5A-7843-972B-EBD4EA7AD1DD}" name="Table_618" displayName="Table_618" ref="M14:S15" dataDxfId="43">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3024083C-5ED0-8D4D-8D1A-D4BD5916AE47}" name="Offering" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{3D92B04D-745E-2A49-991D-C00C27907719}" name="Description" dataDxfId="110"/>
-    <tableColumn id="4" xr3:uid="{50C39022-EBD5-9B42-84DD-C507ED702117}" name="Units" dataDxfId="109"/>
-    <tableColumn id="5" xr3:uid="{9759566D-ABA1-0943-92F2-2B5501002EE3}" name="Dimension" dataDxfId="108"/>
-    <tableColumn id="3" xr3:uid="{4A17BDB6-3CD8-BF43-B5F9-82D2A2C35A0C}" name="GB per credit" dataDxfId="107">
+    <tableColumn id="1" xr3:uid="{3024083C-5ED0-8D4D-8D1A-D4BD5916AE47}" name="Offering" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{3D92B04D-745E-2A49-991D-C00C27907719}" name="Description" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{50C39022-EBD5-9B42-84DD-C507ED702117}" name="Units" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{9759566D-ABA1-0943-92F2-2B5501002EE3}" name="Dimension" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{4A17BDB6-3CD8-BF43-B5F9-82D2A2C35A0C}" name="GB per credit" dataDxfId="38">
       <calculatedColumnFormula>'AWS Service Prices'!K4*'AWS Service Prices'!M4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{056FCEF1-5646-814F-8034-1E8AC53C910D}" name="Quantity (GB)" dataDxfId="106"/>
-    <tableColumn id="7" xr3:uid="{DAEA814F-05EA-764E-8533-FE0EF6F3B132}" name="Credits" dataDxfId="105">
+    <tableColumn id="6" xr3:uid="{056FCEF1-5646-814F-8034-1E8AC53C910D}" name="Quantity (GB)" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{DAEA814F-05EA-764E-8533-FE0EF6F3B132}" name="Credits" dataDxfId="36">
       <calculatedColumnFormula>ROUNDUP(Table_618[[#This Row],[Quantity (GB)]]/Table_618[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5237,11 +4579,11 @@
     <tableColumn id="2" xr3:uid="{B074D0B3-B914-AB4F-8066-81B90B3261D8}" name="Description"/>
     <tableColumn id="4" xr3:uid="{202C8C30-FD4E-6D40-9EBF-642B8C7AE181}" name="Units"/>
     <tableColumn id="5" xr3:uid="{CA6A3A17-2747-AF44-8119-FC05700B8D5C}" name="Dimension"/>
-    <tableColumn id="3" xr3:uid="{C6C6ED4B-9612-3F48-9D18-472E70646A28}" name="Units/Credit" dataDxfId="104">
+    <tableColumn id="3" xr3:uid="{C6C6ED4B-9612-3F48-9D18-472E70646A28}" name="Units/Credit" dataDxfId="35">
       <calculatedColumnFormula>'AWS Service Prices'!K6*'AWS Service Prices'!M6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{76CCCB3A-2B18-4C42-9DB6-C570AFD6FB75}" name="Quantity"/>
-    <tableColumn id="7" xr3:uid="{A024F374-2C63-444D-95DA-745B84ABCFE7}" name="Credits" dataDxfId="103">
+    <tableColumn id="7" xr3:uid="{A024F374-2C63-444D-95DA-745B84ABCFE7}" name="Credits" dataDxfId="34">
       <calculatedColumnFormula>ROUNDUP(Table_820[[#This Row],[Quantity]]/Table_820[[#This Row],[Units/Credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5253,7 +4595,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A9:C10">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Resource"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quantity" dataDxfId="157"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quantity" dataDxfId="88"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Credits"/>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -5261,10 +4603,10 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{333F2C22-64BE-8A4A-A52E-89FC6130AD21}" name="Table1221" displayName="Table1221" ref="A39:C49" totalsRowShown="0" headerRowDxfId="102" headerRowBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{333F2C22-64BE-8A4A-A52E-89FC6130AD21}" name="Table1221" displayName="Table1221" ref="A39:C49" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32">
   <autoFilter ref="A39:C49" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0A95F7D5-D48D-864F-84FF-73515D627597}" name="Version" dataDxfId="100" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{0A95F7D5-D48D-864F-84FF-73515D627597}" name="Version" dataDxfId="31" dataCellStyle="Comma"/>
     <tableColumn id="2" xr3:uid="{1427474E-5614-2046-B78C-0448E419A1D9}" name="Date"/>
     <tableColumn id="3" xr3:uid="{CAF26780-3593-1540-85AB-2E9EB898659F}" name="Notes"/>
   </tableColumns>
@@ -5275,13 +4617,13 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="E9:K10">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Offering" dataDxfId="156"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="155"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="154"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Dimension" dataDxfId="153"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="GB per credit" dataDxfId="152"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Quantity (GB)" dataDxfId="151"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Credits" dataDxfId="150">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Offering" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Dimension" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="GB per credit" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Quantity (GB)" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Credits" dataDxfId="81">
       <calculatedColumnFormula>ROUNDUP(Table_3[[#This Row],[Quantity (GB)]]/Table_3[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5295,12 +4637,12 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Offering"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Units"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dimension" dataDxfId="149"/>
-    <tableColumn id="3" xr3:uid="{CDA60C5E-AE6A-324F-8F61-A71F1A0A8966}" name="GB per credit" dataDxfId="148">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dimension" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{CDA60C5E-AE6A-324F-8F61-A71F1A0A8966}" name="GB per credit" dataDxfId="79">
       <calculatedColumnFormula>'AWS Service Prices'!K5*'AWS Service Prices'!M5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quantity (GB)" dataDxfId="147"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Credits" dataDxfId="146">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quantity (GB)" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Credits" dataDxfId="77">
       <calculatedColumnFormula>ROUNDUP(Table_4[[#This Row],[Quantity (GB)]]/Table_4[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5312,7 +4654,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A14:C15">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Rate/Hour"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Hours" dataDxfId="145"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Hours" dataDxfId="76"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Total"/>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -5320,17 +4662,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="M14:S15" dataDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="M14:S15" dataDxfId="75">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Offering" dataDxfId="143"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="142"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Units" dataDxfId="141"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Dimension" dataDxfId="140"/>
-    <tableColumn id="3" xr3:uid="{807927EE-801B-8148-9BA1-5FE9186170F2}" name="GB per credit" dataDxfId="139">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Offering" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Units" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Dimension" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{807927EE-801B-8148-9BA1-5FE9186170F2}" name="GB per credit" dataDxfId="70">
       <calculatedColumnFormula>'AWS Service Prices'!K4*'AWS Service Prices'!M4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Quantity (GB)" dataDxfId="138"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Credits" dataDxfId="137">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Quantity (GB)" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Credits" dataDxfId="68">
       <calculatedColumnFormula>ROUNDUP(Table_6[[#This Row],[Quantity (GB)]]/Table_6[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5355,11 +4697,11 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Units"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Dimension"/>
-    <tableColumn id="3" xr3:uid="{A30E673E-5221-9442-BA33-5D5CC8E273B5}" name="Units/Credit" dataDxfId="136">
+    <tableColumn id="3" xr3:uid="{A30E673E-5221-9442-BA33-5D5CC8E273B5}" name="Units/Credit" dataDxfId="67">
       <calculatedColumnFormula>'AWS Service Prices'!K6*'AWS Service Prices'!M6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Quantity"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Credits" dataDxfId="135">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Credits" dataDxfId="66">
       <calculatedColumnFormula>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5368,10 +4710,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}" name="Table12" displayName="Table12" ref="A40:C50" totalsRowShown="0" headerRowDxfId="134" headerRowBorderDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}" name="Table12" displayName="Table12" ref="A40:C50" totalsRowShown="0" headerRowDxfId="65" headerRowBorderDxfId="64">
   <autoFilter ref="A40:C50" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6F594386-932F-3745-B570-1D36152A4BED}" name="Version" dataDxfId="132" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{6F594386-932F-3745-B570-1D36152A4BED}" name="Version" dataDxfId="63" dataCellStyle="Comma"/>
     <tableColumn id="2" xr3:uid="{98BA1600-A7B8-2742-AF88-1C465CCF83D5}" name="Date"/>
     <tableColumn id="3" xr3:uid="{A3A06425-E98A-E042-A27B-C92165F08BCF}" name="Notes"/>
   </tableColumns>
@@ -5583,8 +4925,8 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5614,14 +4956,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="98.25" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5656,7 +4998,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="120">
+      <c r="A5" s="118">
         <f>C10+SUM(B19:B24)</f>
         <v>0</v>
       </c>
@@ -6227,10 +5569,10 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="122">
+      <c r="B22" s="120">
         <f>SUM(S33:S37)</f>
         <v>0</v>
       </c>
@@ -6280,10 +5622,10 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="124" t="s">
+      <c r="A23" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="123">
+      <c r="B23" s="121">
         <f>SUM(Table_8[Credits])</f>
         <v>0</v>
       </c>
@@ -6333,10 +5675,10 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="126" t="s">
+      <c r="A24" s="124" t="s">
         <v>196</v>
       </c>
-      <c r="B24" s="125">
+      <c r="B24" s="123">
         <f>$P$46</f>
         <v>0</v>
       </c>
@@ -7297,11 +6639,11 @@
       <c r="P45" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="Q45" s="114" t="s">
+      <c r="Q45" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="R45" s="111"/>
-      <c r="S45" s="111"/>
+      <c r="R45" s="109"/>
+      <c r="S45" s="109"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="105">
@@ -7314,24 +6656,24 @@
         <v>191</v>
       </c>
       <c r="J46" s="4"/>
-      <c r="M46" s="118" t="s">
+      <c r="M46" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="N46" s="116" t="s">
+      <c r="N46" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="O46" s="117">
+      <c r="O46" s="115">
         <v>1</v>
       </c>
-      <c r="P46" s="116">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="119">
+      <c r="P46" s="114">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="117">
         <f>O46*P46</f>
         <v>0</v>
       </c>
-      <c r="R46" s="112"/>
-      <c r="S46" s="112"/>
+      <c r="R46" s="110"/>
+      <c r="S46" s="110"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="105">
@@ -7346,11 +6688,11 @@
       <c r="J47" s="4"/>
       <c r="M47" s="88"/>
       <c r="N47" s="88"/>
-      <c r="O47" s="115"/>
+      <c r="O47" s="113"/>
       <c r="P47" s="88"/>
       <c r="Q47" s="88"/>
-      <c r="R47" s="113"/>
-      <c r="S47" s="112"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="110"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="105"/>
@@ -7364,7 +6706,7 @@
         <v>1.5</v>
       </c>
       <c r="B49" s="101">
-        <v>45839</v>
+        <v>45840</v>
       </c>
       <c r="C49" s="106" t="s">
         <v>198</v>
@@ -8430,43 +7772,43 @@
       <formula>$R41&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N46">
+    <cfRule type="expression" dxfId="21" priority="3">
+      <formula>$P$46&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P46">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:R29">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R33:R37">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41:R42">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N46">
-    <cfRule type="expression" dxfId="16" priority="3">
-      <formula>$P$46&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R46:R47">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P46">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12581,14 +11923,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="98.25" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/_assets/documents/cloud-gov-cost-estimator.xlsx
+++ b/_assets/documents/cloud-gov-cost-estimator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterdburkholder/Projects/cloud-gov/site/_assets/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markdboyd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5274FA16-971E-7A40-85CA-ED6AD0EAA238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C5E9B5-D04A-0047-B569-6F61061D3C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="500" windowWidth="47840" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="199">
   <si>
     <t>Estimated Price</t>
   </si>
@@ -665,6 +665,18 @@
   </si>
   <si>
     <t>Mv example to end</t>
+  </si>
+  <si>
+    <t>External domains</t>
+  </si>
+  <si>
+    <t>External domain</t>
+  </si>
+  <si>
+    <t>domain-with-cdn-dedicated-waf</t>
+  </si>
+  <si>
+    <t>Add dedicated CDN</t>
   </si>
 </sst>
 </file>
@@ -817,7 +829,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1458,12 +1470,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF356854"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF4A535C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF4A535C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1744,6 +1833,53 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1753,7 +1889,304 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="122">
+  <dxfs count="125">
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -2710,272 +3143,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -4177,54 +4344,54 @@
   </dxfs>
   <tableStyles count="10">
     <tableStyle name="Worksheet-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="124"/>
+      <tableStyleElement type="firstRowStripe" dxfId="123"/>
+      <tableStyleElement type="secondRowStripe" dxfId="122"/>
+    </tableStyle>
+    <tableStyle name="Worksheet-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="121"/>
       <tableStyleElement type="firstRowStripe" dxfId="120"/>
       <tableStyleElement type="secondRowStripe" dxfId="119"/>
     </tableStyle>
-    <tableStyle name="Worksheet-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Worksheet-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
       <tableStyleElement type="headerRow" dxfId="118"/>
       <tableStyleElement type="firstRowStripe" dxfId="117"/>
       <tableStyleElement type="secondRowStripe" dxfId="116"/>
     </tableStyle>
-    <tableStyle name="Worksheet-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+    <tableStyle name="Worksheet-style 4" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
       <tableStyleElement type="headerRow" dxfId="115"/>
       <tableStyleElement type="firstRowStripe" dxfId="114"/>
       <tableStyleElement type="secondRowStripe" dxfId="113"/>
     </tableStyle>
-    <tableStyle name="Worksheet-style 4" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+    <tableStyle name="Worksheet-style 5" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
       <tableStyleElement type="headerRow" dxfId="112"/>
       <tableStyleElement type="firstRowStripe" dxfId="111"/>
       <tableStyleElement type="secondRowStripe" dxfId="110"/>
     </tableStyle>
-    <tableStyle name="Worksheet-style 5" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+    <tableStyle name="Worksheet-style 6" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
       <tableStyleElement type="headerRow" dxfId="109"/>
       <tableStyleElement type="firstRowStripe" dxfId="108"/>
       <tableStyleElement type="secondRowStripe" dxfId="107"/>
     </tableStyle>
-    <tableStyle name="Worksheet-style 6" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
+    <tableStyle name="Worksheet-style 7" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
       <tableStyleElement type="headerRow" dxfId="106"/>
       <tableStyleElement type="firstRowStripe" dxfId="105"/>
       <tableStyleElement type="secondRowStripe" dxfId="104"/>
     </tableStyle>
-    <tableStyle name="Worksheet-style 7" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
+    <tableStyle name="Worksheet-style 8" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
       <tableStyleElement type="headerRow" dxfId="103"/>
       <tableStyleElement type="firstRowStripe" dxfId="102"/>
       <tableStyleElement type="secondRowStripe" dxfId="101"/>
     </tableStyle>
-    <tableStyle name="Worksheet-style 8" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
+    <tableStyle name="Cloud.gov Tiers-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
       <tableStyleElement type="headerRow" dxfId="100"/>
       <tableStyleElement type="firstRowStripe" dxfId="99"/>
       <tableStyleElement type="secondRowStripe" dxfId="98"/>
     </tableStyle>
-    <tableStyle name="Cloud.gov Tiers-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
+    <tableStyle name="Cloud.gov Tiers-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
       <tableStyleElement type="headerRow" dxfId="97"/>
       <tableStyleElement type="firstRowStripe" dxfId="96"/>
       <tableStyleElement type="secondRowStripe" dxfId="95"/>
-    </tableStyle>
-    <tableStyle name="Cloud.gov Tiers-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
-      <tableStyleElement type="headerRow" dxfId="94"/>
-      <tableStyleElement type="firstRowStripe" dxfId="93"/>
-      <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4241,20 +4408,20 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A4:F5">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Credits" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tier Name" dataDxfId="90">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Credits" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tier Name" dataDxfId="93">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Credits Remaining_x000a_in Tier" dataDxfId="89">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Credits Remaining_x000a_in Tier" dataDxfId="92">
       <calculatedColumnFormula>VLOOKUP(Table_1[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_1[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Yearly_x000a_Platform Total" dataDxfId="88">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Yearly_x000a_Platform Total" dataDxfId="91">
       <calculatedColumnFormula>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Support Total" dataDxfId="87">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Support Total" dataDxfId="90">
       <calculatedColumnFormula>C15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" YearlyTotal Cost" dataDxfId="86">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" YearlyTotal Cost" dataDxfId="89">
       <calculatedColumnFormula>D5+E5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4291,22 +4458,22 @@
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4C37D040-F691-2C49-BE22-816489BFD4D2}" name="Table_112" displayName="Table_112" ref="A4:F5">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{657244D4-FE4C-D44C-B48B-43E7FA139C6B}" name="Credits" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{657244D4-FE4C-D44C-B48B-43E7FA139C6B}" name="Credits" dataDxfId="62">
       <calculatedColumnFormula>C10+SUM(B19:B23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B168D809-F848-8A4F-B241-57C6EF027C29}" name="Tier Name" dataDxfId="30">
+    <tableColumn id="2" xr3:uid="{B168D809-F848-8A4F-B241-57C6EF027C29}" name="Tier Name" dataDxfId="61">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{172BAC85-F7D2-7D4C-9C26-72C7C85DB56F}" name="Credits Remaining_x000a_in Tier" dataDxfId="29">
+    <tableColumn id="3" xr3:uid="{172BAC85-F7D2-7D4C-9C26-72C7C85DB56F}" name="Credits Remaining_x000a_in Tier" dataDxfId="60">
       <calculatedColumnFormula>VLOOKUP(Table_112[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_112[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{19498A2C-21A7-B740-9DD5-D095ED0DD812}" name="Yearly_x000a_Platform Total" dataDxfId="28">
+    <tableColumn id="4" xr3:uid="{19498A2C-21A7-B740-9DD5-D095ED0DD812}" name="Yearly_x000a_Platform Total" dataDxfId="59">
       <calculatedColumnFormula>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A475BA76-45A9-EF46-8FAE-2B381389CF6E}" name="Support Total" dataDxfId="27">
+    <tableColumn id="5" xr3:uid="{A475BA76-45A9-EF46-8FAE-2B381389CF6E}" name="Support Total" dataDxfId="58">
       <calculatedColumnFormula>C15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CFD58EB9-7FC4-3640-859D-34D006952E97}" name=" YearlyTotal Cost" dataDxfId="26">
+    <tableColumn id="6" xr3:uid="{CFD58EB9-7FC4-3640-859D-34D006952E97}" name=" YearlyTotal Cost" dataDxfId="57">
       <calculatedColumnFormula>D5+E5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4318,7 +4485,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{432B26DD-C481-9945-89E7-FEF42FEDB769}" name="Table_214" displayName="Table_214" ref="A9:C10">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8D2D857E-9AA6-5D4F-A4AF-373B7168526E}" name="Resource"/>
-    <tableColumn id="2" xr3:uid="{4FAE5D4B-8591-7D41-A69E-501EE57C6C41}" name="Quantity" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{4FAE5D4B-8591-7D41-A69E-501EE57C6C41}" name="Quantity" dataDxfId="56"/>
     <tableColumn id="3" xr3:uid="{FD66B2C4-D49F-1C43-9A30-DE1F21B9FD5B}" name="Credits">
       <calculatedColumnFormula>B10*'Cloud.gov Tiers'!B3</calculatedColumnFormula>
     </tableColumn>
@@ -4330,13 +4497,13 @@
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{3AE58A18-ABB7-FC4E-9D28-06F1CAA78773}" name="Table_315" displayName="Table_315" ref="E9:K10">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8901DDBE-58BA-8F4F-9D7C-2A2800A70157}" name="Offering" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{3C07AF3B-6C04-4348-A1E4-AEF634AB5F2C}" name="Description" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{50B2B6E3-7A84-CC41-A61F-9E7C70E4AC01}" name="Units" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{99748816-FA07-B948-9F02-BAFA13C63BF0}" name="Dimension" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{B4686AED-FFA8-0F4F-8CF1-A28CBB869F59}" name="GB per credit" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{C47C64B0-2C30-0043-A34C-7F0E810B25DC}" name="Quantity (GB)" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{D0A5DC61-9EB0-294B-94B0-91D19A5D6E7E}" name="Credits" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{8901DDBE-58BA-8F4F-9D7C-2A2800A70157}" name="Offering" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{3C07AF3B-6C04-4348-A1E4-AEF634AB5F2C}" name="Description" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{50B2B6E3-7A84-CC41-A61F-9E7C70E4AC01}" name="Units" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{99748816-FA07-B948-9F02-BAFA13C63BF0}" name="Dimension" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{B4686AED-FFA8-0F4F-8CF1-A28CBB869F59}" name="GB per credit" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{C47C64B0-2C30-0043-A34C-7F0E810B25DC}" name="Quantity (GB)" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{D0A5DC61-9EB0-294B-94B0-91D19A5D6E7E}" name="Credits" dataDxfId="49">
       <calculatedColumnFormula>ROUNDUP(Table_315[[#This Row],[Quantity (GB)]]/Table_315[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4350,12 +4517,12 @@
     <tableColumn id="1" xr3:uid="{CC812881-5649-1A4C-8C45-49D7808E0D1A}" name="Offering"/>
     <tableColumn id="2" xr3:uid="{46204D59-C3E2-174B-9C58-1DB2BB6988C8}" name="Description"/>
     <tableColumn id="4" xr3:uid="{C3D129A0-D876-D446-9BED-4CE757DA989E}" name="Units"/>
-    <tableColumn id="5" xr3:uid="{8159B7E1-3CBB-384F-9C82-294839F55CB1}" name="Dimension" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{6374D1D7-2C6C-674A-9B2C-B5EA274BAEAC}" name="GB per credit" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{8159B7E1-3CBB-384F-9C82-294839F55CB1}" name="Dimension" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{6374D1D7-2C6C-674A-9B2C-B5EA274BAEAC}" name="GB per credit" dataDxfId="47">
       <calculatedColumnFormula>'AWS Service Prices'!K5*'AWS Service Prices'!M5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{84537EB8-58A4-A645-9A18-A322EFB5D6C3}" name="Quantity (GB)" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{06CE2B03-0479-2148-9683-4F1675E4317C}" name="Credits" dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{84537EB8-58A4-A645-9A18-A322EFB5D6C3}" name="Quantity (GB)" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{06CE2B03-0479-2148-9683-4F1675E4317C}" name="Credits" dataDxfId="45">
       <calculatedColumnFormula>ROUNDUP(Table_416[[#This Row],[Quantity (GB)]]/Table_416[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4367,7 +4534,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{DD38669A-9AE2-BA49-AF4A-F9D5CEFDB233}" name="Table_517" displayName="Table_517" ref="A14:C15">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E0798FE9-1580-1B43-B088-25897B8976F6}" name="Rate/Hour"/>
-    <tableColumn id="2" xr3:uid="{4F69F05E-31AF-C644-B087-9847D08BB3A0}" name="Hours" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{4F69F05E-31AF-C644-B087-9847D08BB3A0}" name="Hours" dataDxfId="44"/>
     <tableColumn id="3" xr3:uid="{35F99F2C-96B5-1244-8BF2-D8FA71D1A5B2}" name="Total">
       <calculatedColumnFormula>A15*B15</calculatedColumnFormula>
     </tableColumn>
@@ -4377,17 +4544,17 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{53A578BF-BA5A-7843-972B-EBD4EA7AD1DD}" name="Table_618" displayName="Table_618" ref="M14:S15" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{53A578BF-BA5A-7843-972B-EBD4EA7AD1DD}" name="Table_618" displayName="Table_618" ref="M14:S15" dataDxfId="43">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3024083C-5ED0-8D4D-8D1A-D4BD5916AE47}" name="Offering" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{3D92B04D-745E-2A49-991D-C00C27907719}" name="Description" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{50C39022-EBD5-9B42-84DD-C507ED702117}" name="Units" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{9759566D-ABA1-0943-92F2-2B5501002EE3}" name="Dimension" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4A17BDB6-3CD8-BF43-B5F9-82D2A2C35A0C}" name="GB per credit" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{3024083C-5ED0-8D4D-8D1A-D4BD5916AE47}" name="Offering" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{3D92B04D-745E-2A49-991D-C00C27907719}" name="Description" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{50C39022-EBD5-9B42-84DD-C507ED702117}" name="Units" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{9759566D-ABA1-0943-92F2-2B5501002EE3}" name="Dimension" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{4A17BDB6-3CD8-BF43-B5F9-82D2A2C35A0C}" name="GB per credit" dataDxfId="38">
       <calculatedColumnFormula>'AWS Service Prices'!K4*'AWS Service Prices'!M4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{056FCEF1-5646-814F-8034-1E8AC53C910D}" name="Quantity (GB)" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{DAEA814F-05EA-764E-8533-FE0EF6F3B132}" name="Credits" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{056FCEF1-5646-814F-8034-1E8AC53C910D}" name="Quantity (GB)" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{DAEA814F-05EA-764E-8533-FE0EF6F3B132}" name="Credits" dataDxfId="36">
       <calculatedColumnFormula>ROUNDUP(Table_618[[#This Row],[Quantity (GB)]]/Table_618[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4412,11 +4579,11 @@
     <tableColumn id="2" xr3:uid="{B074D0B3-B914-AB4F-8066-81B90B3261D8}" name="Description"/>
     <tableColumn id="4" xr3:uid="{202C8C30-FD4E-6D40-9EBF-642B8C7AE181}" name="Units"/>
     <tableColumn id="5" xr3:uid="{CA6A3A17-2747-AF44-8119-FC05700B8D5C}" name="Dimension"/>
-    <tableColumn id="3" xr3:uid="{C6C6ED4B-9612-3F48-9D18-472E70646A28}" name="Units/Credit" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{C6C6ED4B-9612-3F48-9D18-472E70646A28}" name="Units/Credit" dataDxfId="35">
       <calculatedColumnFormula>'AWS Service Prices'!K6*'AWS Service Prices'!M6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{76CCCB3A-2B18-4C42-9DB6-C570AFD6FB75}" name="Quantity"/>
-    <tableColumn id="7" xr3:uid="{A024F374-2C63-444D-95DA-745B84ABCFE7}" name="Credits" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{A024F374-2C63-444D-95DA-745B84ABCFE7}" name="Credits" dataDxfId="34">
       <calculatedColumnFormula>ROUNDUP(Table_820[[#This Row],[Quantity]]/Table_820[[#This Row],[Units/Credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4428,7 +4595,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A9:C10">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Resource"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quantity" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quantity" dataDxfId="88"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Credits"/>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -4436,10 +4603,10 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{333F2C22-64BE-8A4A-A52E-89FC6130AD21}" name="Table1221" displayName="Table1221" ref="A39:C49" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{333F2C22-64BE-8A4A-A52E-89FC6130AD21}" name="Table1221" displayName="Table1221" ref="A39:C49" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32">
   <autoFilter ref="A39:C49" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0A95F7D5-D48D-864F-84FF-73515D627597}" name="Version" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{0A95F7D5-D48D-864F-84FF-73515D627597}" name="Version" dataDxfId="31" dataCellStyle="Comma"/>
     <tableColumn id="2" xr3:uid="{1427474E-5614-2046-B78C-0448E419A1D9}" name="Date"/>
     <tableColumn id="3" xr3:uid="{CAF26780-3593-1540-85AB-2E9EB898659F}" name="Notes"/>
   </tableColumns>
@@ -4450,13 +4617,13 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="E9:K10">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Offering" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Dimension" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="GB per credit" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Quantity (GB)" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Credits" dataDxfId="78">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Offering" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Dimension" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="GB per credit" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Quantity (GB)" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Credits" dataDxfId="81">
       <calculatedColumnFormula>ROUNDUP(Table_3[[#This Row],[Quantity (GB)]]/Table_3[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4470,12 +4637,12 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Offering"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Units"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dimension" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{CDA60C5E-AE6A-324F-8F61-A71F1A0A8966}" name="GB per credit" dataDxfId="76">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dimension" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{CDA60C5E-AE6A-324F-8F61-A71F1A0A8966}" name="GB per credit" dataDxfId="79">
       <calculatedColumnFormula>'AWS Service Prices'!K5*'AWS Service Prices'!M5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quantity (GB)" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Credits" dataDxfId="74">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quantity (GB)" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Credits" dataDxfId="77">
       <calculatedColumnFormula>ROUNDUP(Table_4[[#This Row],[Quantity (GB)]]/Table_4[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4487,7 +4654,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A14:C15">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Rate/Hour"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Hours" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Hours" dataDxfId="76"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Total"/>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -4495,17 +4662,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="M14:S15" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="M14:S15" dataDxfId="75">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Offering" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Units" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Dimension" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{807927EE-801B-8148-9BA1-5FE9186170F2}" name="GB per credit" dataDxfId="67">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Offering" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Units" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Dimension" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{807927EE-801B-8148-9BA1-5FE9186170F2}" name="GB per credit" dataDxfId="70">
       <calculatedColumnFormula>'AWS Service Prices'!K4*'AWS Service Prices'!M4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Quantity (GB)" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Credits" dataDxfId="65">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Quantity (GB)" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Credits" dataDxfId="68">
       <calculatedColumnFormula>ROUNDUP(Table_6[[#This Row],[Quantity (GB)]]/Table_6[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4514,7 +4681,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_7" displayName="Table_7" ref="A18:B23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_7" displayName="Table_7" ref="A18:B24">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Service"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Credits"/>
@@ -4530,11 +4697,11 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Units"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Dimension"/>
-    <tableColumn id="3" xr3:uid="{A30E673E-5221-9442-BA33-5D5CC8E273B5}" name="Units/Credit" dataDxfId="64">
+    <tableColumn id="3" xr3:uid="{A30E673E-5221-9442-BA33-5D5CC8E273B5}" name="Units/Credit" dataDxfId="67">
       <calculatedColumnFormula>'AWS Service Prices'!K6*'AWS Service Prices'!M6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Quantity"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Credits" dataDxfId="63">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Credits" dataDxfId="66">
       <calculatedColumnFormula>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4543,10 +4710,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}" name="Table12" displayName="Table12" ref="A39:C49" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61">
-  <autoFilter ref="A39:C49" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}" name="Table12" displayName="Table12" ref="A40:C50" totalsRowShown="0" headerRowDxfId="65" headerRowBorderDxfId="64">
+  <autoFilter ref="A40:C50" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6F594386-932F-3745-B570-1D36152A4BED}" name="Version" dataDxfId="60" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{6F594386-932F-3745-B570-1D36152A4BED}" name="Version" dataDxfId="63" dataCellStyle="Comma"/>
     <tableColumn id="2" xr3:uid="{98BA1600-A7B8-2742-AF88-1C465CCF83D5}" name="Date"/>
     <tableColumn id="3" xr3:uid="{A3A06425-E98A-E042-A27B-C92165F08BCF}" name="Notes"/>
   </tableColumns>
@@ -4758,8 +4925,8 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4789,14 +4956,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="98.25" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4831,8 +4998,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="81">
-        <f>C10+SUM(B19:B23)</f>
+      <c r="A5" s="118">
+        <f>C10+SUM(B19:B24)</f>
         <v>0</v>
       </c>
       <c r="B5" s="82" t="str" cm="1">
@@ -5402,10 +5569,10 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="120">
         <f>SUM(S33:S37)</f>
         <v>0</v>
       </c>
@@ -5455,10 +5622,10 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="121">
         <f>SUM(Table_8[Credits])</f>
         <v>0</v>
       </c>
@@ -5508,6 +5675,13 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="124" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="123">
+        <f>$P$46</f>
+        <v>0</v>
+      </c>
       <c r="E24" s="18" t="str">
         <v>AWS RDS</v>
       </c>
@@ -5600,9 +5774,6 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28" t="s">
-        <v>174</v>
-      </c>
       <c r="E26" s="18" t="str">
         <v>AWS RDS</v>
       </c>
@@ -5650,10 +5821,7 @@
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="E27" s="24" t="str">
         <v>AWS RDS</v>
@@ -5701,12 +5869,11 @@
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="18" t="str">
-        <f t="array" ref="A28:B35">CloudGovNoCostServices</f>
-        <v>External Domain</v>
-      </c>
-      <c r="B28" s="21" t="str">
-        <v>cdn-route</v>
+      <c r="A28" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="E28" s="18" t="str">
         <v>AWS RDS</v>
@@ -5754,11 +5921,12 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="str">
+      <c r="A29" s="18" t="str">
+        <f t="array" ref="A29:B36">CloudGovNoCostServices</f>
         <v>External Domain</v>
       </c>
-      <c r="B29" s="27" t="str">
-        <v>custom-domain</v>
+      <c r="B29" s="21" t="str">
+        <v>cdn-route</v>
       </c>
       <c r="E29" s="24" t="str">
         <v>AWS RDS</v>
@@ -5807,11 +5975,11 @@
       <c r="T29" s="92"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="18" t="str">
+      <c r="A30" s="24" t="str">
         <v>External Domain</v>
       </c>
-      <c r="B30" s="21" t="str">
-        <v>domain</v>
+      <c r="B30" s="27" t="str">
+        <v>custom-domain</v>
       </c>
       <c r="E30" s="18" t="str">
         <v>AWS RDS</v>
@@ -5839,11 +6007,11 @@
       <c r="Y30" s="29"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="24" t="str">
+      <c r="A31" s="18" t="str">
         <v>External Domain</v>
       </c>
-      <c r="B31" s="27" t="str">
-        <v>domain-with-cdn</v>
+      <c r="B31" s="21" t="str">
+        <v>domain</v>
       </c>
       <c r="E31" s="24" t="str">
         <v>AWS RDS</v>
@@ -5877,11 +6045,11 @@
       <c r="R31" s="87"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="str">
-        <v>UAA Service Account</v>
-      </c>
-      <c r="B32" s="21" t="str">
-        <v>oauth-client</v>
+      <c r="A32" s="24" t="str">
+        <v>External Domain</v>
+      </c>
+      <c r="B32" s="27" t="str">
+        <v>domain-with-cdn</v>
       </c>
       <c r="E32" s="18" t="str">
         <v>AWS RDS</v>
@@ -5928,11 +6096,11 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="24" t="str">
+      <c r="A33" s="18" t="str">
         <v>UAA Service Account</v>
       </c>
-      <c r="B33" s="27" t="str">
-        <v>space-auditor</v>
+      <c r="B33" s="21" t="str">
+        <v>oauth-client</v>
       </c>
       <c r="E33" s="24" t="str">
         <v>AWS RDS</v>
@@ -5981,11 +6149,11 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="18" t="str">
+      <c r="A34" s="24" t="str">
         <v>UAA Service Account</v>
       </c>
-      <c r="B34" s="21" t="str">
-        <v>space-deployer</v>
+      <c r="B34" s="27" t="str">
+        <v>space-auditor</v>
       </c>
       <c r="E34" s="18" t="str">
         <v>AWS RDS</v>
@@ -6033,11 +6201,11 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="24" t="str">
-        <v>Autoscaler</v>
-      </c>
-      <c r="B35" s="27" t="str">
-        <v>autoscaler-free-plan</v>
+      <c r="A35" s="18" t="str">
+        <v>UAA Service Account</v>
+      </c>
+      <c r="B35" s="21" t="str">
+        <v>space-deployer</v>
       </c>
       <c r="E35" s="24" t="str">
         <v>AWS RDS</v>
@@ -6085,10 +6253,12 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="44"/>
+      <c r="A36" s="24" t="str">
+        <v>Autoscaler</v>
+      </c>
+      <c r="B36" s="27" t="str">
+        <v>autoscaler-free-plan</v>
+      </c>
       <c r="E36" s="18" t="str">
         <v>AWS RDS</v>
       </c>
@@ -6135,6 +6305,10 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="44"/>
       <c r="E37" s="24" t="str">
         <v>AWS RDS</v>
       </c>
@@ -6205,15 +6379,6 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="102" t="s">
-        <v>183</v>
-      </c>
-      <c r="B39" s="103" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" s="104" t="s">
-        <v>185</v>
-      </c>
       <c r="E39" s="24" t="str">
         <v>AWS RDS</v>
       </c>
@@ -6241,14 +6406,14 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="105">
-        <v>1</v>
-      </c>
-      <c r="B40" s="101">
-        <v>45748</v>
-      </c>
-      <c r="C40" s="100" t="s">
-        <v>189</v>
+      <c r="A40" s="102" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="104" t="s">
+        <v>185</v>
       </c>
       <c r="E40" s="18" t="str">
         <v>AWS RDS</v>
@@ -6296,13 +6461,13 @@
     </row>
     <row r="41" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="105">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="B41" s="101">
-        <v>45749</v>
+        <v>45748</v>
       </c>
       <c r="C41" s="100" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E41" s="24" t="str">
         <v>AWS RDS</v>
@@ -6351,9 +6516,14 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="105"/>
+      <c r="A42" s="105">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B42" s="101">
+        <v>45749</v>
+      </c>
       <c r="C42" s="100" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E42" s="18" t="str">
         <v>AWS RDS</v>
@@ -6404,7 +6574,7 @@
     <row r="43" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="105"/>
       <c r="C43" s="100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E43" s="54" t="str">
         <v>AWS RDS</v>
@@ -6431,54 +6601,116 @@
       <c r="Q43" s="98"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="105">
-        <v>1.2</v>
-      </c>
-      <c r="B44" s="101">
-        <v>45756</v>
-      </c>
-      <c r="C44" s="106" t="s">
-        <v>190</v>
+      <c r="A44" s="105"/>
+      <c r="C44" s="100" t="s">
+        <v>188</v>
       </c>
       <c r="J44" s="4"/>
+      <c r="M44" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N44" s="108"/>
+      <c r="O44" s="108"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="108"/>
+      <c r="S44" s="108"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="105">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="B45" s="101">
-        <v>45757</v>
+        <v>45756</v>
       </c>
       <c r="C45" s="106" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J45" s="4"/>
+      <c r="M45" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="O45" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="P45" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q45" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="R45" s="109"/>
+      <c r="S45" s="109"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="105">
+        <v>1.3</v>
+      </c>
+      <c r="B46" s="101">
+        <v>45757</v>
+      </c>
+      <c r="C46" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="M46" s="116" t="s">
+        <v>196</v>
+      </c>
+      <c r="N46" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="O46" s="115">
+        <v>1</v>
+      </c>
+      <c r="P46" s="114">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="117">
+        <f>O46*P46</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="110"/>
+      <c r="S46" s="110"/>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="105">
         <v>1.4</v>
       </c>
-      <c r="B46" s="101">
+      <c r="B47" s="101">
         <v>45775</v>
       </c>
-      <c r="C46" s="106" t="s">
+      <c r="C47" s="106" t="s">
         <v>193</v>
       </c>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="105"/>
-      <c r="C47" s="106" t="s">
-        <v>194</v>
-      </c>
       <c r="J47" s="4"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="113"/>
+      <c r="P47" s="88"/>
+      <c r="Q47" s="88"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="110"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="105"/>
+      <c r="C48" s="106" t="s">
+        <v>194</v>
+      </c>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="105"/>
+      <c r="A49" s="105">
+        <v>1.5</v>
+      </c>
+      <c r="B49" s="101">
+        <v>45840</v>
+      </c>
+      <c r="C49" s="106" t="s">
+        <v>198</v>
+      </c>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7496,72 +7728,87 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="B10 J14:J43 B15">
-    <cfRule type="cellIs" dxfId="59" priority="17" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="58" priority="6">
+    <cfRule type="expression" dxfId="29" priority="10">
       <formula>$J$10&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F43">
-    <cfRule type="expression" dxfId="57" priority="7">
+    <cfRule type="expression" dxfId="28" priority="11">
       <formula>$J14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="56" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="55" priority="4">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>$R10&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="expression" dxfId="54" priority="5">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>$R15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N29">
-    <cfRule type="expression" dxfId="53" priority="3">
+    <cfRule type="expression" dxfId="24" priority="7">
       <formula>$R19&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33:N37">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>$R33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:N42">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>$R41&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N46">
+    <cfRule type="expression" dxfId="21" priority="3">
+      <formula>$P$46&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P46">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="cellIs" dxfId="50" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="49" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:R29">
-    <cfRule type="cellIs" dxfId="48" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R33:R37">
-    <cfRule type="cellIs" dxfId="47" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41:R42">
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R46:R47">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11676,14 +11923,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="98.25" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14365,72 +14612,72 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="B10 J14:J43 B15">
-    <cfRule type="cellIs" dxfId="45" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="44" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>$J$10&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F43">
-    <cfRule type="expression" dxfId="43" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>$J14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="42" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="41" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>$R10&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="expression" dxfId="40" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>$R15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N29">
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$R19&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33:N37">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$R33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:N42">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$R41&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:R29">
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R33:R37">
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41:R42">
-    <cfRule type="cellIs" dxfId="32" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_assets/documents/cloud-gov-cost-estimator.xlsx
+++ b/_assets/documents/cloud-gov-cost-estimator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markdboyd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C5E9B5-D04A-0047-B569-6F61061D3C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFE4B5F-9D48-2A49-BB17-023774FD6386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,10 +21,11 @@
   <definedNames>
     <definedName name="AWS_RDS_Instances" localSheetId="3">'Example worksheet'!$E$13:$K$43</definedName>
     <definedName name="AWS_RDS_Instances">Worksheet!$E$13:$K$43</definedName>
-    <definedName name="AwsElasticCachePrices">'AWS Service Prices'!$A$44:$E$48</definedName>
-    <definedName name="AwsOpensearchPrices">'AWS Service Prices'!$A$33:$E$43</definedName>
-    <definedName name="AWSRdsServicePrices">'AWS Service Prices'!$A$3:$E$32</definedName>
-    <definedName name="CloudGovNoCostServices">'AWS Service Prices'!$A$49:$B$56</definedName>
+    <definedName name="AwsElasticCachePrices">'AWS Service Prices'!$A$58:$E$62</definedName>
+    <definedName name="AwsOpensearchPrices">'AWS Service Prices'!$A$47:$E$57</definedName>
+    <definedName name="AWSRdsServicePrices">'AWS Service Prices'!$A$3:$E$46</definedName>
+    <definedName name="CloudGovNoCostServices">'AWS Service Prices'!$A$64:$E$71</definedName>
+    <definedName name="ExternalDomainPrices">'AWS Service Prices'!$A$63:$E$63</definedName>
     <definedName name="MeteredServices">'AWS Service Prices'!$J:$N</definedName>
     <definedName name="PricePerCredit">'Cloud.gov Tiers'!$B$4</definedName>
   </definedNames>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="214">
   <si>
     <t>Estimated Price</t>
   </si>
@@ -677,6 +678,51 @@
   </si>
   <si>
     <t>Add dedicated CDN</t>
+  </si>
+  <si>
+    <t>micro-psql-replica</t>
+  </si>
+  <si>
+    <t>small-psql-replica</t>
+  </si>
+  <si>
+    <t>medium-psql-replica</t>
+  </si>
+  <si>
+    <t>large-gp-psql-replica</t>
+  </si>
+  <si>
+    <t>2xlarge-gp-psql-replica</t>
+  </si>
+  <si>
+    <t>micro-mysql-replica</t>
+  </si>
+  <si>
+    <t>small-mysql-replica</t>
+  </si>
+  <si>
+    <t>medium-gp-mysql-replica</t>
+  </si>
+  <si>
+    <t>large-gp-mysql-replica</t>
+  </si>
+  <si>
+    <t>xlarge-gp-mysql-replica</t>
+  </si>
+  <si>
+    <t>medium-mysql-replica</t>
+  </si>
+  <si>
+    <t>xlarge-gp-psql-m6-replica</t>
+  </si>
+  <si>
+    <t>xlarge-gp-psql-replica</t>
+  </si>
+  <si>
+    <t>medium-gp-psql-replica</t>
+  </si>
+  <si>
+    <t>Add replica plans</t>
   </si>
 </sst>
 </file>
@@ -829,7 +875,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1547,12 +1593,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFF2CC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1598,9 +1692,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1880,16 +1971,80 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="125">
+  <dxfs count="126">
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2005,13 +2160,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <u/>
@@ -2080,37 +2228,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFE599"/>
           <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4344,54 +4461,54 @@
   </dxfs>
   <tableStyles count="10">
     <tableStyle name="Worksheet-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="124"/>
-      <tableStyleElement type="firstRowStripe" dxfId="123"/>
-      <tableStyleElement type="secondRowStripe" dxfId="122"/>
+      <tableStyleElement type="headerRow" dxfId="125"/>
+      <tableStyleElement type="firstRowStripe" dxfId="124"/>
+      <tableStyleElement type="secondRowStripe" dxfId="123"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="121"/>
-      <tableStyleElement type="firstRowStripe" dxfId="120"/>
-      <tableStyleElement type="secondRowStripe" dxfId="119"/>
+      <tableStyleElement type="headerRow" dxfId="122"/>
+      <tableStyleElement type="firstRowStripe" dxfId="121"/>
+      <tableStyleElement type="secondRowStripe" dxfId="120"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="118"/>
-      <tableStyleElement type="firstRowStripe" dxfId="117"/>
-      <tableStyleElement type="secondRowStripe" dxfId="116"/>
+      <tableStyleElement type="headerRow" dxfId="119"/>
+      <tableStyleElement type="firstRowStripe" dxfId="118"/>
+      <tableStyleElement type="secondRowStripe" dxfId="117"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 4" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="115"/>
-      <tableStyleElement type="firstRowStripe" dxfId="114"/>
-      <tableStyleElement type="secondRowStripe" dxfId="113"/>
+      <tableStyleElement type="headerRow" dxfId="116"/>
+      <tableStyleElement type="firstRowStripe" dxfId="115"/>
+      <tableStyleElement type="secondRowStripe" dxfId="114"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 5" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="112"/>
-      <tableStyleElement type="firstRowStripe" dxfId="111"/>
-      <tableStyleElement type="secondRowStripe" dxfId="110"/>
+      <tableStyleElement type="headerRow" dxfId="113"/>
+      <tableStyleElement type="firstRowStripe" dxfId="112"/>
+      <tableStyleElement type="secondRowStripe" dxfId="111"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 6" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="headerRow" dxfId="109"/>
-      <tableStyleElement type="firstRowStripe" dxfId="108"/>
-      <tableStyleElement type="secondRowStripe" dxfId="107"/>
+      <tableStyleElement type="headerRow" dxfId="110"/>
+      <tableStyleElement type="firstRowStripe" dxfId="109"/>
+      <tableStyleElement type="secondRowStripe" dxfId="108"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 7" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
-      <tableStyleElement type="headerRow" dxfId="106"/>
-      <tableStyleElement type="firstRowStripe" dxfId="105"/>
-      <tableStyleElement type="secondRowStripe" dxfId="104"/>
+      <tableStyleElement type="headerRow" dxfId="107"/>
+      <tableStyleElement type="firstRowStripe" dxfId="106"/>
+      <tableStyleElement type="secondRowStripe" dxfId="105"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 8" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
-      <tableStyleElement type="headerRow" dxfId="103"/>
-      <tableStyleElement type="firstRowStripe" dxfId="102"/>
-      <tableStyleElement type="secondRowStripe" dxfId="101"/>
+      <tableStyleElement type="headerRow" dxfId="104"/>
+      <tableStyleElement type="firstRowStripe" dxfId="103"/>
+      <tableStyleElement type="secondRowStripe" dxfId="102"/>
     </tableStyle>
     <tableStyle name="Cloud.gov Tiers-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
-      <tableStyleElement type="headerRow" dxfId="100"/>
-      <tableStyleElement type="firstRowStripe" dxfId="99"/>
-      <tableStyleElement type="secondRowStripe" dxfId="98"/>
+      <tableStyleElement type="headerRow" dxfId="101"/>
+      <tableStyleElement type="firstRowStripe" dxfId="100"/>
+      <tableStyleElement type="secondRowStripe" dxfId="99"/>
     </tableStyle>
     <tableStyle name="Cloud.gov Tiers-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
-      <tableStyleElement type="headerRow" dxfId="97"/>
-      <tableStyleElement type="firstRowStripe" dxfId="96"/>
-      <tableStyleElement type="secondRowStripe" dxfId="95"/>
+      <tableStyleElement type="headerRow" dxfId="98"/>
+      <tableStyleElement type="firstRowStripe" dxfId="97"/>
+      <tableStyleElement type="secondRowStripe" dxfId="96"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4408,20 +4525,20 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A4:F5">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Credits" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tier Name" dataDxfId="93">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Credits" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tier Name" dataDxfId="94">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Credits Remaining_x000a_in Tier" dataDxfId="92">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Credits Remaining_x000a_in Tier" dataDxfId="93">
       <calculatedColumnFormula>VLOOKUP(Table_1[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_1[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Yearly_x000a_Platform Total" dataDxfId="91">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Yearly_x000a_Platform Total" dataDxfId="92">
       <calculatedColumnFormula>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Support Total" dataDxfId="90">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Support Total" dataDxfId="91">
       <calculatedColumnFormula>C15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" YearlyTotal Cost" dataDxfId="89">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" YearlyTotal Cost" dataDxfId="90">
       <calculatedColumnFormula>D5+E5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4458,22 +4575,22 @@
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4C37D040-F691-2C49-BE22-816489BFD4D2}" name="Table_112" displayName="Table_112" ref="A4:F5">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{657244D4-FE4C-D44C-B48B-43E7FA139C6B}" name="Credits" dataDxfId="62">
+    <tableColumn id="1" xr3:uid="{657244D4-FE4C-D44C-B48B-43E7FA139C6B}" name="Credits" dataDxfId="63">
       <calculatedColumnFormula>C10+SUM(B19:B23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B168D809-F848-8A4F-B241-57C6EF027C29}" name="Tier Name" dataDxfId="61">
+    <tableColumn id="2" xr3:uid="{B168D809-F848-8A4F-B241-57C6EF027C29}" name="Tier Name" dataDxfId="62">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{172BAC85-F7D2-7D4C-9C26-72C7C85DB56F}" name="Credits Remaining_x000a_in Tier" dataDxfId="60">
+    <tableColumn id="3" xr3:uid="{172BAC85-F7D2-7D4C-9C26-72C7C85DB56F}" name="Credits Remaining_x000a_in Tier" dataDxfId="61">
       <calculatedColumnFormula>VLOOKUP(Table_112[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_112[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{19498A2C-21A7-B740-9DD5-D095ED0DD812}" name="Yearly_x000a_Platform Total" dataDxfId="59">
+    <tableColumn id="4" xr3:uid="{19498A2C-21A7-B740-9DD5-D095ED0DD812}" name="Yearly_x000a_Platform Total" dataDxfId="60">
       <calculatedColumnFormula>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A475BA76-45A9-EF46-8FAE-2B381389CF6E}" name="Support Total" dataDxfId="58">
+    <tableColumn id="5" xr3:uid="{A475BA76-45A9-EF46-8FAE-2B381389CF6E}" name="Support Total" dataDxfId="59">
       <calculatedColumnFormula>C15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CFD58EB9-7FC4-3640-859D-34D006952E97}" name=" YearlyTotal Cost" dataDxfId="57">
+    <tableColumn id="6" xr3:uid="{CFD58EB9-7FC4-3640-859D-34D006952E97}" name=" YearlyTotal Cost" dataDxfId="58">
       <calculatedColumnFormula>D5+E5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4485,7 +4602,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{432B26DD-C481-9945-89E7-FEF42FEDB769}" name="Table_214" displayName="Table_214" ref="A9:C10">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8D2D857E-9AA6-5D4F-A4AF-373B7168526E}" name="Resource"/>
-    <tableColumn id="2" xr3:uid="{4FAE5D4B-8591-7D41-A69E-501EE57C6C41}" name="Quantity" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{4FAE5D4B-8591-7D41-A69E-501EE57C6C41}" name="Quantity" dataDxfId="57"/>
     <tableColumn id="3" xr3:uid="{FD66B2C4-D49F-1C43-9A30-DE1F21B9FD5B}" name="Credits">
       <calculatedColumnFormula>B10*'Cloud.gov Tiers'!B3</calculatedColumnFormula>
     </tableColumn>
@@ -4497,13 +4614,13 @@
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{3AE58A18-ABB7-FC4E-9D28-06F1CAA78773}" name="Table_315" displayName="Table_315" ref="E9:K10">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8901DDBE-58BA-8F4F-9D7C-2A2800A70157}" name="Offering" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{3C07AF3B-6C04-4348-A1E4-AEF634AB5F2C}" name="Description" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{50B2B6E3-7A84-CC41-A61F-9E7C70E4AC01}" name="Units" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{99748816-FA07-B948-9F02-BAFA13C63BF0}" name="Dimension" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{B4686AED-FFA8-0F4F-8CF1-A28CBB869F59}" name="GB per credit" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{C47C64B0-2C30-0043-A34C-7F0E810B25DC}" name="Quantity (GB)" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{D0A5DC61-9EB0-294B-94B0-91D19A5D6E7E}" name="Credits" dataDxfId="49">
+    <tableColumn id="1" xr3:uid="{8901DDBE-58BA-8F4F-9D7C-2A2800A70157}" name="Offering" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{3C07AF3B-6C04-4348-A1E4-AEF634AB5F2C}" name="Description" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{50B2B6E3-7A84-CC41-A61F-9E7C70E4AC01}" name="Units" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{99748816-FA07-B948-9F02-BAFA13C63BF0}" name="Dimension" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{B4686AED-FFA8-0F4F-8CF1-A28CBB869F59}" name="GB per credit" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{C47C64B0-2C30-0043-A34C-7F0E810B25DC}" name="Quantity (GB)" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{D0A5DC61-9EB0-294B-94B0-91D19A5D6E7E}" name="Credits" dataDxfId="50">
       <calculatedColumnFormula>ROUNDUP(Table_315[[#This Row],[Quantity (GB)]]/Table_315[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4517,12 +4634,12 @@
     <tableColumn id="1" xr3:uid="{CC812881-5649-1A4C-8C45-49D7808E0D1A}" name="Offering"/>
     <tableColumn id="2" xr3:uid="{46204D59-C3E2-174B-9C58-1DB2BB6988C8}" name="Description"/>
     <tableColumn id="4" xr3:uid="{C3D129A0-D876-D446-9BED-4CE757DA989E}" name="Units"/>
-    <tableColumn id="5" xr3:uid="{8159B7E1-3CBB-384F-9C82-294839F55CB1}" name="Dimension" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{6374D1D7-2C6C-674A-9B2C-B5EA274BAEAC}" name="GB per credit" dataDxfId="47">
+    <tableColumn id="5" xr3:uid="{8159B7E1-3CBB-384F-9C82-294839F55CB1}" name="Dimension" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{6374D1D7-2C6C-674A-9B2C-B5EA274BAEAC}" name="GB per credit" dataDxfId="48">
       <calculatedColumnFormula>'AWS Service Prices'!K5*'AWS Service Prices'!M5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{84537EB8-58A4-A645-9A18-A322EFB5D6C3}" name="Quantity (GB)" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{06CE2B03-0479-2148-9683-4F1675E4317C}" name="Credits" dataDxfId="45">
+    <tableColumn id="6" xr3:uid="{84537EB8-58A4-A645-9A18-A322EFB5D6C3}" name="Quantity (GB)" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{06CE2B03-0479-2148-9683-4F1675E4317C}" name="Credits" dataDxfId="46">
       <calculatedColumnFormula>ROUNDUP(Table_416[[#This Row],[Quantity (GB)]]/Table_416[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4534,7 +4651,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{DD38669A-9AE2-BA49-AF4A-F9D5CEFDB233}" name="Table_517" displayName="Table_517" ref="A14:C15">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E0798FE9-1580-1B43-B088-25897B8976F6}" name="Rate/Hour"/>
-    <tableColumn id="2" xr3:uid="{4F69F05E-31AF-C644-B087-9847D08BB3A0}" name="Hours" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{4F69F05E-31AF-C644-B087-9847D08BB3A0}" name="Hours" dataDxfId="45"/>
     <tableColumn id="3" xr3:uid="{35F99F2C-96B5-1244-8BF2-D8FA71D1A5B2}" name="Total">
       <calculatedColumnFormula>A15*B15</calculatedColumnFormula>
     </tableColumn>
@@ -4544,17 +4661,17 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{53A578BF-BA5A-7843-972B-EBD4EA7AD1DD}" name="Table_618" displayName="Table_618" ref="M14:S15" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{53A578BF-BA5A-7843-972B-EBD4EA7AD1DD}" name="Table_618" displayName="Table_618" ref="M14:S15" dataDxfId="44">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3024083C-5ED0-8D4D-8D1A-D4BD5916AE47}" name="Offering" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{3D92B04D-745E-2A49-991D-C00C27907719}" name="Description" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{50C39022-EBD5-9B42-84DD-C507ED702117}" name="Units" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{9759566D-ABA1-0943-92F2-2B5501002EE3}" name="Dimension" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{4A17BDB6-3CD8-BF43-B5F9-82D2A2C35A0C}" name="GB per credit" dataDxfId="38">
+    <tableColumn id="1" xr3:uid="{3024083C-5ED0-8D4D-8D1A-D4BD5916AE47}" name="Offering" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{3D92B04D-745E-2A49-991D-C00C27907719}" name="Description" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{50C39022-EBD5-9B42-84DD-C507ED702117}" name="Units" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{9759566D-ABA1-0943-92F2-2B5501002EE3}" name="Dimension" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{4A17BDB6-3CD8-BF43-B5F9-82D2A2C35A0C}" name="GB per credit" dataDxfId="39">
       <calculatedColumnFormula>'AWS Service Prices'!K4*'AWS Service Prices'!M4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{056FCEF1-5646-814F-8034-1E8AC53C910D}" name="Quantity (GB)" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{DAEA814F-05EA-764E-8533-FE0EF6F3B132}" name="Credits" dataDxfId="36">
+    <tableColumn id="6" xr3:uid="{056FCEF1-5646-814F-8034-1E8AC53C910D}" name="Quantity (GB)" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{DAEA814F-05EA-764E-8533-FE0EF6F3B132}" name="Credits" dataDxfId="37">
       <calculatedColumnFormula>ROUNDUP(Table_618[[#This Row],[Quantity (GB)]]/Table_618[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4579,11 +4696,11 @@
     <tableColumn id="2" xr3:uid="{B074D0B3-B914-AB4F-8066-81B90B3261D8}" name="Description"/>
     <tableColumn id="4" xr3:uid="{202C8C30-FD4E-6D40-9EBF-642B8C7AE181}" name="Units"/>
     <tableColumn id="5" xr3:uid="{CA6A3A17-2747-AF44-8119-FC05700B8D5C}" name="Dimension"/>
-    <tableColumn id="3" xr3:uid="{C6C6ED4B-9612-3F48-9D18-472E70646A28}" name="Units/Credit" dataDxfId="35">
+    <tableColumn id="3" xr3:uid="{C6C6ED4B-9612-3F48-9D18-472E70646A28}" name="Units/Credit" dataDxfId="36">
       <calculatedColumnFormula>'AWS Service Prices'!K6*'AWS Service Prices'!M6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{76CCCB3A-2B18-4C42-9DB6-C570AFD6FB75}" name="Quantity"/>
-    <tableColumn id="7" xr3:uid="{A024F374-2C63-444D-95DA-745B84ABCFE7}" name="Credits" dataDxfId="34">
+    <tableColumn id="7" xr3:uid="{A024F374-2C63-444D-95DA-745B84ABCFE7}" name="Credits" dataDxfId="35">
       <calculatedColumnFormula>ROUNDUP(Table_820[[#This Row],[Quantity]]/Table_820[[#This Row],[Units/Credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4595,7 +4712,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A9:C10">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Resource"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quantity" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quantity" dataDxfId="89"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Credits"/>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -4603,10 +4720,10 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{333F2C22-64BE-8A4A-A52E-89FC6130AD21}" name="Table1221" displayName="Table1221" ref="A39:C49" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{333F2C22-64BE-8A4A-A52E-89FC6130AD21}" name="Table1221" displayName="Table1221" ref="A39:C49" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33">
   <autoFilter ref="A39:C49" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0A95F7D5-D48D-864F-84FF-73515D627597}" name="Version" dataDxfId="31" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{0A95F7D5-D48D-864F-84FF-73515D627597}" name="Version" dataDxfId="32" dataCellStyle="Comma"/>
     <tableColumn id="2" xr3:uid="{1427474E-5614-2046-B78C-0448E419A1D9}" name="Date"/>
     <tableColumn id="3" xr3:uid="{CAF26780-3593-1540-85AB-2E9EB898659F}" name="Notes"/>
   </tableColumns>
@@ -4617,13 +4734,13 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="E9:K10">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Offering" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Dimension" dataDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="GB per credit" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Quantity (GB)" dataDxfId="82"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Credits" dataDxfId="81">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Offering" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Dimension" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="GB per credit" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Quantity (GB)" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Credits" dataDxfId="82">
       <calculatedColumnFormula>ROUNDUP(Table_3[[#This Row],[Quantity (GB)]]/Table_3[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4637,12 +4754,12 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Offering"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Units"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dimension" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{CDA60C5E-AE6A-324F-8F61-A71F1A0A8966}" name="GB per credit" dataDxfId="79">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dimension" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{CDA60C5E-AE6A-324F-8F61-A71F1A0A8966}" name="GB per credit" dataDxfId="80">
       <calculatedColumnFormula>'AWS Service Prices'!K5*'AWS Service Prices'!M5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quantity (GB)" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Credits" dataDxfId="77">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quantity (GB)" dataDxfId="79"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Credits" dataDxfId="78">
       <calculatedColumnFormula>ROUNDUP(Table_4[[#This Row],[Quantity (GB)]]/Table_4[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4654,7 +4771,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A14:C15">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Rate/Hour"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Hours" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Hours" dataDxfId="77"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Total"/>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -4662,17 +4779,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="M14:S15" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="M14:S15" dataDxfId="76">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Offering" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Units" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Dimension" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{807927EE-801B-8148-9BA1-5FE9186170F2}" name="GB per credit" dataDxfId="70">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Offering" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Units" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Dimension" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{807927EE-801B-8148-9BA1-5FE9186170F2}" name="GB per credit" dataDxfId="71">
       <calculatedColumnFormula>'AWS Service Prices'!K4*'AWS Service Prices'!M4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Quantity (GB)" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Credits" dataDxfId="68">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Quantity (GB)" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Credits" dataDxfId="69">
       <calculatedColumnFormula>ROUNDUP(Table_6[[#This Row],[Quantity (GB)]]/Table_6[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4697,11 +4814,11 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Units"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Dimension"/>
-    <tableColumn id="3" xr3:uid="{A30E673E-5221-9442-BA33-5D5CC8E273B5}" name="Units/Credit" dataDxfId="67">
+    <tableColumn id="3" xr3:uid="{A30E673E-5221-9442-BA33-5D5CC8E273B5}" name="Units/Credit" dataDxfId="68">
       <calculatedColumnFormula>'AWS Service Prices'!K6*'AWS Service Prices'!M6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Quantity"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Credits" dataDxfId="66">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Credits" dataDxfId="67">
       <calculatedColumnFormula>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4710,10 +4827,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}" name="Table12" displayName="Table12" ref="A40:C50" totalsRowShown="0" headerRowDxfId="65" headerRowBorderDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}" name="Table12" displayName="Table12" ref="A40:C50" totalsRowShown="0" headerRowDxfId="66" headerRowBorderDxfId="65">
   <autoFilter ref="A40:C50" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6F594386-932F-3745-B570-1D36152A4BED}" name="Version" dataDxfId="63" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{6F594386-932F-3745-B570-1D36152A4BED}" name="Version" dataDxfId="64" dataCellStyle="Comma"/>
     <tableColumn id="2" xr3:uid="{98BA1600-A7B8-2742-AF88-1C465CCF83D5}" name="Date"/>
     <tableColumn id="3" xr3:uid="{A3A06425-E98A-E042-A27B-C92165F08BCF}" name="Notes"/>
   </tableColumns>
@@ -4925,8 +5042,8 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4978,47 +5095,47 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:19" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="82" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="118">
+      <c r="A5" s="117">
         <f>C10+SUM(B19:B24)</f>
         <v>0</v>
       </c>
-      <c r="B5" s="82" t="str" cm="1">
+      <c r="B5" s="81" t="str" cm="1">
         <f t="array" ref="B5">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</f>
         <v>Femto</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="75">
         <f>VLOOKUP(Table_1[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_1[[#This Row],[Credits]]</f>
         <v>50</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="76">
         <f>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</f>
         <v>30000</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="76">
         <f>C15</f>
         <v>0</v>
       </c>
-      <c r="F5" s="84">
+      <c r="F5" s="83">
         <f>D5+E5</f>
         <v>30000</v>
       </c>
@@ -5096,32 +5213,32 @@
       <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="84">
         <v>0</v>
       </c>
       <c r="C10" s="12">
         <f>B10*'Cloud.gov Tiers'!B3</f>
         <v>0</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="39">
         <v>100</v>
       </c>
-      <c r="J10" s="85">
-        <v>0</v>
-      </c>
-      <c r="K10" s="42">
+      <c r="J10" s="84">
+        <v>0</v>
+      </c>
+      <c r="K10" s="41">
         <f>ROUNDUP(Table_3[[#This Row],[Quantity (GB)]]/Table_3[[#This Row],[GB per credit]],0)</f>
         <v>0</v>
       </c>
@@ -5134,17 +5251,17 @@
       <c r="O10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="Q10" s="39">
         <f>'AWS Service Prices'!K5*'AWS Service Prices'!M5</f>
         <v>400</v>
       </c>
-      <c r="R10" s="85">
-        <v>0</v>
-      </c>
-      <c r="S10" s="42">
+      <c r="R10" s="84">
+        <v>0</v>
+      </c>
+      <c r="S10" s="41">
         <f>ROUNDUP(Table_4[[#This Row],[Quantity (GB)]]/Table_4[[#This Row],[GB per credit]],0)</f>
         <v>0</v>
       </c>
@@ -5200,26 +5317,26 @@
       <c r="C14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="18" t="str">
-        <f t="array" ref="E14:I43">AWSRdsServicePrices</f>
+      <c r="E14" s="129" t="str" cm="1">
+        <f t="array" ref="E14:I57">AWSRdsServicePrices</f>
         <v>AWS RDS</v>
       </c>
-      <c r="F14" s="19" t="str">
+      <c r="F14" t="str">
         <v>micro-psql</v>
       </c>
-      <c r="G14" s="19" t="str">
+      <c r="G14" t="str">
         <v>db.t3.micro</v>
       </c>
-      <c r="H14" s="19">
-        <v>1</v>
-      </c>
-      <c r="I14" s="19">
-        <v>1</v>
-      </c>
-      <c r="J14" s="20">
-        <v>0</v>
-      </c>
-      <c r="K14" s="90">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
+      <c r="K14" s="89">
         <f>I14*J14</f>
         <v>0</v>
       </c>
@@ -5246,116 +5363,116 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>250</v>
       </c>
-      <c r="B15" s="86">
-        <v>0</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="85">
+        <v>0</v>
+      </c>
+      <c r="C15" s="22">
         <f>A15*B15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="24" t="str">
+      <c r="E15" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F15" s="25" t="str">
+      <c r="F15" t="str">
         <v>micro-psql-redundant</v>
       </c>
-      <c r="G15" s="25" t="str">
+      <c r="G15" t="str">
         <v>db.t3.micro</v>
       </c>
-      <c r="H15" s="25">
-        <v>1</v>
-      </c>
-      <c r="I15" s="25">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="J15" s="26">
-        <v>0</v>
-      </c>
-      <c r="K15" s="90">
-        <f t="shared" ref="K15:K43" si="0">I15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="39" t="s">
+      <c r="J15" s="25">
+        <v>0</v>
+      </c>
+      <c r="K15" s="89">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="40" t="s">
+      <c r="N15" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="40" t="s">
+      <c r="O15" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="40" t="s">
+      <c r="P15" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="40">
+      <c r="Q15" s="39">
         <f>'AWS Service Prices'!K4*'AWS Service Prices'!M4</f>
         <v>100</v>
       </c>
-      <c r="R15" s="85">
-        <v>0</v>
-      </c>
-      <c r="S15" s="42">
+      <c r="R15" s="84">
+        <v>0</v>
+      </c>
+      <c r="S15" s="41">
         <f>ROUNDUP(Table_6[[#This Row],[Quantity (GB)]]/Table_6[[#This Row],[GB per credit]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="18" t="str">
+      <c r="E16" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F16" s="19" t="str">
+      <c r="F16" t="str">
+        <v>micro-psql-replica</v>
+      </c>
+      <c r="G16" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16" s="34">
+        <v>0</v>
+      </c>
+      <c r="K16" s="89">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F17" t="str">
         <v>small-psql</v>
       </c>
-      <c r="G16" s="19" t="str">
+      <c r="G17" t="str">
         <v>db.t3.small</v>
       </c>
-      <c r="H16" s="19">
-        <v>1</v>
-      </c>
-      <c r="I16" s="19">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="J16" s="26">
-        <v>0</v>
-      </c>
-      <c r="K16" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F17" s="25" t="str">
-        <v>small-psql-redundant</v>
-      </c>
-      <c r="G17" s="25" t="str">
-        <v>db.t3.small</v>
-      </c>
-      <c r="H17" s="25">
-        <v>1</v>
-      </c>
-      <c r="I17" s="25">
-        <v>4</v>
-      </c>
-      <c r="J17" s="26">
-        <v>0</v>
-      </c>
-      <c r="K17" s="90">
-        <f t="shared" si="0"/>
+      <c r="J17" s="34">
+        <v>0</v>
+      </c>
+      <c r="K17" s="89">
+        <f>I17*J17</f>
         <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
@@ -5364,559 +5481,559 @@
       <c r="B18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="18" t="str">
+      <c r="E18" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F18" s="19" t="str">
-        <v>medium-psql</v>
-      </c>
-      <c r="G18" s="19" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H18" s="19">
-        <v>1</v>
-      </c>
-      <c r="I18" s="19">
+      <c r="F18" t="str">
+        <v>small-psql-redundant</v>
+      </c>
+      <c r="G18" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>4</v>
       </c>
-      <c r="J18" s="26">
-        <v>0</v>
-      </c>
-      <c r="K18" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="46" t="s">
+      <c r="J18" s="34">
+        <v>0</v>
+      </c>
+      <c r="K18" s="89">
+        <f>I18*J18</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="46" t="s">
+      <c r="N18" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="46" t="s">
+      <c r="O18" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="P18" s="46" t="s">
+      <c r="P18" s="45" t="s">
         <v>26</v>
       </c>
       <c r="Q18" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="R18" s="46" t="s">
+      <c r="R18" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="S18" s="46" t="s">
+      <c r="S18" s="45" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="30">
         <f t="array" ref="B19">Worksheet!$S$10</f>
         <v>0</v>
       </c>
-      <c r="E19" s="24" t="str">
+      <c r="E19" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F19" s="25" t="str">
-        <v>medium-psql-redundant</v>
-      </c>
-      <c r="G19" s="25" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H19" s="25">
-        <v>1</v>
-      </c>
-      <c r="I19" s="25">
+      <c r="F19" t="str">
+        <v>small-psql-replica</v>
+      </c>
+      <c r="G19" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>8</v>
       </c>
-      <c r="J19" s="26">
-        <v>0</v>
-      </c>
-      <c r="K19" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="47" t="str" cm="1">
+      <c r="J19" s="34">
+        <v>0</v>
+      </c>
+      <c r="K19" s="89">
+        <f>I19*J19</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="46" t="str" cm="1">
         <f t="array" ref="M19:Q29">AwsOpensearchPrices</f>
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N19" s="48" t="str">
+      <c r="N19" s="47" t="str">
         <v>es-dev</v>
       </c>
-      <c r="O19" s="48" t="str">
+      <c r="O19" s="47" t="str">
         <v>t3.small.search</v>
       </c>
-      <c r="P19" s="48">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="48">
+      <c r="P19" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="47">
         <v>2</v>
       </c>
-      <c r="R19" s="32">
-        <v>0</v>
-      </c>
-      <c r="S19" s="21">
+      <c r="R19" s="31">
+        <v>0</v>
+      </c>
+      <c r="S19" s="20">
         <f>R19*Q19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="34">
-        <f t="array" ref="B20">SUM(K14:K43) + Worksheet!$K$10</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="18" t="str">
+      <c r="B20" s="133">
+        <f>SUM(K14:K57) + Worksheet!$K$10</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F20" s="19" t="str">
+      <c r="F20" t="str">
+        <v>medium-psql</v>
+      </c>
+      <c r="G20" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20" s="25">
+        <v>0</v>
+      </c>
+      <c r="K20" s="89">
+        <f>I20*J20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="23" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N20" s="24" t="str">
+        <v>es-medium</v>
+      </c>
+      <c r="O20" s="24" t="str">
+        <v>c5.large.search</v>
+      </c>
+      <c r="P20" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>34</v>
+      </c>
+      <c r="R20" s="37">
+        <v>0</v>
+      </c>
+      <c r="S20" s="20">
+        <f t="shared" ref="S20:S29" si="0">R20*Q20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="30">
+        <f>Worksheet!$S$15+SUM(S19:S29)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F21" t="str">
+        <v>medium-psql-redundant</v>
+      </c>
+      <c r="G21" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21" s="25">
+        <v>0</v>
+      </c>
+      <c r="K21" s="89">
+        <f>I21*J21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="46" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N21" s="47" t="str">
+        <v>es-medium-ha</v>
+      </c>
+      <c r="O21" s="47" t="str">
+        <v>c5.large.search</v>
+      </c>
+      <c r="P21" s="47">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="47">
+        <v>48</v>
+      </c>
+      <c r="R21" s="37">
+        <v>0</v>
+      </c>
+      <c r="S21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="119">
+        <f>SUM(S33:S37)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F22" t="str">
+        <v>medium-psql-replica</v>
+      </c>
+      <c r="G22" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22" s="34">
+        <v>0</v>
+      </c>
+      <c r="K22" s="89">
+        <f>I22*J22</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="23" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N22" s="24" t="str">
+        <v>es-large</v>
+      </c>
+      <c r="O22" s="24" t="str">
+        <v>c5.xlarge.search</v>
+      </c>
+      <c r="P22" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>69</v>
+      </c>
+      <c r="R22" s="37">
+        <v>0</v>
+      </c>
+      <c r="S22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="120">
+        <f>SUM(Table_8[Credits])</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F23" t="str">
         <v>medium-gp-psql</v>
       </c>
-      <c r="G20" s="19" t="str">
+      <c r="G23" t="str">
         <v>db.m5.large</v>
       </c>
-      <c r="H20" s="19">
-        <v>1</v>
-      </c>
-      <c r="I20" s="19">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>10</v>
       </c>
-      <c r="J20" s="26">
-        <v>0</v>
-      </c>
-      <c r="K20" s="90">
+      <c r="J23" s="34">
+        <v>0</v>
+      </c>
+      <c r="K23" s="89">
+        <f>I23*J23</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="46" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N23" s="47" t="str">
+        <v>es-large-ha</v>
+      </c>
+      <c r="O23" s="47" t="str">
+        <v>c5.xlarge.search</v>
+      </c>
+      <c r="P23" s="47">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="47">
+        <v>96</v>
+      </c>
+      <c r="R23" s="37">
+        <v>0</v>
+      </c>
+      <c r="S23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="24" t="str">
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="123" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="122">
+        <f>$P$46</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F24" t="str">
+        <v>medium-gp-psql-redundant</v>
+      </c>
+      <c r="G24" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24" s="34">
+        <v>0</v>
+      </c>
+      <c r="K24" s="89">
+        <f>I24*J24</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="23" t="str">
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N20" s="25" t="str">
-        <v>es-medium</v>
-      </c>
-      <c r="O20" s="25" t="str">
-        <v>c5.large.search</v>
-      </c>
-      <c r="P20" s="25">
+      <c r="N24" s="24" t="str">
+        <v>es-xlarge</v>
+      </c>
+      <c r="O24" s="24" t="str">
+        <v>c5.2xlarge.search</v>
+      </c>
+      <c r="P24" s="24">
         <v>5</v>
       </c>
-      <c r="Q20" s="25">
-        <v>34</v>
-      </c>
-      <c r="R20" s="38">
-        <v>0</v>
-      </c>
-      <c r="S20" s="21">
-        <f t="shared" ref="S20:S29" si="1">R20*Q20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="31">
-        <f>Worksheet!$S$15+SUM(S19:S29)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="24" t="str">
+      <c r="Q24" s="24">
+        <v>137</v>
+      </c>
+      <c r="R24" s="37">
+        <v>0</v>
+      </c>
+      <c r="S24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F21" s="25" t="str">
-        <v>medium-gp-psql-redundant</v>
-      </c>
-      <c r="G21" s="25" t="str">
+      <c r="F25" t="str">
+        <v>medium-gp-psql-replica</v>
+      </c>
+      <c r="G25" t="str">
         <v>db.m5.large</v>
       </c>
-      <c r="H21" s="25">
-        <v>1</v>
-      </c>
-      <c r="I21" s="25">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>40</v>
+      </c>
+      <c r="J25" s="34">
+        <v>0</v>
+      </c>
+      <c r="K25" s="89">
+        <f>I25*J25</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="46" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N25" s="47" t="str">
+        <v>es-xlarge-ha</v>
+      </c>
+      <c r="O25" s="47" t="str">
+        <v>c5.2xlarge.search</v>
+      </c>
+      <c r="P25" s="47">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="47">
+        <v>192</v>
+      </c>
+      <c r="R25" s="37">
+        <v>0</v>
+      </c>
+      <c r="S25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F26" t="str">
+        <v>large-gp-psql</v>
+      </c>
+      <c r="G26" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26" s="34">
+        <v>0</v>
+      </c>
+      <c r="K26" s="89">
+        <f>I26*J26</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="23" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N26" s="24" t="str">
+        <v>es-2xlarge-gp</v>
+      </c>
+      <c r="O26" s="24" t="str">
+        <v>m5.2xlarge.search</v>
+      </c>
+      <c r="P26" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="24">
+        <v>163</v>
+      </c>
+      <c r="R26" s="37">
+        <v>0</v>
+      </c>
+      <c r="S26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F27" t="str">
+        <v>large-gp-psql-redundant</v>
+      </c>
+      <c r="G27" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>20</v>
       </c>
-      <c r="J21" s="26">
-        <v>0</v>
-      </c>
-      <c r="K21" s="90">
+      <c r="J27" s="25">
+        <v>0</v>
+      </c>
+      <c r="K27" s="89">
+        <f>I27*J27</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="46" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N27" s="47" t="str">
+        <v>es-2xlarge-gp-ha</v>
+      </c>
+      <c r="O27" s="47" t="str">
+        <v>m5.2xlarge.search</v>
+      </c>
+      <c r="P27" s="47">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="47">
+        <v>228</v>
+      </c>
+      <c r="R27" s="37">
+        <v>0</v>
+      </c>
+      <c r="S27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="47" t="str">
+    </row>
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F28" t="str">
+        <v>large-gp-psql-replica</v>
+      </c>
+      <c r="G28" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>40</v>
+      </c>
+      <c r="J28" s="25">
+        <v>0</v>
+      </c>
+      <c r="K28" s="89">
+        <f>I28*J28</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="23" t="str">
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N21" s="48" t="str">
-        <v>es-medium-ha</v>
-      </c>
-      <c r="O21" s="48" t="str">
-        <v>c5.large.search</v>
-      </c>
-      <c r="P21" s="48">
-        <v>7</v>
-      </c>
-      <c r="Q21" s="48">
-        <v>48</v>
-      </c>
-      <c r="R21" s="38">
-        <v>0</v>
-      </c>
-      <c r="S21" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="119" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="120">
-        <f>SUM(S33:S37)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="18" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F22" s="19" t="str">
-        <v>large-gp-psql</v>
-      </c>
-      <c r="G22" s="19" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H22" s="19">
-        <v>1</v>
-      </c>
-      <c r="I22" s="19">
-        <v>10</v>
-      </c>
-      <c r="J22" s="35">
-        <v>0</v>
-      </c>
-      <c r="K22" s="90">
+      <c r="N28" s="24" t="str">
+        <v>es-4xlarge-gp</v>
+      </c>
+      <c r="O28" s="24" t="str">
+        <v>m5.4xlarge.search</v>
+      </c>
+      <c r="P28" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="24">
+        <v>326</v>
+      </c>
+      <c r="R28" s="37">
+        <v>0</v>
+      </c>
+      <c r="S28" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="24" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N22" s="25" t="str">
-        <v>es-large</v>
-      </c>
-      <c r="O22" s="25" t="str">
-        <v>c5.xlarge.search</v>
-      </c>
-      <c r="P22" s="25">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="25">
-        <v>69</v>
-      </c>
-      <c r="R22" s="38">
-        <v>0</v>
-      </c>
-      <c r="S22" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="121">
-        <f>SUM(Table_8[Credits])</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F23" s="25" t="str">
-        <v>large-gp-psql-redundant</v>
-      </c>
-      <c r="G23" s="25" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H23" s="25">
-        <v>1</v>
-      </c>
-      <c r="I23" s="25">
-        <v>20</v>
-      </c>
-      <c r="J23" s="26">
-        <v>0</v>
-      </c>
-      <c r="K23" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="47" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N23" s="48" t="str">
-        <v>es-large-ha</v>
-      </c>
-      <c r="O23" s="48" t="str">
-        <v>c5.xlarge.search</v>
-      </c>
-      <c r="P23" s="48">
-        <v>7</v>
-      </c>
-      <c r="Q23" s="48">
-        <v>96</v>
-      </c>
-      <c r="R23" s="38">
-        <v>0</v>
-      </c>
-      <c r="S23" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="124" t="s">
-        <v>196</v>
-      </c>
-      <c r="B24" s="123">
-        <f>$P$46</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="18" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F24" s="19" t="str">
-        <v>xlarge-gp-psql</v>
-      </c>
-      <c r="G24" s="19" t="str">
-        <v>db.m5.xlarge</v>
-      </c>
-      <c r="H24" s="19">
-        <v>1</v>
-      </c>
-      <c r="I24" s="19">
-        <v>20</v>
-      </c>
-      <c r="J24" s="26">
-        <v>0</v>
-      </c>
-      <c r="K24" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="24" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N24" s="25" t="str">
-        <v>es-xlarge</v>
-      </c>
-      <c r="O24" s="25" t="str">
-        <v>c5.2xlarge.search</v>
-      </c>
-      <c r="P24" s="25">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="25">
-        <v>137</v>
-      </c>
-      <c r="R24" s="38">
-        <v>0</v>
-      </c>
-      <c r="S24" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F25" s="25" t="str">
-        <v>xlarge-gp-psql-redundant</v>
-      </c>
-      <c r="G25" s="25" t="str">
-        <v>db.m5.xlarge</v>
-      </c>
-      <c r="H25" s="25">
-        <v>1</v>
-      </c>
-      <c r="I25" s="25">
-        <v>39</v>
-      </c>
-      <c r="J25" s="26">
-        <v>0</v>
-      </c>
-      <c r="K25" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="47" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N25" s="48" t="str">
-        <v>es-xlarge-ha</v>
-      </c>
-      <c r="O25" s="48" t="str">
-        <v>c5.2xlarge.search</v>
-      </c>
-      <c r="P25" s="48">
-        <v>7</v>
-      </c>
-      <c r="Q25" s="48">
-        <v>192</v>
-      </c>
-      <c r="R25" s="38">
-        <v>0</v>
-      </c>
-      <c r="S25" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="18" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F26" s="19" t="str">
-        <v>2xlarge-gp-psql</v>
-      </c>
-      <c r="G26" s="19" t="str">
-        <v>db.m5.2xlarge</v>
-      </c>
-      <c r="H26" s="19">
-        <v>1</v>
-      </c>
-      <c r="I26" s="19">
-        <v>39</v>
-      </c>
-      <c r="J26" s="26">
-        <v>0</v>
-      </c>
-      <c r="K26" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="24" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N26" s="25" t="str">
-        <v>es-2xlarge-gp</v>
-      </c>
-      <c r="O26" s="25" t="str">
-        <v>m5.2xlarge.search</v>
-      </c>
-      <c r="P26" s="25">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="25">
-        <v>163</v>
-      </c>
-      <c r="R26" s="38">
-        <v>0</v>
-      </c>
-      <c r="S26" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F27" s="25" t="str">
-        <v>2xlarge-gp-psql-redundant</v>
-      </c>
-      <c r="G27" s="25" t="str">
-        <v>db.m5.2xlarge</v>
-      </c>
-      <c r="H27" s="25">
-        <v>1</v>
-      </c>
-      <c r="I27" s="25">
-        <v>78</v>
-      </c>
-      <c r="J27" s="26">
-        <v>0</v>
-      </c>
-      <c r="K27" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="47" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N27" s="48" t="str">
-        <v>es-2xlarge-gp-ha</v>
-      </c>
-      <c r="O27" s="48" t="str">
-        <v>m5.2xlarge.search</v>
-      </c>
-      <c r="P27" s="48">
-        <v>7</v>
-      </c>
-      <c r="Q27" s="48">
-        <v>228</v>
-      </c>
-      <c r="R27" s="38">
-        <v>0</v>
-      </c>
-      <c r="S27" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="18" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F28" s="19" t="str">
-        <v>xlarge-gp-psql-m6</v>
-      </c>
-      <c r="G28" s="19" t="str">
-        <v>db.m6g.xlarge</v>
-      </c>
-      <c r="H28" s="19">
-        <v>1</v>
-      </c>
-      <c r="I28" s="19">
-        <v>17</v>
-      </c>
-      <c r="J28" s="26">
-        <v>0</v>
-      </c>
-      <c r="K28" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="24" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N28" s="25" t="str">
-        <v>es-4xlarge-gp</v>
-      </c>
-      <c r="O28" s="25" t="str">
-        <v>m5.4xlarge.search</v>
-      </c>
-      <c r="P28" s="25">
-        <v>5</v>
-      </c>
-      <c r="Q28" s="25">
-        <v>326</v>
-      </c>
-      <c r="R28" s="38">
-        <v>0</v>
-      </c>
-      <c r="S28" s="21">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5925,173 +6042,173 @@
         <f t="array" ref="A29:B36">CloudGovNoCostServices</f>
         <v>External Domain</v>
       </c>
-      <c r="B29" s="21" t="str">
+      <c r="B29" s="20" t="str">
         <v>cdn-route</v>
       </c>
-      <c r="E29" s="24" t="str">
+      <c r="E29" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F29" s="25" t="str">
-        <v>xlarge-gp-psql-m6-redundant</v>
-      </c>
-      <c r="G29" s="25" t="str">
-        <v>db.m6g.xlarge</v>
-      </c>
-      <c r="H29" s="25">
-        <v>1</v>
-      </c>
-      <c r="I29" s="25">
-        <v>34</v>
-      </c>
-      <c r="J29" s="26">
-        <v>0</v>
-      </c>
-      <c r="K29" s="90">
+      <c r="F29" t="str">
+        <v>xlarge-gp-psql</v>
+      </c>
+      <c r="G29" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+      <c r="J29" s="34">
+        <v>0</v>
+      </c>
+      <c r="K29" s="89">
+        <f>I29*J29</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="38" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N29" s="39" t="str">
+        <v>es-4xlarge-gp-ha</v>
+      </c>
+      <c r="O29" s="39" t="str">
+        <v>m5.4xlarge.search</v>
+      </c>
+      <c r="P29" s="39">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="39">
+        <v>456</v>
+      </c>
+      <c r="R29" s="40">
+        <v>0</v>
+      </c>
+      <c r="S29" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="39" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N29" s="40" t="str">
-        <v>es-4xlarge-gp-ha</v>
-      </c>
-      <c r="O29" s="40" t="str">
-        <v>m5.4xlarge.search</v>
-      </c>
-      <c r="P29" s="40">
-        <v>7</v>
-      </c>
-      <c r="Q29" s="40">
-        <v>456</v>
-      </c>
-      <c r="R29" s="41">
-        <v>0</v>
-      </c>
-      <c r="S29" s="91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="92"/>
+      <c r="T29" s="91"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="24" t="str">
+      <c r="A30" s="23" t="str">
         <v>External Domain</v>
       </c>
-      <c r="B30" s="27" t="str">
+      <c r="B30" s="26" t="str">
         <v>custom-domain</v>
       </c>
-      <c r="E30" s="18" t="str">
+      <c r="E30" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F30" s="19" t="str">
-        <v>micro-mysql</v>
-      </c>
-      <c r="G30" s="19" t="str">
-        <v>db.t3.micro</v>
-      </c>
-      <c r="H30" s="19">
-        <v>1</v>
-      </c>
-      <c r="I30" s="19">
-        <v>1</v>
-      </c>
-      <c r="J30" s="43">
-        <v>0</v>
-      </c>
-      <c r="K30" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="87"/>
-      <c r="Y30" s="29"/>
+      <c r="F30" t="str">
+        <v>xlarge-gp-psql-redundant</v>
+      </c>
+      <c r="G30" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>39</v>
+      </c>
+      <c r="J30" s="42">
+        <v>0</v>
+      </c>
+      <c r="K30" s="89">
+        <f>I30*J30</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="86"/>
+      <c r="Y30" s="28"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="str">
         <v>External Domain</v>
       </c>
-      <c r="B31" s="21" t="str">
+      <c r="B31" s="20" t="str">
         <v>domain</v>
       </c>
-      <c r="E31" s="24" t="str">
+      <c r="E31" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F31" s="25" t="str">
-        <v>micro-mysql-redundant</v>
-      </c>
-      <c r="G31" s="25" t="str">
-        <v>db.t3.micro</v>
-      </c>
-      <c r="H31" s="25">
-        <v>1</v>
-      </c>
-      <c r="I31" s="25">
-        <v>2</v>
-      </c>
-      <c r="J31" s="26">
-        <v>0</v>
-      </c>
-      <c r="K31" s="90">
-        <f t="shared" si="0"/>
+      <c r="F31" t="str">
+        <v>xlarge-gp-psql-replica</v>
+      </c>
+      <c r="G31" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>78</v>
+      </c>
+      <c r="J31" s="34">
+        <v>0</v>
+      </c>
+      <c r="K31" s="89">
+        <f>I31*J31</f>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="87"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="str">
+      <c r="A32" s="23" t="str">
         <v>External Domain</v>
       </c>
-      <c r="B32" s="27" t="str">
+      <c r="B32" s="26" t="str">
         <v>domain-with-cdn</v>
       </c>
-      <c r="E32" s="18" t="str">
+      <c r="E32" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F32" s="19" t="str">
-        <v>small-mysql</v>
-      </c>
-      <c r="G32" s="19" t="str">
-        <v>db.t3.small</v>
-      </c>
-      <c r="H32" s="19">
-        <v>1</v>
-      </c>
-      <c r="I32" s="19">
-        <v>2</v>
-      </c>
-      <c r="J32" s="26">
-        <v>0</v>
-      </c>
-      <c r="K32" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="46" t="s">
+      <c r="F32" t="str">
+        <v>2xlarge-gp-psql</v>
+      </c>
+      <c r="G32" t="str">
+        <v>db.m5.2xlarge</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>39</v>
+      </c>
+      <c r="J32" s="34">
+        <v>0</v>
+      </c>
+      <c r="K32" s="89">
+        <f>I32*J32</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N32" s="46" t="s">
+      <c r="N32" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="46" t="s">
+      <c r="O32" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="P32" s="46" t="s">
+      <c r="P32" s="45" t="s">
         <v>26</v>
       </c>
       <c r="Q32" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="R32" s="46" t="s">
+      <c r="R32" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="S32" s="46" t="s">
+      <c r="S32" s="45" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6099,104 +6216,104 @@
       <c r="A33" s="18" t="str">
         <v>UAA Service Account</v>
       </c>
-      <c r="B33" s="21" t="str">
+      <c r="B33" s="20" t="str">
         <v>oauth-client</v>
       </c>
-      <c r="E33" s="24" t="str">
+      <c r="E33" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F33" s="25" t="str">
-        <v>small-mysql-redundant</v>
-      </c>
-      <c r="G33" s="25" t="str">
-        <v>db.t3.small</v>
-      </c>
-      <c r="H33" s="25">
-        <v>1</v>
-      </c>
-      <c r="I33" s="25">
-        <v>4</v>
-      </c>
-      <c r="J33" s="26">
-        <v>0</v>
-      </c>
-      <c r="K33" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="47" t="str" cm="1">
+      <c r="F33" t="str">
+        <v>2xlarge-gp-psql-redundant</v>
+      </c>
+      <c r="G33" t="str">
+        <v>db.m5.2xlarge</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>78</v>
+      </c>
+      <c r="J33" s="34">
+        <v>0</v>
+      </c>
+      <c r="K33" s="89">
+        <f>I33*J33</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="46" t="str" cm="1">
         <f t="array" ref="M33:Q37">AwsElasticCachePrices</f>
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N33" s="48" t="str">
+      <c r="N33" s="47" t="str">
         <v>redis-dev</v>
       </c>
-      <c r="O33" s="48" t="str">
+      <c r="O33" s="47" t="str">
         <v>cache.t3.micro</v>
       </c>
-      <c r="P33" s="48">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="88">
-        <v>1</v>
-      </c>
-      <c r="R33" s="50">
-        <v>0</v>
-      </c>
-      <c r="S33" s="21">
+      <c r="P33" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="87">
+        <v>1</v>
+      </c>
+      <c r="R33" s="49">
+        <v>0</v>
+      </c>
+      <c r="S33" s="20">
         <f>R33*Q33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="24" t="str">
+      <c r="A34" s="23" t="str">
         <v>UAA Service Account</v>
       </c>
-      <c r="B34" s="27" t="str">
+      <c r="B34" s="26" t="str">
         <v>space-auditor</v>
       </c>
-      <c r="E34" s="18" t="str">
+      <c r="E34" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F34" s="19" t="str">
-        <v>medium-mysql</v>
-      </c>
-      <c r="G34" s="19" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H34" s="19">
-        <v>1</v>
-      </c>
-      <c r="I34" s="19">
-        <v>4</v>
-      </c>
-      <c r="J34" s="26">
-        <v>0</v>
-      </c>
-      <c r="K34" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="24" t="str">
+      <c r="F34" t="str">
+        <v>2xlarge-gp-psql-replica</v>
+      </c>
+      <c r="G34" t="str">
+        <v>db.m5.2xlarge</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>156</v>
+      </c>
+      <c r="J34" s="25">
+        <v>0</v>
+      </c>
+      <c r="K34" s="89">
+        <f>I34*J34</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="23" t="str">
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N34" s="25" t="str">
+      <c r="N34" s="24" t="str">
         <v>redis-3node</v>
       </c>
-      <c r="O34" s="25" t="str">
+      <c r="O34" s="24" t="str">
         <v>cache.t3.micro</v>
       </c>
-      <c r="P34" s="25">
+      <c r="P34" s="24">
         <v>3</v>
       </c>
-      <c r="Q34" s="88">
+      <c r="Q34" s="87">
         <v>2</v>
       </c>
-      <c r="R34" s="38">
-        <v>0</v>
-      </c>
-      <c r="S34" s="21">
-        <f t="shared" ref="S34:S37" si="2">R34*Q34</f>
+      <c r="R34" s="37">
+        <v>0</v>
+      </c>
+      <c r="S34" s="20">
+        <f t="shared" ref="S34:S37" si="1">R34*Q34</f>
         <v>0</v>
       </c>
     </row>
@@ -6204,201 +6321,201 @@
       <c r="A35" s="18" t="str">
         <v>UAA Service Account</v>
       </c>
-      <c r="B35" s="21" t="str">
+      <c r="B35" s="20" t="str">
         <v>space-deployer</v>
       </c>
-      <c r="E35" s="24" t="str">
+      <c r="E35" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F35" s="25" t="str">
-        <v>medium-mysql-redundant</v>
-      </c>
-      <c r="G35" s="25" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H35" s="25">
-        <v>1</v>
-      </c>
-      <c r="I35" s="25">
-        <v>7</v>
-      </c>
-      <c r="J35" s="35">
-        <v>0</v>
-      </c>
-      <c r="K35" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="47" t="str">
+      <c r="F35" t="str">
+        <v>xlarge-gp-psql-m6</v>
+      </c>
+      <c r="G35" t="str">
+        <v>db.m6g.xlarge</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>17</v>
+      </c>
+      <c r="J35" s="34">
+        <v>0</v>
+      </c>
+      <c r="K35" s="89">
+        <f>I35*J35</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="46" t="str">
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N35" s="48" t="str">
+      <c r="N35" s="47" t="str">
         <v>redis-5node</v>
       </c>
-      <c r="O35" s="48" t="str">
+      <c r="O35" s="47" t="str">
         <v>cache.t3.micro</v>
       </c>
-      <c r="P35" s="48">
+      <c r="P35" s="47">
         <v>5</v>
       </c>
-      <c r="Q35" s="88">
+      <c r="Q35" s="87">
         <v>4</v>
       </c>
-      <c r="R35" s="38">
-        <v>0</v>
-      </c>
-      <c r="S35" s="21">
-        <f t="shared" si="2"/>
+      <c r="R35" s="37">
+        <v>0</v>
+      </c>
+      <c r="S35" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="24" t="str">
+      <c r="A36" s="23" t="str">
         <v>Autoscaler</v>
       </c>
-      <c r="B36" s="27" t="str">
+      <c r="B36" s="26" t="str">
         <v>autoscaler-free-plan</v>
       </c>
-      <c r="E36" s="18" t="str">
+      <c r="E36" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F36" s="19" t="str">
-        <v>medium-gp-mysql</v>
-      </c>
-      <c r="G36" s="19" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H36" s="19">
-        <v>1</v>
-      </c>
-      <c r="I36" s="19">
-        <v>9</v>
-      </c>
-      <c r="J36" s="26">
-        <v>0</v>
-      </c>
-      <c r="K36" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="24" t="str">
+      <c r="F36" t="str">
+        <v>xlarge-gp-psql-m6-redundant</v>
+      </c>
+      <c r="G36" t="str">
+        <v>db.m6g.xlarge</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>34</v>
+      </c>
+      <c r="J36" s="34">
+        <v>0</v>
+      </c>
+      <c r="K36" s="89">
+        <f>I36*J36</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="23" t="str">
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N36" s="25" t="str">
+      <c r="N36" s="24" t="str">
         <v>redis-3node-large</v>
       </c>
-      <c r="O36" s="25" t="str">
+      <c r="O36" s="24" t="str">
         <v>cache.t3.small</v>
       </c>
-      <c r="P36" s="25">
+      <c r="P36" s="24">
         <v>3</v>
       </c>
-      <c r="Q36" s="88">
+      <c r="Q36" s="87">
         <v>5</v>
       </c>
-      <c r="R36" s="38">
-        <v>0</v>
-      </c>
-      <c r="S36" s="21">
-        <f t="shared" si="2"/>
+      <c r="R36" s="37">
+        <v>0</v>
+      </c>
+      <c r="S36" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="E37" s="24" t="str">
+      <c r="B37" s="43"/>
+      <c r="E37" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F37" s="25" t="str">
-        <v>medium-gp-mysql-redundant</v>
-      </c>
-      <c r="G37" s="25" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H37" s="25">
-        <v>1</v>
-      </c>
-      <c r="I37" s="25">
-        <v>19</v>
-      </c>
-      <c r="J37" s="26">
-        <v>0</v>
-      </c>
-      <c r="K37" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="39" t="str">
+      <c r="F37" t="str">
+        <v>xlarge-gp-psql-m6-replica</v>
+      </c>
+      <c r="G37" t="str">
+        <v>db.m6g.xlarge</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>68</v>
+      </c>
+      <c r="J37" s="34">
+        <v>0</v>
+      </c>
+      <c r="K37" s="89">
+        <f>I37*J37</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="38" t="str">
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N37" s="40" t="str">
+      <c r="N37" s="39" t="str">
         <v>redis-5node-large</v>
       </c>
-      <c r="O37" s="40" t="str">
+      <c r="O37" s="39" t="str">
         <v>cache.t3.small</v>
       </c>
-      <c r="P37" s="40">
+      <c r="P37" s="39">
         <v>5</v>
       </c>
-      <c r="Q37" s="89">
+      <c r="Q37" s="88">
         <v>8</v>
       </c>
-      <c r="R37" s="45">
-        <v>0</v>
-      </c>
-      <c r="S37" s="91">
-        <f t="shared" si="2"/>
+      <c r="R37" s="44">
+        <v>0</v>
+      </c>
+      <c r="S37" s="90">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="18" t="str">
+      <c r="E38" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F38" s="19" t="str">
-        <v>large-gp-mysql</v>
-      </c>
-      <c r="G38" s="19" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H38" s="19">
-        <v>1</v>
-      </c>
-      <c r="I38" s="19">
-        <v>9</v>
-      </c>
-      <c r="J38" s="26">
-        <v>0</v>
-      </c>
-      <c r="K38" s="90">
-        <f t="shared" si="0"/>
+      <c r="F38" t="str">
+        <v>micro-mysql</v>
+      </c>
+      <c r="G38" t="str">
+        <v>db.t3.micro</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" s="25">
+        <v>0</v>
+      </c>
+      <c r="K38" s="89">
+        <f>I38*J38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="24" t="str">
+      <c r="E39" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F39" s="25" t="str">
-        <v>large-gp-mysql-redundant</v>
-      </c>
-      <c r="G39" s="25" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H39" s="25">
-        <v>1</v>
-      </c>
-      <c r="I39" s="25">
-        <v>19</v>
-      </c>
-      <c r="J39" s="26">
-        <v>0</v>
-      </c>
-      <c r="K39" s="90">
-        <f t="shared" si="0"/>
+      <c r="F39" t="str">
+        <v>micro-mysql-redundant</v>
+      </c>
+      <c r="G39" t="str">
+        <v>db.t3.micro</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" s="25">
+        <v>0</v>
+      </c>
+      <c r="K39" s="89">
+        <f>I39*J39</f>
         <v>0</v>
       </c>
       <c r="M39" s="2" t="s">
@@ -6406,357 +6523,660 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="C40" s="104" t="s">
+      <c r="C40" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="E40" s="18" t="str">
+      <c r="E40" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F40" s="19" t="str">
-        <v>xlarge-gp-mysql</v>
-      </c>
-      <c r="G40" s="19" t="str">
-        <v>db.m5.xlarge</v>
-      </c>
-      <c r="H40" s="19">
-        <v>1</v>
-      </c>
-      <c r="I40" s="19">
-        <v>19</v>
-      </c>
-      <c r="J40" s="26">
-        <v>0</v>
-      </c>
-      <c r="K40" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="46" t="s">
+      <c r="F40" t="str">
+        <v>micro-mysql-replica</v>
+      </c>
+      <c r="G40" t="str">
+        <v>db.t3.micro</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40" s="34">
+        <v>0</v>
+      </c>
+      <c r="K40" s="89">
+        <f>I40*J40</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N40" s="46" t="s">
+      <c r="N40" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="O40" s="46" t="s">
+      <c r="O40" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="P40" s="46" t="s">
+      <c r="P40" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="Q40" s="46" t="s">
+      <c r="Q40" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="R40" s="46" t="s">
+      <c r="R40" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="S40" s="95" t="s">
+      <c r="S40" s="94" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="105">
-        <v>1</v>
-      </c>
-      <c r="B41" s="101">
+      <c r="A41" s="104">
+        <v>1</v>
+      </c>
+      <c r="B41" s="100">
         <v>45748</v>
       </c>
-      <c r="C41" s="100" t="s">
+      <c r="C41" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="E41" s="24" t="str">
+      <c r="E41" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F41" s="25" t="str">
-        <v>xlarge-gp-mysql-redundant</v>
-      </c>
-      <c r="G41" s="25" t="str">
-        <v>db.m5.xlarge</v>
-      </c>
-      <c r="H41" s="25">
-        <v>1</v>
-      </c>
-      <c r="I41" s="25">
-        <v>37</v>
-      </c>
-      <c r="J41" s="26">
-        <v>0</v>
-      </c>
-      <c r="K41" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="47" t="s">
+      <c r="F41" t="str">
+        <v>small-mysql</v>
+      </c>
+      <c r="G41" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41" s="34">
+        <v>0</v>
+      </c>
+      <c r="K41" s="89">
+        <f>I41*J41</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="N41" s="48" t="s">
+      <c r="N41" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="O41" s="49" t="s">
+      <c r="O41" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="P41" s="48" t="s">
+      <c r="P41" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="Q41" s="88">
+      <c r="Q41" s="87">
         <f>'AWS Service Prices'!K6*'AWS Service Prices'!M6</f>
         <v>150000</v>
       </c>
-      <c r="R41" s="93">
-        <v>0</v>
-      </c>
-      <c r="S41" s="97">
+      <c r="R41" s="92">
+        <v>0</v>
+      </c>
+      <c r="S41" s="96">
         <f>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="105">
+      <c r="A42" s="104">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B42" s="101">
+      <c r="B42" s="100">
         <v>45749</v>
       </c>
-      <c r="C42" s="100" t="s">
+      <c r="C42" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="E42" s="18" t="str">
+      <c r="E42" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F42" s="19" t="str">
-        <v>medium-oracle-se2</v>
-      </c>
-      <c r="G42" s="19" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H42" s="19">
-        <v>1</v>
-      </c>
-      <c r="I42" s="19">
-        <v>7</v>
-      </c>
-      <c r="J42" s="26">
-        <v>0</v>
-      </c>
-      <c r="K42" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="51" t="s">
+      <c r="F42" t="str">
+        <v>small-mysql-redundant</v>
+      </c>
+      <c r="G42" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42" s="128">
+        <v>0</v>
+      </c>
+      <c r="K42" s="89">
+        <f>I42*J42</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="N42" s="52" t="s">
+      <c r="N42" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="O42" s="53" t="s">
+      <c r="O42" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="P42" s="52" t="s">
+      <c r="P42" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="Q42" s="88">
+      <c r="Q42" s="87">
         <f>'AWS Service Prices'!K7*'AWS Service Prices'!M7</f>
         <v>120</v>
       </c>
-      <c r="R42" s="94">
-        <v>0</v>
-      </c>
-      <c r="S42" s="96">
+      <c r="R42" s="93">
+        <v>0</v>
+      </c>
+      <c r="S42" s="95">
         <f>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="105"/>
-      <c r="C43" s="100" t="s">
+    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="104"/>
+      <c r="C43" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="E43" s="54" t="str">
+      <c r="E43" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F43" s="55" t="str">
-        <v>large-gp-sqlserver-se</v>
-      </c>
-      <c r="G43" s="55" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H43" s="55">
-        <v>1</v>
-      </c>
-      <c r="I43" s="55">
-        <v>46</v>
-      </c>
-      <c r="J43" s="56">
-        <v>0</v>
-      </c>
-      <c r="K43" s="99">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="98"/>
+      <c r="F43" t="str">
+        <v>small-mysql-replica</v>
+      </c>
+      <c r="G43" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43" s="128">
+        <v>0</v>
+      </c>
+      <c r="K43" s="89">
+        <f>I43*J43</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="97"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="105"/>
-      <c r="C44" s="100" t="s">
+      <c r="A44" s="104"/>
+      <c r="C44" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="J44" s="4"/>
+      <c r="E44" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F44" t="str">
+        <v>medium-mysql</v>
+      </c>
+      <c r="G44" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44" s="128">
+        <v>0</v>
+      </c>
+      <c r="K44" s="127">
+        <f>I44*J44</f>
+        <v>0</v>
+      </c>
       <c r="M44" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="N44" s="108"/>
-      <c r="O44" s="108"/>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="108"/>
-      <c r="R44" s="108"/>
-      <c r="S44" s="108"/>
+      <c r="N44" s="107"/>
+      <c r="O44" s="107"/>
+      <c r="P44" s="107"/>
+      <c r="Q44" s="107"/>
+      <c r="R44" s="107"/>
+      <c r="S44" s="107"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="105">
+      <c r="A45" s="104">
         <v>1.2</v>
       </c>
-      <c r="B45" s="101">
+      <c r="B45" s="100">
         <v>45756</v>
       </c>
-      <c r="C45" s="106" t="s">
+      <c r="C45" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="J45" s="4"/>
-      <c r="M45" s="95" t="s">
+      <c r="E45" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F45" t="str">
+        <v>medium-mysql-redundant</v>
+      </c>
+      <c r="G45" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>7</v>
+      </c>
+      <c r="J45" s="128">
+        <v>0</v>
+      </c>
+      <c r="K45" s="127">
+        <f>I45*J45</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="N45" s="95" t="s">
+      <c r="N45" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="O45" s="95" t="s">
+      <c r="O45" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="P45" s="95" t="s">
+      <c r="P45" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="Q45" s="112" t="s">
-        <v>1</v>
-      </c>
-      <c r="R45" s="109"/>
-      <c r="S45" s="109"/>
+      <c r="Q45" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="R45" s="108"/>
+      <c r="S45" s="108"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="105">
+      <c r="A46" s="104">
         <v>1.3</v>
       </c>
-      <c r="B46" s="101">
+      <c r="B46" s="100">
         <v>45757</v>
       </c>
-      <c r="C46" s="106" t="s">
+      <c r="C46" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="J46" s="4"/>
-      <c r="M46" s="116" t="s">
+      <c r="E46" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F46" t="str">
+        <v>medium-mysql-replica</v>
+      </c>
+      <c r="G46" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>14</v>
+      </c>
+      <c r="J46" s="128">
+        <v>0</v>
+      </c>
+      <c r="K46" s="89">
+        <f>I46*J46</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="115" t="s">
         <v>196</v>
       </c>
-      <c r="N46" s="114" t="s">
+      <c r="N46" s="113" t="s">
         <v>197</v>
       </c>
-      <c r="O46" s="115">
-        <v>1</v>
-      </c>
-      <c r="P46" s="114">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="117">
+      <c r="O46" s="114">
+        <f>'AWS Service Prices'!$E$63</f>
+        <v>1</v>
+      </c>
+      <c r="P46" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="116">
         <f>O46*P46</f>
         <v>0</v>
       </c>
-      <c r="R46" s="110"/>
-      <c r="S46" s="110"/>
+      <c r="R46" s="109"/>
+      <c r="S46" s="109"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="105">
+      <c r="A47" s="104">
         <v>1.4</v>
       </c>
-      <c r="B47" s="101">
+      <c r="B47" s="100">
         <v>45775</v>
       </c>
-      <c r="C47" s="106" t="s">
+      <c r="C47" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="J47" s="4"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="113"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="111"/>
-      <c r="S47" s="110"/>
+      <c r="E47" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F47" t="str">
+        <v>medium-gp-mysql</v>
+      </c>
+      <c r="G47" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>9</v>
+      </c>
+      <c r="J47" s="128">
+        <v>0</v>
+      </c>
+      <c r="K47" s="89">
+        <f>I47*J47</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="110"/>
+      <c r="S47" s="109"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="105"/>
-      <c r="C48" s="106" t="s">
+      <c r="A48" s="104"/>
+      <c r="C48" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="105">
+      <c r="E48" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F48" t="str">
+        <v>medium-gp-mysql-redundant</v>
+      </c>
+      <c r="G48" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>19</v>
+      </c>
+      <c r="J48" s="128">
+        <v>0</v>
+      </c>
+      <c r="K48" s="89">
+        <f>I48*J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="104">
         <v>1.5</v>
       </c>
-      <c r="B49" s="101">
+      <c r="B49" s="100">
         <v>45840</v>
       </c>
-      <c r="C49" s="106" t="s">
+      <c r="C49" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="105"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E49" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F49" t="str">
+        <v>medium-gp-mysql-replica</v>
+      </c>
+      <c r="G49" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>38</v>
+      </c>
+      <c r="J49" s="128">
+        <v>0</v>
+      </c>
+      <c r="K49" s="89">
+        <f>I49*J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="104">
+        <v>1.6</v>
+      </c>
+      <c r="B50" s="100">
+        <v>45841</v>
+      </c>
+      <c r="C50" s="105" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F50" t="str">
+        <v>large-gp-mysql</v>
+      </c>
+      <c r="G50" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>9</v>
+      </c>
+      <c r="J50" s="128">
+        <v>0</v>
+      </c>
+      <c r="K50" s="89">
+        <f>I50*J50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E51" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F51" t="str">
+        <v>large-gp-mysql-redundant</v>
+      </c>
+      <c r="G51" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>19</v>
+      </c>
+      <c r="J51" s="128">
+        <v>0</v>
+      </c>
+      <c r="K51" s="89">
+        <f>I51*J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E52" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F52" t="str">
+        <v>large-gp-mysql-replica</v>
+      </c>
+      <c r="G52" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>38</v>
+      </c>
+      <c r="J52" s="128">
+        <v>0</v>
+      </c>
+      <c r="K52" s="89">
+        <f>I52*J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E53" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F53" t="str">
+        <v>xlarge-gp-mysql</v>
+      </c>
+      <c r="G53" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>19</v>
+      </c>
+      <c r="J53" s="128">
+        <v>0</v>
+      </c>
+      <c r="K53" s="89">
+        <f>I53*J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E54" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F54" t="str">
+        <v>xlarge-gp-mysql-redundant</v>
+      </c>
+      <c r="G54" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>37</v>
+      </c>
+      <c r="J54" s="128">
+        <v>0</v>
+      </c>
+      <c r="K54" s="89">
+        <f>I54*J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E55" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F55" t="str">
+        <v>xlarge-gp-mysql-replica</v>
+      </c>
+      <c r="G55" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>74</v>
+      </c>
+      <c r="J55" s="128">
+        <v>0</v>
+      </c>
+      <c r="K55" s="89">
+        <f>I55*J55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E56" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F56" t="str">
+        <v>medium-oracle-se2</v>
+      </c>
+      <c r="G56" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>7</v>
+      </c>
+      <c r="J56" s="128">
+        <v>0</v>
+      </c>
+      <c r="K56" s="89">
+        <f>I56*J56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="130" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F57" s="131" t="str">
+        <v>large-gp-sqlserver-se</v>
+      </c>
+      <c r="G57" s="131" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H57" s="131">
+        <v>1</v>
+      </c>
+      <c r="I57" s="132">
+        <v>46</v>
+      </c>
+      <c r="J57" s="55">
+        <v>0</v>
+      </c>
+      <c r="K57" s="98">
+        <f>I57*J57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7727,89 +8147,89 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10 J14:J43 B15">
-    <cfRule type="cellIs" dxfId="30" priority="21" operator="notEqual">
+  <conditionalFormatting sqref="B10 B15 J14:J57">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="29" priority="10">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>$J$10&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F43">
-    <cfRule type="expression" dxfId="28" priority="11">
-      <formula>$J14&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="26" priority="8">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>$R10&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="13" priority="10">
       <formula>$R15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N29">
-    <cfRule type="expression" dxfId="24" priority="7">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$R19&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33:N37">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$R33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:N42">
-    <cfRule type="expression" dxfId="22" priority="5">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>$R41&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46">
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>$P$46&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:R29">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R33:R37">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41:R42">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R46:R47">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F57">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$J14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -7846,7 +8266,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="4"/>
@@ -7857,10 +8277,10 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>128</v>
       </c>
       <c r="D2" s="4"/>
@@ -7870,10 +8290,10 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="59">
         <v>3</v>
       </c>
       <c r="D3" s="4"/>
@@ -7883,10 +8303,10 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="61">
         <v>50</v>
       </c>
       <c r="D4" s="4"/>
@@ -7896,10 +8316,10 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="59">
         <v>1</v>
       </c>
       <c r="D5" s="4"/>
@@ -7909,10 +8329,10 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="62">
         <v>0</v>
       </c>
       <c r="D6" s="4"/>
@@ -7942,561 +8362,561 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="66" t="s">
+      <c r="B10" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="65" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="60">
+      <c r="B11" s="59">
         <v>50</v>
       </c>
-      <c r="C11" s="67">
-        <v>0</v>
-      </c>
-      <c r="D11" s="68">
+      <c r="C11" s="66">
+        <v>0</v>
+      </c>
+      <c r="D11" s="67">
         <f t="shared" ref="D11:D27" si="0">B11*$B$4</f>
         <v>2500</v>
       </c>
-      <c r="E11" s="69">
-        <v>1</v>
-      </c>
-      <c r="F11" s="59" t="s">
+      <c r="E11" s="68">
+        <v>1</v>
+      </c>
+      <c r="F11" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="67">
         <f>D11*12</f>
         <v>30000</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="67">
         <f t="shared" ref="H11:H28" si="1">G11*(1-C11)</f>
         <v>30000</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="60">
+      <c r="B12" s="59">
         <v>100</v>
       </c>
-      <c r="C12" s="67">
-        <v>0</v>
-      </c>
-      <c r="D12" s="70">
+      <c r="C12" s="66">
+        <v>0</v>
+      </c>
+      <c r="D12" s="69">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="70">
         <v>2</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="70">
+      <c r="G12" s="69">
         <f t="shared" ref="G12:G27" si="2">B12*$B$4*12</f>
         <v>60000</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="69">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="60">
+      <c r="B13" s="59">
         <v>150</v>
       </c>
-      <c r="C13" s="67">
-        <v>0</v>
-      </c>
-      <c r="D13" s="68">
+      <c r="C13" s="66">
+        <v>0</v>
+      </c>
+      <c r="D13" s="67">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="68">
         <v>3</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="67">
         <f t="shared" si="2"/>
         <v>90000</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="67">
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="60">
+      <c r="B14" s="59">
         <v>250</v>
       </c>
-      <c r="C14" s="67">
-        <v>0</v>
-      </c>
-      <c r="D14" s="70">
+      <c r="C14" s="66">
+        <v>0</v>
+      </c>
+      <c r="D14" s="69">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="70">
         <v>4</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="70">
+      <c r="G14" s="69">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="69">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="59">
         <v>350</v>
       </c>
-      <c r="C15" s="67">
-        <v>0</v>
-      </c>
-      <c r="D15" s="68">
+      <c r="C15" s="66">
+        <v>0</v>
+      </c>
+      <c r="D15" s="67">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="68">
         <v>5</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="67">
         <f t="shared" si="2"/>
         <v>210000</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="67">
         <f t="shared" si="1"/>
         <v>210000</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="59">
         <v>500</v>
       </c>
-      <c r="C16" s="67">
-        <v>0</v>
-      </c>
-      <c r="D16" s="70">
+      <c r="C16" s="66">
+        <v>0</v>
+      </c>
+      <c r="D16" s="69">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="70">
         <v>6</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="70">
+      <c r="G16" s="69">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="H16" s="70">
+      <c r="H16" s="69">
         <f t="shared" si="1"/>
         <v>300000</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="60">
+      <c r="B17" s="59">
         <v>650</v>
       </c>
-      <c r="C17" s="67">
-        <v>0</v>
-      </c>
-      <c r="D17" s="68">
+      <c r="C17" s="66">
+        <v>0</v>
+      </c>
+      <c r="D17" s="67">
         <f t="shared" si="0"/>
         <v>32500</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="68">
         <v>7</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="67">
         <f t="shared" si="2"/>
         <v>390000</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="67">
         <f t="shared" si="1"/>
         <v>390000</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="60">
+      <c r="B18" s="59">
         <v>800</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="66">
         <v>0.05</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D18" s="69">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="70">
         <v>8</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="G18" s="70">
+      <c r="G18" s="69">
         <f t="shared" si="2"/>
         <v>480000</v>
       </c>
-      <c r="H18" s="70">
+      <c r="H18" s="69">
         <f t="shared" si="1"/>
         <v>456000</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="60">
+      <c r="B19" s="59">
         <v>1000</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="66">
         <v>0.1</v>
       </c>
-      <c r="D19" s="68">
+      <c r="D19" s="67">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E19" s="68">
         <v>9</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="67">
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="H19" s="68">
+      <c r="H19" s="67">
         <f t="shared" si="1"/>
         <v>540000</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="60">
+      <c r="B20" s="59">
         <v>1250</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="66">
         <v>0.15</v>
       </c>
-      <c r="D20" s="70">
+      <c r="D20" s="69">
         <f t="shared" si="0"/>
         <v>62500</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="70">
         <v>10</v>
       </c>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="G20" s="70">
+      <c r="G20" s="69">
         <f t="shared" si="2"/>
         <v>750000</v>
       </c>
-      <c r="H20" s="70">
+      <c r="H20" s="69">
         <f t="shared" si="1"/>
         <v>637500</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="60">
+      <c r="B21" s="59">
         <v>1500</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="66">
         <v>0.2</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="67">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
-      <c r="E21" s="69">
+      <c r="E21" s="68">
         <v>11</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="67">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="67">
         <f t="shared" si="1"/>
         <v>720000</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="60">
+      <c r="B22" s="59">
         <v>2000</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C22" s="66">
         <v>0.22</v>
       </c>
-      <c r="D22" s="70">
+      <c r="D22" s="69">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="70">
         <v>12</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="70">
+      <c r="G22" s="69">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="H22" s="70">
+      <c r="H22" s="69">
         <f t="shared" si="1"/>
         <v>936000</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="60">
+      <c r="B23" s="59">
         <v>3000</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="66">
         <v>0.24</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="67">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="E23" s="69">
+      <c r="E23" s="68">
         <v>13</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="G23" s="68">
+      <c r="G23" s="67">
         <f t="shared" si="2"/>
         <v>1800000</v>
       </c>
-      <c r="H23" s="68">
+      <c r="H23" s="67">
         <f t="shared" si="1"/>
         <v>1368000</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="60">
+      <c r="B24" s="59">
         <v>4000</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="66">
         <v>0.25</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D24" s="69">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="70">
         <v>14</v>
       </c>
-      <c r="F24" s="61" t="s">
+      <c r="F24" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="G24" s="70">
+      <c r="G24" s="69">
         <f t="shared" si="2"/>
         <v>2400000</v>
       </c>
-      <c r="H24" s="70">
+      <c r="H24" s="69">
         <f t="shared" si="1"/>
         <v>1800000</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="60">
+      <c r="B25" s="59">
         <v>5000</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="66">
         <v>0.25</v>
       </c>
-      <c r="D25" s="68">
+      <c r="D25" s="67">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="E25" s="69">
+      <c r="E25" s="68">
         <v>15</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="G25" s="68">
+      <c r="G25" s="67">
         <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
-      <c r="H25" s="68">
+      <c r="H25" s="67">
         <f t="shared" si="1"/>
         <v>2250000</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="60">
+      <c r="B26" s="59">
         <v>6000</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="66">
         <v>0.25</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D26" s="69">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="70">
         <v>16</v>
       </c>
-      <c r="F26" s="61" t="s">
+      <c r="F26" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="70">
+      <c r="G26" s="69">
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
-      <c r="H26" s="70">
+      <c r="H26" s="69">
         <f t="shared" si="1"/>
         <v>2700000</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="60">
+      <c r="B27" s="59">
         <v>7000</v>
       </c>
-      <c r="C27" s="67">
+      <c r="C27" s="66">
         <v>0.25</v>
       </c>
-      <c r="D27" s="68">
+      <c r="D27" s="67">
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="E27" s="69">
+      <c r="E27" s="68">
         <v>17</v>
       </c>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="G27" s="68">
+      <c r="G27" s="67">
         <f t="shared" si="2"/>
         <v>4200000</v>
       </c>
-      <c r="H27" s="68">
+      <c r="H27" s="67">
         <f t="shared" si="1"/>
         <v>3150000</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="71">
+      <c r="B28" s="70">
         <v>999999</v>
       </c>
-      <c r="C28" s="67">
+      <c r="C28" s="66">
         <v>0.25</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="69">
         <f>1000*$B$4</f>
         <v>50000</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="60">
         <v>18</v>
       </c>
-      <c r="F28" s="61" t="s">
+      <c r="F28" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="G28" s="70">
+      <c r="G28" s="69">
         <f>1000*$B$4*12</f>
         <v>600000</v>
       </c>
-      <c r="H28" s="70">
+      <c r="H28" s="69">
         <f t="shared" si="1"/>
         <v>450000</v>
       </c>
@@ -9490,100 +9910,109 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:M3"/>
+    <sheetView topLeftCell="A54" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="5" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57" t="s">
+      <c r="E2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="N2" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="57" t="s">
+      <c r="N2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -9595,10 +10024,10 @@
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="73">
-        <v>1</v>
-      </c>
-      <c r="E3" s="74">
+      <c r="D3" s="72">
+        <v>1</v>
+      </c>
+      <c r="E3" s="73">
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -9610,16 +10039,16 @@
       <c r="J3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="74">
-        <v>1</v>
-      </c>
-      <c r="L3" s="75" t="s">
+      <c r="K3" s="73">
+        <v>1</v>
+      </c>
+      <c r="L3" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="73">
+      <c r="M3" s="72">
         <v>100</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="73">
         <v>1</v>
       </c>
       <c r="O3">
@@ -9637,10 +10066,10 @@
       <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="73">
-        <v>1</v>
-      </c>
-      <c r="E4" s="74">
+      <c r="D4" s="72">
+        <v>1</v>
+      </c>
+      <c r="E4" s="73">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -9652,19 +10081,19 @@
       <c r="J4" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="K4" s="74">
-        <v>1</v>
-      </c>
-      <c r="L4" s="75" t="s">
+      <c r="K4" s="73">
+        <v>1</v>
+      </c>
+      <c r="L4" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="73">
+      <c r="M4" s="72">
         <v>100</v>
       </c>
-      <c r="N4" s="74">
-        <v>1</v>
-      </c>
-      <c r="O4" s="87">
+      <c r="N4" s="73">
+        <v>1</v>
+      </c>
+      <c r="O4" s="86">
         <f t="shared" ref="O4:O7" si="0">K4*M4</f>
         <v>100</v>
       </c>
@@ -9674,16 +10103,16 @@
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="73">
-        <v>1</v>
-      </c>
-      <c r="E5" s="74">
-        <v>2</v>
+      <c r="D5" s="72">
+        <v>1</v>
+      </c>
+      <c r="E5" s="73">
+        <v>4</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>7</v>
@@ -9694,19 +10123,19 @@
       <c r="J5" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="K5" s="74">
-        <v>1</v>
-      </c>
-      <c r="L5" s="75" t="s">
+      <c r="K5" s="73">
+        <v>1</v>
+      </c>
+      <c r="L5" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="73">
+      <c r="M5" s="72">
         <v>400</v>
       </c>
-      <c r="N5" s="74">
-        <v>1</v>
-      </c>
-      <c r="O5" s="87">
+      <c r="N5" s="73">
+        <v>1</v>
+      </c>
+      <c r="O5" s="86">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
@@ -9716,16 +10145,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="73">
-        <v>1</v>
-      </c>
-      <c r="E6" s="74">
-        <v>4</v>
+      <c r="D6" s="72">
+        <v>1</v>
+      </c>
+      <c r="E6" s="73">
+        <v>2</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>117</v>
@@ -9736,19 +10165,19 @@
       <c r="J6" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="K6" s="74">
+      <c r="K6" s="73">
         <v>1000</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="74">
+      <c r="M6" s="73">
         <v>150</v>
       </c>
-      <c r="N6" s="74">
-        <v>1</v>
-      </c>
-      <c r="O6" s="87">
+      <c r="N6" s="73">
+        <v>1</v>
+      </c>
+      <c r="O6" s="86">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
@@ -9758,15 +10187,15 @@
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="73">
-        <v>1</v>
-      </c>
-      <c r="E7" s="74">
+        <v>37</v>
+      </c>
+      <c r="D7" s="72">
+        <v>1</v>
+      </c>
+      <c r="E7" s="73">
         <v>4</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -9778,19 +10207,19 @@
       <c r="J7" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="K7" s="73">
+      <c r="K7" s="72">
         <v>1</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M7" s="73">
+      <c r="M7" s="72">
         <v>120</v>
       </c>
-      <c r="N7" s="74">
-        <v>1</v>
-      </c>
-      <c r="O7" s="87">
+      <c r="N7" s="73">
+        <v>1</v>
+      </c>
+      <c r="O7" s="86">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -9800,40 +10229,40 @@
         <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="73">
-        <v>1</v>
-      </c>
-      <c r="E8" s="74">
+        <v>37</v>
+      </c>
+      <c r="D8" s="72">
+        <v>1</v>
+      </c>
+      <c r="E8" s="73">
         <v>8</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="74"/>
+      <c r="K8" s="73"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="74"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="73"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="73">
-        <v>1</v>
-      </c>
-      <c r="E9" s="74">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="D9" s="72">
+        <v>1</v>
+      </c>
+      <c r="E9" s="73">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9841,16 +10270,16 @@
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="73">
-        <v>1</v>
-      </c>
-      <c r="E10" s="74">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="D10" s="72">
+        <v>1</v>
+      </c>
+      <c r="E10" s="73">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9858,304 +10287,304 @@
         <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="73">
-        <v>1</v>
-      </c>
-      <c r="E11" s="74">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="D11" s="72">
+        <v>1</v>
+      </c>
+      <c r="E11" s="73">
+        <v>16</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="73"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="74"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="73"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="73">
-        <v>1</v>
-      </c>
-      <c r="E12" s="74">
-        <v>20</v>
+      <c r="D12" s="72">
+        <v>1</v>
+      </c>
+      <c r="E12" s="73">
+        <v>10</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="73"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="74"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="73"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="73">
-        <v>1</v>
-      </c>
-      <c r="E13" s="74">
+        <v>51</v>
+      </c>
+      <c r="D13" s="72">
+        <v>1</v>
+      </c>
+      <c r="E13" s="73">
         <v>20</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="74"/>
+      <c r="K13" s="73"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="74"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="73"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="73">
-        <v>1</v>
-      </c>
-      <c r="E14" s="74">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="D14" s="72">
+        <v>1</v>
+      </c>
+      <c r="E14" s="73">
+        <v>40</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="74"/>
+      <c r="K14" s="73"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="74"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="73"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="73">
-        <v>1</v>
-      </c>
-      <c r="E15" s="74">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="D15" s="72">
+        <v>1</v>
+      </c>
+      <c r="E15" s="73">
+        <v>10</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="74"/>
+      <c r="K15" s="73"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="74"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="73"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="73">
-        <v>1</v>
-      </c>
-      <c r="E16" s="74">
-        <v>78</v>
+        <v>51</v>
+      </c>
+      <c r="D16" s="72">
+        <v>1</v>
+      </c>
+      <c r="E16" s="73">
+        <v>20</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="74"/>
+      <c r="K16" s="73"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="74"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="73"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="73">
-        <v>1</v>
-      </c>
-      <c r="E17" s="74">
-        <v>17</v>
+        <v>51</v>
+      </c>
+      <c r="D17" s="72">
+        <v>1</v>
+      </c>
+      <c r="E17" s="73">
+        <v>40</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="73"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="74"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="73">
-        <v>1</v>
-      </c>
-      <c r="E18" s="74">
-        <v>34</v>
+        <v>65</v>
+      </c>
+      <c r="D18" s="72">
+        <v>1</v>
+      </c>
+      <c r="E18" s="73">
+        <v>20</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="73"/>
+      <c r="K18" s="72"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="74"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="73"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="73">
-        <v>1</v>
-      </c>
-      <c r="E19" s="74">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="D19" s="72">
+        <v>1</v>
+      </c>
+      <c r="E19" s="73">
+        <v>39</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="73"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="74"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="73">
-        <v>1</v>
-      </c>
-      <c r="E20" s="74">
-        <v>2</v>
+        <v>65</v>
+      </c>
+      <c r="D20" s="72">
+        <v>1</v>
+      </c>
+      <c r="E20" s="73">
+        <v>78</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="73"/>
+      <c r="K20" s="72"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="74"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="73"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="73">
-        <v>1</v>
-      </c>
-      <c r="E21" s="74">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="D21" s="72">
+        <v>1</v>
+      </c>
+      <c r="E21" s="73">
+        <v>39</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="73"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="74"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="73"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="73">
-        <v>1</v>
-      </c>
-      <c r="E22" s="74">
-        <v>4</v>
+        <v>71</v>
+      </c>
+      <c r="D22" s="72">
+        <v>1</v>
+      </c>
+      <c r="E22" s="73">
+        <v>78</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="73"/>
+      <c r="K22" s="72"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="74"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="73"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="73">
-        <v>1</v>
-      </c>
-      <c r="E23" s="74">
-        <v>4</v>
+        <v>71</v>
+      </c>
+      <c r="D23" s="72">
+        <v>1</v>
+      </c>
+      <c r="E23" s="73">
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10163,16 +10592,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="73">
-        <v>1</v>
-      </c>
-      <c r="E24" s="74">
-        <v>7</v>
+        <v>79</v>
+      </c>
+      <c r="D24" s="72">
+        <v>1</v>
+      </c>
+      <c r="E24" s="73">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10180,16 +10609,16 @@
         <v>16</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="73">
-        <v>1</v>
-      </c>
-      <c r="E25" s="74">
-        <v>9</v>
+        <v>79</v>
+      </c>
+      <c r="D25" s="72">
+        <v>1</v>
+      </c>
+      <c r="E25" s="73">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10197,16 +10626,16 @@
         <v>16</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="73">
-        <v>1</v>
-      </c>
-      <c r="E26" s="74">
-        <v>19</v>
+        <v>79</v>
+      </c>
+      <c r="D26" s="72">
+        <v>1</v>
+      </c>
+      <c r="E26" s="73">
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10214,16 +10643,16 @@
         <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="73">
-        <v>1</v>
-      </c>
-      <c r="E27" s="74">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="D27" s="72">
+        <v>1</v>
+      </c>
+      <c r="E27" s="73">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10231,16 +10660,16 @@
         <v>16</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="73">
-        <v>1</v>
-      </c>
-      <c r="E28" s="74">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="D28" s="72">
+        <v>1</v>
+      </c>
+      <c r="E28" s="73">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10248,16 +10677,16 @@
         <v>16</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="73">
-        <v>1</v>
-      </c>
-      <c r="E29" s="74">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="D29" s="72">
+        <v>1</v>
+      </c>
+      <c r="E29" s="73">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10265,16 +10694,16 @@
         <v>16</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="73">
-        <v>1</v>
-      </c>
-      <c r="E30" s="74">
         <v>37</v>
+      </c>
+      <c r="D30" s="72">
+        <v>1</v>
+      </c>
+      <c r="E30" s="73">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10282,16 +10711,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="73">
-        <v>1</v>
-      </c>
-      <c r="E31" s="74">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="D31" s="72">
+        <v>1</v>
+      </c>
+      <c r="E31" s="73">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10299,675 +10728,823 @@
         <v>16</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="73">
-        <v>1</v>
-      </c>
-      <c r="E32" s="74">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="D32" s="72">
+        <v>1</v>
+      </c>
+      <c r="E32" s="73">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="73">
-        <v>1</v>
-      </c>
-      <c r="E33" s="74">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="D33" s="72">
+        <v>1</v>
+      </c>
+      <c r="E33" s="73">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="73">
-        <v>5</v>
-      </c>
-      <c r="E34" s="74">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="D34" s="72">
+        <v>1</v>
+      </c>
+      <c r="E34" s="73">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="73">
-        <v>7</v>
-      </c>
-      <c r="E35" s="74">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="D35" s="72">
+        <v>1</v>
+      </c>
+      <c r="E35" s="73">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="73">
-        <v>5</v>
-      </c>
-      <c r="E36" s="74">
-        <v>69</v>
+        <v>51</v>
+      </c>
+      <c r="D36" s="72">
+        <v>1</v>
+      </c>
+      <c r="E36" s="73">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="73">
-        <v>7</v>
-      </c>
-      <c r="E37" s="74">
-        <v>96</v>
+        <v>51</v>
+      </c>
+      <c r="D37" s="72">
+        <v>1</v>
+      </c>
+      <c r="E37" s="73">
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="73">
-        <v>5</v>
-      </c>
-      <c r="E38" s="74">
-        <v>137</v>
+        <v>51</v>
+      </c>
+      <c r="D38" s="72">
+        <v>1</v>
+      </c>
+      <c r="E38" s="73">
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="73">
-        <v>7</v>
-      </c>
-      <c r="E39" s="74">
-        <v>192</v>
+        <v>51</v>
+      </c>
+      <c r="D39" s="72">
+        <v>1</v>
+      </c>
+      <c r="E39" s="73">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="73">
-        <v>5</v>
-      </c>
-      <c r="E40" s="74">
-        <v>163</v>
+        <v>51</v>
+      </c>
+      <c r="D40" s="72">
+        <v>1</v>
+      </c>
+      <c r="E40" s="73">
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="73">
-        <v>7</v>
-      </c>
-      <c r="E41" s="74">
-        <v>228</v>
+        <v>51</v>
+      </c>
+      <c r="D41" s="72">
+        <v>1</v>
+      </c>
+      <c r="E41" s="73">
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="73">
-        <v>5</v>
-      </c>
-      <c r="E42" s="74">
-        <v>326</v>
+        <v>65</v>
+      </c>
+      <c r="D42" s="72">
+        <v>1</v>
+      </c>
+      <c r="E42" s="73">
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="73">
-        <v>7</v>
-      </c>
-      <c r="E43" s="74">
-        <v>456</v>
+        <v>65</v>
+      </c>
+      <c r="D43" s="72">
+        <v>1</v>
+      </c>
+      <c r="E43" s="73">
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="73">
-        <v>1</v>
-      </c>
-      <c r="E44" s="74">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="D44" s="72">
+        <v>1</v>
+      </c>
+      <c r="E44" s="73">
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="73">
-        <v>3</v>
-      </c>
-      <c r="E45" s="74">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="D45" s="72">
+        <v>1</v>
+      </c>
+      <c r="E45" s="73">
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="73">
-        <v>5</v>
-      </c>
-      <c r="E46" s="74">
-        <v>4</v>
+        <v>51</v>
+      </c>
+      <c r="D46" s="72">
+        <v>1</v>
+      </c>
+      <c r="E46" s="73">
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="73">
-        <v>3</v>
-      </c>
-      <c r="E47" s="74">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="D47" s="72">
+        <v>1</v>
+      </c>
+      <c r="E47" s="73">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="73">
+        <v>53</v>
+      </c>
+      <c r="D48" s="72">
         <v>5</v>
       </c>
-      <c r="E48" s="74">
-        <v>8</v>
+      <c r="E48" s="73">
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4">
-        <v>0</v>
-      </c>
-      <c r="E49" s="74">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="72">
+        <v>7</v>
+      </c>
+      <c r="E49" s="73">
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4">
-        <v>0</v>
-      </c>
-      <c r="E50" s="74">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="72">
+        <v>5</v>
+      </c>
+      <c r="E50" s="73">
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-      <c r="E51" s="74">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="72">
+        <v>7</v>
+      </c>
+      <c r="E51" s="73">
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4">
-        <v>0</v>
-      </c>
-      <c r="E52" s="74">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="72">
+        <v>5</v>
+      </c>
+      <c r="E52" s="73">
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4">
-        <v>0</v>
-      </c>
-      <c r="E53" s="74">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="72">
+        <v>7</v>
+      </c>
+      <c r="E53" s="73">
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4">
-        <v>0</v>
-      </c>
-      <c r="E54" s="74">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="72">
+        <v>5</v>
+      </c>
+      <c r="E54" s="73">
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4">
-        <v>0</v>
-      </c>
-      <c r="E55" s="74">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="72">
+        <v>7</v>
+      </c>
+      <c r="E55" s="73">
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="72">
+        <v>5</v>
+      </c>
+      <c r="E56" s="73">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="72">
+        <v>7</v>
+      </c>
+      <c r="E57" s="73">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="72">
+        <v>1</v>
+      </c>
+      <c r="E58" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="72">
+        <v>3</v>
+      </c>
+      <c r="E59" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="72">
+        <v>5</v>
+      </c>
+      <c r="E60" s="73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="72">
+        <v>3</v>
+      </c>
+      <c r="E61" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="72">
+        <v>5</v>
+      </c>
+      <c r="E62" s="73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="124" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4">
-        <v>0</v>
-      </c>
-      <c r="E56" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="74"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="74"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="74"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="74"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="74"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="74"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="74"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="74"/>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="74"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="74"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="74"/>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="74"/>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="74"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="74"/>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="74"/>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="73">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="74"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="73"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="74"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="73"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="74"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="73"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="74"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="73"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="74"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="73"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="74"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="73"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="74"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="73"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="74"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="73"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="74"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="73"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="73"/>
-      <c r="E81" s="74"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="73"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="73"/>
-      <c r="E82" s="74"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="73"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="74"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="73"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="74"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="73"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
-      <c r="D85" s="73"/>
-      <c r="E85" s="74"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="73"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
-      <c r="D86" s="73"/>
-      <c r="E86" s="74"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="73"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
-      <c r="D87" s="73"/>
-      <c r="E87" s="74"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="73"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
-      <c r="D88" s="73"/>
-      <c r="E88" s="74"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="73"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="D89" s="73"/>
-      <c r="E89" s="74"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="73"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
-      <c r="D90" s="73"/>
-      <c r="E90" s="74"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="73"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
-      <c r="D91" s="73"/>
-      <c r="E91" s="74"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="73"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
-      <c r="D92" s="73"/>
-      <c r="E92" s="74"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="73"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
-      <c r="D93" s="73"/>
-      <c r="E93" s="74"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="73"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="73"/>
-      <c r="E94" s="74"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="73"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11889,37 +12466,37 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="107" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="107" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="107" customWidth="1"/>
-    <col min="4" max="4" width="15" style="107" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="107" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" style="107" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="107" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="107" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="107"/>
-    <col min="10" max="10" width="14.6640625" style="107" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="107" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="107" customWidth="1"/>
-    <col min="13" max="13" width="18.83203125" style="107" customWidth="1"/>
-    <col min="14" max="14" width="36.6640625" style="107" customWidth="1"/>
-    <col min="15" max="15" width="19.5" style="107" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="107" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" style="107" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" style="107" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" style="107" customWidth="1"/>
-    <col min="20" max="21" width="12.6640625" style="107"/>
-    <col min="22" max="22" width="15.1640625" style="107" customWidth="1"/>
-    <col min="23" max="23" width="21.33203125" style="107" customWidth="1"/>
-    <col min="24" max="24" width="23" style="107" customWidth="1"/>
-    <col min="25" max="25" width="16.5" style="107" customWidth="1"/>
-    <col min="26" max="16384" width="12.6640625" style="107"/>
+    <col min="1" max="1" width="17.1640625" style="106" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="106" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="106" customWidth="1"/>
+    <col min="4" max="4" width="15" style="106" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="106" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" style="106" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="106" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="106" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="106"/>
+    <col min="10" max="10" width="14.6640625" style="106" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="106" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="106" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" style="106" customWidth="1"/>
+    <col min="14" max="14" width="36.6640625" style="106" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="106" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="106" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="106" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" style="106" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" style="106" customWidth="1"/>
+    <col min="20" max="21" width="12.6640625" style="106"/>
+    <col min="22" max="22" width="15.1640625" style="106" customWidth="1"/>
+    <col min="23" max="23" width="21.33203125" style="106" customWidth="1"/>
+    <col min="24" max="24" width="23" style="106" customWidth="1"/>
+    <col min="25" max="25" width="16.5" style="106" customWidth="1"/>
+    <col min="26" max="16384" width="12.6640625" style="106"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="98.25" customHeight="1" x14ac:dyDescent="1.05">
@@ -11945,47 +12522,47 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:19" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="82" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="81">
+      <c r="A5" s="80">
         <f>C10+SUM(B19:B23)</f>
-        <v>48</v>
-      </c>
-      <c r="B5" s="82" t="str" cm="1">
+        <v>46</v>
+      </c>
+      <c r="B5" s="81" t="str" cm="1">
         <f t="array" ref="B5">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</f>
         <v>Femto</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="75">
         <f>VLOOKUP(Table_112[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_112[[#This Row],[Credits]]</f>
-        <v>2</v>
-      </c>
-      <c r="D5" s="77">
+        <v>4</v>
+      </c>
+      <c r="D5" s="76">
         <f>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</f>
         <v>30000</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="76">
         <f>C15</f>
         <v>2500</v>
       </c>
-      <c r="F5" s="84">
+      <c r="F5" s="83">
         <f>D5+E5</f>
         <v>32500</v>
       </c>
@@ -12063,55 +12640,55 @@
       <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="84">
         <v>12</v>
       </c>
       <c r="C10" s="12">
         <f>B10*'Cloud.gov Tiers'!B3</f>
         <v>36</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="39">
         <v>100</v>
       </c>
-      <c r="J10" s="85">
+      <c r="J10" s="84">
         <v>101</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="41">
         <f>ROUNDUP(Table_315[[#This Row],[Quantity (GB)]]/Table_315[[#This Row],[GB per credit]],0)</f>
         <v>2</v>
       </c>
-      <c r="M10" s="39" t="s">
+      <c r="M10" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="40" t="s">
+      <c r="O10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="Q10" s="39">
         <f>'AWS Service Prices'!K5*'AWS Service Prices'!M5</f>
         <v>400</v>
       </c>
-      <c r="R10" s="85">
+      <c r="R10" s="84">
         <v>401</v>
       </c>
-      <c r="S10" s="42">
+      <c r="S10" s="41">
         <f>ROUNDUP(Table_416[[#This Row],[Quantity (GB)]]/Table_416[[#This Row],[GB per credit]],0)</f>
         <v>2</v>
       </c>
@@ -12167,26 +12744,26 @@
       <c r="C14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="47" t="str">
+      <c r="E14" s="46" t="str">
         <f t="array" ref="E14:I43">AWSRdsServicePrices</f>
         <v>AWS RDS</v>
       </c>
-      <c r="F14" s="48" t="str">
+      <c r="F14" s="47" t="str">
         <v>micro-psql</v>
       </c>
-      <c r="G14" s="48" t="str">
+      <c r="G14" s="47" t="str">
         <v>db.t3.micro</v>
       </c>
-      <c r="H14" s="48">
-        <v>1</v>
-      </c>
-      <c r="I14" s="48">
-        <v>1</v>
-      </c>
-      <c r="J14" s="20">
+      <c r="H14" s="47">
+        <v>1</v>
+      </c>
+      <c r="I14" s="47">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19">
         <v>2</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K14" s="89">
         <f>I14*J14</f>
         <v>2</v>
       </c>
@@ -12213,111 +12790,111 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>250</v>
       </c>
-      <c r="B15" s="86">
+      <c r="B15" s="85">
         <v>10</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <f>A15*B15</f>
         <v>2500</v>
       </c>
-      <c r="E15" s="24" t="str">
+      <c r="E15" s="23" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F15" s="25" t="str">
+      <c r="F15" s="24" t="str">
         <v>micro-psql-redundant</v>
       </c>
-      <c r="G15" s="25" t="str">
+      <c r="G15" s="24" t="str">
         <v>db.t3.micro</v>
       </c>
-      <c r="H15" s="25">
-        <v>1</v>
-      </c>
-      <c r="I15" s="25">
+      <c r="H15" s="24">
+        <v>1</v>
+      </c>
+      <c r="I15" s="24">
         <v>2</v>
       </c>
-      <c r="J15" s="35">
-        <v>0</v>
-      </c>
-      <c r="K15" s="90">
+      <c r="J15" s="34">
+        <v>0</v>
+      </c>
+      <c r="K15" s="89">
         <f t="shared" ref="K15:K43" si="0">I15*J15</f>
         <v>0</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="40" t="s">
+      <c r="N15" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="40" t="s">
+      <c r="O15" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="40" t="s">
+      <c r="P15" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="40">
+      <c r="Q15" s="39">
         <f>'AWS Service Prices'!K4*'AWS Service Prices'!M4</f>
         <v>100</v>
       </c>
-      <c r="R15" s="85">
-        <v>0</v>
-      </c>
-      <c r="S15" s="42">
+      <c r="R15" s="84">
+        <v>0</v>
+      </c>
+      <c r="S15" s="41">
         <f>ROUNDUP(Table_618[[#This Row],[Quantity (GB)]]/Table_618[[#This Row],[GB per credit]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="47" t="str">
+      <c r="E16" s="46" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F16" s="48" t="str">
+      <c r="F16" s="47" t="str">
+        <v>micro-psql-replica</v>
+      </c>
+      <c r="G16" s="47" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H16" s="47">
+        <v>1</v>
+      </c>
+      <c r="I16" s="47">
+        <v>4</v>
+      </c>
+      <c r="J16" s="34">
+        <v>0</v>
+      </c>
+      <c r="K16" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="23" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F17" s="24" t="str">
         <v>small-psql</v>
       </c>
-      <c r="G16" s="48" t="str">
+      <c r="G17" s="24" t="str">
         <v>db.t3.small</v>
       </c>
-      <c r="H16" s="48">
-        <v>1</v>
-      </c>
-      <c r="I16" s="48">
+      <c r="H17" s="24">
+        <v>1</v>
+      </c>
+      <c r="I17" s="24">
         <v>2</v>
       </c>
-      <c r="J16" s="35">
-        <v>0</v>
-      </c>
-      <c r="K16" s="90">
+      <c r="J17" s="34">
+        <v>1</v>
+      </c>
+      <c r="K17" s="89">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F17" s="25" t="str">
-        <v>small-psql-redundant</v>
-      </c>
-      <c r="G17" s="25" t="str">
-        <v>db.t3.small</v>
-      </c>
-      <c r="H17" s="25">
-        <v>1</v>
-      </c>
-      <c r="I17" s="25">
-        <v>4</v>
-      </c>
-      <c r="J17" s="35">
-        <v>1</v>
-      </c>
-      <c r="K17" s="90">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>40</v>
@@ -12330,672 +12907,672 @@
       <c r="B18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="47" t="str">
+      <c r="E18" s="46" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F18" s="48" t="str">
-        <v>medium-psql</v>
-      </c>
-      <c r="G18" s="48" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H18" s="48">
-        <v>1</v>
-      </c>
-      <c r="I18" s="48">
+      <c r="F18" s="47" t="str">
+        <v>small-psql-redundant</v>
+      </c>
+      <c r="G18" s="47" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H18" s="47">
+        <v>1</v>
+      </c>
+      <c r="I18" s="47">
         <v>4</v>
       </c>
-      <c r="J18" s="35">
-        <v>0</v>
-      </c>
-      <c r="K18" s="90">
+      <c r="J18" s="34">
+        <v>0</v>
+      </c>
+      <c r="K18" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="46" t="s">
+      <c r="M18" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="46" t="s">
+      <c r="N18" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="46" t="s">
+      <c r="O18" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="P18" s="46" t="s">
+      <c r="P18" s="45" t="s">
         <v>26</v>
       </c>
       <c r="Q18" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="R18" s="46" t="s">
+      <c r="R18" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="S18" s="46" t="s">
+      <c r="S18" s="45" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="30">
         <f t="array" ref="B19">'Example worksheet'!$S$10</f>
         <v>2</v>
       </c>
-      <c r="E19" s="24" t="str">
+      <c r="E19" s="23" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F19" s="25" t="str">
-        <v>medium-psql-redundant</v>
-      </c>
-      <c r="G19" s="25" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H19" s="25">
-        <v>1</v>
-      </c>
-      <c r="I19" s="25">
+      <c r="F19" s="24" t="str">
+        <v>small-psql-replica</v>
+      </c>
+      <c r="G19" s="24" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H19" s="24">
+        <v>1</v>
+      </c>
+      <c r="I19" s="24">
         <v>8</v>
       </c>
-      <c r="J19" s="35">
-        <v>0</v>
-      </c>
-      <c r="K19" s="90">
+      <c r="J19" s="34">
+        <v>0</v>
+      </c>
+      <c r="K19" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="47" t="str" cm="1">
+      <c r="M19" s="46" t="str" cm="1">
         <f t="array" ref="M19:Q29">AwsOpensearchPrices</f>
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N19" s="48" t="str">
+      <c r="N19" s="47" t="str">
         <v>es-dev</v>
       </c>
-      <c r="O19" s="48" t="str">
+      <c r="O19" s="47" t="str">
         <v>t3.small.search</v>
       </c>
-      <c r="P19" s="48">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="48">
+      <c r="P19" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="47">
         <v>2</v>
       </c>
-      <c r="R19" s="32">
-        <v>0</v>
-      </c>
-      <c r="S19" s="21">
+      <c r="R19" s="31">
+        <v>0</v>
+      </c>
+      <c r="S19" s="20">
         <f>R19*Q19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="33">
         <f t="array" ref="B20">SUM(K14:K43) + 'Example worksheet'!$K$10</f>
+        <v>6</v>
+      </c>
+      <c r="E20" s="46" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F20" s="47" t="str">
+        <v>medium-psql</v>
+      </c>
+      <c r="G20" s="47" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H20" s="47">
+        <v>1</v>
+      </c>
+      <c r="I20" s="47">
+        <v>4</v>
+      </c>
+      <c r="J20" s="34">
+        <v>0</v>
+      </c>
+      <c r="K20" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="23" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N20" s="24" t="str">
+        <v>es-medium</v>
+      </c>
+      <c r="O20" s="24" t="str">
+        <v>c5.large.search</v>
+      </c>
+      <c r="P20" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>34</v>
+      </c>
+      <c r="R20" s="37">
+        <v>0</v>
+      </c>
+      <c r="S20" s="20">
+        <f t="shared" ref="S20:S29" si="1">R20*Q20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="30">
+        <f>'Example worksheet'!$S$15+SUM(S19:S29)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="23" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F21" s="24" t="str">
+        <v>medium-psql-redundant</v>
+      </c>
+      <c r="G21" s="24" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H21" s="24">
+        <v>1</v>
+      </c>
+      <c r="I21" s="24">
         <v>8</v>
       </c>
-      <c r="E20" s="47" t="str">
+      <c r="J21" s="34">
+        <v>0</v>
+      </c>
+      <c r="K21" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="46" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N21" s="47" t="str">
+        <v>es-medium-ha</v>
+      </c>
+      <c r="O21" s="47" t="str">
+        <v>c5.large.search</v>
+      </c>
+      <c r="P21" s="47">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="47">
+        <v>48</v>
+      </c>
+      <c r="R21" s="37">
+        <v>0</v>
+      </c>
+      <c r="S21" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="33">
+        <f>SUM(S33:S37)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="46" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F20" s="48" t="str">
-        <v>medium-gp-psql</v>
-      </c>
-      <c r="G20" s="48" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H20" s="48">
-        <v>1</v>
-      </c>
-      <c r="I20" s="48">
-        <v>10</v>
-      </c>
-      <c r="J20" s="35">
-        <v>0</v>
-      </c>
-      <c r="K20" s="90">
+      <c r="F22" s="47" t="str">
+        <v>medium-psql-replica</v>
+      </c>
+      <c r="G22" s="47" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H22" s="47">
+        <v>1</v>
+      </c>
+      <c r="I22" s="47">
+        <v>16</v>
+      </c>
+      <c r="J22" s="34">
+        <v>0</v>
+      </c>
+      <c r="K22" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="24" t="str">
+      <c r="M22" s="23" t="str">
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N20" s="25" t="str">
-        <v>es-medium</v>
-      </c>
-      <c r="O20" s="25" t="str">
-        <v>c5.large.search</v>
-      </c>
-      <c r="P20" s="25">
+      <c r="N22" s="24" t="str">
+        <v>es-large</v>
+      </c>
+      <c r="O22" s="24" t="str">
+        <v>c5.xlarge.search</v>
+      </c>
+      <c r="P22" s="24">
         <v>5</v>
       </c>
-      <c r="Q20" s="25">
-        <v>34</v>
-      </c>
-      <c r="R20" s="38">
-        <v>0</v>
-      </c>
-      <c r="S20" s="21">
-        <f t="shared" ref="S20:S29" si="1">R20*Q20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="31">
-        <f>'Example worksheet'!$S$15+SUM(S19:S29)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F21" s="25" t="str">
-        <v>medium-gp-psql-redundant</v>
-      </c>
-      <c r="G21" s="25" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H21" s="25">
-        <v>1</v>
-      </c>
-      <c r="I21" s="25">
-        <v>20</v>
-      </c>
-      <c r="J21" s="35">
-        <v>0</v>
-      </c>
-      <c r="K21" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="47" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N21" s="48" t="str">
-        <v>es-medium-ha</v>
-      </c>
-      <c r="O21" s="48" t="str">
-        <v>c5.large.search</v>
-      </c>
-      <c r="P21" s="48">
-        <v>7</v>
-      </c>
-      <c r="Q21" s="48">
-        <v>48</v>
-      </c>
-      <c r="R21" s="38">
-        <v>0</v>
-      </c>
-      <c r="S21" s="21">
+      <c r="Q22" s="24">
+        <v>69</v>
+      </c>
+      <c r="R22" s="37">
+        <v>0</v>
+      </c>
+      <c r="S22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="34">
-        <f>SUM(S33:S37)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="47" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F22" s="48" t="str">
-        <v>large-gp-psql</v>
-      </c>
-      <c r="G22" s="48" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H22" s="48">
-        <v>1</v>
-      </c>
-      <c r="I22" s="48">
-        <v>10</v>
-      </c>
-      <c r="J22" s="35">
-        <v>0</v>
-      </c>
-      <c r="K22" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="24" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N22" s="25" t="str">
-        <v>es-large</v>
-      </c>
-      <c r="O22" s="25" t="str">
-        <v>c5.xlarge.search</v>
-      </c>
-      <c r="P22" s="25">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="25">
-        <v>69</v>
-      </c>
-      <c r="R22" s="38">
-        <v>0</v>
-      </c>
-      <c r="S22" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="36">
         <f>SUM(Table_820[Credits])</f>
         <v>2</v>
       </c>
-      <c r="E23" s="24" t="str">
+      <c r="E23" s="23" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F23" s="25" t="str">
+      <c r="F23" s="24" t="str">
+        <v>medium-gp-psql</v>
+      </c>
+      <c r="G23" s="24" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H23" s="24">
+        <v>1</v>
+      </c>
+      <c r="I23" s="24">
+        <v>10</v>
+      </c>
+      <c r="J23" s="34">
+        <v>0</v>
+      </c>
+      <c r="K23" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="46" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N23" s="47" t="str">
+        <v>es-large-ha</v>
+      </c>
+      <c r="O23" s="47" t="str">
+        <v>c5.xlarge.search</v>
+      </c>
+      <c r="P23" s="47">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="47">
+        <v>96</v>
+      </c>
+      <c r="R23" s="37">
+        <v>0</v>
+      </c>
+      <c r="S23" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="46" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F24" s="47" t="str">
+        <v>medium-gp-psql-redundant</v>
+      </c>
+      <c r="G24" s="47" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H24" s="47">
+        <v>1</v>
+      </c>
+      <c r="I24" s="47">
+        <v>20</v>
+      </c>
+      <c r="J24" s="34">
+        <v>0</v>
+      </c>
+      <c r="K24" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="23" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N24" s="24" t="str">
+        <v>es-xlarge</v>
+      </c>
+      <c r="O24" s="24" t="str">
+        <v>c5.2xlarge.search</v>
+      </c>
+      <c r="P24" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="24">
+        <v>137</v>
+      </c>
+      <c r="R24" s="37">
+        <v>0</v>
+      </c>
+      <c r="S24" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="23" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F25" s="24" t="str">
+        <v>medium-gp-psql-replica</v>
+      </c>
+      <c r="G25" s="24" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H25" s="24">
+        <v>1</v>
+      </c>
+      <c r="I25" s="24">
+        <v>40</v>
+      </c>
+      <c r="J25" s="34">
+        <v>0</v>
+      </c>
+      <c r="K25" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="46" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N25" s="47" t="str">
+        <v>es-xlarge-ha</v>
+      </c>
+      <c r="O25" s="47" t="str">
+        <v>c5.2xlarge.search</v>
+      </c>
+      <c r="P25" s="47">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="47">
+        <v>192</v>
+      </c>
+      <c r="R25" s="37">
+        <v>0</v>
+      </c>
+      <c r="S25" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="46" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F26" s="47" t="str">
+        <v>large-gp-psql</v>
+      </c>
+      <c r="G26" s="47" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H26" s="47">
+        <v>1</v>
+      </c>
+      <c r="I26" s="47">
+        <v>10</v>
+      </c>
+      <c r="J26" s="34">
+        <v>0</v>
+      </c>
+      <c r="K26" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="23" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N26" s="24" t="str">
+        <v>es-2xlarge-gp</v>
+      </c>
+      <c r="O26" s="24" t="str">
+        <v>m5.2xlarge.search</v>
+      </c>
+      <c r="P26" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="24">
+        <v>163</v>
+      </c>
+      <c r="R26" s="37">
+        <v>0</v>
+      </c>
+      <c r="S26" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="23" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F27" s="24" t="str">
         <v>large-gp-psql-redundant</v>
       </c>
-      <c r="G23" s="25" t="str">
+      <c r="G27" s="24" t="str">
         <v>db.m5.large</v>
       </c>
-      <c r="H23" s="25">
-        <v>1</v>
-      </c>
-      <c r="I23" s="25">
+      <c r="H27" s="24">
+        <v>1</v>
+      </c>
+      <c r="I27" s="24">
         <v>20</v>
       </c>
-      <c r="J23" s="35">
-        <v>0</v>
-      </c>
-      <c r="K23" s="90">
+      <c r="J27" s="34">
+        <v>0</v>
+      </c>
+      <c r="K27" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="47" t="str">
+      <c r="M27" s="46" t="str">
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N23" s="48" t="str">
-        <v>es-large-ha</v>
-      </c>
-      <c r="O23" s="48" t="str">
-        <v>c5.xlarge.search</v>
-      </c>
-      <c r="P23" s="48">
+      <c r="N27" s="47" t="str">
+        <v>es-2xlarge-gp-ha</v>
+      </c>
+      <c r="O27" s="47" t="str">
+        <v>m5.2xlarge.search</v>
+      </c>
+      <c r="P27" s="47">
         <v>7</v>
       </c>
-      <c r="Q23" s="48">
-        <v>96</v>
-      </c>
-      <c r="R23" s="38">
-        <v>0</v>
-      </c>
-      <c r="S23" s="21">
+      <c r="Q27" s="47">
+        <v>228</v>
+      </c>
+      <c r="R27" s="37">
+        <v>0</v>
+      </c>
+      <c r="S27" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="47" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F24" s="48" t="str">
-        <v>xlarge-gp-psql</v>
-      </c>
-      <c r="G24" s="48" t="str">
-        <v>db.m5.xlarge</v>
-      </c>
-      <c r="H24" s="48">
-        <v>1</v>
-      </c>
-      <c r="I24" s="48">
-        <v>20</v>
-      </c>
-      <c r="J24" s="35">
-        <v>0</v>
-      </c>
-      <c r="K24" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="24" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N24" s="25" t="str">
-        <v>es-xlarge</v>
-      </c>
-      <c r="O24" s="25" t="str">
-        <v>c5.2xlarge.search</v>
-      </c>
-      <c r="P24" s="25">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="25">
-        <v>137</v>
-      </c>
-      <c r="R24" s="38">
-        <v>0</v>
-      </c>
-      <c r="S24" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F25" s="25" t="str">
-        <v>xlarge-gp-psql-redundant</v>
-      </c>
-      <c r="G25" s="25" t="str">
-        <v>db.m5.xlarge</v>
-      </c>
-      <c r="H25" s="25">
-        <v>1</v>
-      </c>
-      <c r="I25" s="25">
-        <v>39</v>
-      </c>
-      <c r="J25" s="35">
-        <v>0</v>
-      </c>
-      <c r="K25" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="47" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N25" s="48" t="str">
-        <v>es-xlarge-ha</v>
-      </c>
-      <c r="O25" s="48" t="str">
-        <v>c5.2xlarge.search</v>
-      </c>
-      <c r="P25" s="48">
-        <v>7</v>
-      </c>
-      <c r="Q25" s="48">
-        <v>192</v>
-      </c>
-      <c r="R25" s="38">
-        <v>0</v>
-      </c>
-      <c r="S25" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E26" s="47" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F26" s="48" t="str">
-        <v>2xlarge-gp-psql</v>
-      </c>
-      <c r="G26" s="48" t="str">
-        <v>db.m5.2xlarge</v>
-      </c>
-      <c r="H26" s="48">
-        <v>1</v>
-      </c>
-      <c r="I26" s="48">
-        <v>39</v>
-      </c>
-      <c r="J26" s="35">
-        <v>0</v>
-      </c>
-      <c r="K26" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="24" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N26" s="25" t="str">
-        <v>es-2xlarge-gp</v>
-      </c>
-      <c r="O26" s="25" t="str">
-        <v>m5.2xlarge.search</v>
-      </c>
-      <c r="P26" s="25">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="25">
-        <v>163</v>
-      </c>
-      <c r="R26" s="38">
-        <v>0</v>
-      </c>
-      <c r="S26" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F27" s="25" t="str">
-        <v>2xlarge-gp-psql-redundant</v>
-      </c>
-      <c r="G27" s="25" t="str">
-        <v>db.m5.2xlarge</v>
-      </c>
-      <c r="H27" s="25">
-        <v>1</v>
-      </c>
-      <c r="I27" s="25">
-        <v>78</v>
-      </c>
-      <c r="J27" s="35">
-        <v>0</v>
-      </c>
-      <c r="K27" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="47" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N27" s="48" t="str">
-        <v>es-2xlarge-gp-ha</v>
-      </c>
-      <c r="O27" s="48" t="str">
-        <v>m5.2xlarge.search</v>
-      </c>
-      <c r="P27" s="48">
-        <v>7</v>
-      </c>
-      <c r="Q27" s="48">
-        <v>228</v>
-      </c>
-      <c r="R27" s="38">
-        <v>0</v>
-      </c>
-      <c r="S27" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="47" t="str">
+      <c r="A28" s="46" t="str">
         <f t="array" ref="A28:B35">CloudGovNoCostServices</f>
         <v>External Domain</v>
       </c>
-      <c r="B28" s="21" t="str">
+      <c r="B28" s="20" t="str">
         <v>cdn-route</v>
       </c>
-      <c r="E28" s="47" t="str">
+      <c r="E28" s="46" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F28" s="48" t="str">
-        <v>xlarge-gp-psql-m6</v>
-      </c>
-      <c r="G28" s="48" t="str">
-        <v>db.m6g.xlarge</v>
-      </c>
-      <c r="H28" s="48">
-        <v>1</v>
-      </c>
-      <c r="I28" s="48">
-        <v>17</v>
-      </c>
-      <c r="J28" s="35">
-        <v>0</v>
-      </c>
-      <c r="K28" s="90">
+      <c r="F28" s="47" t="str">
+        <v>large-gp-psql-replica</v>
+      </c>
+      <c r="G28" s="47" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H28" s="47">
+        <v>1</v>
+      </c>
+      <c r="I28" s="47">
+        <v>40</v>
+      </c>
+      <c r="J28" s="34">
+        <v>0</v>
+      </c>
+      <c r="K28" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M28" s="24" t="str">
+      <c r="M28" s="23" t="str">
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N28" s="25" t="str">
+      <c r="N28" s="24" t="str">
         <v>es-4xlarge-gp</v>
       </c>
-      <c r="O28" s="25" t="str">
+      <c r="O28" s="24" t="str">
         <v>m5.4xlarge.search</v>
       </c>
-      <c r="P28" s="25">
+      <c r="P28" s="24">
         <v>5</v>
       </c>
-      <c r="Q28" s="25">
+      <c r="Q28" s="24">
         <v>326</v>
       </c>
-      <c r="R28" s="38">
-        <v>0</v>
-      </c>
-      <c r="S28" s="21">
+      <c r="R28" s="37">
+        <v>0</v>
+      </c>
+      <c r="S28" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="str">
+      <c r="A29" s="23" t="str">
         <v>External Domain</v>
       </c>
-      <c r="B29" s="27" t="str">
+      <c r="B29" s="26" t="str">
         <v>custom-domain</v>
       </c>
-      <c r="E29" s="24" t="str">
+      <c r="E29" s="23" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F29" s="25" t="str">
-        <v>xlarge-gp-psql-m6-redundant</v>
-      </c>
-      <c r="G29" s="25" t="str">
-        <v>db.m6g.xlarge</v>
-      </c>
-      <c r="H29" s="25">
-        <v>1</v>
-      </c>
-      <c r="I29" s="25">
-        <v>34</v>
-      </c>
-      <c r="J29" s="35">
-        <v>0</v>
-      </c>
-      <c r="K29" s="90">
+      <c r="F29" s="24" t="str">
+        <v>xlarge-gp-psql</v>
+      </c>
+      <c r="G29" s="24" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H29" s="24">
+        <v>1</v>
+      </c>
+      <c r="I29" s="24">
+        <v>20</v>
+      </c>
+      <c r="J29" s="34">
+        <v>0</v>
+      </c>
+      <c r="K29" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="39" t="str">
+      <c r="M29" s="38" t="str">
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N29" s="40" t="str">
+      <c r="N29" s="39" t="str">
         <v>es-4xlarge-gp-ha</v>
       </c>
-      <c r="O29" s="40" t="str">
+      <c r="O29" s="39" t="str">
         <v>m5.4xlarge.search</v>
       </c>
-      <c r="P29" s="40">
+      <c r="P29" s="39">
         <v>7</v>
       </c>
-      <c r="Q29" s="40">
+      <c r="Q29" s="39">
         <v>456</v>
       </c>
-      <c r="R29" s="41">
-        <v>0</v>
-      </c>
-      <c r="S29" s="91">
+      <c r="R29" s="40">
+        <v>0</v>
+      </c>
+      <c r="S29" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T29" s="92"/>
+      <c r="T29" s="91"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="47" t="str">
+      <c r="A30" s="46" t="str">
         <v>External Domain</v>
       </c>
-      <c r="B30" s="21" t="str">
+      <c r="B30" s="20" t="str">
         <v>domain</v>
       </c>
-      <c r="E30" s="47" t="str">
+      <c r="E30" s="46" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F30" s="48" t="str">
-        <v>micro-mysql</v>
-      </c>
-      <c r="G30" s="48" t="str">
-        <v>db.t3.micro</v>
-      </c>
-      <c r="H30" s="48">
-        <v>1</v>
-      </c>
-      <c r="I30" s="48">
-        <v>1</v>
-      </c>
-      <c r="J30" s="43">
-        <v>0</v>
-      </c>
-      <c r="K30" s="90">
+      <c r="F30" s="47" t="str">
+        <v>xlarge-gp-psql-redundant</v>
+      </c>
+      <c r="G30" s="47" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H30" s="47">
+        <v>1</v>
+      </c>
+      <c r="I30" s="47">
+        <v>39</v>
+      </c>
+      <c r="J30" s="42">
+        <v>0</v>
+      </c>
+      <c r="K30" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="29"/>
+      <c r="Y30" s="28"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="24" t="str">
+      <c r="A31" s="23" t="str">
         <v>External Domain</v>
       </c>
-      <c r="B31" s="27" t="str">
+      <c r="B31" s="26" t="str">
         <v>domain-with-cdn</v>
       </c>
-      <c r="E31" s="24" t="str">
+      <c r="E31" s="23" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F31" s="25" t="str">
-        <v>micro-mysql-redundant</v>
-      </c>
-      <c r="G31" s="25" t="str">
-        <v>db.t3.micro</v>
-      </c>
-      <c r="H31" s="25">
-        <v>1</v>
-      </c>
-      <c r="I31" s="25">
-        <v>2</v>
-      </c>
-      <c r="J31" s="35">
-        <v>0</v>
-      </c>
-      <c r="K31" s="90">
+      <c r="F31" s="24" t="str">
+        <v>xlarge-gp-psql-replica</v>
+      </c>
+      <c r="G31" s="24" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H31" s="24">
+        <v>1</v>
+      </c>
+      <c r="I31" s="24">
+        <v>78</v>
+      </c>
+      <c r="J31" s="34">
+        <v>0</v>
+      </c>
+      <c r="K31" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13004,362 +13581,362 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="47" t="str">
+      <c r="A32" s="46" t="str">
         <v>UAA Service Account</v>
       </c>
-      <c r="B32" s="21" t="str">
+      <c r="B32" s="20" t="str">
         <v>oauth-client</v>
       </c>
-      <c r="E32" s="47" t="str">
+      <c r="E32" s="46" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F32" s="48" t="str">
-        <v>small-mysql</v>
-      </c>
-      <c r="G32" s="48" t="str">
-        <v>db.t3.small</v>
-      </c>
-      <c r="H32" s="48">
-        <v>1</v>
-      </c>
-      <c r="I32" s="48">
-        <v>2</v>
-      </c>
-      <c r="J32" s="35">
-        <v>0</v>
-      </c>
-      <c r="K32" s="90">
+      <c r="F32" s="47" t="str">
+        <v>2xlarge-gp-psql</v>
+      </c>
+      <c r="G32" s="47" t="str">
+        <v>db.m5.2xlarge</v>
+      </c>
+      <c r="H32" s="47">
+        <v>1</v>
+      </c>
+      <c r="I32" s="47">
+        <v>39</v>
+      </c>
+      <c r="J32" s="34">
+        <v>0</v>
+      </c>
+      <c r="K32" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="46" t="s">
+      <c r="M32" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N32" s="46" t="s">
+      <c r="N32" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="46" t="s">
+      <c r="O32" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="P32" s="46" t="s">
+      <c r="P32" s="45" t="s">
         <v>26</v>
       </c>
       <c r="Q32" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="R32" s="46" t="s">
+      <c r="R32" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="S32" s="46" t="s">
+      <c r="S32" s="45" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="24" t="str">
+      <c r="A33" s="23" t="str">
         <v>UAA Service Account</v>
       </c>
-      <c r="B33" s="27" t="str">
+      <c r="B33" s="26" t="str">
         <v>space-auditor</v>
       </c>
-      <c r="E33" s="24" t="str">
+      <c r="E33" s="23" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F33" s="25" t="str">
-        <v>small-mysql-redundant</v>
-      </c>
-      <c r="G33" s="25" t="str">
-        <v>db.t3.small</v>
-      </c>
-      <c r="H33" s="25">
-        <v>1</v>
-      </c>
-      <c r="I33" s="25">
-        <v>4</v>
-      </c>
-      <c r="J33" s="35">
-        <v>0</v>
-      </c>
-      <c r="K33" s="90">
+      <c r="F33" s="24" t="str">
+        <v>2xlarge-gp-psql-redundant</v>
+      </c>
+      <c r="G33" s="24" t="str">
+        <v>db.m5.2xlarge</v>
+      </c>
+      <c r="H33" s="24">
+        <v>1</v>
+      </c>
+      <c r="I33" s="24">
+        <v>78</v>
+      </c>
+      <c r="J33" s="34">
+        <v>0</v>
+      </c>
+      <c r="K33" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="47" t="str" cm="1">
+      <c r="M33" s="46" t="str" cm="1">
         <f t="array" ref="M33:Q37">AwsElasticCachePrices</f>
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N33" s="48" t="str">
+      <c r="N33" s="47" t="str">
         <v>redis-dev</v>
       </c>
-      <c r="O33" s="48" t="str">
+      <c r="O33" s="47" t="str">
         <v>cache.t3.micro</v>
       </c>
-      <c r="P33" s="48">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="88">
-        <v>1</v>
-      </c>
-      <c r="R33" s="50">
-        <v>0</v>
-      </c>
-      <c r="S33" s="21">
+      <c r="P33" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="87">
+        <v>1</v>
+      </c>
+      <c r="R33" s="49">
+        <v>0</v>
+      </c>
+      <c r="S33" s="20">
         <f>R33*Q33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="47" t="str">
+      <c r="A34" s="46" t="str">
         <v>UAA Service Account</v>
       </c>
-      <c r="B34" s="21" t="str">
+      <c r="B34" s="20" t="str">
         <v>space-deployer</v>
       </c>
-      <c r="E34" s="47" t="str">
+      <c r="E34" s="46" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F34" s="48" t="str">
-        <v>medium-mysql</v>
-      </c>
-      <c r="G34" s="48" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H34" s="48">
-        <v>1</v>
-      </c>
-      <c r="I34" s="48">
+      <c r="F34" s="47" t="str">
+        <v>2xlarge-gp-psql-replica</v>
+      </c>
+      <c r="G34" s="47" t="str">
+        <v>db.m5.2xlarge</v>
+      </c>
+      <c r="H34" s="47">
+        <v>1</v>
+      </c>
+      <c r="I34" s="47">
+        <v>156</v>
+      </c>
+      <c r="J34" s="34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="23" t="str">
+        <v>AWS ElastiCache</v>
+      </c>
+      <c r="N34" s="24" t="str">
+        <v>redis-3node</v>
+      </c>
+      <c r="O34" s="24" t="str">
+        <v>cache.t3.micro</v>
+      </c>
+      <c r="P34" s="24">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="87">
+        <v>2</v>
+      </c>
+      <c r="R34" s="37">
+        <v>0</v>
+      </c>
+      <c r="S34" s="20">
+        <f t="shared" ref="S34:S37" si="2">R34*Q34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="23" t="str">
+        <v>Autoscaler</v>
+      </c>
+      <c r="B35" s="26" t="str">
+        <v>autoscaler-free-plan</v>
+      </c>
+      <c r="E35" s="23" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F35" s="24" t="str">
+        <v>xlarge-gp-psql-m6</v>
+      </c>
+      <c r="G35" s="24" t="str">
+        <v>db.m6g.xlarge</v>
+      </c>
+      <c r="H35" s="24">
+        <v>1</v>
+      </c>
+      <c r="I35" s="24">
+        <v>17</v>
+      </c>
+      <c r="J35" s="34">
+        <v>0</v>
+      </c>
+      <c r="K35" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="46" t="str">
+        <v>AWS ElastiCache</v>
+      </c>
+      <c r="N35" s="47" t="str">
+        <v>redis-5node</v>
+      </c>
+      <c r="O35" s="47" t="str">
+        <v>cache.t3.micro</v>
+      </c>
+      <c r="P35" s="47">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="87">
         <v>4</v>
       </c>
-      <c r="J34" s="35">
-        <v>0</v>
-      </c>
-      <c r="K34" s="90">
+      <c r="R35" s="37">
+        <v>0</v>
+      </c>
+      <c r="S35" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="43"/>
+      <c r="E36" s="46" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F36" s="47" t="str">
+        <v>xlarge-gp-psql-m6-redundant</v>
+      </c>
+      <c r="G36" s="47" t="str">
+        <v>db.m6g.xlarge</v>
+      </c>
+      <c r="H36" s="47">
+        <v>1</v>
+      </c>
+      <c r="I36" s="47">
+        <v>34</v>
+      </c>
+      <c r="J36" s="34">
+        <v>0</v>
+      </c>
+      <c r="K36" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M34" s="24" t="str">
+      <c r="M36" s="23" t="str">
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N34" s="25" t="str">
-        <v>redis-3node</v>
-      </c>
-      <c r="O34" s="25" t="str">
-        <v>cache.t3.micro</v>
-      </c>
-      <c r="P34" s="25">
+      <c r="N36" s="24" t="str">
+        <v>redis-3node-large</v>
+      </c>
+      <c r="O36" s="24" t="str">
+        <v>cache.t3.small</v>
+      </c>
+      <c r="P36" s="24">
         <v>3</v>
       </c>
-      <c r="Q34" s="88">
+      <c r="Q36" s="87">
+        <v>5</v>
+      </c>
+      <c r="R36" s="37">
+        <v>0</v>
+      </c>
+      <c r="S36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="23" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F37" s="24" t="str">
+        <v>xlarge-gp-psql-m6-replica</v>
+      </c>
+      <c r="G37" s="24" t="str">
+        <v>db.m6g.xlarge</v>
+      </c>
+      <c r="H37" s="24">
+        <v>1</v>
+      </c>
+      <c r="I37" s="24">
+        <v>68</v>
+      </c>
+      <c r="J37" s="34">
+        <v>0</v>
+      </c>
+      <c r="K37" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="38" t="str">
+        <v>AWS ElastiCache</v>
+      </c>
+      <c r="N37" s="39" t="str">
+        <v>redis-5node-large</v>
+      </c>
+      <c r="O37" s="39" t="str">
+        <v>cache.t3.small</v>
+      </c>
+      <c r="P37" s="39">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="88">
+        <v>8</v>
+      </c>
+      <c r="R37" s="44">
+        <v>0</v>
+      </c>
+      <c r="S37" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="46" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F38" s="47" t="str">
+        <v>micro-mysql</v>
+      </c>
+      <c r="G38" s="47" t="str">
+        <v>db.t3.micro</v>
+      </c>
+      <c r="H38" s="47">
+        <v>1</v>
+      </c>
+      <c r="I38" s="47">
+        <v>1</v>
+      </c>
+      <c r="J38" s="34">
+        <v>0</v>
+      </c>
+      <c r="K38" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="101" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="23" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F39" s="24" t="str">
+        <v>micro-mysql-redundant</v>
+      </c>
+      <c r="G39" s="24" t="str">
+        <v>db.t3.micro</v>
+      </c>
+      <c r="H39" s="24">
+        <v>1</v>
+      </c>
+      <c r="I39" s="24">
         <v>2</v>
       </c>
-      <c r="R34" s="38">
-        <v>0</v>
-      </c>
-      <c r="S34" s="21">
-        <f t="shared" ref="S34:S37" si="2">R34*Q34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="24" t="str">
-        <v>Autoscaler</v>
-      </c>
-      <c r="B35" s="27" t="str">
-        <v>autoscaler-free-plan</v>
-      </c>
-      <c r="E35" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F35" s="25" t="str">
-        <v>medium-mysql-redundant</v>
-      </c>
-      <c r="G35" s="25" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H35" s="25">
-        <v>1</v>
-      </c>
-      <c r="I35" s="25">
-        <v>7</v>
-      </c>
-      <c r="J35" s="35">
-        <v>0</v>
-      </c>
-      <c r="K35" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="47" t="str">
-        <v>AWS ElastiCache</v>
-      </c>
-      <c r="N35" s="48" t="str">
-        <v>redis-5node</v>
-      </c>
-      <c r="O35" s="48" t="str">
-        <v>cache.t3.micro</v>
-      </c>
-      <c r="P35" s="48">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="88">
-        <v>4</v>
-      </c>
-      <c r="R35" s="38">
-        <v>0</v>
-      </c>
-      <c r="S35" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="44"/>
-      <c r="E36" s="47" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F36" s="48" t="str">
-        <v>medium-gp-mysql</v>
-      </c>
-      <c r="G36" s="48" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H36" s="48">
-        <v>1</v>
-      </c>
-      <c r="I36" s="48">
-        <v>9</v>
-      </c>
-      <c r="J36" s="35">
-        <v>0</v>
-      </c>
-      <c r="K36" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="24" t="str">
-        <v>AWS ElastiCache</v>
-      </c>
-      <c r="N36" s="25" t="str">
-        <v>redis-3node-large</v>
-      </c>
-      <c r="O36" s="25" t="str">
-        <v>cache.t3.small</v>
-      </c>
-      <c r="P36" s="25">
-        <v>3</v>
-      </c>
-      <c r="Q36" s="88">
-        <v>5</v>
-      </c>
-      <c r="R36" s="38">
-        <v>0</v>
-      </c>
-      <c r="S36" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F37" s="25" t="str">
-        <v>medium-gp-mysql-redundant</v>
-      </c>
-      <c r="G37" s="25" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H37" s="25">
-        <v>1</v>
-      </c>
-      <c r="I37" s="25">
-        <v>19</v>
-      </c>
-      <c r="J37" s="35">
-        <v>0</v>
-      </c>
-      <c r="K37" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="39" t="str">
-        <v>AWS ElastiCache</v>
-      </c>
-      <c r="N37" s="40" t="str">
-        <v>redis-5node-large</v>
-      </c>
-      <c r="O37" s="40" t="str">
-        <v>cache.t3.small</v>
-      </c>
-      <c r="P37" s="40">
-        <v>5</v>
-      </c>
-      <c r="Q37" s="89">
-        <v>8</v>
-      </c>
-      <c r="R37" s="45">
-        <v>0</v>
-      </c>
-      <c r="S37" s="91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="47" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F38" s="48" t="str">
-        <v>large-gp-mysql</v>
-      </c>
-      <c r="G38" s="48" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H38" s="48">
-        <v>1</v>
-      </c>
-      <c r="I38" s="48">
-        <v>9</v>
-      </c>
-      <c r="J38" s="35">
-        <v>0</v>
-      </c>
-      <c r="K38" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="102" t="s">
-        <v>183</v>
-      </c>
-      <c r="B39" s="103" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F39" s="25" t="str">
-        <v>large-gp-mysql-redundant</v>
-      </c>
-      <c r="G39" s="25" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H39" s="25">
-        <v>1</v>
-      </c>
-      <c r="I39" s="25">
-        <v>19</v>
-      </c>
-      <c r="J39" s="35">
-        <v>0</v>
-      </c>
-      <c r="K39" s="90">
+      <c r="J39" s="34">
+        <v>0</v>
+      </c>
+      <c r="K39" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13368,237 +13945,237 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="105">
-        <v>1</v>
-      </c>
-      <c r="B40" s="101">
+      <c r="A40" s="104">
+        <v>1</v>
+      </c>
+      <c r="B40" s="100">
         <v>45748</v>
       </c>
-      <c r="C40" s="100" t="s">
+      <c r="C40" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="47" t="str">
+      <c r="E40" s="46" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F40" s="48" t="str">
-        <v>xlarge-gp-mysql</v>
-      </c>
-      <c r="G40" s="48" t="str">
-        <v>db.m5.xlarge</v>
-      </c>
-      <c r="H40" s="48">
-        <v>1</v>
-      </c>
-      <c r="I40" s="48">
-        <v>19</v>
-      </c>
-      <c r="J40" s="35">
-        <v>0</v>
-      </c>
-      <c r="K40" s="90">
+      <c r="F40" s="47" t="str">
+        <v>micro-mysql-replica</v>
+      </c>
+      <c r="G40" s="47" t="str">
+        <v>db.t3.micro</v>
+      </c>
+      <c r="H40" s="47">
+        <v>1</v>
+      </c>
+      <c r="I40" s="47">
+        <v>4</v>
+      </c>
+      <c r="J40" s="34">
+        <v>0</v>
+      </c>
+      <c r="K40" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M40" s="46" t="s">
+      <c r="M40" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N40" s="46" t="s">
+      <c r="N40" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="O40" s="46" t="s">
+      <c r="O40" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="P40" s="46" t="s">
+      <c r="P40" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="Q40" s="46" t="s">
+      <c r="Q40" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="R40" s="46" t="s">
+      <c r="R40" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="S40" s="95" t="s">
+      <c r="S40" s="94" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="105">
+      <c r="A41" s="104">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B41" s="101">
+      <c r="B41" s="100">
         <v>45749</v>
       </c>
-      <c r="C41" s="100" t="s">
+      <c r="C41" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="E41" s="24" t="str">
+      <c r="E41" s="23" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F41" s="25" t="str">
-        <v>xlarge-gp-mysql-redundant</v>
-      </c>
-      <c r="G41" s="25" t="str">
-        <v>db.m5.xlarge</v>
-      </c>
-      <c r="H41" s="25">
-        <v>1</v>
-      </c>
-      <c r="I41" s="25">
-        <v>37</v>
-      </c>
-      <c r="J41" s="35">
-        <v>0</v>
-      </c>
-      <c r="K41" s="90">
+      <c r="F41" s="24" t="str">
+        <v>small-mysql</v>
+      </c>
+      <c r="G41" s="24" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H41" s="24">
+        <v>1</v>
+      </c>
+      <c r="I41" s="24">
+        <v>2</v>
+      </c>
+      <c r="J41" s="34">
+        <v>0</v>
+      </c>
+      <c r="K41" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M41" s="47" t="s">
+      <c r="M41" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="N41" s="48" t="s">
+      <c r="N41" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="O41" s="49" t="s">
+      <c r="O41" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="P41" s="48" t="s">
+      <c r="P41" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="Q41" s="88">
+      <c r="Q41" s="87">
         <f>'AWS Service Prices'!K6*'AWS Service Prices'!M6</f>
         <v>150000</v>
       </c>
-      <c r="R41" s="93">
+      <c r="R41" s="92">
         <v>1000</v>
       </c>
-      <c r="S41" s="97">
+      <c r="S41" s="96">
         <f>ROUNDUP(Table_820[[#This Row],[Quantity]]/Table_820[[#This Row],[Units/Credit]],0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="105"/>
-      <c r="C42" s="100" t="s">
+      <c r="A42" s="104"/>
+      <c r="C42" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="E42" s="47" t="str">
+      <c r="E42" s="46" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F42" s="48" t="str">
-        <v>medium-oracle-se2</v>
-      </c>
-      <c r="G42" s="48" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H42" s="48">
-        <v>1</v>
-      </c>
-      <c r="I42" s="48">
-        <v>7</v>
-      </c>
-      <c r="J42" s="35">
-        <v>0</v>
-      </c>
-      <c r="K42" s="90">
+      <c r="F42" s="47" t="str">
+        <v>small-mysql-redundant</v>
+      </c>
+      <c r="G42" s="47" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H42" s="47">
+        <v>1</v>
+      </c>
+      <c r="I42" s="47">
+        <v>4</v>
+      </c>
+      <c r="J42" s="34">
+        <v>0</v>
+      </c>
+      <c r="K42" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M42" s="54" t="s">
+      <c r="M42" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="N42" s="55" t="s">
+      <c r="N42" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="O42" s="53" t="s">
+      <c r="O42" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="P42" s="55" t="s">
+      <c r="P42" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="Q42" s="88">
+      <c r="Q42" s="87">
         <f>'AWS Service Prices'!K7*'AWS Service Prices'!M7</f>
         <v>120</v>
       </c>
-      <c r="R42" s="94">
+      <c r="R42" s="93">
         <v>2</v>
       </c>
-      <c r="S42" s="96">
+      <c r="S42" s="95">
         <f>ROUNDUP(Table_820[[#This Row],[Quantity]]/Table_820[[#This Row],[Units/Credit]],0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="105"/>
-      <c r="C43" s="100" t="s">
+      <c r="A43" s="104"/>
+      <c r="C43" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="54" t="str">
+      <c r="E43" s="53" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F43" s="55" t="str">
-        <v>large-gp-sqlserver-se</v>
-      </c>
-      <c r="G43" s="55" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H43" s="55">
-        <v>1</v>
-      </c>
-      <c r="I43" s="55">
-        <v>46</v>
-      </c>
-      <c r="J43" s="56">
-        <v>0</v>
-      </c>
-      <c r="K43" s="99">
+      <c r="F43" s="54" t="str">
+        <v>small-mysql-replica</v>
+      </c>
+      <c r="G43" s="54" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H43" s="54">
+        <v>1</v>
+      </c>
+      <c r="I43" s="54">
+        <v>8</v>
+      </c>
+      <c r="J43" s="55">
+        <v>0</v>
+      </c>
+      <c r="K43" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="98"/>
+      <c r="Q43" s="97"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="105">
+      <c r="A44" s="104">
         <v>1.2</v>
       </c>
-      <c r="B44" s="101">
+      <c r="B44" s="100">
         <v>45756</v>
       </c>
-      <c r="C44" s="106" t="s">
+      <c r="C44" s="105" t="s">
         <v>190</v>
       </c>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="105">
+      <c r="A45" s="104">
         <v>1.3</v>
       </c>
-      <c r="B45" s="101">
+      <c r="B45" s="100">
         <v>45757</v>
       </c>
-      <c r="C45" s="106" t="s">
+      <c r="C45" s="105" t="s">
         <v>191</v>
       </c>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="105"/>
+      <c r="A46" s="104"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="105"/>
+      <c r="A47" s="104"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="105"/>
+      <c r="A48" s="104"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="105"/>
+      <c r="A49" s="104"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="105"/>
+      <c r="A50" s="104"/>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14612,72 +15189,72 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="B10 J14:J43 B15">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="14" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>$J$10&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F43">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>$J14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>$R10&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>$R15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N29">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>$R19&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33:N37">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>$R33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:N42">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>$R41&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:R29">
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R33:R37">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41:R42">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_assets/documents/cloud-gov-cost-estimator.xlsx
+++ b/_assets/documents/cloud-gov-cost-estimator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markdboyd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFE4B5F-9D48-2A49-BB17-023774FD6386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40732A4A-FC81-F04F-8C60-2D853CF9A6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,7 +875,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1620,6 +1620,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1641,12 +1654,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1982,11 +2019,20 @@
     <xf numFmtId="3" fontId="4" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5042,8 +5088,8 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6421,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="43" t="s">
         <v>106</v>
       </c>
@@ -6463,7 +6509,7 @@
       <c r="Q37" s="88">
         <v>8</v>
       </c>
-      <c r="R37" s="44">
+      <c r="R37" s="40">
         <v>0</v>
       </c>
       <c r="S37" s="90">
@@ -6576,7 +6622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="104">
         <v>1</v>
       </c>
@@ -6624,10 +6670,10 @@
         <f>'AWS Service Prices'!K6*'AWS Service Prices'!M6</f>
         <v>150000</v>
       </c>
-      <c r="R41" s="92">
-        <v>0</v>
-      </c>
-      <c r="S41" s="96">
+      <c r="R41" s="135">
+        <v>0</v>
+      </c>
+      <c r="S41" s="134">
         <f>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</f>
         <v>0</v>
       </c>
@@ -6680,10 +6726,10 @@
         <f>'AWS Service Prices'!K7*'AWS Service Prices'!M7</f>
         <v>120</v>
       </c>
-      <c r="R42" s="93">
-        <v>0</v>
-      </c>
-      <c r="S42" s="95">
+      <c r="R42" s="136">
+        <v>0</v>
+      </c>
+      <c r="S42" s="116">
         <f>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</f>
         <v>0</v>
       </c>

--- a/_assets/documents/cloud-gov-cost-estimator.xlsx
+++ b/_assets/documents/cloud-gov-cost-estimator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markdboyd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C5E9B5-D04A-0047-B569-6F61061D3C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40732A4A-FC81-F04F-8C60-2D853CF9A6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,10 +21,11 @@
   <definedNames>
     <definedName name="AWS_RDS_Instances" localSheetId="3">'Example worksheet'!$E$13:$K$43</definedName>
     <definedName name="AWS_RDS_Instances">Worksheet!$E$13:$K$43</definedName>
-    <definedName name="AwsElasticCachePrices">'AWS Service Prices'!$A$44:$E$48</definedName>
-    <definedName name="AwsOpensearchPrices">'AWS Service Prices'!$A$33:$E$43</definedName>
-    <definedName name="AWSRdsServicePrices">'AWS Service Prices'!$A$3:$E$32</definedName>
-    <definedName name="CloudGovNoCostServices">'AWS Service Prices'!$A$49:$B$56</definedName>
+    <definedName name="AwsElasticCachePrices">'AWS Service Prices'!$A$58:$E$62</definedName>
+    <definedName name="AwsOpensearchPrices">'AWS Service Prices'!$A$47:$E$57</definedName>
+    <definedName name="AWSRdsServicePrices">'AWS Service Prices'!$A$3:$E$46</definedName>
+    <definedName name="CloudGovNoCostServices">'AWS Service Prices'!$A$64:$E$71</definedName>
+    <definedName name="ExternalDomainPrices">'AWS Service Prices'!$A$63:$E$63</definedName>
     <definedName name="MeteredServices">'AWS Service Prices'!$J:$N</definedName>
     <definedName name="PricePerCredit">'Cloud.gov Tiers'!$B$4</definedName>
   </definedNames>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="214">
   <si>
     <t>Estimated Price</t>
   </si>
@@ -677,6 +678,51 @@
   </si>
   <si>
     <t>Add dedicated CDN</t>
+  </si>
+  <si>
+    <t>micro-psql-replica</t>
+  </si>
+  <si>
+    <t>small-psql-replica</t>
+  </si>
+  <si>
+    <t>medium-psql-replica</t>
+  </si>
+  <si>
+    <t>large-gp-psql-replica</t>
+  </si>
+  <si>
+    <t>2xlarge-gp-psql-replica</t>
+  </si>
+  <si>
+    <t>micro-mysql-replica</t>
+  </si>
+  <si>
+    <t>small-mysql-replica</t>
+  </si>
+  <si>
+    <t>medium-gp-mysql-replica</t>
+  </si>
+  <si>
+    <t>large-gp-mysql-replica</t>
+  </si>
+  <si>
+    <t>xlarge-gp-mysql-replica</t>
+  </si>
+  <si>
+    <t>medium-mysql-replica</t>
+  </si>
+  <si>
+    <t>xlarge-gp-psql-m6-replica</t>
+  </si>
+  <si>
+    <t>xlarge-gp-psql-replica</t>
+  </si>
+  <si>
+    <t>medium-gp-psql-replica</t>
+  </si>
+  <si>
+    <t>Add replica plans</t>
   </si>
 </sst>
 </file>
@@ -829,7 +875,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1547,12 +1593,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFF2CC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1598,9 +1729,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1880,16 +2008,89 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="125">
+  <dxfs count="126">
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2005,13 +2206,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <u/>
@@ -2080,37 +2274,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFE599"/>
           <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4344,54 +4507,54 @@
   </dxfs>
   <tableStyles count="10">
     <tableStyle name="Worksheet-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="124"/>
-      <tableStyleElement type="firstRowStripe" dxfId="123"/>
-      <tableStyleElement type="secondRowStripe" dxfId="122"/>
+      <tableStyleElement type="headerRow" dxfId="125"/>
+      <tableStyleElement type="firstRowStripe" dxfId="124"/>
+      <tableStyleElement type="secondRowStripe" dxfId="123"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="121"/>
-      <tableStyleElement type="firstRowStripe" dxfId="120"/>
-      <tableStyleElement type="secondRowStripe" dxfId="119"/>
+      <tableStyleElement type="headerRow" dxfId="122"/>
+      <tableStyleElement type="firstRowStripe" dxfId="121"/>
+      <tableStyleElement type="secondRowStripe" dxfId="120"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="118"/>
-      <tableStyleElement type="firstRowStripe" dxfId="117"/>
-      <tableStyleElement type="secondRowStripe" dxfId="116"/>
+      <tableStyleElement type="headerRow" dxfId="119"/>
+      <tableStyleElement type="firstRowStripe" dxfId="118"/>
+      <tableStyleElement type="secondRowStripe" dxfId="117"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 4" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="115"/>
-      <tableStyleElement type="firstRowStripe" dxfId="114"/>
-      <tableStyleElement type="secondRowStripe" dxfId="113"/>
+      <tableStyleElement type="headerRow" dxfId="116"/>
+      <tableStyleElement type="firstRowStripe" dxfId="115"/>
+      <tableStyleElement type="secondRowStripe" dxfId="114"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 5" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="112"/>
-      <tableStyleElement type="firstRowStripe" dxfId="111"/>
-      <tableStyleElement type="secondRowStripe" dxfId="110"/>
+      <tableStyleElement type="headerRow" dxfId="113"/>
+      <tableStyleElement type="firstRowStripe" dxfId="112"/>
+      <tableStyleElement type="secondRowStripe" dxfId="111"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 6" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="headerRow" dxfId="109"/>
-      <tableStyleElement type="firstRowStripe" dxfId="108"/>
-      <tableStyleElement type="secondRowStripe" dxfId="107"/>
+      <tableStyleElement type="headerRow" dxfId="110"/>
+      <tableStyleElement type="firstRowStripe" dxfId="109"/>
+      <tableStyleElement type="secondRowStripe" dxfId="108"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 7" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
-      <tableStyleElement type="headerRow" dxfId="106"/>
-      <tableStyleElement type="firstRowStripe" dxfId="105"/>
-      <tableStyleElement type="secondRowStripe" dxfId="104"/>
+      <tableStyleElement type="headerRow" dxfId="107"/>
+      <tableStyleElement type="firstRowStripe" dxfId="106"/>
+      <tableStyleElement type="secondRowStripe" dxfId="105"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 8" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
-      <tableStyleElement type="headerRow" dxfId="103"/>
-      <tableStyleElement type="firstRowStripe" dxfId="102"/>
-      <tableStyleElement type="secondRowStripe" dxfId="101"/>
+      <tableStyleElement type="headerRow" dxfId="104"/>
+      <tableStyleElement type="firstRowStripe" dxfId="103"/>
+      <tableStyleElement type="secondRowStripe" dxfId="102"/>
     </tableStyle>
     <tableStyle name="Cloud.gov Tiers-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
-      <tableStyleElement type="headerRow" dxfId="100"/>
-      <tableStyleElement type="firstRowStripe" dxfId="99"/>
-      <tableStyleElement type="secondRowStripe" dxfId="98"/>
+      <tableStyleElement type="headerRow" dxfId="101"/>
+      <tableStyleElement type="firstRowStripe" dxfId="100"/>
+      <tableStyleElement type="secondRowStripe" dxfId="99"/>
     </tableStyle>
     <tableStyle name="Cloud.gov Tiers-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
-      <tableStyleElement type="headerRow" dxfId="97"/>
-      <tableStyleElement type="firstRowStripe" dxfId="96"/>
-      <tableStyleElement type="secondRowStripe" dxfId="95"/>
+      <tableStyleElement type="headerRow" dxfId="98"/>
+      <tableStyleElement type="firstRowStripe" dxfId="97"/>
+      <tableStyleElement type="secondRowStripe" dxfId="96"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4408,20 +4571,20 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A4:F5">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Credits" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tier Name" dataDxfId="93">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Credits" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tier Name" dataDxfId="94">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Credits Remaining_x000a_in Tier" dataDxfId="92">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Credits Remaining_x000a_in Tier" dataDxfId="93">
       <calculatedColumnFormula>VLOOKUP(Table_1[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_1[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Yearly_x000a_Platform Total" dataDxfId="91">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Yearly_x000a_Platform Total" dataDxfId="92">
       <calculatedColumnFormula>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Support Total" dataDxfId="90">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Support Total" dataDxfId="91">
       <calculatedColumnFormula>C15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" YearlyTotal Cost" dataDxfId="89">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" YearlyTotal Cost" dataDxfId="90">
       <calculatedColumnFormula>D5+E5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4458,22 +4621,22 @@
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4C37D040-F691-2C49-BE22-816489BFD4D2}" name="Table_112" displayName="Table_112" ref="A4:F5">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{657244D4-FE4C-D44C-B48B-43E7FA139C6B}" name="Credits" dataDxfId="62">
+    <tableColumn id="1" xr3:uid="{657244D4-FE4C-D44C-B48B-43E7FA139C6B}" name="Credits" dataDxfId="63">
       <calculatedColumnFormula>C10+SUM(B19:B23)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B168D809-F848-8A4F-B241-57C6EF027C29}" name="Tier Name" dataDxfId="61">
+    <tableColumn id="2" xr3:uid="{B168D809-F848-8A4F-B241-57C6EF027C29}" name="Tier Name" dataDxfId="62">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{172BAC85-F7D2-7D4C-9C26-72C7C85DB56F}" name="Credits Remaining_x000a_in Tier" dataDxfId="60">
+    <tableColumn id="3" xr3:uid="{172BAC85-F7D2-7D4C-9C26-72C7C85DB56F}" name="Credits Remaining_x000a_in Tier" dataDxfId="61">
       <calculatedColumnFormula>VLOOKUP(Table_112[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_112[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{19498A2C-21A7-B740-9DD5-D095ED0DD812}" name="Yearly_x000a_Platform Total" dataDxfId="59">
+    <tableColumn id="4" xr3:uid="{19498A2C-21A7-B740-9DD5-D095ED0DD812}" name="Yearly_x000a_Platform Total" dataDxfId="60">
       <calculatedColumnFormula>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A475BA76-45A9-EF46-8FAE-2B381389CF6E}" name="Support Total" dataDxfId="58">
+    <tableColumn id="5" xr3:uid="{A475BA76-45A9-EF46-8FAE-2B381389CF6E}" name="Support Total" dataDxfId="59">
       <calculatedColumnFormula>C15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CFD58EB9-7FC4-3640-859D-34D006952E97}" name=" YearlyTotal Cost" dataDxfId="57">
+    <tableColumn id="6" xr3:uid="{CFD58EB9-7FC4-3640-859D-34D006952E97}" name=" YearlyTotal Cost" dataDxfId="58">
       <calculatedColumnFormula>D5+E5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4485,7 +4648,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{432B26DD-C481-9945-89E7-FEF42FEDB769}" name="Table_214" displayName="Table_214" ref="A9:C10">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8D2D857E-9AA6-5D4F-A4AF-373B7168526E}" name="Resource"/>
-    <tableColumn id="2" xr3:uid="{4FAE5D4B-8591-7D41-A69E-501EE57C6C41}" name="Quantity" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{4FAE5D4B-8591-7D41-A69E-501EE57C6C41}" name="Quantity" dataDxfId="57"/>
     <tableColumn id="3" xr3:uid="{FD66B2C4-D49F-1C43-9A30-DE1F21B9FD5B}" name="Credits">
       <calculatedColumnFormula>B10*'Cloud.gov Tiers'!B3</calculatedColumnFormula>
     </tableColumn>
@@ -4497,13 +4660,13 @@
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{3AE58A18-ABB7-FC4E-9D28-06F1CAA78773}" name="Table_315" displayName="Table_315" ref="E9:K10">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8901DDBE-58BA-8F4F-9D7C-2A2800A70157}" name="Offering" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{3C07AF3B-6C04-4348-A1E4-AEF634AB5F2C}" name="Description" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{50B2B6E3-7A84-CC41-A61F-9E7C70E4AC01}" name="Units" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{99748816-FA07-B948-9F02-BAFA13C63BF0}" name="Dimension" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{B4686AED-FFA8-0F4F-8CF1-A28CBB869F59}" name="GB per credit" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{C47C64B0-2C30-0043-A34C-7F0E810B25DC}" name="Quantity (GB)" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{D0A5DC61-9EB0-294B-94B0-91D19A5D6E7E}" name="Credits" dataDxfId="49">
+    <tableColumn id="1" xr3:uid="{8901DDBE-58BA-8F4F-9D7C-2A2800A70157}" name="Offering" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{3C07AF3B-6C04-4348-A1E4-AEF634AB5F2C}" name="Description" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{50B2B6E3-7A84-CC41-A61F-9E7C70E4AC01}" name="Units" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{99748816-FA07-B948-9F02-BAFA13C63BF0}" name="Dimension" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{B4686AED-FFA8-0F4F-8CF1-A28CBB869F59}" name="GB per credit" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{C47C64B0-2C30-0043-A34C-7F0E810B25DC}" name="Quantity (GB)" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{D0A5DC61-9EB0-294B-94B0-91D19A5D6E7E}" name="Credits" dataDxfId="50">
       <calculatedColumnFormula>ROUNDUP(Table_315[[#This Row],[Quantity (GB)]]/Table_315[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4517,12 +4680,12 @@
     <tableColumn id="1" xr3:uid="{CC812881-5649-1A4C-8C45-49D7808E0D1A}" name="Offering"/>
     <tableColumn id="2" xr3:uid="{46204D59-C3E2-174B-9C58-1DB2BB6988C8}" name="Description"/>
     <tableColumn id="4" xr3:uid="{C3D129A0-D876-D446-9BED-4CE757DA989E}" name="Units"/>
-    <tableColumn id="5" xr3:uid="{8159B7E1-3CBB-384F-9C82-294839F55CB1}" name="Dimension" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{6374D1D7-2C6C-674A-9B2C-B5EA274BAEAC}" name="GB per credit" dataDxfId="47">
+    <tableColumn id="5" xr3:uid="{8159B7E1-3CBB-384F-9C82-294839F55CB1}" name="Dimension" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{6374D1D7-2C6C-674A-9B2C-B5EA274BAEAC}" name="GB per credit" dataDxfId="48">
       <calculatedColumnFormula>'AWS Service Prices'!K5*'AWS Service Prices'!M5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{84537EB8-58A4-A645-9A18-A322EFB5D6C3}" name="Quantity (GB)" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{06CE2B03-0479-2148-9683-4F1675E4317C}" name="Credits" dataDxfId="45">
+    <tableColumn id="6" xr3:uid="{84537EB8-58A4-A645-9A18-A322EFB5D6C3}" name="Quantity (GB)" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{06CE2B03-0479-2148-9683-4F1675E4317C}" name="Credits" dataDxfId="46">
       <calculatedColumnFormula>ROUNDUP(Table_416[[#This Row],[Quantity (GB)]]/Table_416[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4534,7 +4697,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{DD38669A-9AE2-BA49-AF4A-F9D5CEFDB233}" name="Table_517" displayName="Table_517" ref="A14:C15">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E0798FE9-1580-1B43-B088-25897B8976F6}" name="Rate/Hour"/>
-    <tableColumn id="2" xr3:uid="{4F69F05E-31AF-C644-B087-9847D08BB3A0}" name="Hours" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{4F69F05E-31AF-C644-B087-9847D08BB3A0}" name="Hours" dataDxfId="45"/>
     <tableColumn id="3" xr3:uid="{35F99F2C-96B5-1244-8BF2-D8FA71D1A5B2}" name="Total">
       <calculatedColumnFormula>A15*B15</calculatedColumnFormula>
     </tableColumn>
@@ -4544,17 +4707,17 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{53A578BF-BA5A-7843-972B-EBD4EA7AD1DD}" name="Table_618" displayName="Table_618" ref="M14:S15" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{53A578BF-BA5A-7843-972B-EBD4EA7AD1DD}" name="Table_618" displayName="Table_618" ref="M14:S15" dataDxfId="44">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3024083C-5ED0-8D4D-8D1A-D4BD5916AE47}" name="Offering" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{3D92B04D-745E-2A49-991D-C00C27907719}" name="Description" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{50C39022-EBD5-9B42-84DD-C507ED702117}" name="Units" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{9759566D-ABA1-0943-92F2-2B5501002EE3}" name="Dimension" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{4A17BDB6-3CD8-BF43-B5F9-82D2A2C35A0C}" name="GB per credit" dataDxfId="38">
+    <tableColumn id="1" xr3:uid="{3024083C-5ED0-8D4D-8D1A-D4BD5916AE47}" name="Offering" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{3D92B04D-745E-2A49-991D-C00C27907719}" name="Description" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{50C39022-EBD5-9B42-84DD-C507ED702117}" name="Units" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{9759566D-ABA1-0943-92F2-2B5501002EE3}" name="Dimension" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{4A17BDB6-3CD8-BF43-B5F9-82D2A2C35A0C}" name="GB per credit" dataDxfId="39">
       <calculatedColumnFormula>'AWS Service Prices'!K4*'AWS Service Prices'!M4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{056FCEF1-5646-814F-8034-1E8AC53C910D}" name="Quantity (GB)" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{DAEA814F-05EA-764E-8533-FE0EF6F3B132}" name="Credits" dataDxfId="36">
+    <tableColumn id="6" xr3:uid="{056FCEF1-5646-814F-8034-1E8AC53C910D}" name="Quantity (GB)" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{DAEA814F-05EA-764E-8533-FE0EF6F3B132}" name="Credits" dataDxfId="37">
       <calculatedColumnFormula>ROUNDUP(Table_618[[#This Row],[Quantity (GB)]]/Table_618[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4579,11 +4742,11 @@
     <tableColumn id="2" xr3:uid="{B074D0B3-B914-AB4F-8066-81B90B3261D8}" name="Description"/>
     <tableColumn id="4" xr3:uid="{202C8C30-FD4E-6D40-9EBF-642B8C7AE181}" name="Units"/>
     <tableColumn id="5" xr3:uid="{CA6A3A17-2747-AF44-8119-FC05700B8D5C}" name="Dimension"/>
-    <tableColumn id="3" xr3:uid="{C6C6ED4B-9612-3F48-9D18-472E70646A28}" name="Units/Credit" dataDxfId="35">
+    <tableColumn id="3" xr3:uid="{C6C6ED4B-9612-3F48-9D18-472E70646A28}" name="Units/Credit" dataDxfId="36">
       <calculatedColumnFormula>'AWS Service Prices'!K6*'AWS Service Prices'!M6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{76CCCB3A-2B18-4C42-9DB6-C570AFD6FB75}" name="Quantity"/>
-    <tableColumn id="7" xr3:uid="{A024F374-2C63-444D-95DA-745B84ABCFE7}" name="Credits" dataDxfId="34">
+    <tableColumn id="7" xr3:uid="{A024F374-2C63-444D-95DA-745B84ABCFE7}" name="Credits" dataDxfId="35">
       <calculatedColumnFormula>ROUNDUP(Table_820[[#This Row],[Quantity]]/Table_820[[#This Row],[Units/Credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4595,7 +4758,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A9:C10">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Resource"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quantity" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quantity" dataDxfId="89"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Credits"/>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -4603,10 +4766,10 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{333F2C22-64BE-8A4A-A52E-89FC6130AD21}" name="Table1221" displayName="Table1221" ref="A39:C49" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{333F2C22-64BE-8A4A-A52E-89FC6130AD21}" name="Table1221" displayName="Table1221" ref="A39:C49" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33">
   <autoFilter ref="A39:C49" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0A95F7D5-D48D-864F-84FF-73515D627597}" name="Version" dataDxfId="31" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{0A95F7D5-D48D-864F-84FF-73515D627597}" name="Version" dataDxfId="32" dataCellStyle="Comma"/>
     <tableColumn id="2" xr3:uid="{1427474E-5614-2046-B78C-0448E419A1D9}" name="Date"/>
     <tableColumn id="3" xr3:uid="{CAF26780-3593-1540-85AB-2E9EB898659F}" name="Notes"/>
   </tableColumns>
@@ -4617,13 +4780,13 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="E9:K10">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Offering" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Dimension" dataDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="GB per credit" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Quantity (GB)" dataDxfId="82"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Credits" dataDxfId="81">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Offering" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Dimension" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="GB per credit" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Quantity (GB)" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Credits" dataDxfId="82">
       <calculatedColumnFormula>ROUNDUP(Table_3[[#This Row],[Quantity (GB)]]/Table_3[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4637,12 +4800,12 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Offering"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Units"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dimension" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{CDA60C5E-AE6A-324F-8F61-A71F1A0A8966}" name="GB per credit" dataDxfId="79">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dimension" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{CDA60C5E-AE6A-324F-8F61-A71F1A0A8966}" name="GB per credit" dataDxfId="80">
       <calculatedColumnFormula>'AWS Service Prices'!K5*'AWS Service Prices'!M5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quantity (GB)" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Credits" dataDxfId="77">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quantity (GB)" dataDxfId="79"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Credits" dataDxfId="78">
       <calculatedColumnFormula>ROUNDUP(Table_4[[#This Row],[Quantity (GB)]]/Table_4[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4654,7 +4817,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A14:C15">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Rate/Hour"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Hours" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Hours" dataDxfId="77"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Total"/>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -4662,17 +4825,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="M14:S15" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="M14:S15" dataDxfId="76">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Offering" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Units" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Dimension" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{807927EE-801B-8148-9BA1-5FE9186170F2}" name="GB per credit" dataDxfId="70">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Offering" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Units" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Dimension" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{807927EE-801B-8148-9BA1-5FE9186170F2}" name="GB per credit" dataDxfId="71">
       <calculatedColumnFormula>'AWS Service Prices'!K4*'AWS Service Prices'!M4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Quantity (GB)" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Credits" dataDxfId="68">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Quantity (GB)" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Credits" dataDxfId="69">
       <calculatedColumnFormula>ROUNDUP(Table_6[[#This Row],[Quantity (GB)]]/Table_6[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4697,11 +4860,11 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Units"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Dimension"/>
-    <tableColumn id="3" xr3:uid="{A30E673E-5221-9442-BA33-5D5CC8E273B5}" name="Units/Credit" dataDxfId="67">
+    <tableColumn id="3" xr3:uid="{A30E673E-5221-9442-BA33-5D5CC8E273B5}" name="Units/Credit" dataDxfId="68">
       <calculatedColumnFormula>'AWS Service Prices'!K6*'AWS Service Prices'!M6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Quantity"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Credits" dataDxfId="66">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Credits" dataDxfId="67">
       <calculatedColumnFormula>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4710,10 +4873,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}" name="Table12" displayName="Table12" ref="A40:C50" totalsRowShown="0" headerRowDxfId="65" headerRowBorderDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}" name="Table12" displayName="Table12" ref="A40:C50" totalsRowShown="0" headerRowDxfId="66" headerRowBorderDxfId="65">
   <autoFilter ref="A40:C50" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6F594386-932F-3745-B570-1D36152A4BED}" name="Version" dataDxfId="63" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{6F594386-932F-3745-B570-1D36152A4BED}" name="Version" dataDxfId="64" dataCellStyle="Comma"/>
     <tableColumn id="2" xr3:uid="{98BA1600-A7B8-2742-AF88-1C465CCF83D5}" name="Date"/>
     <tableColumn id="3" xr3:uid="{A3A06425-E98A-E042-A27B-C92165F08BCF}" name="Notes"/>
   </tableColumns>
@@ -4925,8 +5088,8 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4978,47 +5141,47 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:19" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="82" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="118">
+      <c r="A5" s="117">
         <f>C10+SUM(B19:B24)</f>
         <v>0</v>
       </c>
-      <c r="B5" s="82" t="str" cm="1">
+      <c r="B5" s="81" t="str" cm="1">
         <f t="array" ref="B5">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</f>
         <v>Femto</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="75">
         <f>VLOOKUP(Table_1[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_1[[#This Row],[Credits]]</f>
         <v>50</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="76">
         <f>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</f>
         <v>30000</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="76">
         <f>C15</f>
         <v>0</v>
       </c>
-      <c r="F5" s="84">
+      <c r="F5" s="83">
         <f>D5+E5</f>
         <v>30000</v>
       </c>
@@ -5096,32 +5259,32 @@
       <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="84">
         <v>0</v>
       </c>
       <c r="C10" s="12">
         <f>B10*'Cloud.gov Tiers'!B3</f>
         <v>0</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="39">
         <v>100</v>
       </c>
-      <c r="J10" s="85">
-        <v>0</v>
-      </c>
-      <c r="K10" s="42">
+      <c r="J10" s="84">
+        <v>0</v>
+      </c>
+      <c r="K10" s="41">
         <f>ROUNDUP(Table_3[[#This Row],[Quantity (GB)]]/Table_3[[#This Row],[GB per credit]],0)</f>
         <v>0</v>
       </c>
@@ -5134,17 +5297,17 @@
       <c r="O10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="Q10" s="39">
         <f>'AWS Service Prices'!K5*'AWS Service Prices'!M5</f>
         <v>400</v>
       </c>
-      <c r="R10" s="85">
-        <v>0</v>
-      </c>
-      <c r="S10" s="42">
+      <c r="R10" s="84">
+        <v>0</v>
+      </c>
+      <c r="S10" s="41">
         <f>ROUNDUP(Table_4[[#This Row],[Quantity (GB)]]/Table_4[[#This Row],[GB per credit]],0)</f>
         <v>0</v>
       </c>
@@ -5200,26 +5363,26 @@
       <c r="C14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="18" t="str">
-        <f t="array" ref="E14:I43">AWSRdsServicePrices</f>
+      <c r="E14" s="129" t="str" cm="1">
+        <f t="array" ref="E14:I57">AWSRdsServicePrices</f>
         <v>AWS RDS</v>
       </c>
-      <c r="F14" s="19" t="str">
+      <c r="F14" t="str">
         <v>micro-psql</v>
       </c>
-      <c r="G14" s="19" t="str">
+      <c r="G14" t="str">
         <v>db.t3.micro</v>
       </c>
-      <c r="H14" s="19">
-        <v>1</v>
-      </c>
-      <c r="I14" s="19">
-        <v>1</v>
-      </c>
-      <c r="J14" s="20">
-        <v>0</v>
-      </c>
-      <c r="K14" s="90">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
+      <c r="K14" s="89">
         <f>I14*J14</f>
         <v>0</v>
       </c>
@@ -5246,116 +5409,116 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>250</v>
       </c>
-      <c r="B15" s="86">
-        <v>0</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="85">
+        <v>0</v>
+      </c>
+      <c r="C15" s="22">
         <f>A15*B15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="24" t="str">
+      <c r="E15" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F15" s="25" t="str">
+      <c r="F15" t="str">
         <v>micro-psql-redundant</v>
       </c>
-      <c r="G15" s="25" t="str">
+      <c r="G15" t="str">
         <v>db.t3.micro</v>
       </c>
-      <c r="H15" s="25">
-        <v>1</v>
-      </c>
-      <c r="I15" s="25">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="J15" s="26">
-        <v>0</v>
-      </c>
-      <c r="K15" s="90">
-        <f t="shared" ref="K15:K43" si="0">I15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="39" t="s">
+      <c r="J15" s="25">
+        <v>0</v>
+      </c>
+      <c r="K15" s="89">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="40" t="s">
+      <c r="N15" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="40" t="s">
+      <c r="O15" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="40" t="s">
+      <c r="P15" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="40">
+      <c r="Q15" s="39">
         <f>'AWS Service Prices'!K4*'AWS Service Prices'!M4</f>
         <v>100</v>
       </c>
-      <c r="R15" s="85">
-        <v>0</v>
-      </c>
-      <c r="S15" s="42">
+      <c r="R15" s="84">
+        <v>0</v>
+      </c>
+      <c r="S15" s="41">
         <f>ROUNDUP(Table_6[[#This Row],[Quantity (GB)]]/Table_6[[#This Row],[GB per credit]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="18" t="str">
+      <c r="E16" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F16" s="19" t="str">
+      <c r="F16" t="str">
+        <v>micro-psql-replica</v>
+      </c>
+      <c r="G16" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16" s="34">
+        <v>0</v>
+      </c>
+      <c r="K16" s="89">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F17" t="str">
         <v>small-psql</v>
       </c>
-      <c r="G16" s="19" t="str">
+      <c r="G17" t="str">
         <v>db.t3.small</v>
       </c>
-      <c r="H16" s="19">
-        <v>1</v>
-      </c>
-      <c r="I16" s="19">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="J16" s="26">
-        <v>0</v>
-      </c>
-      <c r="K16" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F17" s="25" t="str">
-        <v>small-psql-redundant</v>
-      </c>
-      <c r="G17" s="25" t="str">
-        <v>db.t3.small</v>
-      </c>
-      <c r="H17" s="25">
-        <v>1</v>
-      </c>
-      <c r="I17" s="25">
-        <v>4</v>
-      </c>
-      <c r="J17" s="26">
-        <v>0</v>
-      </c>
-      <c r="K17" s="90">
-        <f t="shared" si="0"/>
+      <c r="J17" s="34">
+        <v>0</v>
+      </c>
+      <c r="K17" s="89">
+        <f>I17*J17</f>
         <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
@@ -5364,559 +5527,559 @@
       <c r="B18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="18" t="str">
+      <c r="E18" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F18" s="19" t="str">
-        <v>medium-psql</v>
-      </c>
-      <c r="G18" s="19" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H18" s="19">
-        <v>1</v>
-      </c>
-      <c r="I18" s="19">
+      <c r="F18" t="str">
+        <v>small-psql-redundant</v>
+      </c>
+      <c r="G18" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>4</v>
       </c>
-      <c r="J18" s="26">
-        <v>0</v>
-      </c>
-      <c r="K18" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="46" t="s">
+      <c r="J18" s="34">
+        <v>0</v>
+      </c>
+      <c r="K18" s="89">
+        <f>I18*J18</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="46" t="s">
+      <c r="N18" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="46" t="s">
+      <c r="O18" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="P18" s="46" t="s">
+      <c r="P18" s="45" t="s">
         <v>26</v>
       </c>
       <c r="Q18" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="R18" s="46" t="s">
+      <c r="R18" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="S18" s="46" t="s">
+      <c r="S18" s="45" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="30">
         <f t="array" ref="B19">Worksheet!$S$10</f>
         <v>0</v>
       </c>
-      <c r="E19" s="24" t="str">
+      <c r="E19" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F19" s="25" t="str">
-        <v>medium-psql-redundant</v>
-      </c>
-      <c r="G19" s="25" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H19" s="25">
-        <v>1</v>
-      </c>
-      <c r="I19" s="25">
+      <c r="F19" t="str">
+        <v>small-psql-replica</v>
+      </c>
+      <c r="G19" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>8</v>
       </c>
-      <c r="J19" s="26">
-        <v>0</v>
-      </c>
-      <c r="K19" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="47" t="str" cm="1">
+      <c r="J19" s="34">
+        <v>0</v>
+      </c>
+      <c r="K19" s="89">
+        <f>I19*J19</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="46" t="str" cm="1">
         <f t="array" ref="M19:Q29">AwsOpensearchPrices</f>
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N19" s="48" t="str">
+      <c r="N19" s="47" t="str">
         <v>es-dev</v>
       </c>
-      <c r="O19" s="48" t="str">
+      <c r="O19" s="47" t="str">
         <v>t3.small.search</v>
       </c>
-      <c r="P19" s="48">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="48">
+      <c r="P19" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="47">
         <v>2</v>
       </c>
-      <c r="R19" s="32">
-        <v>0</v>
-      </c>
-      <c r="S19" s="21">
+      <c r="R19" s="31">
+        <v>0</v>
+      </c>
+      <c r="S19" s="20">
         <f>R19*Q19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="34">
-        <f t="array" ref="B20">SUM(K14:K43) + Worksheet!$K$10</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="18" t="str">
+      <c r="B20" s="133">
+        <f>SUM(K14:K57) + Worksheet!$K$10</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F20" s="19" t="str">
+      <c r="F20" t="str">
+        <v>medium-psql</v>
+      </c>
+      <c r="G20" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20" s="25">
+        <v>0</v>
+      </c>
+      <c r="K20" s="89">
+        <f>I20*J20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="23" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N20" s="24" t="str">
+        <v>es-medium</v>
+      </c>
+      <c r="O20" s="24" t="str">
+        <v>c5.large.search</v>
+      </c>
+      <c r="P20" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>34</v>
+      </c>
+      <c r="R20" s="37">
+        <v>0</v>
+      </c>
+      <c r="S20" s="20">
+        <f t="shared" ref="S20:S29" si="0">R20*Q20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="30">
+        <f>Worksheet!$S$15+SUM(S19:S29)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F21" t="str">
+        <v>medium-psql-redundant</v>
+      </c>
+      <c r="G21" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21" s="25">
+        <v>0</v>
+      </c>
+      <c r="K21" s="89">
+        <f>I21*J21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="46" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N21" s="47" t="str">
+        <v>es-medium-ha</v>
+      </c>
+      <c r="O21" s="47" t="str">
+        <v>c5.large.search</v>
+      </c>
+      <c r="P21" s="47">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="47">
+        <v>48</v>
+      </c>
+      <c r="R21" s="37">
+        <v>0</v>
+      </c>
+      <c r="S21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="119">
+        <f>SUM(S33:S37)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F22" t="str">
+        <v>medium-psql-replica</v>
+      </c>
+      <c r="G22" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22" s="34">
+        <v>0</v>
+      </c>
+      <c r="K22" s="89">
+        <f>I22*J22</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="23" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N22" s="24" t="str">
+        <v>es-large</v>
+      </c>
+      <c r="O22" s="24" t="str">
+        <v>c5.xlarge.search</v>
+      </c>
+      <c r="P22" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>69</v>
+      </c>
+      <c r="R22" s="37">
+        <v>0</v>
+      </c>
+      <c r="S22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="120">
+        <f>SUM(Table_8[Credits])</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F23" t="str">
         <v>medium-gp-psql</v>
       </c>
-      <c r="G20" s="19" t="str">
+      <c r="G23" t="str">
         <v>db.m5.large</v>
       </c>
-      <c r="H20" s="19">
-        <v>1</v>
-      </c>
-      <c r="I20" s="19">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>10</v>
       </c>
-      <c r="J20" s="26">
-        <v>0</v>
-      </c>
-      <c r="K20" s="90">
+      <c r="J23" s="34">
+        <v>0</v>
+      </c>
+      <c r="K23" s="89">
+        <f>I23*J23</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="46" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N23" s="47" t="str">
+        <v>es-large-ha</v>
+      </c>
+      <c r="O23" s="47" t="str">
+        <v>c5.xlarge.search</v>
+      </c>
+      <c r="P23" s="47">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="47">
+        <v>96</v>
+      </c>
+      <c r="R23" s="37">
+        <v>0</v>
+      </c>
+      <c r="S23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="24" t="str">
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="123" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="122">
+        <f>$P$46</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F24" t="str">
+        <v>medium-gp-psql-redundant</v>
+      </c>
+      <c r="G24" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24" s="34">
+        <v>0</v>
+      </c>
+      <c r="K24" s="89">
+        <f>I24*J24</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="23" t="str">
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N20" s="25" t="str">
-        <v>es-medium</v>
-      </c>
-      <c r="O20" s="25" t="str">
-        <v>c5.large.search</v>
-      </c>
-      <c r="P20" s="25">
+      <c r="N24" s="24" t="str">
+        <v>es-xlarge</v>
+      </c>
+      <c r="O24" s="24" t="str">
+        <v>c5.2xlarge.search</v>
+      </c>
+      <c r="P24" s="24">
         <v>5</v>
       </c>
-      <c r="Q20" s="25">
-        <v>34</v>
-      </c>
-      <c r="R20" s="38">
-        <v>0</v>
-      </c>
-      <c r="S20" s="21">
-        <f t="shared" ref="S20:S29" si="1">R20*Q20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="31">
-        <f>Worksheet!$S$15+SUM(S19:S29)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="24" t="str">
+      <c r="Q24" s="24">
+        <v>137</v>
+      </c>
+      <c r="R24" s="37">
+        <v>0</v>
+      </c>
+      <c r="S24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F21" s="25" t="str">
-        <v>medium-gp-psql-redundant</v>
-      </c>
-      <c r="G21" s="25" t="str">
+      <c r="F25" t="str">
+        <v>medium-gp-psql-replica</v>
+      </c>
+      <c r="G25" t="str">
         <v>db.m5.large</v>
       </c>
-      <c r="H21" s="25">
-        <v>1</v>
-      </c>
-      <c r="I21" s="25">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>40</v>
+      </c>
+      <c r="J25" s="34">
+        <v>0</v>
+      </c>
+      <c r="K25" s="89">
+        <f>I25*J25</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="46" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N25" s="47" t="str">
+        <v>es-xlarge-ha</v>
+      </c>
+      <c r="O25" s="47" t="str">
+        <v>c5.2xlarge.search</v>
+      </c>
+      <c r="P25" s="47">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="47">
+        <v>192</v>
+      </c>
+      <c r="R25" s="37">
+        <v>0</v>
+      </c>
+      <c r="S25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F26" t="str">
+        <v>large-gp-psql</v>
+      </c>
+      <c r="G26" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26" s="34">
+        <v>0</v>
+      </c>
+      <c r="K26" s="89">
+        <f>I26*J26</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="23" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N26" s="24" t="str">
+        <v>es-2xlarge-gp</v>
+      </c>
+      <c r="O26" s="24" t="str">
+        <v>m5.2xlarge.search</v>
+      </c>
+      <c r="P26" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="24">
+        <v>163</v>
+      </c>
+      <c r="R26" s="37">
+        <v>0</v>
+      </c>
+      <c r="S26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F27" t="str">
+        <v>large-gp-psql-redundant</v>
+      </c>
+      <c r="G27" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>20</v>
       </c>
-      <c r="J21" s="26">
-        <v>0</v>
-      </c>
-      <c r="K21" s="90">
+      <c r="J27" s="25">
+        <v>0</v>
+      </c>
+      <c r="K27" s="89">
+        <f>I27*J27</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="46" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N27" s="47" t="str">
+        <v>es-2xlarge-gp-ha</v>
+      </c>
+      <c r="O27" s="47" t="str">
+        <v>m5.2xlarge.search</v>
+      </c>
+      <c r="P27" s="47">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="47">
+        <v>228</v>
+      </c>
+      <c r="R27" s="37">
+        <v>0</v>
+      </c>
+      <c r="S27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="47" t="str">
+    </row>
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F28" t="str">
+        <v>large-gp-psql-replica</v>
+      </c>
+      <c r="G28" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>40</v>
+      </c>
+      <c r="J28" s="25">
+        <v>0</v>
+      </c>
+      <c r="K28" s="89">
+        <f>I28*J28</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="23" t="str">
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N21" s="48" t="str">
-        <v>es-medium-ha</v>
-      </c>
-      <c r="O21" s="48" t="str">
-        <v>c5.large.search</v>
-      </c>
-      <c r="P21" s="48">
-        <v>7</v>
-      </c>
-      <c r="Q21" s="48">
-        <v>48</v>
-      </c>
-      <c r="R21" s="38">
-        <v>0</v>
-      </c>
-      <c r="S21" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="119" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="120">
-        <f>SUM(S33:S37)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="18" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F22" s="19" t="str">
-        <v>large-gp-psql</v>
-      </c>
-      <c r="G22" s="19" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H22" s="19">
-        <v>1</v>
-      </c>
-      <c r="I22" s="19">
-        <v>10</v>
-      </c>
-      <c r="J22" s="35">
-        <v>0</v>
-      </c>
-      <c r="K22" s="90">
+      <c r="N28" s="24" t="str">
+        <v>es-4xlarge-gp</v>
+      </c>
+      <c r="O28" s="24" t="str">
+        <v>m5.4xlarge.search</v>
+      </c>
+      <c r="P28" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="24">
+        <v>326</v>
+      </c>
+      <c r="R28" s="37">
+        <v>0</v>
+      </c>
+      <c r="S28" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="24" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N22" s="25" t="str">
-        <v>es-large</v>
-      </c>
-      <c r="O22" s="25" t="str">
-        <v>c5.xlarge.search</v>
-      </c>
-      <c r="P22" s="25">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="25">
-        <v>69</v>
-      </c>
-      <c r="R22" s="38">
-        <v>0</v>
-      </c>
-      <c r="S22" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="121">
-        <f>SUM(Table_8[Credits])</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F23" s="25" t="str">
-        <v>large-gp-psql-redundant</v>
-      </c>
-      <c r="G23" s="25" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H23" s="25">
-        <v>1</v>
-      </c>
-      <c r="I23" s="25">
-        <v>20</v>
-      </c>
-      <c r="J23" s="26">
-        <v>0</v>
-      </c>
-      <c r="K23" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="47" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N23" s="48" t="str">
-        <v>es-large-ha</v>
-      </c>
-      <c r="O23" s="48" t="str">
-        <v>c5.xlarge.search</v>
-      </c>
-      <c r="P23" s="48">
-        <v>7</v>
-      </c>
-      <c r="Q23" s="48">
-        <v>96</v>
-      </c>
-      <c r="R23" s="38">
-        <v>0</v>
-      </c>
-      <c r="S23" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="124" t="s">
-        <v>196</v>
-      </c>
-      <c r="B24" s="123">
-        <f>$P$46</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="18" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F24" s="19" t="str">
-        <v>xlarge-gp-psql</v>
-      </c>
-      <c r="G24" s="19" t="str">
-        <v>db.m5.xlarge</v>
-      </c>
-      <c r="H24" s="19">
-        <v>1</v>
-      </c>
-      <c r="I24" s="19">
-        <v>20</v>
-      </c>
-      <c r="J24" s="26">
-        <v>0</v>
-      </c>
-      <c r="K24" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="24" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N24" s="25" t="str">
-        <v>es-xlarge</v>
-      </c>
-      <c r="O24" s="25" t="str">
-        <v>c5.2xlarge.search</v>
-      </c>
-      <c r="P24" s="25">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="25">
-        <v>137</v>
-      </c>
-      <c r="R24" s="38">
-        <v>0</v>
-      </c>
-      <c r="S24" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F25" s="25" t="str">
-        <v>xlarge-gp-psql-redundant</v>
-      </c>
-      <c r="G25" s="25" t="str">
-        <v>db.m5.xlarge</v>
-      </c>
-      <c r="H25" s="25">
-        <v>1</v>
-      </c>
-      <c r="I25" s="25">
-        <v>39</v>
-      </c>
-      <c r="J25" s="26">
-        <v>0</v>
-      </c>
-      <c r="K25" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="47" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N25" s="48" t="str">
-        <v>es-xlarge-ha</v>
-      </c>
-      <c r="O25" s="48" t="str">
-        <v>c5.2xlarge.search</v>
-      </c>
-      <c r="P25" s="48">
-        <v>7</v>
-      </c>
-      <c r="Q25" s="48">
-        <v>192</v>
-      </c>
-      <c r="R25" s="38">
-        <v>0</v>
-      </c>
-      <c r="S25" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="18" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F26" s="19" t="str">
-        <v>2xlarge-gp-psql</v>
-      </c>
-      <c r="G26" s="19" t="str">
-        <v>db.m5.2xlarge</v>
-      </c>
-      <c r="H26" s="19">
-        <v>1</v>
-      </c>
-      <c r="I26" s="19">
-        <v>39</v>
-      </c>
-      <c r="J26" s="26">
-        <v>0</v>
-      </c>
-      <c r="K26" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="24" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N26" s="25" t="str">
-        <v>es-2xlarge-gp</v>
-      </c>
-      <c r="O26" s="25" t="str">
-        <v>m5.2xlarge.search</v>
-      </c>
-      <c r="P26" s="25">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="25">
-        <v>163</v>
-      </c>
-      <c r="R26" s="38">
-        <v>0</v>
-      </c>
-      <c r="S26" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F27" s="25" t="str">
-        <v>2xlarge-gp-psql-redundant</v>
-      </c>
-      <c r="G27" s="25" t="str">
-        <v>db.m5.2xlarge</v>
-      </c>
-      <c r="H27" s="25">
-        <v>1</v>
-      </c>
-      <c r="I27" s="25">
-        <v>78</v>
-      </c>
-      <c r="J27" s="26">
-        <v>0</v>
-      </c>
-      <c r="K27" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="47" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N27" s="48" t="str">
-        <v>es-2xlarge-gp-ha</v>
-      </c>
-      <c r="O27" s="48" t="str">
-        <v>m5.2xlarge.search</v>
-      </c>
-      <c r="P27" s="48">
-        <v>7</v>
-      </c>
-      <c r="Q27" s="48">
-        <v>228</v>
-      </c>
-      <c r="R27" s="38">
-        <v>0</v>
-      </c>
-      <c r="S27" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="18" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F28" s="19" t="str">
-        <v>xlarge-gp-psql-m6</v>
-      </c>
-      <c r="G28" s="19" t="str">
-        <v>db.m6g.xlarge</v>
-      </c>
-      <c r="H28" s="19">
-        <v>1</v>
-      </c>
-      <c r="I28" s="19">
-        <v>17</v>
-      </c>
-      <c r="J28" s="26">
-        <v>0</v>
-      </c>
-      <c r="K28" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="24" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N28" s="25" t="str">
-        <v>es-4xlarge-gp</v>
-      </c>
-      <c r="O28" s="25" t="str">
-        <v>m5.4xlarge.search</v>
-      </c>
-      <c r="P28" s="25">
-        <v>5</v>
-      </c>
-      <c r="Q28" s="25">
-        <v>326</v>
-      </c>
-      <c r="R28" s="38">
-        <v>0</v>
-      </c>
-      <c r="S28" s="21">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5925,173 +6088,173 @@
         <f t="array" ref="A29:B36">CloudGovNoCostServices</f>
         <v>External Domain</v>
       </c>
-      <c r="B29" s="21" t="str">
+      <c r="B29" s="20" t="str">
         <v>cdn-route</v>
       </c>
-      <c r="E29" s="24" t="str">
+      <c r="E29" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F29" s="25" t="str">
-        <v>xlarge-gp-psql-m6-redundant</v>
-      </c>
-      <c r="G29" s="25" t="str">
-        <v>db.m6g.xlarge</v>
-      </c>
-      <c r="H29" s="25">
-        <v>1</v>
-      </c>
-      <c r="I29" s="25">
-        <v>34</v>
-      </c>
-      <c r="J29" s="26">
-        <v>0</v>
-      </c>
-      <c r="K29" s="90">
+      <c r="F29" t="str">
+        <v>xlarge-gp-psql</v>
+      </c>
+      <c r="G29" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+      <c r="J29" s="34">
+        <v>0</v>
+      </c>
+      <c r="K29" s="89">
+        <f>I29*J29</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="38" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N29" s="39" t="str">
+        <v>es-4xlarge-gp-ha</v>
+      </c>
+      <c r="O29" s="39" t="str">
+        <v>m5.4xlarge.search</v>
+      </c>
+      <c r="P29" s="39">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="39">
+        <v>456</v>
+      </c>
+      <c r="R29" s="40">
+        <v>0</v>
+      </c>
+      <c r="S29" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="39" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N29" s="40" t="str">
-        <v>es-4xlarge-gp-ha</v>
-      </c>
-      <c r="O29" s="40" t="str">
-        <v>m5.4xlarge.search</v>
-      </c>
-      <c r="P29" s="40">
-        <v>7</v>
-      </c>
-      <c r="Q29" s="40">
-        <v>456</v>
-      </c>
-      <c r="R29" s="41">
-        <v>0</v>
-      </c>
-      <c r="S29" s="91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="92"/>
+      <c r="T29" s="91"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="24" t="str">
+      <c r="A30" s="23" t="str">
         <v>External Domain</v>
       </c>
-      <c r="B30" s="27" t="str">
+      <c r="B30" s="26" t="str">
         <v>custom-domain</v>
       </c>
-      <c r="E30" s="18" t="str">
+      <c r="E30" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F30" s="19" t="str">
-        <v>micro-mysql</v>
-      </c>
-      <c r="G30" s="19" t="str">
-        <v>db.t3.micro</v>
-      </c>
-      <c r="H30" s="19">
-        <v>1</v>
-      </c>
-      <c r="I30" s="19">
-        <v>1</v>
-      </c>
-      <c r="J30" s="43">
-        <v>0</v>
-      </c>
-      <c r="K30" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="87"/>
-      <c r="Y30" s="29"/>
+      <c r="F30" t="str">
+        <v>xlarge-gp-psql-redundant</v>
+      </c>
+      <c r="G30" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>39</v>
+      </c>
+      <c r="J30" s="42">
+        <v>0</v>
+      </c>
+      <c r="K30" s="89">
+        <f>I30*J30</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="86"/>
+      <c r="Y30" s="28"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="str">
         <v>External Domain</v>
       </c>
-      <c r="B31" s="21" t="str">
+      <c r="B31" s="20" t="str">
         <v>domain</v>
       </c>
-      <c r="E31" s="24" t="str">
+      <c r="E31" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F31" s="25" t="str">
-        <v>micro-mysql-redundant</v>
-      </c>
-      <c r="G31" s="25" t="str">
-        <v>db.t3.micro</v>
-      </c>
-      <c r="H31" s="25">
-        <v>1</v>
-      </c>
-      <c r="I31" s="25">
-        <v>2</v>
-      </c>
-      <c r="J31" s="26">
-        <v>0</v>
-      </c>
-      <c r="K31" s="90">
-        <f t="shared" si="0"/>
+      <c r="F31" t="str">
+        <v>xlarge-gp-psql-replica</v>
+      </c>
+      <c r="G31" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>78</v>
+      </c>
+      <c r="J31" s="34">
+        <v>0</v>
+      </c>
+      <c r="K31" s="89">
+        <f>I31*J31</f>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="87"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="str">
+      <c r="A32" s="23" t="str">
         <v>External Domain</v>
       </c>
-      <c r="B32" s="27" t="str">
+      <c r="B32" s="26" t="str">
         <v>domain-with-cdn</v>
       </c>
-      <c r="E32" s="18" t="str">
+      <c r="E32" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F32" s="19" t="str">
-        <v>small-mysql</v>
-      </c>
-      <c r="G32" s="19" t="str">
-        <v>db.t3.small</v>
-      </c>
-      <c r="H32" s="19">
-        <v>1</v>
-      </c>
-      <c r="I32" s="19">
-        <v>2</v>
-      </c>
-      <c r="J32" s="26">
-        <v>0</v>
-      </c>
-      <c r="K32" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="46" t="s">
+      <c r="F32" t="str">
+        <v>2xlarge-gp-psql</v>
+      </c>
+      <c r="G32" t="str">
+        <v>db.m5.2xlarge</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>39</v>
+      </c>
+      <c r="J32" s="34">
+        <v>0</v>
+      </c>
+      <c r="K32" s="89">
+        <f>I32*J32</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N32" s="46" t="s">
+      <c r="N32" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="46" t="s">
+      <c r="O32" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="P32" s="46" t="s">
+      <c r="P32" s="45" t="s">
         <v>26</v>
       </c>
       <c r="Q32" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="R32" s="46" t="s">
+      <c r="R32" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="S32" s="46" t="s">
+      <c r="S32" s="45" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6099,104 +6262,104 @@
       <c r="A33" s="18" t="str">
         <v>UAA Service Account</v>
       </c>
-      <c r="B33" s="21" t="str">
+      <c r="B33" s="20" t="str">
         <v>oauth-client</v>
       </c>
-      <c r="E33" s="24" t="str">
+      <c r="E33" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F33" s="25" t="str">
-        <v>small-mysql-redundant</v>
-      </c>
-      <c r="G33" s="25" t="str">
-        <v>db.t3.small</v>
-      </c>
-      <c r="H33" s="25">
-        <v>1</v>
-      </c>
-      <c r="I33" s="25">
-        <v>4</v>
-      </c>
-      <c r="J33" s="26">
-        <v>0</v>
-      </c>
-      <c r="K33" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="47" t="str" cm="1">
+      <c r="F33" t="str">
+        <v>2xlarge-gp-psql-redundant</v>
+      </c>
+      <c r="G33" t="str">
+        <v>db.m5.2xlarge</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>78</v>
+      </c>
+      <c r="J33" s="34">
+        <v>0</v>
+      </c>
+      <c r="K33" s="89">
+        <f>I33*J33</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="46" t="str" cm="1">
         <f t="array" ref="M33:Q37">AwsElasticCachePrices</f>
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N33" s="48" t="str">
+      <c r="N33" s="47" t="str">
         <v>redis-dev</v>
       </c>
-      <c r="O33" s="48" t="str">
+      <c r="O33" s="47" t="str">
         <v>cache.t3.micro</v>
       </c>
-      <c r="P33" s="48">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="88">
-        <v>1</v>
-      </c>
-      <c r="R33" s="50">
-        <v>0</v>
-      </c>
-      <c r="S33" s="21">
+      <c r="P33" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="87">
+        <v>1</v>
+      </c>
+      <c r="R33" s="49">
+        <v>0</v>
+      </c>
+      <c r="S33" s="20">
         <f>R33*Q33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="24" t="str">
+      <c r="A34" s="23" t="str">
         <v>UAA Service Account</v>
       </c>
-      <c r="B34" s="27" t="str">
+      <c r="B34" s="26" t="str">
         <v>space-auditor</v>
       </c>
-      <c r="E34" s="18" t="str">
+      <c r="E34" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F34" s="19" t="str">
-        <v>medium-mysql</v>
-      </c>
-      <c r="G34" s="19" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H34" s="19">
-        <v>1</v>
-      </c>
-      <c r="I34" s="19">
-        <v>4</v>
-      </c>
-      <c r="J34" s="26">
-        <v>0</v>
-      </c>
-      <c r="K34" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="24" t="str">
+      <c r="F34" t="str">
+        <v>2xlarge-gp-psql-replica</v>
+      </c>
+      <c r="G34" t="str">
+        <v>db.m5.2xlarge</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>156</v>
+      </c>
+      <c r="J34" s="25">
+        <v>0</v>
+      </c>
+      <c r="K34" s="89">
+        <f>I34*J34</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="23" t="str">
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N34" s="25" t="str">
+      <c r="N34" s="24" t="str">
         <v>redis-3node</v>
       </c>
-      <c r="O34" s="25" t="str">
+      <c r="O34" s="24" t="str">
         <v>cache.t3.micro</v>
       </c>
-      <c r="P34" s="25">
+      <c r="P34" s="24">
         <v>3</v>
       </c>
-      <c r="Q34" s="88">
+      <c r="Q34" s="87">
         <v>2</v>
       </c>
-      <c r="R34" s="38">
-        <v>0</v>
-      </c>
-      <c r="S34" s="21">
-        <f t="shared" ref="S34:S37" si="2">R34*Q34</f>
+      <c r="R34" s="37">
+        <v>0</v>
+      </c>
+      <c r="S34" s="20">
+        <f t="shared" ref="S34:S37" si="1">R34*Q34</f>
         <v>0</v>
       </c>
     </row>
@@ -6204,201 +6367,201 @@
       <c r="A35" s="18" t="str">
         <v>UAA Service Account</v>
       </c>
-      <c r="B35" s="21" t="str">
+      <c r="B35" s="20" t="str">
         <v>space-deployer</v>
       </c>
-      <c r="E35" s="24" t="str">
+      <c r="E35" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F35" s="25" t="str">
-        <v>medium-mysql-redundant</v>
-      </c>
-      <c r="G35" s="25" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H35" s="25">
-        <v>1</v>
-      </c>
-      <c r="I35" s="25">
-        <v>7</v>
-      </c>
-      <c r="J35" s="35">
-        <v>0</v>
-      </c>
-      <c r="K35" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="47" t="str">
+      <c r="F35" t="str">
+        <v>xlarge-gp-psql-m6</v>
+      </c>
+      <c r="G35" t="str">
+        <v>db.m6g.xlarge</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>17</v>
+      </c>
+      <c r="J35" s="34">
+        <v>0</v>
+      </c>
+      <c r="K35" s="89">
+        <f>I35*J35</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="46" t="str">
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N35" s="48" t="str">
+      <c r="N35" s="47" t="str">
         <v>redis-5node</v>
       </c>
-      <c r="O35" s="48" t="str">
+      <c r="O35" s="47" t="str">
         <v>cache.t3.micro</v>
       </c>
-      <c r="P35" s="48">
+      <c r="P35" s="47">
         <v>5</v>
       </c>
-      <c r="Q35" s="88">
+      <c r="Q35" s="87">
         <v>4</v>
       </c>
-      <c r="R35" s="38">
-        <v>0</v>
-      </c>
-      <c r="S35" s="21">
-        <f t="shared" si="2"/>
+      <c r="R35" s="37">
+        <v>0</v>
+      </c>
+      <c r="S35" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="24" t="str">
+      <c r="A36" s="23" t="str">
         <v>Autoscaler</v>
       </c>
-      <c r="B36" s="27" t="str">
+      <c r="B36" s="26" t="str">
         <v>autoscaler-free-plan</v>
       </c>
-      <c r="E36" s="18" t="str">
+      <c r="E36" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F36" s="19" t="str">
-        <v>medium-gp-mysql</v>
-      </c>
-      <c r="G36" s="19" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H36" s="19">
-        <v>1</v>
-      </c>
-      <c r="I36" s="19">
-        <v>9</v>
-      </c>
-      <c r="J36" s="26">
-        <v>0</v>
-      </c>
-      <c r="K36" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="24" t="str">
+      <c r="F36" t="str">
+        <v>xlarge-gp-psql-m6-redundant</v>
+      </c>
+      <c r="G36" t="str">
+        <v>db.m6g.xlarge</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>34</v>
+      </c>
+      <c r="J36" s="34">
+        <v>0</v>
+      </c>
+      <c r="K36" s="89">
+        <f>I36*J36</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="23" t="str">
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N36" s="25" t="str">
+      <c r="N36" s="24" t="str">
         <v>redis-3node-large</v>
       </c>
-      <c r="O36" s="25" t="str">
+      <c r="O36" s="24" t="str">
         <v>cache.t3.small</v>
       </c>
-      <c r="P36" s="25">
+      <c r="P36" s="24">
         <v>3</v>
       </c>
-      <c r="Q36" s="88">
+      <c r="Q36" s="87">
         <v>5</v>
       </c>
-      <c r="R36" s="38">
-        <v>0</v>
-      </c>
-      <c r="S36" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="44" t="s">
+      <c r="R36" s="37">
+        <v>0</v>
+      </c>
+      <c r="S36" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="E37" s="24" t="str">
+      <c r="B37" s="43"/>
+      <c r="E37" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F37" s="25" t="str">
-        <v>medium-gp-mysql-redundant</v>
-      </c>
-      <c r="G37" s="25" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H37" s="25">
-        <v>1</v>
-      </c>
-      <c r="I37" s="25">
-        <v>19</v>
-      </c>
-      <c r="J37" s="26">
-        <v>0</v>
-      </c>
-      <c r="K37" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="39" t="str">
+      <c r="F37" t="str">
+        <v>xlarge-gp-psql-m6-replica</v>
+      </c>
+      <c r="G37" t="str">
+        <v>db.m6g.xlarge</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>68</v>
+      </c>
+      <c r="J37" s="34">
+        <v>0</v>
+      </c>
+      <c r="K37" s="89">
+        <f>I37*J37</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="38" t="str">
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N37" s="40" t="str">
+      <c r="N37" s="39" t="str">
         <v>redis-5node-large</v>
       </c>
-      <c r="O37" s="40" t="str">
+      <c r="O37" s="39" t="str">
         <v>cache.t3.small</v>
       </c>
-      <c r="P37" s="40">
+      <c r="P37" s="39">
         <v>5</v>
       </c>
-      <c r="Q37" s="89">
+      <c r="Q37" s="88">
         <v>8</v>
       </c>
-      <c r="R37" s="45">
-        <v>0</v>
-      </c>
-      <c r="S37" s="91">
-        <f t="shared" si="2"/>
+      <c r="R37" s="40">
+        <v>0</v>
+      </c>
+      <c r="S37" s="90">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="18" t="str">
+      <c r="E38" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F38" s="19" t="str">
-        <v>large-gp-mysql</v>
-      </c>
-      <c r="G38" s="19" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H38" s="19">
-        <v>1</v>
-      </c>
-      <c r="I38" s="19">
-        <v>9</v>
-      </c>
-      <c r="J38" s="26">
-        <v>0</v>
-      </c>
-      <c r="K38" s="90">
-        <f t="shared" si="0"/>
+      <c r="F38" t="str">
+        <v>micro-mysql</v>
+      </c>
+      <c r="G38" t="str">
+        <v>db.t3.micro</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" s="25">
+        <v>0</v>
+      </c>
+      <c r="K38" s="89">
+        <f>I38*J38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="24" t="str">
+      <c r="E39" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F39" s="25" t="str">
-        <v>large-gp-mysql-redundant</v>
-      </c>
-      <c r="G39" s="25" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H39" s="25">
-        <v>1</v>
-      </c>
-      <c r="I39" s="25">
-        <v>19</v>
-      </c>
-      <c r="J39" s="26">
-        <v>0</v>
-      </c>
-      <c r="K39" s="90">
-        <f t="shared" si="0"/>
+      <c r="F39" t="str">
+        <v>micro-mysql-redundant</v>
+      </c>
+      <c r="G39" t="str">
+        <v>db.t3.micro</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" s="25">
+        <v>0</v>
+      </c>
+      <c r="K39" s="89">
+        <f>I39*J39</f>
         <v>0</v>
       </c>
       <c r="M39" s="2" t="s">
@@ -6406,357 +6569,660 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="C40" s="104" t="s">
+      <c r="C40" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="E40" s="18" t="str">
+      <c r="E40" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F40" s="19" t="str">
-        <v>xlarge-gp-mysql</v>
-      </c>
-      <c r="G40" s="19" t="str">
-        <v>db.m5.xlarge</v>
-      </c>
-      <c r="H40" s="19">
-        <v>1</v>
-      </c>
-      <c r="I40" s="19">
-        <v>19</v>
-      </c>
-      <c r="J40" s="26">
-        <v>0</v>
-      </c>
-      <c r="K40" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="46" t="s">
+      <c r="F40" t="str">
+        <v>micro-mysql-replica</v>
+      </c>
+      <c r="G40" t="str">
+        <v>db.t3.micro</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40" s="34">
+        <v>0</v>
+      </c>
+      <c r="K40" s="89">
+        <f>I40*J40</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N40" s="46" t="s">
+      <c r="N40" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="O40" s="46" t="s">
+      <c r="O40" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="P40" s="46" t="s">
+      <c r="P40" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="Q40" s="46" t="s">
+      <c r="Q40" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="R40" s="46" t="s">
+      <c r="R40" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="S40" s="95" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="105">
-        <v>1</v>
-      </c>
-      <c r="B41" s="101">
+      <c r="S40" s="94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="104">
+        <v>1</v>
+      </c>
+      <c r="B41" s="100">
         <v>45748</v>
       </c>
-      <c r="C41" s="100" t="s">
+      <c r="C41" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="E41" s="24" t="str">
+      <c r="E41" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F41" s="25" t="str">
-        <v>xlarge-gp-mysql-redundant</v>
-      </c>
-      <c r="G41" s="25" t="str">
-        <v>db.m5.xlarge</v>
-      </c>
-      <c r="H41" s="25">
-        <v>1</v>
-      </c>
-      <c r="I41" s="25">
-        <v>37</v>
-      </c>
-      <c r="J41" s="26">
-        <v>0</v>
-      </c>
-      <c r="K41" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="47" t="s">
+      <c r="F41" t="str">
+        <v>small-mysql</v>
+      </c>
+      <c r="G41" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41" s="34">
+        <v>0</v>
+      </c>
+      <c r="K41" s="89">
+        <f>I41*J41</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="N41" s="48" t="s">
+      <c r="N41" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="O41" s="49" t="s">
+      <c r="O41" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="P41" s="48" t="s">
+      <c r="P41" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="Q41" s="88">
+      <c r="Q41" s="87">
         <f>'AWS Service Prices'!K6*'AWS Service Prices'!M6</f>
         <v>150000</v>
       </c>
-      <c r="R41" s="93">
-        <v>0</v>
-      </c>
-      <c r="S41" s="97">
+      <c r="R41" s="135">
+        <v>0</v>
+      </c>
+      <c r="S41" s="134">
         <f>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="105">
+      <c r="A42" s="104">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B42" s="101">
+      <c r="B42" s="100">
         <v>45749</v>
       </c>
-      <c r="C42" s="100" t="s">
+      <c r="C42" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="E42" s="18" t="str">
+      <c r="E42" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F42" s="19" t="str">
-        <v>medium-oracle-se2</v>
-      </c>
-      <c r="G42" s="19" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H42" s="19">
-        <v>1</v>
-      </c>
-      <c r="I42" s="19">
-        <v>7</v>
-      </c>
-      <c r="J42" s="26">
-        <v>0</v>
-      </c>
-      <c r="K42" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="51" t="s">
+      <c r="F42" t="str">
+        <v>small-mysql-redundant</v>
+      </c>
+      <c r="G42" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42" s="128">
+        <v>0</v>
+      </c>
+      <c r="K42" s="89">
+        <f>I42*J42</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="N42" s="52" t="s">
+      <c r="N42" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="O42" s="53" t="s">
+      <c r="O42" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="P42" s="52" t="s">
+      <c r="P42" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="Q42" s="88">
+      <c r="Q42" s="87">
         <f>'AWS Service Prices'!K7*'AWS Service Prices'!M7</f>
         <v>120</v>
       </c>
-      <c r="R42" s="94">
-        <v>0</v>
-      </c>
-      <c r="S42" s="96">
+      <c r="R42" s="136">
+        <v>0</v>
+      </c>
+      <c r="S42" s="116">
         <f>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="105"/>
-      <c r="C43" s="100" t="s">
+    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="104"/>
+      <c r="C43" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="E43" s="54" t="str">
+      <c r="E43" s="91" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F43" s="55" t="str">
-        <v>large-gp-sqlserver-se</v>
-      </c>
-      <c r="G43" s="55" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H43" s="55">
-        <v>1</v>
-      </c>
-      <c r="I43" s="55">
-        <v>46</v>
-      </c>
-      <c r="J43" s="56">
-        <v>0</v>
-      </c>
-      <c r="K43" s="99">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="98"/>
+      <c r="F43" t="str">
+        <v>small-mysql-replica</v>
+      </c>
+      <c r="G43" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43" s="128">
+        <v>0</v>
+      </c>
+      <c r="K43" s="89">
+        <f>I43*J43</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="97"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="105"/>
-      <c r="C44" s="100" t="s">
+      <c r="A44" s="104"/>
+      <c r="C44" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="J44" s="4"/>
+      <c r="E44" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F44" t="str">
+        <v>medium-mysql</v>
+      </c>
+      <c r="G44" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44" s="128">
+        <v>0</v>
+      </c>
+      <c r="K44" s="127">
+        <f>I44*J44</f>
+        <v>0</v>
+      </c>
       <c r="M44" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="N44" s="108"/>
-      <c r="O44" s="108"/>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="108"/>
-      <c r="R44" s="108"/>
-      <c r="S44" s="108"/>
+      <c r="N44" s="107"/>
+      <c r="O44" s="107"/>
+      <c r="P44" s="107"/>
+      <c r="Q44" s="107"/>
+      <c r="R44" s="107"/>
+      <c r="S44" s="107"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="105">
+      <c r="A45" s="104">
         <v>1.2</v>
       </c>
-      <c r="B45" s="101">
+      <c r="B45" s="100">
         <v>45756</v>
       </c>
-      <c r="C45" s="106" t="s">
+      <c r="C45" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="J45" s="4"/>
-      <c r="M45" s="95" t="s">
+      <c r="E45" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F45" t="str">
+        <v>medium-mysql-redundant</v>
+      </c>
+      <c r="G45" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>7</v>
+      </c>
+      <c r="J45" s="128">
+        <v>0</v>
+      </c>
+      <c r="K45" s="127">
+        <f>I45*J45</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="N45" s="95" t="s">
+      <c r="N45" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="O45" s="95" t="s">
+      <c r="O45" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="P45" s="95" t="s">
+      <c r="P45" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="Q45" s="112" t="s">
-        <v>1</v>
-      </c>
-      <c r="R45" s="109"/>
-      <c r="S45" s="109"/>
+      <c r="Q45" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="R45" s="108"/>
+      <c r="S45" s="108"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="105">
+      <c r="A46" s="104">
         <v>1.3</v>
       </c>
-      <c r="B46" s="101">
+      <c r="B46" s="100">
         <v>45757</v>
       </c>
-      <c r="C46" s="106" t="s">
+      <c r="C46" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="J46" s="4"/>
-      <c r="M46" s="116" t="s">
+      <c r="E46" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F46" t="str">
+        <v>medium-mysql-replica</v>
+      </c>
+      <c r="G46" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>14</v>
+      </c>
+      <c r="J46" s="128">
+        <v>0</v>
+      </c>
+      <c r="K46" s="89">
+        <f>I46*J46</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="115" t="s">
         <v>196</v>
       </c>
-      <c r="N46" s="114" t="s">
+      <c r="N46" s="113" t="s">
         <v>197</v>
       </c>
-      <c r="O46" s="115">
-        <v>1</v>
-      </c>
-      <c r="P46" s="114">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="117">
+      <c r="O46" s="114">
+        <f>'AWS Service Prices'!$E$63</f>
+        <v>1</v>
+      </c>
+      <c r="P46" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="116">
         <f>O46*P46</f>
         <v>0</v>
       </c>
-      <c r="R46" s="110"/>
-      <c r="S46" s="110"/>
+      <c r="R46" s="109"/>
+      <c r="S46" s="109"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="105">
+      <c r="A47" s="104">
         <v>1.4</v>
       </c>
-      <c r="B47" s="101">
+      <c r="B47" s="100">
         <v>45775</v>
       </c>
-      <c r="C47" s="106" t="s">
+      <c r="C47" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="J47" s="4"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="113"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="111"/>
-      <c r="S47" s="110"/>
+      <c r="E47" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F47" t="str">
+        <v>medium-gp-mysql</v>
+      </c>
+      <c r="G47" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>9</v>
+      </c>
+      <c r="J47" s="128">
+        <v>0</v>
+      </c>
+      <c r="K47" s="89">
+        <f>I47*J47</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="110"/>
+      <c r="S47" s="109"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="105"/>
-      <c r="C48" s="106" t="s">
+      <c r="A48" s="104"/>
+      <c r="C48" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="105">
+      <c r="E48" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F48" t="str">
+        <v>medium-gp-mysql-redundant</v>
+      </c>
+      <c r="G48" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>19</v>
+      </c>
+      <c r="J48" s="128">
+        <v>0</v>
+      </c>
+      <c r="K48" s="89">
+        <f>I48*J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="104">
         <v>1.5</v>
       </c>
-      <c r="B49" s="101">
+      <c r="B49" s="100">
         <v>45840</v>
       </c>
-      <c r="C49" s="106" t="s">
+      <c r="C49" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="105"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E49" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F49" t="str">
+        <v>medium-gp-mysql-replica</v>
+      </c>
+      <c r="G49" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>38</v>
+      </c>
+      <c r="J49" s="128">
+        <v>0</v>
+      </c>
+      <c r="K49" s="89">
+        <f>I49*J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="104">
+        <v>1.6</v>
+      </c>
+      <c r="B50" s="100">
+        <v>45841</v>
+      </c>
+      <c r="C50" s="105" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F50" t="str">
+        <v>large-gp-mysql</v>
+      </c>
+      <c r="G50" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>9</v>
+      </c>
+      <c r="J50" s="128">
+        <v>0</v>
+      </c>
+      <c r="K50" s="89">
+        <f>I50*J50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E51" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F51" t="str">
+        <v>large-gp-mysql-redundant</v>
+      </c>
+      <c r="G51" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>19</v>
+      </c>
+      <c r="J51" s="128">
+        <v>0</v>
+      </c>
+      <c r="K51" s="89">
+        <f>I51*J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E52" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F52" t="str">
+        <v>large-gp-mysql-replica</v>
+      </c>
+      <c r="G52" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>38</v>
+      </c>
+      <c r="J52" s="128">
+        <v>0</v>
+      </c>
+      <c r="K52" s="89">
+        <f>I52*J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E53" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F53" t="str">
+        <v>xlarge-gp-mysql</v>
+      </c>
+      <c r="G53" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>19</v>
+      </c>
+      <c r="J53" s="128">
+        <v>0</v>
+      </c>
+      <c r="K53" s="89">
+        <f>I53*J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E54" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F54" t="str">
+        <v>xlarge-gp-mysql-redundant</v>
+      </c>
+      <c r="G54" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>37</v>
+      </c>
+      <c r="J54" s="128">
+        <v>0</v>
+      </c>
+      <c r="K54" s="89">
+        <f>I54*J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E55" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F55" t="str">
+        <v>xlarge-gp-mysql-replica</v>
+      </c>
+      <c r="G55" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>74</v>
+      </c>
+      <c r="J55" s="128">
+        <v>0</v>
+      </c>
+      <c r="K55" s="89">
+        <f>I55*J55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E56" s="91" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F56" t="str">
+        <v>medium-oracle-se2</v>
+      </c>
+      <c r="G56" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>7</v>
+      </c>
+      <c r="J56" s="128">
+        <v>0</v>
+      </c>
+      <c r="K56" s="89">
+        <f>I56*J56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="130" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F57" s="131" t="str">
+        <v>large-gp-sqlserver-se</v>
+      </c>
+      <c r="G57" s="131" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H57" s="131">
+        <v>1</v>
+      </c>
+      <c r="I57" s="132">
+        <v>46</v>
+      </c>
+      <c r="J57" s="55">
+        <v>0</v>
+      </c>
+      <c r="K57" s="98">
+        <f>I57*J57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7727,89 +8193,89 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10 J14:J43 B15">
-    <cfRule type="cellIs" dxfId="30" priority="21" operator="notEqual">
+  <conditionalFormatting sqref="B10 B15 J14:J57">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="29" priority="10">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>$J$10&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F43">
-    <cfRule type="expression" dxfId="28" priority="11">
-      <formula>$J14&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="26" priority="8">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>$R10&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="13" priority="10">
       <formula>$R15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N29">
-    <cfRule type="expression" dxfId="24" priority="7">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$R19&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33:N37">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$R33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:N42">
-    <cfRule type="expression" dxfId="22" priority="5">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>$R41&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46">
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>$P$46&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:R29">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R33:R37">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41:R42">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R46:R47">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F57">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$J14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -7846,7 +8312,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="4"/>
@@ -7857,10 +8323,10 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>128</v>
       </c>
       <c r="D2" s="4"/>
@@ -7870,10 +8336,10 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="59">
         <v>3</v>
       </c>
       <c r="D3" s="4"/>
@@ -7883,10 +8349,10 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="61">
         <v>50</v>
       </c>
       <c r="D4" s="4"/>
@@ -7896,10 +8362,10 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="59">
         <v>1</v>
       </c>
       <c r="D5" s="4"/>
@@ -7909,10 +8375,10 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="62">
         <v>0</v>
       </c>
       <c r="D6" s="4"/>
@@ -7942,561 +8408,561 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="66" t="s">
+      <c r="B10" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="65" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="60">
+      <c r="B11" s="59">
         <v>50</v>
       </c>
-      <c r="C11" s="67">
-        <v>0</v>
-      </c>
-      <c r="D11" s="68">
+      <c r="C11" s="66">
+        <v>0</v>
+      </c>
+      <c r="D11" s="67">
         <f t="shared" ref="D11:D27" si="0">B11*$B$4</f>
         <v>2500</v>
       </c>
-      <c r="E11" s="69">
-        <v>1</v>
-      </c>
-      <c r="F11" s="59" t="s">
+      <c r="E11" s="68">
+        <v>1</v>
+      </c>
+      <c r="F11" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="67">
         <f>D11*12</f>
         <v>30000</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="67">
         <f t="shared" ref="H11:H28" si="1">G11*(1-C11)</f>
         <v>30000</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="60">
+      <c r="B12" s="59">
         <v>100</v>
       </c>
-      <c r="C12" s="67">
-        <v>0</v>
-      </c>
-      <c r="D12" s="70">
+      <c r="C12" s="66">
+        <v>0</v>
+      </c>
+      <c r="D12" s="69">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="70">
         <v>2</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="70">
+      <c r="G12" s="69">
         <f t="shared" ref="G12:G27" si="2">B12*$B$4*12</f>
         <v>60000</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="69">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="60">
+      <c r="B13" s="59">
         <v>150</v>
       </c>
-      <c r="C13" s="67">
-        <v>0</v>
-      </c>
-      <c r="D13" s="68">
+      <c r="C13" s="66">
+        <v>0</v>
+      </c>
+      <c r="D13" s="67">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="68">
         <v>3</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="67">
         <f t="shared" si="2"/>
         <v>90000</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="67">
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="60">
+      <c r="B14" s="59">
         <v>250</v>
       </c>
-      <c r="C14" s="67">
-        <v>0</v>
-      </c>
-      <c r="D14" s="70">
+      <c r="C14" s="66">
+        <v>0</v>
+      </c>
+      <c r="D14" s="69">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="70">
         <v>4</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="70">
+      <c r="G14" s="69">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="69">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="59">
         <v>350</v>
       </c>
-      <c r="C15" s="67">
-        <v>0</v>
-      </c>
-      <c r="D15" s="68">
+      <c r="C15" s="66">
+        <v>0</v>
+      </c>
+      <c r="D15" s="67">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="68">
         <v>5</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="67">
         <f t="shared" si="2"/>
         <v>210000</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="67">
         <f t="shared" si="1"/>
         <v>210000</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="59">
         <v>500</v>
       </c>
-      <c r="C16" s="67">
-        <v>0</v>
-      </c>
-      <c r="D16" s="70">
+      <c r="C16" s="66">
+        <v>0</v>
+      </c>
+      <c r="D16" s="69">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="70">
         <v>6</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="70">
+      <c r="G16" s="69">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="H16" s="70">
+      <c r="H16" s="69">
         <f t="shared" si="1"/>
         <v>300000</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="60">
+      <c r="B17" s="59">
         <v>650</v>
       </c>
-      <c r="C17" s="67">
-        <v>0</v>
-      </c>
-      <c r="D17" s="68">
+      <c r="C17" s="66">
+        <v>0</v>
+      </c>
+      <c r="D17" s="67">
         <f t="shared" si="0"/>
         <v>32500</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="68">
         <v>7</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="67">
         <f t="shared" si="2"/>
         <v>390000</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="67">
         <f t="shared" si="1"/>
         <v>390000</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="60">
+      <c r="B18" s="59">
         <v>800</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="66">
         <v>0.05</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D18" s="69">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="70">
         <v>8</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="G18" s="70">
+      <c r="G18" s="69">
         <f t="shared" si="2"/>
         <v>480000</v>
       </c>
-      <c r="H18" s="70">
+      <c r="H18" s="69">
         <f t="shared" si="1"/>
         <v>456000</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="60">
+      <c r="B19" s="59">
         <v>1000</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="66">
         <v>0.1</v>
       </c>
-      <c r="D19" s="68">
+      <c r="D19" s="67">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E19" s="68">
         <v>9</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="67">
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="H19" s="68">
+      <c r="H19" s="67">
         <f t="shared" si="1"/>
         <v>540000</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="60">
+      <c r="B20" s="59">
         <v>1250</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="66">
         <v>0.15</v>
       </c>
-      <c r="D20" s="70">
+      <c r="D20" s="69">
         <f t="shared" si="0"/>
         <v>62500</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="70">
         <v>10</v>
       </c>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="G20" s="70">
+      <c r="G20" s="69">
         <f t="shared" si="2"/>
         <v>750000</v>
       </c>
-      <c r="H20" s="70">
+      <c r="H20" s="69">
         <f t="shared" si="1"/>
         <v>637500</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="60">
+      <c r="B21" s="59">
         <v>1500</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="66">
         <v>0.2</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="67">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
-      <c r="E21" s="69">
+      <c r="E21" s="68">
         <v>11</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="67">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="67">
         <f t="shared" si="1"/>
         <v>720000</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="60">
+      <c r="B22" s="59">
         <v>2000</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C22" s="66">
         <v>0.22</v>
       </c>
-      <c r="D22" s="70">
+      <c r="D22" s="69">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="70">
         <v>12</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="70">
+      <c r="G22" s="69">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="H22" s="70">
+      <c r="H22" s="69">
         <f t="shared" si="1"/>
         <v>936000</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="60">
+      <c r="B23" s="59">
         <v>3000</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="66">
         <v>0.24</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="67">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="E23" s="69">
+      <c r="E23" s="68">
         <v>13</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="G23" s="68">
+      <c r="G23" s="67">
         <f t="shared" si="2"/>
         <v>1800000</v>
       </c>
-      <c r="H23" s="68">
+      <c r="H23" s="67">
         <f t="shared" si="1"/>
         <v>1368000</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="60">
+      <c r="B24" s="59">
         <v>4000</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="66">
         <v>0.25</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D24" s="69">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="70">
         <v>14</v>
       </c>
-      <c r="F24" s="61" t="s">
+      <c r="F24" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="G24" s="70">
+      <c r="G24" s="69">
         <f t="shared" si="2"/>
         <v>2400000</v>
       </c>
-      <c r="H24" s="70">
+      <c r="H24" s="69">
         <f t="shared" si="1"/>
         <v>1800000</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="60">
+      <c r="B25" s="59">
         <v>5000</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="66">
         <v>0.25</v>
       </c>
-      <c r="D25" s="68">
+      <c r="D25" s="67">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="E25" s="69">
+      <c r="E25" s="68">
         <v>15</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="G25" s="68">
+      <c r="G25" s="67">
         <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
-      <c r="H25" s="68">
+      <c r="H25" s="67">
         <f t="shared" si="1"/>
         <v>2250000</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="60">
+      <c r="B26" s="59">
         <v>6000</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="66">
         <v>0.25</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D26" s="69">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="70">
         <v>16</v>
       </c>
-      <c r="F26" s="61" t="s">
+      <c r="F26" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="70">
+      <c r="G26" s="69">
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
-      <c r="H26" s="70">
+      <c r="H26" s="69">
         <f t="shared" si="1"/>
         <v>2700000</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="60">
+      <c r="B27" s="59">
         <v>7000</v>
       </c>
-      <c r="C27" s="67">
+      <c r="C27" s="66">
         <v>0.25</v>
       </c>
-      <c r="D27" s="68">
+      <c r="D27" s="67">
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="E27" s="69">
+      <c r="E27" s="68">
         <v>17</v>
       </c>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="G27" s="68">
+      <c r="G27" s="67">
         <f t="shared" si="2"/>
         <v>4200000</v>
       </c>
-      <c r="H27" s="68">
+      <c r="H27" s="67">
         <f t="shared" si="1"/>
         <v>3150000</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="71">
+      <c r="B28" s="70">
         <v>999999</v>
       </c>
-      <c r="C28" s="67">
+      <c r="C28" s="66">
         <v>0.25</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="69">
         <f>1000*$B$4</f>
         <v>50000</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="60">
         <v>18</v>
       </c>
-      <c r="F28" s="61" t="s">
+      <c r="F28" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="G28" s="70">
+      <c r="G28" s="69">
         <f>1000*$B$4*12</f>
         <v>600000</v>
       </c>
-      <c r="H28" s="70">
+      <c r="H28" s="69">
         <f t="shared" si="1"/>
         <v>450000</v>
       </c>
@@ -9490,100 +9956,109 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:M3"/>
+    <sheetView topLeftCell="A54" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="5" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57" t="s">
+      <c r="E2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="N2" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="57" t="s">
+      <c r="N2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -9595,10 +10070,10 @@
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="73">
-        <v>1</v>
-      </c>
-      <c r="E3" s="74">
+      <c r="D3" s="72">
+        <v>1</v>
+      </c>
+      <c r="E3" s="73">
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -9610,16 +10085,16 @@
       <c r="J3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="74">
-        <v>1</v>
-      </c>
-      <c r="L3" s="75" t="s">
+      <c r="K3" s="73">
+        <v>1</v>
+      </c>
+      <c r="L3" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="73">
+      <c r="M3" s="72">
         <v>100</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="73">
         <v>1</v>
       </c>
       <c r="O3">
@@ -9637,10 +10112,10 @@
       <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="73">
-        <v>1</v>
-      </c>
-      <c r="E4" s="74">
+      <c r="D4" s="72">
+        <v>1</v>
+      </c>
+      <c r="E4" s="73">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -9652,19 +10127,19 @@
       <c r="J4" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="K4" s="74">
-        <v>1</v>
-      </c>
-      <c r="L4" s="75" t="s">
+      <c r="K4" s="73">
+        <v>1</v>
+      </c>
+      <c r="L4" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="73">
+      <c r="M4" s="72">
         <v>100</v>
       </c>
-      <c r="N4" s="74">
-        <v>1</v>
-      </c>
-      <c r="O4" s="87">
+      <c r="N4" s="73">
+        <v>1</v>
+      </c>
+      <c r="O4" s="86">
         <f t="shared" ref="O4:O7" si="0">K4*M4</f>
         <v>100</v>
       </c>
@@ -9674,16 +10149,16 @@
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="73">
-        <v>1</v>
-      </c>
-      <c r="E5" s="74">
-        <v>2</v>
+      <c r="D5" s="72">
+        <v>1</v>
+      </c>
+      <c r="E5" s="73">
+        <v>4</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>7</v>
@@ -9694,19 +10169,19 @@
       <c r="J5" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="K5" s="74">
-        <v>1</v>
-      </c>
-      <c r="L5" s="75" t="s">
+      <c r="K5" s="73">
+        <v>1</v>
+      </c>
+      <c r="L5" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="73">
+      <c r="M5" s="72">
         <v>400</v>
       </c>
-      <c r="N5" s="74">
-        <v>1</v>
-      </c>
-      <c r="O5" s="87">
+      <c r="N5" s="73">
+        <v>1</v>
+      </c>
+      <c r="O5" s="86">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
@@ -9716,16 +10191,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="73">
-        <v>1</v>
-      </c>
-      <c r="E6" s="74">
-        <v>4</v>
+      <c r="D6" s="72">
+        <v>1</v>
+      </c>
+      <c r="E6" s="73">
+        <v>2</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>117</v>
@@ -9736,19 +10211,19 @@
       <c r="J6" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="K6" s="74">
+      <c r="K6" s="73">
         <v>1000</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="74">
+      <c r="M6" s="73">
         <v>150</v>
       </c>
-      <c r="N6" s="74">
-        <v>1</v>
-      </c>
-      <c r="O6" s="87">
+      <c r="N6" s="73">
+        <v>1</v>
+      </c>
+      <c r="O6" s="86">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
@@ -9758,15 +10233,15 @@
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="73">
-        <v>1</v>
-      </c>
-      <c r="E7" s="74">
+        <v>37</v>
+      </c>
+      <c r="D7" s="72">
+        <v>1</v>
+      </c>
+      <c r="E7" s="73">
         <v>4</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -9778,19 +10253,19 @@
       <c r="J7" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="K7" s="73">
+      <c r="K7" s="72">
         <v>1</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M7" s="73">
+      <c r="M7" s="72">
         <v>120</v>
       </c>
-      <c r="N7" s="74">
-        <v>1</v>
-      </c>
-      <c r="O7" s="87">
+      <c r="N7" s="73">
+        <v>1</v>
+      </c>
+      <c r="O7" s="86">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -9800,40 +10275,40 @@
         <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="73">
-        <v>1</v>
-      </c>
-      <c r="E8" s="74">
+        <v>37</v>
+      </c>
+      <c r="D8" s="72">
+        <v>1</v>
+      </c>
+      <c r="E8" s="73">
         <v>8</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="74"/>
+      <c r="K8" s="73"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="74"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="73"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="73">
-        <v>1</v>
-      </c>
-      <c r="E9" s="74">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="D9" s="72">
+        <v>1</v>
+      </c>
+      <c r="E9" s="73">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9841,16 +10316,16 @@
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="73">
-        <v>1</v>
-      </c>
-      <c r="E10" s="74">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="D10" s="72">
+        <v>1</v>
+      </c>
+      <c r="E10" s="73">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9858,304 +10333,304 @@
         <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="73">
-        <v>1</v>
-      </c>
-      <c r="E11" s="74">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="D11" s="72">
+        <v>1</v>
+      </c>
+      <c r="E11" s="73">
+        <v>16</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="73"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="74"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="73"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="73">
-        <v>1</v>
-      </c>
-      <c r="E12" s="74">
-        <v>20</v>
+      <c r="D12" s="72">
+        <v>1</v>
+      </c>
+      <c r="E12" s="73">
+        <v>10</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="73"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="74"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="73"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="73">
-        <v>1</v>
-      </c>
-      <c r="E13" s="74">
+        <v>51</v>
+      </c>
+      <c r="D13" s="72">
+        <v>1</v>
+      </c>
+      <c r="E13" s="73">
         <v>20</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="74"/>
+      <c r="K13" s="73"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="74"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="73"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="73">
-        <v>1</v>
-      </c>
-      <c r="E14" s="74">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="D14" s="72">
+        <v>1</v>
+      </c>
+      <c r="E14" s="73">
+        <v>40</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="74"/>
+      <c r="K14" s="73"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="74"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="73"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="73">
-        <v>1</v>
-      </c>
-      <c r="E15" s="74">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="D15" s="72">
+        <v>1</v>
+      </c>
+      <c r="E15" s="73">
+        <v>10</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="74"/>
+      <c r="K15" s="73"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="74"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="73"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="73">
-        <v>1</v>
-      </c>
-      <c r="E16" s="74">
-        <v>78</v>
+        <v>51</v>
+      </c>
+      <c r="D16" s="72">
+        <v>1</v>
+      </c>
+      <c r="E16" s="73">
+        <v>20</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="74"/>
+      <c r="K16" s="73"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="74"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="73"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="73">
-        <v>1</v>
-      </c>
-      <c r="E17" s="74">
-        <v>17</v>
+        <v>51</v>
+      </c>
+      <c r="D17" s="72">
+        <v>1</v>
+      </c>
+      <c r="E17" s="73">
+        <v>40</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="73"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="74"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="73">
-        <v>1</v>
-      </c>
-      <c r="E18" s="74">
-        <v>34</v>
+        <v>65</v>
+      </c>
+      <c r="D18" s="72">
+        <v>1</v>
+      </c>
+      <c r="E18" s="73">
+        <v>20</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="73"/>
+      <c r="K18" s="72"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="74"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="73"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="73">
-        <v>1</v>
-      </c>
-      <c r="E19" s="74">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="D19" s="72">
+        <v>1</v>
+      </c>
+      <c r="E19" s="73">
+        <v>39</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="73"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="74"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="73">
-        <v>1</v>
-      </c>
-      <c r="E20" s="74">
-        <v>2</v>
+        <v>65</v>
+      </c>
+      <c r="D20" s="72">
+        <v>1</v>
+      </c>
+      <c r="E20" s="73">
+        <v>78</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="73"/>
+      <c r="K20" s="72"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="74"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="73"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="73">
-        <v>1</v>
-      </c>
-      <c r="E21" s="74">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="D21" s="72">
+        <v>1</v>
+      </c>
+      <c r="E21" s="73">
+        <v>39</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="73"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="74"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="73"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="73">
-        <v>1</v>
-      </c>
-      <c r="E22" s="74">
-        <v>4</v>
+        <v>71</v>
+      </c>
+      <c r="D22" s="72">
+        <v>1</v>
+      </c>
+      <c r="E22" s="73">
+        <v>78</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="73"/>
+      <c r="K22" s="72"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="74"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="73"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="73">
-        <v>1</v>
-      </c>
-      <c r="E23" s="74">
-        <v>4</v>
+        <v>71</v>
+      </c>
+      <c r="D23" s="72">
+        <v>1</v>
+      </c>
+      <c r="E23" s="73">
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10163,16 +10638,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="73">
-        <v>1</v>
-      </c>
-      <c r="E24" s="74">
-        <v>7</v>
+        <v>79</v>
+      </c>
+      <c r="D24" s="72">
+        <v>1</v>
+      </c>
+      <c r="E24" s="73">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10180,16 +10655,16 @@
         <v>16</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="73">
-        <v>1</v>
-      </c>
-      <c r="E25" s="74">
-        <v>9</v>
+        <v>79</v>
+      </c>
+      <c r="D25" s="72">
+        <v>1</v>
+      </c>
+      <c r="E25" s="73">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10197,16 +10672,16 @@
         <v>16</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="73">
-        <v>1</v>
-      </c>
-      <c r="E26" s="74">
-        <v>19</v>
+        <v>79</v>
+      </c>
+      <c r="D26" s="72">
+        <v>1</v>
+      </c>
+      <c r="E26" s="73">
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10214,16 +10689,16 @@
         <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="73">
-        <v>1</v>
-      </c>
-      <c r="E27" s="74">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="D27" s="72">
+        <v>1</v>
+      </c>
+      <c r="E27" s="73">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10231,16 +10706,16 @@
         <v>16</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="73">
-        <v>1</v>
-      </c>
-      <c r="E28" s="74">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="D28" s="72">
+        <v>1</v>
+      </c>
+      <c r="E28" s="73">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10248,16 +10723,16 @@
         <v>16</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="73">
-        <v>1</v>
-      </c>
-      <c r="E29" s="74">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="D29" s="72">
+        <v>1</v>
+      </c>
+      <c r="E29" s="73">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10265,16 +10740,16 @@
         <v>16</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="73">
-        <v>1</v>
-      </c>
-      <c r="E30" s="74">
         <v>37</v>
+      </c>
+      <c r="D30" s="72">
+        <v>1</v>
+      </c>
+      <c r="E30" s="73">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10282,16 +10757,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="73">
-        <v>1</v>
-      </c>
-      <c r="E31" s="74">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="D31" s="72">
+        <v>1</v>
+      </c>
+      <c r="E31" s="73">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10299,675 +10774,823 @@
         <v>16</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="73">
-        <v>1</v>
-      </c>
-      <c r="E32" s="74">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="D32" s="72">
+        <v>1</v>
+      </c>
+      <c r="E32" s="73">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="73">
-        <v>1</v>
-      </c>
-      <c r="E33" s="74">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="D33" s="72">
+        <v>1</v>
+      </c>
+      <c r="E33" s="73">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="73">
-        <v>5</v>
-      </c>
-      <c r="E34" s="74">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="D34" s="72">
+        <v>1</v>
+      </c>
+      <c r="E34" s="73">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="73">
-        <v>7</v>
-      </c>
-      <c r="E35" s="74">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="D35" s="72">
+        <v>1</v>
+      </c>
+      <c r="E35" s="73">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="73">
-        <v>5</v>
-      </c>
-      <c r="E36" s="74">
-        <v>69</v>
+        <v>51</v>
+      </c>
+      <c r="D36" s="72">
+        <v>1</v>
+      </c>
+      <c r="E36" s="73">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="73">
-        <v>7</v>
-      </c>
-      <c r="E37" s="74">
-        <v>96</v>
+        <v>51</v>
+      </c>
+      <c r="D37" s="72">
+        <v>1</v>
+      </c>
+      <c r="E37" s="73">
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="73">
-        <v>5</v>
-      </c>
-      <c r="E38" s="74">
-        <v>137</v>
+        <v>51</v>
+      </c>
+      <c r="D38" s="72">
+        <v>1</v>
+      </c>
+      <c r="E38" s="73">
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="73">
-        <v>7</v>
-      </c>
-      <c r="E39" s="74">
-        <v>192</v>
+        <v>51</v>
+      </c>
+      <c r="D39" s="72">
+        <v>1</v>
+      </c>
+      <c r="E39" s="73">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="73">
-        <v>5</v>
-      </c>
-      <c r="E40" s="74">
-        <v>163</v>
+        <v>51</v>
+      </c>
+      <c r="D40" s="72">
+        <v>1</v>
+      </c>
+      <c r="E40" s="73">
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="73">
-        <v>7</v>
-      </c>
-      <c r="E41" s="74">
-        <v>228</v>
+        <v>51</v>
+      </c>
+      <c r="D41" s="72">
+        <v>1</v>
+      </c>
+      <c r="E41" s="73">
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="73">
-        <v>5</v>
-      </c>
-      <c r="E42" s="74">
-        <v>326</v>
+        <v>65</v>
+      </c>
+      <c r="D42" s="72">
+        <v>1</v>
+      </c>
+      <c r="E42" s="73">
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="73">
-        <v>7</v>
-      </c>
-      <c r="E43" s="74">
-        <v>456</v>
+        <v>65</v>
+      </c>
+      <c r="D43" s="72">
+        <v>1</v>
+      </c>
+      <c r="E43" s="73">
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="73">
-        <v>1</v>
-      </c>
-      <c r="E44" s="74">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="D44" s="72">
+        <v>1</v>
+      </c>
+      <c r="E44" s="73">
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="73">
-        <v>3</v>
-      </c>
-      <c r="E45" s="74">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="D45" s="72">
+        <v>1</v>
+      </c>
+      <c r="E45" s="73">
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="73">
-        <v>5</v>
-      </c>
-      <c r="E46" s="74">
-        <v>4</v>
+        <v>51</v>
+      </c>
+      <c r="D46" s="72">
+        <v>1</v>
+      </c>
+      <c r="E46" s="73">
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="73">
-        <v>3</v>
-      </c>
-      <c r="E47" s="74">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="D47" s="72">
+        <v>1</v>
+      </c>
+      <c r="E47" s="73">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="73">
+        <v>53</v>
+      </c>
+      <c r="D48" s="72">
         <v>5</v>
       </c>
-      <c r="E48" s="74">
-        <v>8</v>
+      <c r="E48" s="73">
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4">
-        <v>0</v>
-      </c>
-      <c r="E49" s="74">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="72">
+        <v>7</v>
+      </c>
+      <c r="E49" s="73">
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4">
-        <v>0</v>
-      </c>
-      <c r="E50" s="74">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="72">
+        <v>5</v>
+      </c>
+      <c r="E50" s="73">
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-      <c r="E51" s="74">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="72">
+        <v>7</v>
+      </c>
+      <c r="E51" s="73">
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4">
-        <v>0</v>
-      </c>
-      <c r="E52" s="74">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="72">
+        <v>5</v>
+      </c>
+      <c r="E52" s="73">
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4">
-        <v>0</v>
-      </c>
-      <c r="E53" s="74">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="72">
+        <v>7</v>
+      </c>
+      <c r="E53" s="73">
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4">
-        <v>0</v>
-      </c>
-      <c r="E54" s="74">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="72">
+        <v>5</v>
+      </c>
+      <c r="E54" s="73">
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4">
-        <v>0</v>
-      </c>
-      <c r="E55" s="74">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="72">
+        <v>7</v>
+      </c>
+      <c r="E55" s="73">
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="72">
+        <v>5</v>
+      </c>
+      <c r="E56" s="73">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="72">
+        <v>7</v>
+      </c>
+      <c r="E57" s="73">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="72">
+        <v>1</v>
+      </c>
+      <c r="E58" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="72">
+        <v>3</v>
+      </c>
+      <c r="E59" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="72">
+        <v>5</v>
+      </c>
+      <c r="E60" s="73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="72">
+        <v>3</v>
+      </c>
+      <c r="E61" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="72">
+        <v>5</v>
+      </c>
+      <c r="E62" s="73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="124" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4">
-        <v>0</v>
-      </c>
-      <c r="E56" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="74"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="74"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="74"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="74"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="74"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="74"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="74"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="74"/>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="74"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="74"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="74"/>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="74"/>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="74"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="74"/>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="74"/>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="73">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="74"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="73"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="74"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="73"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="74"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="73"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="74"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="73"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="74"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="73"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="74"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="73"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="74"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="73"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="74"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="73"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="74"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="73"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="73"/>
-      <c r="E81" s="74"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="73"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="73"/>
-      <c r="E82" s="74"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="73"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="74"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="73"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="74"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="73"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
-      <c r="D85" s="73"/>
-      <c r="E85" s="74"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="73"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
-      <c r="D86" s="73"/>
-      <c r="E86" s="74"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="73"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
-      <c r="D87" s="73"/>
-      <c r="E87" s="74"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="73"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
-      <c r="D88" s="73"/>
-      <c r="E88" s="74"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="73"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="D89" s="73"/>
-      <c r="E89" s="74"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="73"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
-      <c r="D90" s="73"/>
-      <c r="E90" s="74"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="73"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
-      <c r="D91" s="73"/>
-      <c r="E91" s="74"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="73"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
-      <c r="D92" s="73"/>
-      <c r="E92" s="74"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="73"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
-      <c r="D93" s="73"/>
-      <c r="E93" s="74"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="73"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="73"/>
-      <c r="E94" s="74"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="73"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11889,37 +12512,37 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="107" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="107" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="107" customWidth="1"/>
-    <col min="4" max="4" width="15" style="107" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="107" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" style="107" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="107" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="107" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="107"/>
-    <col min="10" max="10" width="14.6640625" style="107" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="107" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="107" customWidth="1"/>
-    <col min="13" max="13" width="18.83203125" style="107" customWidth="1"/>
-    <col min="14" max="14" width="36.6640625" style="107" customWidth="1"/>
-    <col min="15" max="15" width="19.5" style="107" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="107" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" style="107" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" style="107" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" style="107" customWidth="1"/>
-    <col min="20" max="21" width="12.6640625" style="107"/>
-    <col min="22" max="22" width="15.1640625" style="107" customWidth="1"/>
-    <col min="23" max="23" width="21.33203125" style="107" customWidth="1"/>
-    <col min="24" max="24" width="23" style="107" customWidth="1"/>
-    <col min="25" max="25" width="16.5" style="107" customWidth="1"/>
-    <col min="26" max="16384" width="12.6640625" style="107"/>
+    <col min="1" max="1" width="17.1640625" style="106" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="106" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="106" customWidth="1"/>
+    <col min="4" max="4" width="15" style="106" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="106" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" style="106" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="106" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="106" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="106"/>
+    <col min="10" max="10" width="14.6640625" style="106" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="106" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="106" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" style="106" customWidth="1"/>
+    <col min="14" max="14" width="36.6640625" style="106" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="106" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="106" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="106" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" style="106" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" style="106" customWidth="1"/>
+    <col min="20" max="21" width="12.6640625" style="106"/>
+    <col min="22" max="22" width="15.1640625" style="106" customWidth="1"/>
+    <col min="23" max="23" width="21.33203125" style="106" customWidth="1"/>
+    <col min="24" max="24" width="23" style="106" customWidth="1"/>
+    <col min="25" max="25" width="16.5" style="106" customWidth="1"/>
+    <col min="26" max="16384" width="12.6640625" style="106"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="98.25" customHeight="1" x14ac:dyDescent="1.05">
@@ -11945,47 +12568,47 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:19" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="82" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="81">
+      <c r="A5" s="80">
         <f>C10+SUM(B19:B23)</f>
-        <v>48</v>
-      </c>
-      <c r="B5" s="82" t="str" cm="1">
+        <v>46</v>
+      </c>
+      <c r="B5" s="81" t="str" cm="1">
         <f t="array" ref="B5">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</f>
         <v>Femto</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="75">
         <f>VLOOKUP(Table_112[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_112[[#This Row],[Credits]]</f>
-        <v>2</v>
-      </c>
-      <c r="D5" s="77">
+        <v>4</v>
+      </c>
+      <c r="D5" s="76">
         <f>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</f>
         <v>30000</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="76">
         <f>C15</f>
         <v>2500</v>
       </c>
-      <c r="F5" s="84">
+      <c r="F5" s="83">
         <f>D5+E5</f>
         <v>32500</v>
       </c>
@@ -12063,55 +12686,55 @@
       <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="84">
         <v>12</v>
       </c>
       <c r="C10" s="12">
         <f>B10*'Cloud.gov Tiers'!B3</f>
         <v>36</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="39">
         <v>100</v>
       </c>
-      <c r="J10" s="85">
+      <c r="J10" s="84">
         <v>101</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="41">
         <f>ROUNDUP(Table_315[[#This Row],[Quantity (GB)]]/Table_315[[#This Row],[GB per credit]],0)</f>
         <v>2</v>
       </c>
-      <c r="M10" s="39" t="s">
+      <c r="M10" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="40" t="s">
+      <c r="O10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="Q10" s="39">
         <f>'AWS Service Prices'!K5*'AWS Service Prices'!M5</f>
         <v>400</v>
       </c>
-      <c r="R10" s="85">
+      <c r="R10" s="84">
         <v>401</v>
       </c>
-      <c r="S10" s="42">
+      <c r="S10" s="41">
         <f>ROUNDUP(Table_416[[#This Row],[Quantity (GB)]]/Table_416[[#This Row],[GB per credit]],0)</f>
         <v>2</v>
       </c>
@@ -12167,26 +12790,26 @@
       <c r="C14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="47" t="str">
+      <c r="E14" s="46" t="str">
         <f t="array" ref="E14:I43">AWSRdsServicePrices</f>
         <v>AWS RDS</v>
       </c>
-      <c r="F14" s="48" t="str">
+      <c r="F14" s="47" t="str">
         <v>micro-psql</v>
       </c>
-      <c r="G14" s="48" t="str">
+      <c r="G14" s="47" t="str">
         <v>db.t3.micro</v>
       </c>
-      <c r="H14" s="48">
-        <v>1</v>
-      </c>
-      <c r="I14" s="48">
-        <v>1</v>
-      </c>
-      <c r="J14" s="20">
+      <c r="H14" s="47">
+        <v>1</v>
+      </c>
+      <c r="I14" s="47">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19">
         <v>2</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K14" s="89">
         <f>I14*J14</f>
         <v>2</v>
       </c>
@@ -12213,111 +12836,111 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>250</v>
       </c>
-      <c r="B15" s="86">
+      <c r="B15" s="85">
         <v>10</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <f>A15*B15</f>
         <v>2500</v>
       </c>
-      <c r="E15" s="24" t="str">
+      <c r="E15" s="23" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F15" s="25" t="str">
+      <c r="F15" s="24" t="str">
         <v>micro-psql-redundant</v>
       </c>
-      <c r="G15" s="25" t="str">
+      <c r="G15" s="24" t="str">
         <v>db.t3.micro</v>
       </c>
-      <c r="H15" s="25">
-        <v>1</v>
-      </c>
-      <c r="I15" s="25">
+      <c r="H15" s="24">
+        <v>1</v>
+      </c>
+      <c r="I15" s="24">
         <v>2</v>
       </c>
-      <c r="J15" s="35">
-        <v>0</v>
-      </c>
-      <c r="K15" s="90">
+      <c r="J15" s="34">
+        <v>0</v>
+      </c>
+      <c r="K15" s="89">
         <f t="shared" ref="K15:K43" si="0">I15*J15</f>
         <v>0</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="40" t="s">
+      <c r="N15" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="40" t="s">
+      <c r="O15" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="40" t="s">
+      <c r="P15" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="40">
+      <c r="Q15" s="39">
         <f>'AWS Service Prices'!K4*'AWS Service Prices'!M4</f>
         <v>100</v>
       </c>
-      <c r="R15" s="85">
-        <v>0</v>
-      </c>
-      <c r="S15" s="42">
+      <c r="R15" s="84">
+        <v>0</v>
+      </c>
+      <c r="S15" s="41">
         <f>ROUNDUP(Table_618[[#This Row],[Quantity (GB)]]/Table_618[[#This Row],[GB per credit]],0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="47" t="str">
+      <c r="E16" s="46" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F16" s="48" t="str">
+      <c r="F16" s="47" t="str">
+        <v>micro-psql-replica</v>
+      </c>
+      <c r="G16" s="47" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H16" s="47">
+        <v>1</v>
+      </c>
+      <c r="I16" s="47">
+        <v>4</v>
+      </c>
+      <c r="J16" s="34">
+        <v>0</v>
+      </c>
+      <c r="K16" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="23" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F17" s="24" t="str">
         <v>small-psql</v>
       </c>
-      <c r="G16" s="48" t="str">
+      <c r="G17" s="24" t="str">
         <v>db.t3.small</v>
       </c>
-      <c r="H16" s="48">
-        <v>1</v>
-      </c>
-      <c r="I16" s="48">
+      <c r="H17" s="24">
+        <v>1</v>
+      </c>
+      <c r="I17" s="24">
         <v>2</v>
       </c>
-      <c r="J16" s="35">
-        <v>0</v>
-      </c>
-      <c r="K16" s="90">
+      <c r="J17" s="34">
+        <v>1</v>
+      </c>
+      <c r="K17" s="89">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F17" s="25" t="str">
-        <v>small-psql-redundant</v>
-      </c>
-      <c r="G17" s="25" t="str">
-        <v>db.t3.small</v>
-      </c>
-      <c r="H17" s="25">
-        <v>1</v>
-      </c>
-      <c r="I17" s="25">
-        <v>4</v>
-      </c>
-      <c r="J17" s="35">
-        <v>1</v>
-      </c>
-      <c r="K17" s="90">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>40</v>
@@ -12330,672 +12953,672 @@
       <c r="B18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="47" t="str">
+      <c r="E18" s="46" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F18" s="48" t="str">
-        <v>medium-psql</v>
-      </c>
-      <c r="G18" s="48" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H18" s="48">
-        <v>1</v>
-      </c>
-      <c r="I18" s="48">
+      <c r="F18" s="47" t="str">
+        <v>small-psql-redundant</v>
+      </c>
+      <c r="G18" s="47" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H18" s="47">
+        <v>1</v>
+      </c>
+      <c r="I18" s="47">
         <v>4</v>
       </c>
-      <c r="J18" s="35">
-        <v>0</v>
-      </c>
-      <c r="K18" s="90">
+      <c r="J18" s="34">
+        <v>0</v>
+      </c>
+      <c r="K18" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="46" t="s">
+      <c r="M18" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="46" t="s">
+      <c r="N18" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="46" t="s">
+      <c r="O18" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="P18" s="46" t="s">
+      <c r="P18" s="45" t="s">
         <v>26</v>
       </c>
       <c r="Q18" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="R18" s="46" t="s">
+      <c r="R18" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="S18" s="46" t="s">
+      <c r="S18" s="45" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="30">
         <f t="array" ref="B19">'Example worksheet'!$S$10</f>
         <v>2</v>
       </c>
-      <c r="E19" s="24" t="str">
+      <c r="E19" s="23" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F19" s="25" t="str">
-        <v>medium-psql-redundant</v>
-      </c>
-      <c r="G19" s="25" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H19" s="25">
-        <v>1</v>
-      </c>
-      <c r="I19" s="25">
+      <c r="F19" s="24" t="str">
+        <v>small-psql-replica</v>
+      </c>
+      <c r="G19" s="24" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H19" s="24">
+        <v>1</v>
+      </c>
+      <c r="I19" s="24">
         <v>8</v>
       </c>
-      <c r="J19" s="35">
-        <v>0</v>
-      </c>
-      <c r="K19" s="90">
+      <c r="J19" s="34">
+        <v>0</v>
+      </c>
+      <c r="K19" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="47" t="str" cm="1">
+      <c r="M19" s="46" t="str" cm="1">
         <f t="array" ref="M19:Q29">AwsOpensearchPrices</f>
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N19" s="48" t="str">
+      <c r="N19" s="47" t="str">
         <v>es-dev</v>
       </c>
-      <c r="O19" s="48" t="str">
+      <c r="O19" s="47" t="str">
         <v>t3.small.search</v>
       </c>
-      <c r="P19" s="48">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="48">
+      <c r="P19" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="47">
         <v>2</v>
       </c>
-      <c r="R19" s="32">
-        <v>0</v>
-      </c>
-      <c r="S19" s="21">
+      <c r="R19" s="31">
+        <v>0</v>
+      </c>
+      <c r="S19" s="20">
         <f>R19*Q19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="33">
         <f t="array" ref="B20">SUM(K14:K43) + 'Example worksheet'!$K$10</f>
+        <v>6</v>
+      </c>
+      <c r="E20" s="46" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F20" s="47" t="str">
+        <v>medium-psql</v>
+      </c>
+      <c r="G20" s="47" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H20" s="47">
+        <v>1</v>
+      </c>
+      <c r="I20" s="47">
+        <v>4</v>
+      </c>
+      <c r="J20" s="34">
+        <v>0</v>
+      </c>
+      <c r="K20" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="23" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N20" s="24" t="str">
+        <v>es-medium</v>
+      </c>
+      <c r="O20" s="24" t="str">
+        <v>c5.large.search</v>
+      </c>
+      <c r="P20" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>34</v>
+      </c>
+      <c r="R20" s="37">
+        <v>0</v>
+      </c>
+      <c r="S20" s="20">
+        <f t="shared" ref="S20:S29" si="1">R20*Q20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="30">
+        <f>'Example worksheet'!$S$15+SUM(S19:S29)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="23" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F21" s="24" t="str">
+        <v>medium-psql-redundant</v>
+      </c>
+      <c r="G21" s="24" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H21" s="24">
+        <v>1</v>
+      </c>
+      <c r="I21" s="24">
         <v>8</v>
       </c>
-      <c r="E20" s="47" t="str">
+      <c r="J21" s="34">
+        <v>0</v>
+      </c>
+      <c r="K21" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="46" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N21" s="47" t="str">
+        <v>es-medium-ha</v>
+      </c>
+      <c r="O21" s="47" t="str">
+        <v>c5.large.search</v>
+      </c>
+      <c r="P21" s="47">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="47">
+        <v>48</v>
+      </c>
+      <c r="R21" s="37">
+        <v>0</v>
+      </c>
+      <c r="S21" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="33">
+        <f>SUM(S33:S37)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="46" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F20" s="48" t="str">
-        <v>medium-gp-psql</v>
-      </c>
-      <c r="G20" s="48" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H20" s="48">
-        <v>1</v>
-      </c>
-      <c r="I20" s="48">
-        <v>10</v>
-      </c>
-      <c r="J20" s="35">
-        <v>0</v>
-      </c>
-      <c r="K20" s="90">
+      <c r="F22" s="47" t="str">
+        <v>medium-psql-replica</v>
+      </c>
+      <c r="G22" s="47" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H22" s="47">
+        <v>1</v>
+      </c>
+      <c r="I22" s="47">
+        <v>16</v>
+      </c>
+      <c r="J22" s="34">
+        <v>0</v>
+      </c>
+      <c r="K22" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="24" t="str">
+      <c r="M22" s="23" t="str">
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N20" s="25" t="str">
-        <v>es-medium</v>
-      </c>
-      <c r="O20" s="25" t="str">
-        <v>c5.large.search</v>
-      </c>
-      <c r="P20" s="25">
+      <c r="N22" s="24" t="str">
+        <v>es-large</v>
+      </c>
+      <c r="O22" s="24" t="str">
+        <v>c5.xlarge.search</v>
+      </c>
+      <c r="P22" s="24">
         <v>5</v>
       </c>
-      <c r="Q20" s="25">
-        <v>34</v>
-      </c>
-      <c r="R20" s="38">
-        <v>0</v>
-      </c>
-      <c r="S20" s="21">
-        <f t="shared" ref="S20:S29" si="1">R20*Q20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="31">
-        <f>'Example worksheet'!$S$15+SUM(S19:S29)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F21" s="25" t="str">
-        <v>medium-gp-psql-redundant</v>
-      </c>
-      <c r="G21" s="25" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H21" s="25">
-        <v>1</v>
-      </c>
-      <c r="I21" s="25">
-        <v>20</v>
-      </c>
-      <c r="J21" s="35">
-        <v>0</v>
-      </c>
-      <c r="K21" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="47" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N21" s="48" t="str">
-        <v>es-medium-ha</v>
-      </c>
-      <c r="O21" s="48" t="str">
-        <v>c5.large.search</v>
-      </c>
-      <c r="P21" s="48">
-        <v>7</v>
-      </c>
-      <c r="Q21" s="48">
-        <v>48</v>
-      </c>
-      <c r="R21" s="38">
-        <v>0</v>
-      </c>
-      <c r="S21" s="21">
+      <c r="Q22" s="24">
+        <v>69</v>
+      </c>
+      <c r="R22" s="37">
+        <v>0</v>
+      </c>
+      <c r="S22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="34">
-        <f>SUM(S33:S37)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="47" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F22" s="48" t="str">
-        <v>large-gp-psql</v>
-      </c>
-      <c r="G22" s="48" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H22" s="48">
-        <v>1</v>
-      </c>
-      <c r="I22" s="48">
-        <v>10</v>
-      </c>
-      <c r="J22" s="35">
-        <v>0</v>
-      </c>
-      <c r="K22" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="24" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N22" s="25" t="str">
-        <v>es-large</v>
-      </c>
-      <c r="O22" s="25" t="str">
-        <v>c5.xlarge.search</v>
-      </c>
-      <c r="P22" s="25">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="25">
-        <v>69</v>
-      </c>
-      <c r="R22" s="38">
-        <v>0</v>
-      </c>
-      <c r="S22" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="36">
         <f>SUM(Table_820[Credits])</f>
         <v>2</v>
       </c>
-      <c r="E23" s="24" t="str">
+      <c r="E23" s="23" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F23" s="25" t="str">
+      <c r="F23" s="24" t="str">
+        <v>medium-gp-psql</v>
+      </c>
+      <c r="G23" s="24" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H23" s="24">
+        <v>1</v>
+      </c>
+      <c r="I23" s="24">
+        <v>10</v>
+      </c>
+      <c r="J23" s="34">
+        <v>0</v>
+      </c>
+      <c r="K23" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="46" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N23" s="47" t="str">
+        <v>es-large-ha</v>
+      </c>
+      <c r="O23" s="47" t="str">
+        <v>c5.xlarge.search</v>
+      </c>
+      <c r="P23" s="47">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="47">
+        <v>96</v>
+      </c>
+      <c r="R23" s="37">
+        <v>0</v>
+      </c>
+      <c r="S23" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="46" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F24" s="47" t="str">
+        <v>medium-gp-psql-redundant</v>
+      </c>
+      <c r="G24" s="47" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H24" s="47">
+        <v>1</v>
+      </c>
+      <c r="I24" s="47">
+        <v>20</v>
+      </c>
+      <c r="J24" s="34">
+        <v>0</v>
+      </c>
+      <c r="K24" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="23" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N24" s="24" t="str">
+        <v>es-xlarge</v>
+      </c>
+      <c r="O24" s="24" t="str">
+        <v>c5.2xlarge.search</v>
+      </c>
+      <c r="P24" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="24">
+        <v>137</v>
+      </c>
+      <c r="R24" s="37">
+        <v>0</v>
+      </c>
+      <c r="S24" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="23" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F25" s="24" t="str">
+        <v>medium-gp-psql-replica</v>
+      </c>
+      <c r="G25" s="24" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H25" s="24">
+        <v>1</v>
+      </c>
+      <c r="I25" s="24">
+        <v>40</v>
+      </c>
+      <c r="J25" s="34">
+        <v>0</v>
+      </c>
+      <c r="K25" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="46" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N25" s="47" t="str">
+        <v>es-xlarge-ha</v>
+      </c>
+      <c r="O25" s="47" t="str">
+        <v>c5.2xlarge.search</v>
+      </c>
+      <c r="P25" s="47">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="47">
+        <v>192</v>
+      </c>
+      <c r="R25" s="37">
+        <v>0</v>
+      </c>
+      <c r="S25" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="46" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F26" s="47" t="str">
+        <v>large-gp-psql</v>
+      </c>
+      <c r="G26" s="47" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H26" s="47">
+        <v>1</v>
+      </c>
+      <c r="I26" s="47">
+        <v>10</v>
+      </c>
+      <c r="J26" s="34">
+        <v>0</v>
+      </c>
+      <c r="K26" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="23" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N26" s="24" t="str">
+        <v>es-2xlarge-gp</v>
+      </c>
+      <c r="O26" s="24" t="str">
+        <v>m5.2xlarge.search</v>
+      </c>
+      <c r="P26" s="24">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="24">
+        <v>163</v>
+      </c>
+      <c r="R26" s="37">
+        <v>0</v>
+      </c>
+      <c r="S26" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="23" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F27" s="24" t="str">
         <v>large-gp-psql-redundant</v>
       </c>
-      <c r="G23" s="25" t="str">
+      <c r="G27" s="24" t="str">
         <v>db.m5.large</v>
       </c>
-      <c r="H23" s="25">
-        <v>1</v>
-      </c>
-      <c r="I23" s="25">
+      <c r="H27" s="24">
+        <v>1</v>
+      </c>
+      <c r="I27" s="24">
         <v>20</v>
       </c>
-      <c r="J23" s="35">
-        <v>0</v>
-      </c>
-      <c r="K23" s="90">
+      <c r="J27" s="34">
+        <v>0</v>
+      </c>
+      <c r="K27" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="47" t="str">
+      <c r="M27" s="46" t="str">
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N23" s="48" t="str">
-        <v>es-large-ha</v>
-      </c>
-      <c r="O23" s="48" t="str">
-        <v>c5.xlarge.search</v>
-      </c>
-      <c r="P23" s="48">
+      <c r="N27" s="47" t="str">
+        <v>es-2xlarge-gp-ha</v>
+      </c>
+      <c r="O27" s="47" t="str">
+        <v>m5.2xlarge.search</v>
+      </c>
+      <c r="P27" s="47">
         <v>7</v>
       </c>
-      <c r="Q23" s="48">
-        <v>96</v>
-      </c>
-      <c r="R23" s="38">
-        <v>0</v>
-      </c>
-      <c r="S23" s="21">
+      <c r="Q27" s="47">
+        <v>228</v>
+      </c>
+      <c r="R27" s="37">
+        <v>0</v>
+      </c>
+      <c r="S27" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="47" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F24" s="48" t="str">
-        <v>xlarge-gp-psql</v>
-      </c>
-      <c r="G24" s="48" t="str">
-        <v>db.m5.xlarge</v>
-      </c>
-      <c r="H24" s="48">
-        <v>1</v>
-      </c>
-      <c r="I24" s="48">
-        <v>20</v>
-      </c>
-      <c r="J24" s="35">
-        <v>0</v>
-      </c>
-      <c r="K24" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="24" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N24" s="25" t="str">
-        <v>es-xlarge</v>
-      </c>
-      <c r="O24" s="25" t="str">
-        <v>c5.2xlarge.search</v>
-      </c>
-      <c r="P24" s="25">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="25">
-        <v>137</v>
-      </c>
-      <c r="R24" s="38">
-        <v>0</v>
-      </c>
-      <c r="S24" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F25" s="25" t="str">
-        <v>xlarge-gp-psql-redundant</v>
-      </c>
-      <c r="G25" s="25" t="str">
-        <v>db.m5.xlarge</v>
-      </c>
-      <c r="H25" s="25">
-        <v>1</v>
-      </c>
-      <c r="I25" s="25">
-        <v>39</v>
-      </c>
-      <c r="J25" s="35">
-        <v>0</v>
-      </c>
-      <c r="K25" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="47" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N25" s="48" t="str">
-        <v>es-xlarge-ha</v>
-      </c>
-      <c r="O25" s="48" t="str">
-        <v>c5.2xlarge.search</v>
-      </c>
-      <c r="P25" s="48">
-        <v>7</v>
-      </c>
-      <c r="Q25" s="48">
-        <v>192</v>
-      </c>
-      <c r="R25" s="38">
-        <v>0</v>
-      </c>
-      <c r="S25" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E26" s="47" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F26" s="48" t="str">
-        <v>2xlarge-gp-psql</v>
-      </c>
-      <c r="G26" s="48" t="str">
-        <v>db.m5.2xlarge</v>
-      </c>
-      <c r="H26" s="48">
-        <v>1</v>
-      </c>
-      <c r="I26" s="48">
-        <v>39</v>
-      </c>
-      <c r="J26" s="35">
-        <v>0</v>
-      </c>
-      <c r="K26" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="24" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N26" s="25" t="str">
-        <v>es-2xlarge-gp</v>
-      </c>
-      <c r="O26" s="25" t="str">
-        <v>m5.2xlarge.search</v>
-      </c>
-      <c r="P26" s="25">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="25">
-        <v>163</v>
-      </c>
-      <c r="R26" s="38">
-        <v>0</v>
-      </c>
-      <c r="S26" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F27" s="25" t="str">
-        <v>2xlarge-gp-psql-redundant</v>
-      </c>
-      <c r="G27" s="25" t="str">
-        <v>db.m5.2xlarge</v>
-      </c>
-      <c r="H27" s="25">
-        <v>1</v>
-      </c>
-      <c r="I27" s="25">
-        <v>78</v>
-      </c>
-      <c r="J27" s="35">
-        <v>0</v>
-      </c>
-      <c r="K27" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="47" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N27" s="48" t="str">
-        <v>es-2xlarge-gp-ha</v>
-      </c>
-      <c r="O27" s="48" t="str">
-        <v>m5.2xlarge.search</v>
-      </c>
-      <c r="P27" s="48">
-        <v>7</v>
-      </c>
-      <c r="Q27" s="48">
-        <v>228</v>
-      </c>
-      <c r="R27" s="38">
-        <v>0</v>
-      </c>
-      <c r="S27" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="47" t="str">
+      <c r="A28" s="46" t="str">
         <f t="array" ref="A28:B35">CloudGovNoCostServices</f>
         <v>External Domain</v>
       </c>
-      <c r="B28" s="21" t="str">
+      <c r="B28" s="20" t="str">
         <v>cdn-route</v>
       </c>
-      <c r="E28" s="47" t="str">
+      <c r="E28" s="46" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F28" s="48" t="str">
-        <v>xlarge-gp-psql-m6</v>
-      </c>
-      <c r="G28" s="48" t="str">
-        <v>db.m6g.xlarge</v>
-      </c>
-      <c r="H28" s="48">
-        <v>1</v>
-      </c>
-      <c r="I28" s="48">
-        <v>17</v>
-      </c>
-      <c r="J28" s="35">
-        <v>0</v>
-      </c>
-      <c r="K28" s="90">
+      <c r="F28" s="47" t="str">
+        <v>large-gp-psql-replica</v>
+      </c>
+      <c r="G28" s="47" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H28" s="47">
+        <v>1</v>
+      </c>
+      <c r="I28" s="47">
+        <v>40</v>
+      </c>
+      <c r="J28" s="34">
+        <v>0</v>
+      </c>
+      <c r="K28" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M28" s="24" t="str">
+      <c r="M28" s="23" t="str">
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N28" s="25" t="str">
+      <c r="N28" s="24" t="str">
         <v>es-4xlarge-gp</v>
       </c>
-      <c r="O28" s="25" t="str">
+      <c r="O28" s="24" t="str">
         <v>m5.4xlarge.search</v>
       </c>
-      <c r="P28" s="25">
+      <c r="P28" s="24">
         <v>5</v>
       </c>
-      <c r="Q28" s="25">
+      <c r="Q28" s="24">
         <v>326</v>
       </c>
-      <c r="R28" s="38">
-        <v>0</v>
-      </c>
-      <c r="S28" s="21">
+      <c r="R28" s="37">
+        <v>0</v>
+      </c>
+      <c r="S28" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="str">
+      <c r="A29" s="23" t="str">
         <v>External Domain</v>
       </c>
-      <c r="B29" s="27" t="str">
+      <c r="B29" s="26" t="str">
         <v>custom-domain</v>
       </c>
-      <c r="E29" s="24" t="str">
+      <c r="E29" s="23" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F29" s="25" t="str">
-        <v>xlarge-gp-psql-m6-redundant</v>
-      </c>
-      <c r="G29" s="25" t="str">
-        <v>db.m6g.xlarge</v>
-      </c>
-      <c r="H29" s="25">
-        <v>1</v>
-      </c>
-      <c r="I29" s="25">
-        <v>34</v>
-      </c>
-      <c r="J29" s="35">
-        <v>0</v>
-      </c>
-      <c r="K29" s="90">
+      <c r="F29" s="24" t="str">
+        <v>xlarge-gp-psql</v>
+      </c>
+      <c r="G29" s="24" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H29" s="24">
+        <v>1</v>
+      </c>
+      <c r="I29" s="24">
+        <v>20</v>
+      </c>
+      <c r="J29" s="34">
+        <v>0</v>
+      </c>
+      <c r="K29" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="39" t="str">
+      <c r="M29" s="38" t="str">
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N29" s="40" t="str">
+      <c r="N29" s="39" t="str">
         <v>es-4xlarge-gp-ha</v>
       </c>
-      <c r="O29" s="40" t="str">
+      <c r="O29" s="39" t="str">
         <v>m5.4xlarge.search</v>
       </c>
-      <c r="P29" s="40">
+      <c r="P29" s="39">
         <v>7</v>
       </c>
-      <c r="Q29" s="40">
+      <c r="Q29" s="39">
         <v>456</v>
       </c>
-      <c r="R29" s="41">
-        <v>0</v>
-      </c>
-      <c r="S29" s="91">
+      <c r="R29" s="40">
+        <v>0</v>
+      </c>
+      <c r="S29" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T29" s="92"/>
+      <c r="T29" s="91"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="47" t="str">
+      <c r="A30" s="46" t="str">
         <v>External Domain</v>
       </c>
-      <c r="B30" s="21" t="str">
+      <c r="B30" s="20" t="str">
         <v>domain</v>
       </c>
-      <c r="E30" s="47" t="str">
+      <c r="E30" s="46" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F30" s="48" t="str">
-        <v>micro-mysql</v>
-      </c>
-      <c r="G30" s="48" t="str">
-        <v>db.t3.micro</v>
-      </c>
-      <c r="H30" s="48">
-        <v>1</v>
-      </c>
-      <c r="I30" s="48">
-        <v>1</v>
-      </c>
-      <c r="J30" s="43">
-        <v>0</v>
-      </c>
-      <c r="K30" s="90">
+      <c r="F30" s="47" t="str">
+        <v>xlarge-gp-psql-redundant</v>
+      </c>
+      <c r="G30" s="47" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H30" s="47">
+        <v>1</v>
+      </c>
+      <c r="I30" s="47">
+        <v>39</v>
+      </c>
+      <c r="J30" s="42">
+        <v>0</v>
+      </c>
+      <c r="K30" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="29"/>
+      <c r="Y30" s="28"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="24" t="str">
+      <c r="A31" s="23" t="str">
         <v>External Domain</v>
       </c>
-      <c r="B31" s="27" t="str">
+      <c r="B31" s="26" t="str">
         <v>domain-with-cdn</v>
       </c>
-      <c r="E31" s="24" t="str">
+      <c r="E31" s="23" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F31" s="25" t="str">
-        <v>micro-mysql-redundant</v>
-      </c>
-      <c r="G31" s="25" t="str">
-        <v>db.t3.micro</v>
-      </c>
-      <c r="H31" s="25">
-        <v>1</v>
-      </c>
-      <c r="I31" s="25">
-        <v>2</v>
-      </c>
-      <c r="J31" s="35">
-        <v>0</v>
-      </c>
-      <c r="K31" s="90">
+      <c r="F31" s="24" t="str">
+        <v>xlarge-gp-psql-replica</v>
+      </c>
+      <c r="G31" s="24" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H31" s="24">
+        <v>1</v>
+      </c>
+      <c r="I31" s="24">
+        <v>78</v>
+      </c>
+      <c r="J31" s="34">
+        <v>0</v>
+      </c>
+      <c r="K31" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13004,362 +13627,362 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="47" t="str">
+      <c r="A32" s="46" t="str">
         <v>UAA Service Account</v>
       </c>
-      <c r="B32" s="21" t="str">
+      <c r="B32" s="20" t="str">
         <v>oauth-client</v>
       </c>
-      <c r="E32" s="47" t="str">
+      <c r="E32" s="46" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F32" s="48" t="str">
-        <v>small-mysql</v>
-      </c>
-      <c r="G32" s="48" t="str">
-        <v>db.t3.small</v>
-      </c>
-      <c r="H32" s="48">
-        <v>1</v>
-      </c>
-      <c r="I32" s="48">
-        <v>2</v>
-      </c>
-      <c r="J32" s="35">
-        <v>0</v>
-      </c>
-      <c r="K32" s="90">
+      <c r="F32" s="47" t="str">
+        <v>2xlarge-gp-psql</v>
+      </c>
+      <c r="G32" s="47" t="str">
+        <v>db.m5.2xlarge</v>
+      </c>
+      <c r="H32" s="47">
+        <v>1</v>
+      </c>
+      <c r="I32" s="47">
+        <v>39</v>
+      </c>
+      <c r="J32" s="34">
+        <v>0</v>
+      </c>
+      <c r="K32" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="46" t="s">
+      <c r="M32" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N32" s="46" t="s">
+      <c r="N32" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="46" t="s">
+      <c r="O32" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="P32" s="46" t="s">
+      <c r="P32" s="45" t="s">
         <v>26</v>
       </c>
       <c r="Q32" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="R32" s="46" t="s">
+      <c r="R32" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="S32" s="46" t="s">
+      <c r="S32" s="45" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="24" t="str">
+      <c r="A33" s="23" t="str">
         <v>UAA Service Account</v>
       </c>
-      <c r="B33" s="27" t="str">
+      <c r="B33" s="26" t="str">
         <v>space-auditor</v>
       </c>
-      <c r="E33" s="24" t="str">
+      <c r="E33" s="23" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F33" s="25" t="str">
-        <v>small-mysql-redundant</v>
-      </c>
-      <c r="G33" s="25" t="str">
-        <v>db.t3.small</v>
-      </c>
-      <c r="H33" s="25">
-        <v>1</v>
-      </c>
-      <c r="I33" s="25">
-        <v>4</v>
-      </c>
-      <c r="J33" s="35">
-        <v>0</v>
-      </c>
-      <c r="K33" s="90">
+      <c r="F33" s="24" t="str">
+        <v>2xlarge-gp-psql-redundant</v>
+      </c>
+      <c r="G33" s="24" t="str">
+        <v>db.m5.2xlarge</v>
+      </c>
+      <c r="H33" s="24">
+        <v>1</v>
+      </c>
+      <c r="I33" s="24">
+        <v>78</v>
+      </c>
+      <c r="J33" s="34">
+        <v>0</v>
+      </c>
+      <c r="K33" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="47" t="str" cm="1">
+      <c r="M33" s="46" t="str" cm="1">
         <f t="array" ref="M33:Q37">AwsElasticCachePrices</f>
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N33" s="48" t="str">
+      <c r="N33" s="47" t="str">
         <v>redis-dev</v>
       </c>
-      <c r="O33" s="48" t="str">
+      <c r="O33" s="47" t="str">
         <v>cache.t3.micro</v>
       </c>
-      <c r="P33" s="48">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="88">
-        <v>1</v>
-      </c>
-      <c r="R33" s="50">
-        <v>0</v>
-      </c>
-      <c r="S33" s="21">
+      <c r="P33" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="87">
+        <v>1</v>
+      </c>
+      <c r="R33" s="49">
+        <v>0</v>
+      </c>
+      <c r="S33" s="20">
         <f>R33*Q33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="47" t="str">
+      <c r="A34" s="46" t="str">
         <v>UAA Service Account</v>
       </c>
-      <c r="B34" s="21" t="str">
+      <c r="B34" s="20" t="str">
         <v>space-deployer</v>
       </c>
-      <c r="E34" s="47" t="str">
+      <c r="E34" s="46" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F34" s="48" t="str">
-        <v>medium-mysql</v>
-      </c>
-      <c r="G34" s="48" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H34" s="48">
-        <v>1</v>
-      </c>
-      <c r="I34" s="48">
+      <c r="F34" s="47" t="str">
+        <v>2xlarge-gp-psql-replica</v>
+      </c>
+      <c r="G34" s="47" t="str">
+        <v>db.m5.2xlarge</v>
+      </c>
+      <c r="H34" s="47">
+        <v>1</v>
+      </c>
+      <c r="I34" s="47">
+        <v>156</v>
+      </c>
+      <c r="J34" s="34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="23" t="str">
+        <v>AWS ElastiCache</v>
+      </c>
+      <c r="N34" s="24" t="str">
+        <v>redis-3node</v>
+      </c>
+      <c r="O34" s="24" t="str">
+        <v>cache.t3.micro</v>
+      </c>
+      <c r="P34" s="24">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="87">
+        <v>2</v>
+      </c>
+      <c r="R34" s="37">
+        <v>0</v>
+      </c>
+      <c r="S34" s="20">
+        <f t="shared" ref="S34:S37" si="2">R34*Q34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="23" t="str">
+        <v>Autoscaler</v>
+      </c>
+      <c r="B35" s="26" t="str">
+        <v>autoscaler-free-plan</v>
+      </c>
+      <c r="E35" s="23" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F35" s="24" t="str">
+        <v>xlarge-gp-psql-m6</v>
+      </c>
+      <c r="G35" s="24" t="str">
+        <v>db.m6g.xlarge</v>
+      </c>
+      <c r="H35" s="24">
+        <v>1</v>
+      </c>
+      <c r="I35" s="24">
+        <v>17</v>
+      </c>
+      <c r="J35" s="34">
+        <v>0</v>
+      </c>
+      <c r="K35" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="46" t="str">
+        <v>AWS ElastiCache</v>
+      </c>
+      <c r="N35" s="47" t="str">
+        <v>redis-5node</v>
+      </c>
+      <c r="O35" s="47" t="str">
+        <v>cache.t3.micro</v>
+      </c>
+      <c r="P35" s="47">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="87">
         <v>4</v>
       </c>
-      <c r="J34" s="35">
-        <v>0</v>
-      </c>
-      <c r="K34" s="90">
+      <c r="R35" s="37">
+        <v>0</v>
+      </c>
+      <c r="S35" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="43"/>
+      <c r="E36" s="46" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F36" s="47" t="str">
+        <v>xlarge-gp-psql-m6-redundant</v>
+      </c>
+      <c r="G36" s="47" t="str">
+        <v>db.m6g.xlarge</v>
+      </c>
+      <c r="H36" s="47">
+        <v>1</v>
+      </c>
+      <c r="I36" s="47">
+        <v>34</v>
+      </c>
+      <c r="J36" s="34">
+        <v>0</v>
+      </c>
+      <c r="K36" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M34" s="24" t="str">
+      <c r="M36" s="23" t="str">
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N34" s="25" t="str">
-        <v>redis-3node</v>
-      </c>
-      <c r="O34" s="25" t="str">
-        <v>cache.t3.micro</v>
-      </c>
-      <c r="P34" s="25">
+      <c r="N36" s="24" t="str">
+        <v>redis-3node-large</v>
+      </c>
+      <c r="O36" s="24" t="str">
+        <v>cache.t3.small</v>
+      </c>
+      <c r="P36" s="24">
         <v>3</v>
       </c>
-      <c r="Q34" s="88">
+      <c r="Q36" s="87">
+        <v>5</v>
+      </c>
+      <c r="R36" s="37">
+        <v>0</v>
+      </c>
+      <c r="S36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="23" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F37" s="24" t="str">
+        <v>xlarge-gp-psql-m6-replica</v>
+      </c>
+      <c r="G37" s="24" t="str">
+        <v>db.m6g.xlarge</v>
+      </c>
+      <c r="H37" s="24">
+        <v>1</v>
+      </c>
+      <c r="I37" s="24">
+        <v>68</v>
+      </c>
+      <c r="J37" s="34">
+        <v>0</v>
+      </c>
+      <c r="K37" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="38" t="str">
+        <v>AWS ElastiCache</v>
+      </c>
+      <c r="N37" s="39" t="str">
+        <v>redis-5node-large</v>
+      </c>
+      <c r="O37" s="39" t="str">
+        <v>cache.t3.small</v>
+      </c>
+      <c r="P37" s="39">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="88">
+        <v>8</v>
+      </c>
+      <c r="R37" s="44">
+        <v>0</v>
+      </c>
+      <c r="S37" s="90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="46" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F38" s="47" t="str">
+        <v>micro-mysql</v>
+      </c>
+      <c r="G38" s="47" t="str">
+        <v>db.t3.micro</v>
+      </c>
+      <c r="H38" s="47">
+        <v>1</v>
+      </c>
+      <c r="I38" s="47">
+        <v>1</v>
+      </c>
+      <c r="J38" s="34">
+        <v>0</v>
+      </c>
+      <c r="K38" s="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="101" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="23" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F39" s="24" t="str">
+        <v>micro-mysql-redundant</v>
+      </c>
+      <c r="G39" s="24" t="str">
+        <v>db.t3.micro</v>
+      </c>
+      <c r="H39" s="24">
+        <v>1</v>
+      </c>
+      <c r="I39" s="24">
         <v>2</v>
       </c>
-      <c r="R34" s="38">
-        <v>0</v>
-      </c>
-      <c r="S34" s="21">
-        <f t="shared" ref="S34:S37" si="2">R34*Q34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="24" t="str">
-        <v>Autoscaler</v>
-      </c>
-      <c r="B35" s="27" t="str">
-        <v>autoscaler-free-plan</v>
-      </c>
-      <c r="E35" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F35" s="25" t="str">
-        <v>medium-mysql-redundant</v>
-      </c>
-      <c r="G35" s="25" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H35" s="25">
-        <v>1</v>
-      </c>
-      <c r="I35" s="25">
-        <v>7</v>
-      </c>
-      <c r="J35" s="35">
-        <v>0</v>
-      </c>
-      <c r="K35" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="47" t="str">
-        <v>AWS ElastiCache</v>
-      </c>
-      <c r="N35" s="48" t="str">
-        <v>redis-5node</v>
-      </c>
-      <c r="O35" s="48" t="str">
-        <v>cache.t3.micro</v>
-      </c>
-      <c r="P35" s="48">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="88">
-        <v>4</v>
-      </c>
-      <c r="R35" s="38">
-        <v>0</v>
-      </c>
-      <c r="S35" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="44"/>
-      <c r="E36" s="47" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F36" s="48" t="str">
-        <v>medium-gp-mysql</v>
-      </c>
-      <c r="G36" s="48" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H36" s="48">
-        <v>1</v>
-      </c>
-      <c r="I36" s="48">
-        <v>9</v>
-      </c>
-      <c r="J36" s="35">
-        <v>0</v>
-      </c>
-      <c r="K36" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="24" t="str">
-        <v>AWS ElastiCache</v>
-      </c>
-      <c r="N36" s="25" t="str">
-        <v>redis-3node-large</v>
-      </c>
-      <c r="O36" s="25" t="str">
-        <v>cache.t3.small</v>
-      </c>
-      <c r="P36" s="25">
-        <v>3</v>
-      </c>
-      <c r="Q36" s="88">
-        <v>5</v>
-      </c>
-      <c r="R36" s="38">
-        <v>0</v>
-      </c>
-      <c r="S36" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F37" s="25" t="str">
-        <v>medium-gp-mysql-redundant</v>
-      </c>
-      <c r="G37" s="25" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H37" s="25">
-        <v>1</v>
-      </c>
-      <c r="I37" s="25">
-        <v>19</v>
-      </c>
-      <c r="J37" s="35">
-        <v>0</v>
-      </c>
-      <c r="K37" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="39" t="str">
-        <v>AWS ElastiCache</v>
-      </c>
-      <c r="N37" s="40" t="str">
-        <v>redis-5node-large</v>
-      </c>
-      <c r="O37" s="40" t="str">
-        <v>cache.t3.small</v>
-      </c>
-      <c r="P37" s="40">
-        <v>5</v>
-      </c>
-      <c r="Q37" s="89">
-        <v>8</v>
-      </c>
-      <c r="R37" s="45">
-        <v>0</v>
-      </c>
-      <c r="S37" s="91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="47" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F38" s="48" t="str">
-        <v>large-gp-mysql</v>
-      </c>
-      <c r="G38" s="48" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H38" s="48">
-        <v>1</v>
-      </c>
-      <c r="I38" s="48">
-        <v>9</v>
-      </c>
-      <c r="J38" s="35">
-        <v>0</v>
-      </c>
-      <c r="K38" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="102" t="s">
-        <v>183</v>
-      </c>
-      <c r="B39" s="103" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="24" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F39" s="25" t="str">
-        <v>large-gp-mysql-redundant</v>
-      </c>
-      <c r="G39" s="25" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H39" s="25">
-        <v>1</v>
-      </c>
-      <c r="I39" s="25">
-        <v>19</v>
-      </c>
-      <c r="J39" s="35">
-        <v>0</v>
-      </c>
-      <c r="K39" s="90">
+      <c r="J39" s="34">
+        <v>0</v>
+      </c>
+      <c r="K39" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13368,237 +13991,237 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="105">
-        <v>1</v>
-      </c>
-      <c r="B40" s="101">
+      <c r="A40" s="104">
+        <v>1</v>
+      </c>
+      <c r="B40" s="100">
         <v>45748</v>
       </c>
-      <c r="C40" s="100" t="s">
+      <c r="C40" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="47" t="str">
+      <c r="E40" s="46" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F40" s="48" t="str">
-        <v>xlarge-gp-mysql</v>
-      </c>
-      <c r="G40" s="48" t="str">
-        <v>db.m5.xlarge</v>
-      </c>
-      <c r="H40" s="48">
-        <v>1</v>
-      </c>
-      <c r="I40" s="48">
-        <v>19</v>
-      </c>
-      <c r="J40" s="35">
-        <v>0</v>
-      </c>
-      <c r="K40" s="90">
+      <c r="F40" s="47" t="str">
+        <v>micro-mysql-replica</v>
+      </c>
+      <c r="G40" s="47" t="str">
+        <v>db.t3.micro</v>
+      </c>
+      <c r="H40" s="47">
+        <v>1</v>
+      </c>
+      <c r="I40" s="47">
+        <v>4</v>
+      </c>
+      <c r="J40" s="34">
+        <v>0</v>
+      </c>
+      <c r="K40" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M40" s="46" t="s">
+      <c r="M40" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N40" s="46" t="s">
+      <c r="N40" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="O40" s="46" t="s">
+      <c r="O40" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="P40" s="46" t="s">
+      <c r="P40" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="Q40" s="46" t="s">
+      <c r="Q40" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="R40" s="46" t="s">
+      <c r="R40" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="S40" s="95" t="s">
+      <c r="S40" s="94" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="105">
+      <c r="A41" s="104">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B41" s="101">
+      <c r="B41" s="100">
         <v>45749</v>
       </c>
-      <c r="C41" s="100" t="s">
+      <c r="C41" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="E41" s="24" t="str">
+      <c r="E41" s="23" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F41" s="25" t="str">
-        <v>xlarge-gp-mysql-redundant</v>
-      </c>
-      <c r="G41" s="25" t="str">
-        <v>db.m5.xlarge</v>
-      </c>
-      <c r="H41" s="25">
-        <v>1</v>
-      </c>
-      <c r="I41" s="25">
-        <v>37</v>
-      </c>
-      <c r="J41" s="35">
-        <v>0</v>
-      </c>
-      <c r="K41" s="90">
+      <c r="F41" s="24" t="str">
+        <v>small-mysql</v>
+      </c>
+      <c r="G41" s="24" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H41" s="24">
+        <v>1</v>
+      </c>
+      <c r="I41" s="24">
+        <v>2</v>
+      </c>
+      <c r="J41" s="34">
+        <v>0</v>
+      </c>
+      <c r="K41" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M41" s="47" t="s">
+      <c r="M41" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="N41" s="48" t="s">
+      <c r="N41" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="O41" s="49" t="s">
+      <c r="O41" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="P41" s="48" t="s">
+      <c r="P41" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="Q41" s="88">
+      <c r="Q41" s="87">
         <f>'AWS Service Prices'!K6*'AWS Service Prices'!M6</f>
         <v>150000</v>
       </c>
-      <c r="R41" s="93">
+      <c r="R41" s="92">
         <v>1000</v>
       </c>
-      <c r="S41" s="97">
+      <c r="S41" s="96">
         <f>ROUNDUP(Table_820[[#This Row],[Quantity]]/Table_820[[#This Row],[Units/Credit]],0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="105"/>
-      <c r="C42" s="100" t="s">
+      <c r="A42" s="104"/>
+      <c r="C42" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="E42" s="47" t="str">
+      <c r="E42" s="46" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F42" s="48" t="str">
-        <v>medium-oracle-se2</v>
-      </c>
-      <c r="G42" s="48" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="H42" s="48">
-        <v>1</v>
-      </c>
-      <c r="I42" s="48">
-        <v>7</v>
-      </c>
-      <c r="J42" s="35">
-        <v>0</v>
-      </c>
-      <c r="K42" s="90">
+      <c r="F42" s="47" t="str">
+        <v>small-mysql-redundant</v>
+      </c>
+      <c r="G42" s="47" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H42" s="47">
+        <v>1</v>
+      </c>
+      <c r="I42" s="47">
+        <v>4</v>
+      </c>
+      <c r="J42" s="34">
+        <v>0</v>
+      </c>
+      <c r="K42" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M42" s="54" t="s">
+      <c r="M42" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="N42" s="55" t="s">
+      <c r="N42" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="O42" s="53" t="s">
+      <c r="O42" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="P42" s="55" t="s">
+      <c r="P42" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="Q42" s="88">
+      <c r="Q42" s="87">
         <f>'AWS Service Prices'!K7*'AWS Service Prices'!M7</f>
         <v>120</v>
       </c>
-      <c r="R42" s="94">
+      <c r="R42" s="93">
         <v>2</v>
       </c>
-      <c r="S42" s="96">
+      <c r="S42" s="95">
         <f>ROUNDUP(Table_820[[#This Row],[Quantity]]/Table_820[[#This Row],[Units/Credit]],0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="105"/>
-      <c r="C43" s="100" t="s">
+      <c r="A43" s="104"/>
+      <c r="C43" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="54" t="str">
+      <c r="E43" s="53" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F43" s="55" t="str">
-        <v>large-gp-sqlserver-se</v>
-      </c>
-      <c r="G43" s="55" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="H43" s="55">
-        <v>1</v>
-      </c>
-      <c r="I43" s="55">
-        <v>46</v>
-      </c>
-      <c r="J43" s="56">
-        <v>0</v>
-      </c>
-      <c r="K43" s="99">
+      <c r="F43" s="54" t="str">
+        <v>small-mysql-replica</v>
+      </c>
+      <c r="G43" s="54" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H43" s="54">
+        <v>1</v>
+      </c>
+      <c r="I43" s="54">
+        <v>8</v>
+      </c>
+      <c r="J43" s="55">
+        <v>0</v>
+      </c>
+      <c r="K43" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="98"/>
+      <c r="Q43" s="97"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="105">
+      <c r="A44" s="104">
         <v>1.2</v>
       </c>
-      <c r="B44" s="101">
+      <c r="B44" s="100">
         <v>45756</v>
       </c>
-      <c r="C44" s="106" t="s">
+      <c r="C44" s="105" t="s">
         <v>190</v>
       </c>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="105">
+      <c r="A45" s="104">
         <v>1.3</v>
       </c>
-      <c r="B45" s="101">
+      <c r="B45" s="100">
         <v>45757</v>
       </c>
-      <c r="C45" s="106" t="s">
+      <c r="C45" s="105" t="s">
         <v>191</v>
       </c>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="105"/>
+      <c r="A46" s="104"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="105"/>
+      <c r="A47" s="104"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="105"/>
+      <c r="A48" s="104"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="105"/>
+      <c r="A49" s="104"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="105"/>
+      <c r="A50" s="104"/>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14612,72 +15235,72 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="B10 J14:J43 B15">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="14" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>$J$10&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F43">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>$J14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>$R10&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>$R15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N29">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>$R19&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33:N37">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>$R33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:N42">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>$R41&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19:R29">
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R33:R37">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41:R42">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
